--- a/dataset/lg/narasimha.xlsx
+++ b/dataset/lg/narasimha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +434,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>padyam</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>padyam</t>
+          <t>class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>satakam</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>satakam</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>lg</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
         <is>
           <t>శ్రీ మనోహర! సురార్చిత సింధుగంభీర! - భక్తవత్సల! కోటిభానుతేజ!
 కంజనేత్ర! హిరణ్యకశ్యపాంతక! శూర! - సాధురక్షణ! శంఖచక్ర హస్త!
@@ -477,63 +474,57 @@
 పక్షివాహన! నీలభ్రమరకుంతలజాల! - పల్లవారుణపాదపద్మయుగళ</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('మ', '|'), ('నో', 'U'), ('హ', '|'), ('ర', '|'), ('సు', '|'), ('రా', 'U'), ('ర్చి', '|'), ('త', '|'), ('సిం', 'U'), ('ధు', '|'), ('గం', 'U'), ('భీ', 'U'), ('ర', '|'), ('భ', 'U'), ('క్త', '|'), ('వ', 'U'), ('త్స', '|'), ('ల', '|'), ('కో', 'U'), ('టి', '|'), ('భా', 'U'), ('ను', '|'), ('తే', 'U'), ('జ', '|'), ('కం', 'U'), ('జ', '|'), ('నే', 'U'), ('త్ర', '|'), ('హి', '|'), ('ర', 'U'), ('ణ్య', '|'), ('క', 'U'), ('శ్య', '|'), ('పాం', 'U'), ('త', '|'), ('క', '|'), ('శూ', 'U'), ('ర', '|'), ('సా', 'U'), ('ధు', '|'), ('ర', 'U'), ('క్ష', '|'), ('ణ', '|'), ('శం', 'U'), ('ఖ', '|'), ('చ', 'U'), ('క్ర', '|'), ('హ', 'U'), ('స్త', 'U'), ('ప్ర', 'U'), ('హ్లా', 'U'), ('ద', '|'), ('వ', '|'), ('ర', '|'), ('ద', '|'), ('పా', 'U'), ('ప', 'U'), ('ధ్వం', 'U'), ('స', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ', 'U'), ('క్షీ', 'U'), ('ర', '|'), ('సా', 'U'), ('గ', '|'), ('ర', '|'), ('శ', '|'), ('య', '|'), ('న', '|'), ('కృ', 'U'), ('ష్ణ', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('ప', 'U'), ('క్షి', '|'), ('వా', 'U'), ('హ', '|'), ('న', '|'), ('నీ', 'U'), ('ల', 'U'), ('భ్ర', '|'), ('మ', '|'), ('ర', '|'), ('కుం', 'U'), ('త', '|'), ('ల', '|'), ('జా', 'U'), ('ల', '|'), ('ప', 'U'), ('ల్ల', '|'), ('వా', 'U'), ('రు', '|'), ('ణ', '|'), ('పా', 'U'), ('ద', '|'), ('ప', 'U'), ('ద్మ', '|'), ('యు', '|'), ('గ', '|'), ('ళ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>చారుశ్రీచందనాగరుచర్చితాంగ! - కుందకుట్మలదంత! వైకుంఠధామ!
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>చారుశ్రీచందనాగరుచర్చితాంగ! - కుందకుట్మలదంత! వైకుంఠధామ!
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>[('చా', 'U'), ('రు', 'U'), ('శ్రీ', 'U'), ('చం', 'U'), ('ద', '|'), ('నా', 'U'), ('గ', '|'), ('రు', '|'), ('చ', 'U'), ('ర్చి', '|'), ('తాం', 'U'), ('గ', '|'), ('కుం', 'U'), ('ద', '|'), ('కు', 'U'), ('ట్మ', '|'), ('ల', '|'), ('దం', 'U'), ('త', '|'), ('వై', 'U'), ('కుం', 'U'), ('ఠ', '|'), ('ధా', 'U'), ('మ', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>పద్మలోచన! సీసపద్యముల్‌ నీమీఁదఁ - జెప్పఁ బూనితినయ్య!చిత్తగింపు
 గణ యతి ప్రాస లక్షణముఁ జూడఁగలేదు - పంచకావ్య శ్లోకపఠన లేదు
@@ -541,63 +532,57 @@
 నీ కటాక్షంబుననే రచించెదఁ గాని - ప్రజ్ఞ నాయది గాదు ప్రస్తుతింపఁ</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>[('ప', 'U'), ('ద్మ', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('సీ', 'U'), ('స', '|'), ('ప', 'U'), ('ద్య', '|'), ('ముల్', 'U'), ('నీ', 'U'), ('మీ', 'U'), ('ద', '|'), ('జె', 'U'), ('ప్ప', '|'), ('బూ', 'U'), ('ని', '|'), ('తి', '|'), ('న', 'U'), ('య్య', '|'), ('చి', 'U'), ('త్త', '|'), ('గిం', 'U'), ('పు', '|'), ('గ', '|'), ('ణ', '|'), ('య', '|'), ('తి', 'U'), ('ప్రా', 'U'), ('స', '|'), ('ల', 'U'), ('క్ష', '|'), ('ణ', '|'), ('ము', '|'), ('జూ', 'U'), ('డ', '|'), ('గ', '|'), ('లే', 'U'), ('దు', '|'), ('పం', 'U'), ('చ', '|'), ('కా', 'U'), ('వ్య', 'U'), ('శ్లో', 'U'), ('క', '|'), ('ప', '|'), ('ఠ', '|'), ('న', '|'), ('లే', 'U'), ('దు', '|'), ('అ', '|'), ('మ', '|'), ('ర', '|'), ('కాం', 'U'), ('డ', 'U'), ('త్ర', '|'), ('యం', 'U'), ('బ', '|'), ('ర', '|'), ('సి', '|'), ('చూ', 'U'), ('డ', '|'), ('గ', '|'), ('లే', 'U'), ('దు', '|'), ('శా', 'U'), ('స్త్రీ', 'U'), ('య', 'U'), ('గ్రం', 'U'), ('థ', '|'), ('ముల్', 'U'), ('చ', '|'), ('దు', '|'), ('వ', '|'), ('లే', 'U'), ('దు', '|'), ('నీ', 'U'), ('క', '|'), ('టా', 'U'), ('క్షం', 'U'), ('బు', '|'), ('న', '|'), ('నే', 'U'), ('ర', '|'), ('చిం', 'U'), ('చె', '|'), ('ద', '|'), ('గా', 'U'), ('ని', 'U'), ('ప్ర', 'U'), ('జ్ఞ', '|'), ('నా', 'U'), ('య', '|'), ('ది', '|'), ('గా', 'U'), ('దు', 'U'), ('ప్ర', 'U'), ('స్తు', '|'), ('తిం', 'U'), ('ప', '|')]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t xml:space="preserve">	దప్పుగలిగిన సద్భక్తి తక్కువౌనె - చెఱకునకు వంకపోయిన చెడునె తీపు?
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">	దప్పుగలిగిన సద్భక్తి తక్కువౌనె - చెఱకునకు వంకపోయిన చెడునె తీపు?
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>[('ద', 'U'), ('ప్పు', '|'), ('గ', '|'), ('లి', '|'), ('గి', '|'), ('న', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('త', 'U'), ('క్కు', '|'), ('వౌ', 'U'), ('నె', '|'), ('చె', '|'), ('ఱ', '|'), ('కు', '|'), ('న', '|'), ('కు', '|'), ('వం', 'U'), ('క', '|'), ('పో', 'U'), ('యి', '|'), ('న', '|'), ('చె', '|'), ('డు', '|'), ('నె', '|'), ('తీ', 'U'), ('పు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t>నరసింహ! నీ దివ్యనామమంత్రముచేత - దురితజాలములెల్ల ద్రోలవచ్చు
 నరసింహ! నీ దివ్యనామమంత్రముచేత - బలువైన రోగముల్‌ బాపవచ్చు
@@ -605,63 +590,57 @@
 నరసింహ! నీ దివ్యనామమంత్రముచేత - దండహస్తుని బంట్లఁదఱుమవచ్చు</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('నీ', 'U'), ('ది', 'U'), ('వ్య', '|'), ('నా', 'U'), ('మ', '|'), ('మం', 'U'), ('త్ర', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('జా', 'U'), ('ల', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('ద్రో', 'U'), ('ల', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('నీ', 'U'), ('ది', 'U'), ('వ్య', '|'), ('నా', 'U'), ('మ', '|'), ('మం', 'U'), ('త్ర', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('బ', '|'), ('లు', '|'), ('వై', 'U'), ('న', '|'), ('రో', 'U'), ('గ', '|'), ('ముల్', 'U'), ('బా', 'U'), ('ప', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('నీ', 'U'), ('ది', 'U'), ('వ్య', '|'), ('నా', 'U'), ('మ', '|'), ('మం', 'U'), ('త్ర', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('రి', '|'), ('పు', '|'), ('సం', 'U'), ('ఘ', '|'), ('ము', '|'), ('ల', '|'), ('సం', 'U'), ('హ', '|'), ('రిం', 'U'), ('ప', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('నీ', 'U'), ('ది', 'U'), ('వ్య', '|'), ('నా', 'U'), ('మ', '|'), ('మం', 'U'), ('త్ర', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('దం', 'U'), ('డ', '|'), ('హ', 'U'), ('స్తు', '|'), ('ని', '|'), ('బం', 'U'), ('ట్ల', '|'), ('ద', '|'), ('ఱు', '|'), ('మ', '|'), ('వ', 'U'), ('చ్చు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>భళిర నేనీ మహామంత్రబలముచేత - దివ్యవైకుంఠ పదవి సాధింపవచ్చు
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>భళిర నేనీ మహామంత్రబలముచేత - దివ్యవైకుంఠ పదవి సాధింపవచ్చు
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>[('భ', '|'), ('ళి', '|'), ('ర', '|'), ('నే', 'U'), ('నీ', 'U'), ('మ', '|'), ('హా', 'U'), ('మం', 'U'), ('త్ర', '|'), ('బ', '|'), ('ల', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('ది', 'U'), ('వ్య', '|'), ('వై', 'U'), ('కుం', 'U'), ('ఠ', '|'), ('ప', '|'), ('ద', '|'), ('వి', '|'), ('సా', 'U'), ('ధిం', 'U'), ('ప', '|'), ('వ', 'U'), ('చ్చు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>ఆదినారాయణా! యనుచు నాలుకతోడఁ - బలుక నేర్చినవారి పాదములకు
 సాష్టాంగముగ నమస్కార మర్పణఁ జేసి - ప్రస్తుతించెదనయ్య బహువిధముల
@@ -669,63 +648,57 @@
 మేము శ్రేష్ఠులమంచు మిడుకుచుండెడివారి - చెంతఁ జేరఁగఁబోను శేషశయన!</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('ది', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('నా', 'U'), ('లు', '|'), ('క', '|'), ('తో', 'U'), ('డ', '|'), ('బ', '|'), ('లు', '|'), ('క', '|'), ('నే', 'U'), ('ర్చి', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('పా', 'U'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('కు', '|'), ('సా', 'U'), ('ష్టాం', 'U'), ('గ', '|'), ('ము', '|'), ('గ', '|'), ('న', '|'), ('మ', 'U'), ('స్కా', 'U'), ('ర', '|'), ('మ', 'U'), ('ర్ప', '|'), ('ణ', '|'), ('జే', 'U'), ('సి', 'U'), ('ప్ర', 'U'), ('స్తు', '|'), ('తిం', 'U'), ('చె', '|'), ('ద', '|'), ('న', 'U'), ('య్య', '|'), ('బ', '|'), ('హు', '|'), ('వి', '|'), ('ధ', '|'), ('ము', '|'), ('ల', '|'), ('ధ', '|'), ('ర', '|'), ('ణి', '|'), ('లో', 'U'), ('న', '|'), ('రు', '|'), ('లెం', 'U'), ('త', '|'), ('దం', 'U'), ('డి', '|'), ('వా', 'U'), ('రై', 'U'), ('న', '|'), ('ను', '|'), ('ని', 'U'), ('న్ను', '|'), ('గా', 'U'), ('న', '|'), ('ని', '|'), ('వా', 'U'), ('రి', '|'), ('నే', 'U'), ('స్మ', '|'), ('రిం', 'U'), ('ప', '|'), ('మే', 'U'), ('ము', 'U'), ('శ్రే', 'U'), ('ష్ఠు', '|'), ('ల', '|'), ('మం', 'U'), ('చు', '|'), ('మి', '|'), ('డు', '|'), ('కు', '|'), ('చుం', 'U'), ('డె', '|'), ('డి', '|'), ('వా', 'U'), ('రి', '|'), ('చెం', 'U'), ('త', '|'), ('జే', 'U'), ('ర', '|'), ('గ', '|'), ('బో', 'U'), ('ను', '|'), ('శే', 'U'), ('ష', '|'), ('శ', '|'), ('య', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>పరమ సాత్త్వికులైన నీ భక్తవరుల - దాసులకు దాసుఁడను జుమీ ధాత్రిలోన
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>పరమ సాత్త్వికులైన నీ భక్తవరుల - దాసులకు దాసుఁడను జుమీ ధాత్రిలోన
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ర', '|'), ('మ', '|'), ('సా', 'U'), ('త్త్వి', '|'), ('కు', '|'), ('లై', 'U'), ('న', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్త', '|'), ('వ', '|'), ('రు', '|'), ('ల', '|'), ('దా', 'U'), ('సు', '|'), ('ల', '|'), ('కు', '|'), ('దా', 'U'), ('సు', '|'), ('డ', '|'), ('ను', '|'), ('జు', '|'), ('మీ', 'U'), ('ధా', 'U'), ('త్రి', '|'), ('లో', 'U'), ('న', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
         <is>
           <t>ఐశ్వర్యములకు నిన్ననుసరింపఁగలేదు - ద్రవ్య మిమ్మని వెంటఁ దగులలేదు
 కనక మిమ్మని చాలఁ గష్టపెట్టఁగలేదు - పల్ల కిమ్మని నోటఁ బలుకలేదు
@@ -733,63 +706,57 @@
 బలము లిమ్మని నిన్ను బ్రతిమాలఁగాలేదు - పసుల నిమ్మని పట్టుపట్టలేదు</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>[('ఐ', 'U'), ('శ్వ', 'U'), ('ర్య', '|'), ('ము', '|'), ('ల', '|'), ('కు', '|'), ('ని', 'U'), ('న్న', '|'), ('ను', '|'), ('స', '|'), ('రిం', 'U'), ('ప', '|'), ('గ', '|'), ('లే', 'U'), ('దు', '|'), ('ద్ర', 'U'), ('వ్య', '|'), ('మి', 'U'), ('మ్మ', '|'), ('ని', '|'), ('వెం', 'U'), ('ట', '|'), ('ద', '|'), ('గు', '|'), ('ల', '|'), ('లే', 'U'), ('దు', '|'), ('క', '|'), ('న', '|'), ('క', '|'), ('మి', 'U'), ('మ్మ', '|'), ('ని', '|'), ('చా', 'U'), ('ల', '|'), ('గ', 'U'), ('ష్ట', '|'), ('పె', 'U'), ('ట్ట', '|'), ('గ', '|'), ('లే', 'U'), ('దు', '|'), ('ప', 'U'), ('ల్ల', '|'), ('కి', 'U'), ('మ్మ', '|'), ('ని', '|'), ('నో', 'U'), ('ట', '|'), ('బ', '|'), ('లు', '|'), ('క', '|'), ('లే', 'U'), ('దు', '|'), ('సొ', 'U'), ('మ్ము', '|'), ('లి', 'U'), ('మ్మ', '|'), ('ని', '|'), ('ని', 'U'), ('న్ను', '|'), ('న', 'U'), ('మ్మి', '|'), ('కొ', 'U'), ('ల్వ', '|'), ('గ', '|'), ('లే', 'U'), ('దు', '|'), ('భూ', 'U'), ('ము', '|'), ('లి', 'U'), ('మ్మ', '|'), ('ని', '|'), ('పే', 'U'), ('రు', '|'), ('పొ', '|'), ('గ', '|'), ('డ', '|'), ('లే', 'U'), ('దు', '|'), ('బ', '|'), ('ల', '|'), ('ము', '|'), ('లి', 'U'), ('మ్మ', '|'), ('ని', '|'), ('ని', 'U'), ('న్ను', 'U'), ('బ్ర', '|'), ('తి', '|'), ('మా', 'U'), ('ల', '|'), ('గా', 'U'), ('లే', 'U'), ('దు', '|'), ('ప', '|'), ('సు', '|'), ('ల', '|'), ('ని', 'U'), ('మ్మ', '|'), ('ని', '|'), ('ప', 'U'), ('ట్టు', '|'), ('ప', 'U'), ('ట్ట', '|'), ('లే', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నేను గోరిన దొక్కటే నీలవర్ణ - చయ్యనను మోక్షమిచ్చినఁ జాలు నాకు
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>నేను గోరిన దొక్కటే నీలవర్ణ - చయ్యనను మోక్షమిచ్చినఁ జాలు నాకు
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>[('నే', 'U'), ('ను', '|'), ('గో', 'U'), ('రి', '|'), ('న', '|'), ('దొ', 'U'), ('క్క', '|'), ('టే', 'U'), ('నీ', 'U'), ('ల', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('చ', 'U'), ('య్య', '|'), ('న', '|'), ('ను', '|'), ('మో', 'U'), ('క్ష', '|'), ('మి', 'U'), ('చ్చి', '|'), ('న', '|'), ('జా', 'U'), ('లు', '|'), ('నా', 'U'), ('కు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
         <is>
           <t>మందుఁడనని నన్ను నిందఁ జేసిననేమి? - నా దీనతను జూచి నవ్వనేమి?
 దూరభావములేక తూలనాడిన నేమి? - ప్రీతిసేయక వంకఁ బెట్టనేమి?
@@ -797,63 +764,57 @@
 హెచ్చుమాటల చేత నెమ్మెలాడిన నేమి? - చేరి దాపట గేలిచేయనేమి?</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
           <t>[('మం', 'U'), ('దు', '|'), ('డ', '|'), ('న', '|'), ('ని', '|'), ('న', 'U'), ('న్ను', '|'), ('నిం', 'U'), ('ద', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('నా', 'U'), ('దీ', 'U'), ('న', '|'), ('త', '|'), ('ను', '|'), ('జూ', 'U'), ('చి', '|'), ('న', 'U'), ('వ్వ', '|'), ('నే', 'U'), ('మి', '|'), ('దూ', 'U'), ('ర', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('లే', 'U'), ('క', '|'), ('తూ', 'U'), ('ల', '|'), ('నా', 'U'), ('డి', '|'), ('న', '|'), ('నే', 'U'), ('మి', 'U'), ('ప్రీ', 'U'), ('తి', '|'), ('సే', 'U'), ('య', '|'), ('క', '|'), ('వం', 'U'), ('క', '|'), ('బె', 'U'), ('ట్ట', '|'), ('నే', 'U'), ('మి', '|'), ('క', 'U'), ('క్క', '|'), ('సం', 'U'), ('బు', '|'), ('లు', '|'), ('ప', 'U'), ('ల్కి', '|'), ('వె', 'U'), ('క్కి', '|'), ('రిం', 'U'), ('చి', '|'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('తీ', 'U'), ('వ్ర', '|'), ('కో', 'U'), ('ప', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('ది', 'U'), ('ట్ట', '|'), ('నే', 'U'), ('మి', '|'), ('హె', 'U'), ('చ్చు', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('చే', 'U'), ('త', '|'), ('నె', 'U'), ('మ్మె', '|'), ('లా', 'U'), ('డి', '|'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('చే', 'U'), ('రి', '|'), ('దా', 'U'), ('ప', '|'), ('ట', '|'), ('గే', 'U'), ('లి', '|'), ('చే', 'U'), ('య', '|'), ('నే', 'U'), ('మి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కల్ప వృక్షమువలె నీవు గల్గనింకఁ - బ్రజల లక్ష్యంబు నాకేల?పద్మనాభ
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>కల్ప వృక్షమువలె నీవు గల్గనింకఁ - బ్రజల లక్ష్యంబు నాకేల?పద్మనాభ
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
           <t>[('క', 'U'), ('ల్ప', '|'), ('వృ', 'U'), ('క్ష', '|'), ('ము', '|'), ('వ', '|'), ('లె', '|'), ('నీ', 'U'), ('వు', '|'), ('గ', 'U'), ('ల్గ', '|'), ('నిం', 'U'), ('క', 'U'), ('బ్ర', '|'), ('జ', '|'), ('ల', '|'), ('ల', 'U'), ('క్ష్యం', 'U'), ('బు', '|'), ('నా', 'U'), ('కే', 'U'), ('ల', '|'), ('ప', 'U'), ('ద్మ', '|'), ('నా', 'U'), ('భ', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
         <is>
           <t>చిత్తశుద్ధిగ నీకుసేవఁజేసెదఁ గాని - పుడమిలో జనుల మెప్పులకుఁ గాదు
 జన్మపావనతకై స్మరణఁజేసెదఁ గాని - సరివారిలోఁ బ్రతిష్ఠలకుఁ గాదు
@@ -861,63 +822,57 @@
 నిన్నుఁ బొగడఁగ విద్యనేర్చితినే కాని - కుక్షినిండెడి కూటికొఱకుఁ గాదు</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
           <t>[('చి', 'U'), ('త్త', '|'), ('శు', 'U'), ('ద్ధి', '|'), ('గ', '|'), ('నీ', 'U'), ('కు', '|'), ('సే', 'U'), ('వ', '|'), ('జే', 'U'), ('సె', '|'), ('ద', '|'), ('గా', 'U'), ('ని', '|'), ('పు', '|'), ('డ', '|'), ('మి', '|'), ('లో', 'U'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('మె', 'U'), ('ప్పు', '|'), ('ల', '|'), ('కు', '|'), ('గా', 'U'), ('దు', '|'), ('జ', 'U'), ('న్మ', '|'), ('పా', 'U'), ('వ', '|'), ('న', '|'), ('త', '|'), ('కై', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణ', '|'), ('జే', 'U'), ('సె', '|'), ('ద', '|'), ('గా', 'U'), ('ని', '|'), ('స', '|'), ('రి', '|'), ('వా', 'U'), ('రి', '|'), ('లో', 'U'), ('బ్ర', '|'), ('తి', 'U'), ('ష్ఠ', '|'), ('ల', '|'), ('కు', '|'), ('గా', 'U'), ('దు', '|'), ('ము', 'U'), ('క్తి', '|'), ('కో', 'U'), ('స', '|'), ('ము', '|'), ('నే', 'U'), ('ను', '|'), ('మ్రొ', 'U'), ('క్కి', '|'), ('వే', 'U'), ('డె', '|'), ('ద', '|'), ('గా', 'U'), ('ని', '|'), ('దం', 'U'), ('డి', '|'), ('భా', 'U'), ('గ్య', '|'), ('ము', '|'), ('ని', '|'), ('మి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('గా', 'U'), ('దు', '|'), ('ని', 'U'), ('న్ను', '|'), ('బొ', '|'), ('గ', '|'), ('డ', '|'), ('గ', '|'), ('వి', 'U'), ('ద్య', '|'), ('నే', 'U'), ('ర్చి', '|'), ('తి', '|'), ('నే', 'U'), ('కా', 'U'), ('ని', '|'), ('కు', 'U'), ('క్షి', '|'), ('నిం', 'U'), ('డె', '|'), ('డి', '|'), ('కూ', 'U'), ('టి', '|'), ('కొ', '|'), ('ఱ', '|'), ('కు', '|'), ('గా', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>పారమార్థికమునకు నేఁ బాటుపడితిఁ - గీర్తికి నపేక్షపడలేదు కృష్ణవర్ణ!
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>పారమార్థికమునకు నేఁ బాటుపడితిఁ - గీర్తికి నపేక్షపడలేదు కృష్ణవర్ణ!
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>[('పా', 'U'), ('ర', '|'), ('మా', 'U'), ('ర్థి', '|'), ('క', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('నే', 'U'), ('బా', 'U'), ('టు', '|'), ('ప', '|'), ('డి', '|'), ('తి', '|'), ('గీ', 'U'), ('ర్తి', '|'), ('కి', '|'), ('న', '|'), ('పే', 'U'), ('క్ష', '|'), ('ప', '|'), ('డ', '|'), ('లే', 'U'), ('దు', '|'), ('కృ', 'U'), ('ష్ణ', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
         <is>
           <t>శ్రవణ రంధ్రముల నీసత్కథల్‌ పొగడంగ - లేశ మానందంబు లేనివాఁడు
 పుణ్యవంతులు నిన్నుఁబూజసేయఁగఁ జూచి - భావమం దుత్సాహపడనివాఁడు
@@ -925,63 +880,57 @@
 తనచిత్తమందు నీ ధ్యానమెన్నఁడు లేక - కాలమంతయు వృథాగడుపువాఁడు</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
           <t>[('శ్ర', '|'), ('వ', '|'), ('ణ', '|'), ('రం', 'U'), ('ధ్ర', '|'), ('ము', '|'), ('ల', '|'), ('నీ', 'U'), ('స', 'U'), ('త్క', '|'), ('థల్', 'U'), ('పొ', '|'), ('గ', '|'), ('డం', 'U'), ('గ', '|'), ('లే', 'U'), ('శ', '|'), ('మా', 'U'), ('నం', 'U'), ('దం', 'U'), ('బు', '|'), ('లే', 'U'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('పు', 'U'), ('ణ్య', '|'), ('వం', 'U'), ('తు', '|'), ('లు', '|'), ('ని', 'U'), ('న్ను', '|'), ('బూ', 'U'), ('జ', '|'), ('సే', 'U'), ('య', '|'), ('గ', '|'), ('జూ', 'U'), ('చి', '|'), ('భా', 'U'), ('వ', '|'), ('మం', 'U'), ('దు', 'U'), ('త్సా', 'U'), ('హ', '|'), ('ప', '|'), ('డ', '|'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('భ', 'U'), ('క్త', '|'), ('వ', 'U'), ('ర్యు', '|'), ('లు', '|'), ('నీ', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('ముల్', 'U'), ('పొ', '|'), ('గ', '|'), ('డం', 'U'), ('గ', '|'), ('ద', 'U'), ('త్ప', '|'), ('ర', 'U'), ('త్వ', '|'), ('ము', '|'), ('లే', 'U'), ('క', '|'), ('త', '|'), ('ల', '|'), ('గు', '|'), ('వా', 'U'), ('డు', '|'), ('త', '|'), ('న', '|'), ('చి', 'U'), ('త్త', '|'), ('మం', 'U'), ('దు', '|'), ('నీ', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('మె', 'U'), ('న్న', '|'), ('డు', '|'), ('లే', 'U'), ('క', '|'), ('కా', 'U'), ('ల', '|'), ('మం', 'U'), ('త', '|'), ('యు', '|'), ('వృ', '|'), ('థా', 'U'), ('గ', '|'), ('డు', '|'), ('పు', '|'), ('వా', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>వసుధలోనెల్ల వ్యర్థుండువాఁడె యగును - మఱియుఁ జెడుఁగాక యెప్పుడు మమతనొంది
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>వసుధలోనెల్ల వ్యర్థుండువాఁడె యగును - మఱియుఁ జెడుఁగాక యెప్పుడు మమతనొంది
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('సు', '|'), ('ధ', '|'), ('లో', 'U'), ('నె', 'U'), ('ల్ల', 'U'), ('వ్య', 'U'), ('ర్థుం', 'U'), ('డు', '|'), ('వా', 'U'), ('డె', '|'), ('య', '|'), ('గు', '|'), ('ను', '|'), ('మ', '|'), ('ఱి', '|'), ('యు', '|'), ('జె', '|'), ('డు', '|'), ('గా', 'U'), ('క', '|'), ('యె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('మ', '|'), ('మ', '|'), ('త', '|'), ('నొం', 'U'), ('ది', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
         <is>
           <t>గౌతమీస్నానానఁ గడతేఱుద మఁటన్న - మొనసి చన్నీళ్లలో మునుఁగలేను
 తీర్థయాత్రలచేఁ గృతార్థుఁ డౌద మఁటన్న - బడలి నేమంబు లే నడుపలేను
@@ -989,63 +938,57 @@
 తపమాచరించి సార్థకత నొందుదమన్న - నిమిషమైన మనస్సు నిలుపలేను</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
           <t>[('గౌ', 'U'), ('త', '|'), ('మీ', 'U'), ('స్నా', 'U'), ('నా', 'U'), ('న', '|'), ('గ', '|'), ('డ', '|'), ('తే', 'U'), ('ఱు', '|'), ('ద', '|'), ('మ', '|'), ('ట', 'U'), ('న్న', '|'), ('మొ', '|'), ('న', '|'), ('సి', '|'), ('చ', 'U'), ('న్నీ', 'U'), ('ళ్ల', '|'), ('లో', 'U'), ('ము', '|'), ('ను', '|'), ('గ', '|'), ('లే', 'U'), ('ను', '|'), ('తీ', 'U'), ('ర్థ', '|'), ('యా', 'U'), ('త్ర', '|'), ('ల', '|'), ('చే', 'U'), ('గృ', '|'), ('తా', 'U'), ('ర్థు', '|'), ('డౌ', 'U'), ('ద', '|'), ('మ', '|'), ('ట', 'U'), ('న్న', '|'), ('బ', '|'), ('డ', '|'), ('లి', '|'), ('నే', 'U'), ('మం', 'U'), ('బు', '|'), ('లే', 'U'), ('న', '|'), ('డు', '|'), ('ప', '|'), ('లే', 'U'), ('ను', '|'), ('దా', 'U'), ('న', '|'), ('ధ', '|'), ('ర్మ', '|'), ('ము', '|'), ('ల', '|'), ('స', 'U'), ('ద్గ', '|'), ('తి', '|'), ('ని', '|'), ('జెం', 'U'), ('దు', '|'), ('ద', '|'), ('మ', 'U'), ('న్న', '|'), ('ఘ', '|'), ('న', '|'), ('ము', '|'), ('గా', 'U'), ('నా', 'U'), ('యొ', 'U'), ('ద్ద', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('లే', 'U'), ('దు', '|'), ('త', '|'), ('ప', '|'), ('మా', 'U'), ('చ', '|'), ('రిం', 'U'), ('చి', '|'), ('సా', 'U'), ('ర్థ', '|'), ('క', '|'), ('త', '|'), ('నొం', 'U'), ('దు', '|'), ('ద', '|'), ('మ', 'U'), ('న్న', '|'), ('ని', '|'), ('మి', '|'), ('ష', '|'), ('మై', 'U'), ('న', '|'), ('మ', '|'), ('న', 'U'), ('స్సు', '|'), ('ని', '|'), ('లు', '|'), ('ప', '|'), ('లే', 'U'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కష్టములకోర్వ నాచేతఁగాదు నిన్ను - స్మరణ చేసెద నా యథాశక్తి కొలఁది
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>కష్టములకోర్వ నాచేతఁగాదు నిన్ను - స్మరణ చేసెద నా యథాశక్తి కొలఁది
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>[('క', 'U'), ('ష్ట', '|'), ('ము', '|'), ('ల', '|'), ('కో', 'U'), ('ర్వ', '|'), ('నా', 'U'), ('చే', 'U'), ('త', '|'), ('గా', 'U'), ('దు', '|'), ('ని', 'U'), ('న్ను', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణ', '|'), ('చే', 'U'), ('సె', '|'), ('ద', '|'), ('నా', 'U'), ('య', '|'), ('థా', 'U'), ('శ', 'U'), ('క్తి', '|'), ('కొ', '|'), ('ల', '|'), ('ది', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
         <is>
           <t>అర్థివాండ్రకునీక హానిఁ జేయుటకంటెఁ - దెంపుతో వసనాభిఁ దినుట మేలు
 ఆఁడుబిడ్డల సొమ్ములపహరించుటకంటె - బండఁ గట్టుక నూతఁ బడుట మేలు
@@ -1053,63 +996,57 @@
 బ్రతుకఁ జాలక దొంగపనులు చేయుటకంటెఁ - గొంగుతో ముష్టెత్తుకొనుట మేలు</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('ర్థి', '|'), ('వాం', 'U'), ('డ్ర', '|'), ('కు', '|'), ('నీ', 'U'), ('క', '|'), ('హా', 'U'), ('ని', '|'), ('జే', 'U'), ('యు', '|'), ('ట', '|'), ('కం', 'U'), ('టె', '|'), ('దెం', 'U'), ('పు', '|'), ('తో', 'U'), ('వ', '|'), ('స', '|'), ('నా', 'U'), ('భి', '|'), ('ది', '|'), ('ను', '|'), ('ట', '|'), ('మే', 'U'), ('లు', '|'), ('ఆ', 'U'), ('డు', '|'), ('బి', 'U'), ('డ్డ', '|'), ('ల', '|'), ('సొ', 'U'), ('మ్ము', '|'), ('ల', '|'), ('ప', '|'), ('హ', '|'), ('రిం', 'U'), ('చు', '|'), ('ట', '|'), ('కం', 'U'), ('టె', '|'), ('బం', 'U'), ('డ', '|'), ('గ', 'U'), ('ట్టు', '|'), ('క', '|'), ('నూ', 'U'), ('త', '|'), ('బ', '|'), ('డు', '|'), ('ట', '|'), ('మే', 'U'), ('లు', '|'), ('ప', '|'), ('రు', '|'), ('ల', '|'), ('కాం', 'U'), ('త', '|'), ('ల', '|'), ('బ', 'U'), ('ట్టి', '|'), ('బ', 'U'), ('ల్మి', '|'), ('గూ', 'U'), ('డు', '|'), ('ట', '|'), ('కం', 'U'), ('టె', '|'), ('బ', '|'), ('డ', '|'), ('బా', 'U'), ('గ్ని', '|'), ('కీ', 'U'), ('ల', '|'), ('ల', '|'), ('బ', '|'), ('డు', '|'), ('ట', '|'), ('మే', 'U'), ('లు', 'U'), ('బ్ర', '|'), ('తు', '|'), ('క', '|'), ('జా', 'U'), ('ల', '|'), ('క', '|'), ('దొం', 'U'), ('గ', '|'), ('ప', '|'), ('ను', '|'), ('లు', '|'), ('చే', 'U'), ('యు', '|'), ('ట', '|'), ('కం', 'U'), ('టె', '|'), ('గొం', 'U'), ('గు', '|'), ('తో', 'U'), ('ము', 'U'), ('ష్టె', 'U'), ('త్తు', '|'), ('కొ', '|'), ('ను', '|'), ('ట', '|'), ('మే', 'U'), ('లు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>జలజదళనేత్ర నీ భక్తజనులతోడి - జగడమాడెడు పనికంటెఁ జావు మేలు
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>జలజదళనేత్ర నీ భక్తజనులతోడి - జగడమాడెడు పనికంటెఁ జావు మేలు
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('ల', '|'), ('జ', '|'), ('ద', '|'), ('ళ', '|'), ('నే', 'U'), ('త్ర', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్త', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('తో', 'U'), ('డి', '|'), ('జ', '|'), ('గ', '|'), ('డ', '|'), ('మా', 'U'), ('డె', '|'), ('డు', '|'), ('ప', '|'), ('ని', '|'), ('కం', 'U'), ('టె', '|'), ('జా', 'U'), ('వు', '|'), ('మే', 'U'), ('లు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
         <is>
           <t>గార్దభంబునకేల కస్తూరి తిలకంబు? - మర్కటంబునకేల మలయజంబు?
 శార్దూలమునకేల శర్కరాపూపంబు? - సూకరంబునకేల చూతఫలము?
@@ -1117,63 +1054,57 @@
 మహిషానికేల నిర్మలమైన వస్త్రముల్‌? - బకసంతతికినేల పంజరంబు?</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
           <t>[('గా', 'U'), ('ర్ద', '|'), ('భం', 'U'), ('బు', '|'), ('న', '|'), ('కే', 'U'), ('ల', '|'), ('క', 'U'), ('స్తూ', 'U'), ('రి', '|'), ('తి', '|'), ('ల', '|'), ('కం', 'U'), ('బు', '|'), ('మ', 'U'), ('ర్క', '|'), ('టం', 'U'), ('బు', '|'), ('న', '|'), ('కే', 'U'), ('ల', '|'), ('మ', '|'), ('ల', '|'), ('య', '|'), ('జం', 'U'), ('బు', '|'), ('శా', 'U'), ('ర్దూ', 'U'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('కే', 'U'), ('ల', '|'), ('శ', 'U'), ('ర్క', '|'), ('రా', 'U'), ('పూ', 'U'), ('పం', 'U'), ('బు', '|'), ('సూ', 'U'), ('క', '|'), ('రం', 'U'), ('బు', '|'), ('న', '|'), ('కే', 'U'), ('ల', '|'), ('చూ', 'U'), ('త', '|'), ('ఫ', '|'), ('ల', '|'), ('ము', '|'), ('మా', 'U'), ('ర్జా', 'U'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('కే', 'U'), ('ల', '|'), ('మ', 'U'), ('ల్లె', '|'), ('పు', 'U'), ('వ్వు', '|'), ('ల', '|'), ('బం', 'U'), ('తి', '|'), ('గు', 'U'), ('డ్ల', '|'), ('గూ', 'U'), ('బ', '|'), ('కు', '|'), ('నే', 'U'), ('ల', '|'), ('కుం', 'U'), ('డ', '|'), ('ల', '|'), ('ము', '|'), ('లు', '|'), ('మ', '|'), ('హి', '|'), ('షా', 'U'), ('ని', '|'), ('కే', 'U'), ('ల', '|'), ('ని', '|'), ('ర్మ', '|'), ('ల', '|'), ('మై', 'U'), ('న', '|'), ('వ', 'U'), ('స్త్ర', '|'), ('ము', 'U'), ('ల్బ', '|'), ('క', '|'), ('సం', 'U'), ('త', '|'), ('తి', '|'), ('కి', '|'), ('నే', 'U'), ('ల', '|'), ('పం', 'U'), ('జ', '|'), ('రం', 'U'), ('బు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ద్రోహచింతనఁ జేసెడు దుర్జనులకు - మధురమైన నీ నామమంత్రమేల?
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ద్రోహచింతనఁ జేసెడు దుర్జనులకు - మధురమైన నీ నామమంత్రమేల?
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
           <t>[('ద్రో', 'U'), ('హ', '|'), ('చిం', 'U'), ('త', '|'), ('న', '|'), ('జే', 'U'), ('సె', '|'), ('డు', '|'), ('దు', 'U'), ('ర్జ', '|'), ('ను', '|'), ('ల', '|'), ('కు', '|'), ('మ', '|'), ('ధు', '|'), ('ర', '|'), ('మై', 'U'), ('న', '|'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('మం', 'U'), ('త్ర', '|'), ('మే', 'U'), ('ల', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
         <is>
           <t>పసరంబు పంజైనఁ బసులకాపరి తప్పు - ప్రజలు దుర్జనులైన ప్రభుని తప్పు
 భార్య గయ్యాళైనఁ బ్రాణనాథుని తప్పు - తనయుఁడు దుష్టైన తండ్రి తప్పు
@@ -1181,63 +1112,57 @@
 అశ్వంబు చెడుగైన నారోహకుని తప్పు - దంతి దుష్టైన మామంతు తప్పు</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('స', '|'), ('రం', 'U'), ('బు', '|'), ('పం', 'U'), ('జై', 'U'), ('న', '|'), ('బ', '|'), ('సు', '|'), ('ల', '|'), ('కా', 'U'), ('ప', '|'), ('రి', '|'), ('త', 'U'), ('ప్పు', 'U'), ('ప్ర', '|'), ('జ', '|'), ('లు', '|'), ('దు', 'U'), ('ర్జ', '|'), ('ను', '|'), ('లై', 'U'), ('న', 'U'), ('ప్ర', '|'), ('భు', '|'), ('ని', '|'), ('త', 'U'), ('ప్పు', '|'), ('భా', 'U'), ('ర్య', '|'), ('గ', 'U'), ('య్యా', 'U'), ('ళై', 'U'), ('న', 'U'), ('బ్రా', 'U'), ('ణ', '|'), ('నా', 'U'), ('థు', '|'), ('ని', '|'), ('త', 'U'), ('ప్పు', '|'), ('త', '|'), ('న', '|'), ('యు', '|'), ('డు', '|'), ('దు', 'U'), ('ష్టై', 'U'), ('న', '|'), ('తం', 'U'), ('డ్రి', '|'), ('త', 'U'), ('ప్పు', '|'), ('సై', 'U'), ('న్యం', 'U'), ('బు', '|'), ('చె', '|'), ('ద', '|'), ('రి', '|'), ('న', '|'), ('సై', 'U'), ('న్య', '|'), ('నా', 'U'), ('థు', '|'), ('ని', '|'), ('త', 'U'), ('ప్పు', '|'), ('కూ', 'U'), ('తు', '|'), ('రు', '|'), ('చె', '|'), ('డు', '|'), ('గై', 'U'), ('న', '|'), ('మా', 'U'), ('త', '|'), ('త', 'U'), ('ప్పు', '|'), ('అ', 'U'), ('శ్వం', 'U'), ('బు', '|'), ('చె', '|'), ('డు', '|'), ('గై', 'U'), ('న', '|'), ('నా', 'U'), ('రో', 'U'), ('హ', '|'), ('కు', '|'), ('ని', '|'), ('త', 'U'), ('ప్పు', '|'), ('దం', 'U'), ('తి', '|'), ('దు', 'U'), ('ష్టై', 'U'), ('న', '|'), ('మా', 'U'), ('మం', 'U'), ('తు', '|'), ('త', 'U'), ('ప్పు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ఇట్టి తప్పు లెరుంగక యిచ్చవచ్చి - నటుల మెలఁగుదు రిప్పుడీ యవని జనులు
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ఇట్టి తప్పు లెరుంగక యిచ్చవచ్చి - నటుల మెలఁగుదు రిప్పుడీ యవని జనులు
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
           <t>[('ఇ', 'U'), ('ట్టి', '|'), ('త', 'U'), ('ప్పు', '|'), ('లె', '|'), ('రుం', 'U'), ('గ', '|'), ('క', '|'), ('యి', 'U'), ('చ్చ', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('టు', '|'), ('ల', '|'), ('మె', '|'), ('ల', '|'), ('గు', '|'), ('దు', '|'), ('రి', 'U'), ('ప్పు', '|'), ('డీ', 'U'), ('య', '|'), ('వ', '|'), ('ని', '|'), ('జ', '|'), ('ను', '|'), ('లు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
         <is>
           <t>కోతికి జలతారుకుళ్లాయి యేటికి? - విరజాజి పూదండ విధవ కేల?
 ముక్కిడితొత్తుకు ముత్తెంపు నత్తేల? - నద్ద మేమిటికి జాత్యంధునకును?
@@ -1245,63 +1170,57 @@
 ఱంకుఁబోతుకు నేల బింకంపు నిష్ఠలు? - వావి యేటికి దుష్టవర్తనునకు?</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
           <t>[('కో', 'U'), ('తి', '|'), ('కి', '|'), ('జ', '|'), ('ల', '|'), ('తా', 'U'), ('రు', '|'), ('కు', 'U'), ('ళ్లా', 'U'), ('యి', '|'), ('యే', 'U'), ('టి', '|'), ('కి', '|'), ('వి', '|'), ('ర', '|'), ('జా', 'U'), ('జి', '|'), ('పూ', 'U'), ('దం', 'U'), ('డ', '|'), ('వి', '|'), ('ధ', '|'), ('వ', '|'), ('కే', 'U'), ('ల', '|'), ('ము', 'U'), ('క్కి', '|'), ('డి', '|'), ('తొ', 'U'), ('త్తు', '|'), ('కు', '|'), ('ము', 'U'), ('త్తెం', 'U'), ('పు', '|'), ('న', 'U'), ('త్తే', 'U'), ('ల', '|'), ('న', 'U'), ('ద్ద', '|'), ('మే', 'U'), ('మి', '|'), ('టి', '|'), ('కి', '|'), ('జా', 'U'), ('త్యం', 'U'), ('ధు', '|'), ('న', '|'), ('కు', '|'), ('ను', '|'), ('మా', 'U'), ('చ', '|'), ('క', 'U'), ('మ్మ', '|'), ('కు', '|'), ('నే', 'U'), ('ల', '|'), ('మౌ', 'U'), ('క్తి', '|'), ('క', '|'), ('హా', 'U'), ('ర', '|'), ('ము', 'U'), ('ల్క్రూ', 'U'), ('ర', '|'), ('చి', 'U'), ('త్తు', '|'), ('న', '|'), ('కు', '|'), ('స', 'U'), ('ద్గో', 'U'), ('ష్ఠు', '|'), ('లే', 'U'), ('ల', '|'), ('ఱం', 'U'), ('కు', '|'), ('బో', 'U'), ('తు', '|'), ('కు', '|'), ('నే', 'U'), ('ల', '|'), ('బిం', 'U'), ('కం', 'U'), ('పు', '|'), ('ని', 'U'), ('ష్ఠ', '|'), ('లు', '|'), ('వా', 'U'), ('వి', '|'), ('యే', 'U'), ('టి', '|'), ('కి', '|'), ('దు', 'U'), ('ష్ట', '|'), ('వ', 'U'), ('ర్త', '|'), ('ను', '|'), ('న', '|'), ('కు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మాట నిలుకడ సుంకరిమోటు కేల? - చెవిటివానికి సత్కథాశ్రవణ మేల?
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>మాట నిలుకడ సుంకరిమోటు కేల? - చెవిటివానికి సత్కథాశ్రవణ మేల?
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
           <t>[('మా', 'U'), ('ట', '|'), ('ని', '|'), ('లు', '|'), ('క', '|'), ('డ', '|'), ('సుం', 'U'), ('క', '|'), ('రి', '|'), ('మో', 'U'), ('టు', '|'), ('కే', 'U'), ('ల', '|'), ('చె', '|'), ('వి', '|'), ('టి', '|'), ('వా', 'U'), ('ని', '|'), ('కి', '|'), ('స', 'U'), ('త్క', '|'), ('థా', 'U'), ('శ్ర', '|'), ('వ', '|'), ('ణ', '|'), ('మే', 'U'), ('ల', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
         <is>
           <t>మాన్యంబులీయ సమర్థుఁ డొక్కఁడు లేఁడు - మాన్యముల్‌ చెఱుప సమర్థులంత
 యెండిన యూళ్ల గోఁడెఱిఁగింపఁ డెవ్వఁడుఁ - బండిన యూళ్లకుఁ బ్రభువులంత
@@ -1309,63 +1228,57 @@
 దనయాలి చేష్టల తప్పెన్నఁ డెవ్వఁడు - బెఱకాంత ఱంకెన్నఁ బెద్దలంత</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
           <t>[('మా', 'U'), ('న్యం', 'U'), ('బు', '|'), ('లీ', 'U'), ('య', '|'), ('స', '|'), ('మ', 'U'), ('ర్థు', '|'), ('డొ', 'U'), ('క్క', '|'), ('డు', '|'), ('లే', 'U'), ('డు', '|'), ('మా', 'U'), ('న్య', '|'), ('ముల్', 'U'), ('చె', '|'), ('ఱు', '|'), ('ప', '|'), ('స', '|'), ('మ', 'U'), ('ర్థు', '|'), ('లం', 'U'), ('త', '|'), ('యెం', 'U'), ('డి', '|'), ('న', '|'), ('యూ', 'U'), ('ళ్ల', '|'), ('గో', 'U'), ('డె', '|'), ('ఱి', '|'), ('గిం', 'U'), ('ప', '|'), ('డె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('బం', 'U'), ('డి', '|'), ('న', '|'), ('యూ', 'U'), ('ళ్ల', '|'), ('కు', 'U'), ('బ్ర', '|'), ('భు', '|'), ('వు', '|'), ('లం', 'U'), ('త', '|'), ('యి', '|'), ('త', '|'), ('డు', '|'), ('పే', 'U'), ('ద', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('నె', '|'), ('ఱి', '|'), ('గిం', 'U'), ('ప', '|'), ('డె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('క', '|'), ('ల', '|'), ('వా', 'U'), ('రి', '|'), ('సి', '|'), ('రు', '|'), ('లె', 'U'), ('న్న', '|'), ('గ', '|'), ('ల', '|'), ('రు', '|'), ('చా', 'U'), ('ల', '|'), ('ద', '|'), ('న', '|'), ('యా', 'U'), ('లి', '|'), ('చే', 'U'), ('ష్ట', '|'), ('ల', '|'), ('త', 'U'), ('ప్పె', 'U'), ('న్న', '|'), ('డె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('బె', '|'), ('ఱ', '|'), ('కాం', 'U'), ('త', '|'), ('ఱం', 'U'), ('కె', 'U'), ('న్న', '|'), ('బె', 'U'), ('ద్ద', '|'), ('లం', 'U'), ('త', '|')]</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యిట్టి దుష్టుల కధికారమిచ్చినట్టి - ప్రభువు తప్పులటంచును బలుకవలెను
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>యిట్టి దుష్టుల కధికారమిచ్చినట్టి - ప్రభువు తప్పులటంచును బలుకవలెను
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
           <t>[('యి', 'U'), ('ట్టి', '|'), ('దు', 'U'), ('ష్టు', '|'), ('ల', '|'), ('క', '|'), ('ధి', '|'), ('కా', 'U'), ('ర', '|'), ('మి', 'U'), ('చ్చి', '|'), ('న', 'U'), ('ట్టి', 'U'), ('ప్ర', '|'), ('భు', '|'), ('వు', '|'), ('త', 'U'), ('ప్పు', '|'), ('ల', '|'), ('టం', 'U'), ('చు', '|'), ('ను', '|'), ('బ', '|'), ('లు', '|'), ('క', '|'), ('వ', '|'), ('లె', '|'), ('ను', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
         <is>
           <t>తల్లిగర్భము నుండి ధనము తేఁ డెవ్వఁడు - వెళ్లిపోయెడినాఁడు వెంటరాదు
 లక్షాధికారైన లవణ మన్నమె కాని - మెఱుఁగు బంగారంబు మ్రింగఁబోఁడు
@@ -1373,63 +1286,57 @@
 పొందుగా మఱుఁగైన భూమిలోపలఁ బెట్టి - దానధర్మము లేక దాఁచి దాఁచి</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
           <t>[('త', 'U'), ('ల్లి', '|'), ('గ', 'U'), ('ర్భ', '|'), ('ము', '|'), ('నుం', 'U'), ('డి', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('తే', 'U'), ('డె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('వె', 'U'), ('ళ్లి', '|'), ('పో', 'U'), ('యె', '|'), ('డి', '|'), ('నా', 'U'), ('డు', '|'), ('వెం', 'U'), ('ట', '|'), ('రా', 'U'), ('దు', '|'), ('ల', 'U'), ('క్షా', 'U'), ('ధి', '|'), ('కా', 'U'), ('రై', 'U'), ('న', '|'), ('ల', '|'), ('వ', '|'), ('ణ', '|'), ('మ', 'U'), ('న్న', '|'), ('మె', '|'), ('కా', 'U'), ('ని', '|'), ('మె', '|'), ('ఱు', '|'), ('గు', '|'), ('బం', 'U'), ('గా', 'U'), ('రం', 'U'), ('బు', '|'), ('మ్రిం', 'U'), ('గ', '|'), ('బో', 'U'), ('డు', '|'), ('వి', 'U'), ('త్త', '|'), ('మా', 'U'), ('ర్జ', '|'), ('న', '|'), ('జే', 'U'), ('సి', '|'), ('వి', 'U'), ('ఱ్ఱ', '|'), ('వీ', 'U'), ('గు', '|'), ('టె', '|'), ('కా', 'U'), ('ని', '|'), ('కూ', 'U'), ('డ', '|'), ('బె', 'U'), ('ట్టి', '|'), ('న', '|'), ('సొ', 'U'), ('మ్ము', '|'), ('తో', 'U'), ('డ', '|'), ('రా', 'U'), ('దు', '|'), ('పొం', 'U'), ('దు', '|'), ('గా', 'U'), ('మ', '|'), ('ఱు', '|'), ('గై', 'U'), ('న', '|'), ('భూ', 'U'), ('మి', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('బె', 'U'), ('ట్టి', '|'), ('దా', 'U'), ('న', '|'), ('ధ', '|'), ('ర్మ', '|'), ('ము', '|'), ('లే', 'U'), ('క', '|'), ('దా', 'U'), ('చి', '|'), ('దా', 'U'), ('చి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>తుదకు దొంగల కిత్తురో దొరల కవునో - తేనె జుంటీఁగ లియ్యవా తెరువరులకు?
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>తుదకు దొంగల కిత్తురో దొరల కవునో - తేనె జుంటీఁగ లియ్యవా తెరువరులకు?
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
           <t>[('తు', '|'), ('ద', '|'), ('కు', '|'), ('దొం', 'U'), ('గ', '|'), ('ల', '|'), ('కి', 'U'), ('త్తు', '|'), ('రో', 'U'), ('దొ', '|'), ('ర', '|'), ('ల', '|'), ('క', '|'), ('వు', '|'), ('నో', 'U'), ('తే', 'U'), ('నె', '|'), ('జుం', 'U'), ('టీ', 'U'), ('గ', '|'), ('లి', 'U'), ('య్య', '|'), ('వా', 'U'), ('తె', '|'), ('రు', '|'), ('వ', '|'), ('రు', '|'), ('ల', '|'), ('కు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
         <is>
           <t>లోకమం దెవఁడైన లోభి మానవుఁ డున్న - భిక్ష మర్థికిఁ జేతఁ బెట్టలేఁడు
 తాను బెట్టకయున్న తగవు పుట్టదుగాని - యొరులు పెట్టఁగఁ జూచి యోర్వలేఁడు
@@ -1437,63 +1344,57 @@
 ఫలము విఘ్నంబైన బలు సంతసమునందు - మేలు కల్గినఁ జాల మిడుకుచుండు</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
           <t>[('లో', 'U'), ('క', '|'), ('మం', 'U'), ('దె', '|'), ('వ', '|'), ('డై', 'U'), ('న', '|'), ('లో', 'U'), ('భి', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('డు', 'U'), ('న్న', '|'), ('భి', 'U'), ('క్ష', '|'), ('మ', 'U'), ('ర్థి', '|'), ('కి', '|'), ('జే', 'U'), ('త', '|'), ('బె', 'U'), ('ట్ట', '|'), ('లే', 'U'), ('డు', '|'), ('తా', 'U'), ('ను', '|'), ('బె', 'U'), ('ట్ట', '|'), ('క', '|'), ('యు', 'U'), ('న్న', '|'), ('త', '|'), ('గ', '|'), ('వు', '|'), ('పు', 'U'), ('ట్ట', '|'), ('దు', '|'), ('గా', 'U'), ('ని', '|'), ('యొ', '|'), ('రు', '|'), ('లు', '|'), ('పె', 'U'), ('ట్ట', '|'), ('గ', '|'), ('జూ', 'U'), ('చి', '|'), ('యో', 'U'), ('ర్వ', '|'), ('లే', 'U'), ('డు', '|'), ('దా', 'U'), ('త', '|'), ('ద', 'U'), ('గ్గ', '|'), ('ఱ', '|'), ('జే', 'U'), ('రి', '|'), ('త', '|'), ('న', '|'), ('ము', 'U'), ('ల్లె', '|'), ('చె', '|'), ('డి', '|'), ('న', 'U'), ('ట్లు', '|'), ('జి', 'U'), ('హ్వ', '|'), ('తో', 'U'), ('జా', 'U'), ('డీ', 'U'), ('లు', '|'), ('చె', 'U'), ('ప్పు', '|'), ('చుం', 'U'), ('డు', '|'), ('ఫ', '|'), ('ల', '|'), ('ము', '|'), ('వి', 'U'), ('ఘ్నం', 'U'), ('బై', 'U'), ('న', '|'), ('బ', '|'), ('లు', '|'), ('సం', 'U'), ('త', '|'), ('స', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('మే', 'U'), ('లు', '|'), ('క', 'U'), ('ల్గి', '|'), ('న', '|'), ('జా', 'U'), ('ల', '|'), ('మి', '|'), ('డు', '|'), ('కు', '|'), ('చుం', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>శ్రీరమానాథ! యిటువంటిక్రూరునకును - భిక్షకుల శత్రువని పేరు పెట్టవచ్చు
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>శ్రీరమానాథ! యిటువంటిక్రూరునకును - భిక్షకుల శత్రువని పేరు పెట్టవచ్చు
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('ర', '|'), ('మా', 'U'), ('నా', 'U'), ('థ', '|'), ('యి', '|'), ('టు', '|'), ('వం', 'U'), ('టి', 'U'), ('క్రూ', 'U'), ('రు', '|'), ('న', '|'), ('కు', '|'), ('ను', '|'), ('భి', 'U'), ('క్ష', '|'), ('కు', '|'), ('ల', '|'), ('శ', 'U'), ('త్రు', '|'), ('వ', '|'), ('ని', '|'), ('పే', 'U'), ('రు', '|'), ('పె', 'U'), ('ట్ట', '|'), ('వ', 'U'), ('చ్చు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
         <is>
           <t>తనువులోఁ బ్రాణముల్‌ తర్లిపొయ్యెడి వేళ - నీ స్వరూపమును ధ్యానించునతఁడు
 నిమిషమాత్రములోన నిన్నుఁ జేరును గాని - యమునిచేతికిఁ జిక్కి శ్రమలఁ బడఁడు
@@ -1501,63 +1402,57 @@
 మోక్షము నీ దాసముఖ్యుల కగుఁ గాని - నరక మెక్కడిదయ్య నళిననేత్ర</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ను', '|'), ('వు', '|'), ('లో', 'U'), ('బ్రా', 'U'), ('ణ', '|'), ('ముల్', 'U'), ('త', 'U'), ('ర్లి', '|'), ('పొ', 'U'), ('య్యె', '|'), ('డి', '|'), ('వే', 'U'), ('ళ', '|'), ('నీ', 'U'), ('స్వ', '|'), ('రూ', 'U'), ('ప', '|'), ('ము', '|'), ('ను', 'U'), ('ధ్యా', 'U'), ('నిం', 'U'), ('చు', '|'), ('న', '|'), ('త', '|'), ('డు', '|'), ('ని', '|'), ('మి', '|'), ('ష', '|'), ('మా', 'U'), ('త్ర', '|'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('ని', 'U'), ('న్ను', '|'), ('జే', 'U'), ('రు', '|'), ('ను', '|'), ('గా', 'U'), ('ని', '|'), ('య', '|'), ('ము', '|'), ('ని', '|'), ('చే', 'U'), ('తి', '|'), ('కి', '|'), ('జి', 'U'), ('క్కి', 'U'), ('శ్ర', '|'), ('మ', '|'), ('ల', '|'), ('బ', '|'), ('డ', '|'), ('డు', '|'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('సం', 'U'), ('తో', 'U'), ('షా', 'U'), ('న', '|'), ('భ', '|'), ('జ', '|'), ('న', '|'), ('జే', 'U'), ('సె', '|'), ('డి', '|'), ('వా', 'U'), ('రి', '|'), ('పు', 'U'), ('ణ్య', '|'), ('మే', 'U'), ('మ', '|'), ('న', '|'), ('వ', 'U'), ('చ్చు', '|'), ('భో', 'U'), ('గి', '|'), ('శ', '|'), ('య', '|'), ('న', '|'), ('మో', 'U'), ('క్ష', '|'), ('ము', '|'), ('నీ', 'U'), ('దా', 'U'), ('స', '|'), ('ము', 'U'), ('ఖ్యు', '|'), ('ల', '|'), ('క', '|'), ('గు', '|'), ('గా', 'U'), ('ని', '|'), ('న', '|'), ('ర', '|'), ('క', '|'), ('మె', 'U'), ('క్క', '|'), ('డి', '|'), ('ద', 'U'), ('య్య', '|'), ('న', '|'), ('ళి', '|'), ('న', '|'), ('నే', 'U'), ('త్ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కమలనాభ నీ మహిమలు గానలేని - తుచ్ఛులకు ముక్తి దొరకుట దుర్లభంబు
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>కమలనాభ నీ మహిమలు గానలేని - తుచ్ఛులకు ముక్తి దొరకుట దుర్లభంబు
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('మ', '|'), ('ల', '|'), ('నా', 'U'), ('భ', '|'), ('నీ', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('లు', '|'), ('గా', 'U'), ('న', '|'), ('లే', 'U'), ('ని', '|'), ('తు', 'U'), ('చ్ఛు', '|'), ('ల', '|'), ('కు', '|'), ('ము', 'U'), ('క్తి', '|'), ('దొ', '|'), ('ర', '|'), ('కు', '|'), ('ట', '|'), ('దు', 'U'), ('ర్ల', '|'), ('భం', 'U'), ('బు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
         <is>
           <t>నీలమేఘశ్యామ! నీవె తండ్రివి మాకు - కమలవాసిని మమ్ముఁగన్న తల్లి
 నీ భక్త వరులంత నిజమైన బాంధవుల్‌ - నీ కటాక్షము మా కనేక ధనము
@@ -1565,63 +1460,57 @@
 నీ మంత్రమే మాకు నిష్కళంకపు విద్య - నీ పద ధ్యానంబు నిత్యజపము</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('ల', '|'), ('మే', 'U'), ('ఘ', 'U'), ('శ్యా', 'U'), ('మ', '|'), ('నీ', 'U'), ('వె', '|'), ('తం', 'U'), ('డ్రి', '|'), ('వి', '|'), ('మా', 'U'), ('కు', '|'), ('క', '|'), ('మ', '|'), ('ల', '|'), ('వా', 'U'), ('సి', '|'), ('ని', '|'), ('మ', 'U'), ('మ్ము', '|'), ('గ', 'U'), ('న్న', '|'), ('త', 'U'), ('ల్లి', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్త', '|'), ('వ', '|'), ('రు', '|'), ('లం', 'U'), ('త', '|'), ('ని', '|'), ('జ', '|'), ('మై', 'U'), ('న', '|'), ('బాం', 'U'), ('ధ', '|'), ('వుల్', 'U'), ('నీ', 'U'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('ము', '|'), ('మా', 'U'), ('క', '|'), ('నే', 'U'), ('క', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('నీ', 'U'), ('కీ', 'U'), ('ర్త', '|'), ('న', '|'), ('లు', '|'), ('మా', 'U'), ('కు', '|'), ('లో', 'U'), ('క', 'U'), ('ప్ర', '|'), ('పం', 'U'), ('చం', 'U'), ('బు', '|'), ('నీ', 'U'), ('స', '|'), ('హా', 'U'), ('య', '|'), ('ము', '|'), ('మా', 'U'), ('కు', '|'), ('ని', 'U'), ('త్య', '|'), ('సు', '|'), ('ఖ', '|'), ('ము', '|'), ('నీ', 'U'), ('మం', 'U'), ('త్ర', '|'), ('మే', 'U'), ('మా', 'U'), ('కు', '|'), ('ని', 'U'), ('ష్క', '|'), ('ళం', 'U'), ('క', '|'), ('పు', '|'), ('వి', 'U'), ('ద్య', '|'), ('నీ', 'U'), ('ప', '|'), ('ద', 'U'), ('ధ్యా', 'U'), ('నం', 'U'), ('బు', '|'), ('ని', 'U'), ('త్య', '|'), ('జ', '|'), ('ప', '|'), ('ము', '|')]</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>తోయజాతాక్ష! నీ పాదతులసిదళము - రోగముల కౌషధము బ్రహ్మరుద్ర వినుత
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>తోయజాతాక్ష! నీ పాదతులసిదళము - రోగముల కౌషధము బ్రహ్మరుద్ర వినుత
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
           <t>[('తో', 'U'), ('య', '|'), ('జా', 'U'), ('తా', 'U'), ('క్ష', '|'), ('నీ', 'U'), ('పా', 'U'), ('ద', '|'), ('తు', '|'), ('ల', '|'), ('సి', '|'), ('ద', '|'), ('ళ', '|'), ('ము', '|'), ('రో', 'U'), ('గ', '|'), ('ము', '|'), ('ల', '|'), ('కౌ', 'U'), ('ష', '|'), ('ధ', '|'), ('ము', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('రు', '|'), ('ద్ర', '|'), ('వి', '|'), ('ను', '|'), ('త', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
         <is>
           <t>బ్రతికినన్నాళ్లు నీభజన తప్పను గాని - మరణకాలమునందు మఱతునేమొ
 యావేళ యమదూతలాగ్రహంబున వచ్చి - ప్రాణముల్‌ పెకలించి పట్టునపుడు
@@ -1629,63 +1518,57 @@
 నా జిహ్వతో నిన్ను నారాయణా యంచుఁ - బిలుతునో శ్రమచేతఁ బిలువలేనో</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
           <t>[('బ్ర', '|'), ('తి', '|'), ('కి', '|'), ('న', 'U'), ('న్నా', 'U'), ('ళ్లు', '|'), ('నీ', 'U'), ('భ', '|'), ('జ', '|'), ('న', '|'), ('త', 'U'), ('ప్ప', '|'), ('ను', '|'), ('గా', 'U'), ('ని', '|'), ('మ', '|'), ('ర', '|'), ('ణ', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('మ', '|'), ('ఱ', '|'), ('తు', '|'), ('నే', 'U'), ('మొ', '|'), ('యా', 'U'), ('వే', 'U'), ('ళ', '|'), ('య', '|'), ('మ', '|'), ('దూ', 'U'), ('త', '|'), ('లా', 'U'), ('గ్ర', '|'), ('హం', 'U'), ('బు', '|'), ('న', '|'), ('వ', 'U'), ('చ్చి', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('ముల్', 'U'), ('పె', '|'), ('క', '|'), ('లిం', 'U'), ('చి', '|'), ('ప', 'U'), ('ట్టు', '|'), ('న', '|'), ('పు', '|'), ('డు', '|'), ('క', '|'), ('ఫ', '|'), ('వా', 'U'), ('త', '|'), ('పై', 'U'), ('త్య', '|'), ('ముల్', 'U'), ('గ', 'U'), ('ప్ప', '|'), ('గా', 'U'), ('భ్ర', '|'), ('మ', '|'), ('చే', 'U'), ('త', '|'), ('గం', 'U'), ('ప', '|'), ('ము', 'U'), ('ద్భ', '|'), ('వ', '|'), ('మం', 'U'), ('ది', '|'), ('క', 'U'), ('ష్ట', '|'), ('ప', '|'), ('డు', '|'), ('చు', '|'), ('నా', 'U'), ('జి', 'U'), ('హ్వ', '|'), ('తో', 'U'), ('ని', 'U'), ('న్ను', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U'), ('యం', 'U'), ('చు', '|'), ('బి', '|'), ('లు', '|'), ('తు', '|'), ('నో', 'U'), ('శ్ర', '|'), ('మ', '|'), ('చే', 'U'), ('త', '|'), ('బి', '|'), ('లు', '|'), ('వ', '|'), ('లే', 'U'), ('నో', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నాఁటి కిప్పుడె చేతు నీనామ భజన - తలఁచెదను జెవి నిడవయ్య! ధైర్యముగను
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>నాఁటి కిప్పుడె చేతు నీనామ భజన - తలఁచెదను జెవి నిడవయ్య! ధైర్యముగను
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
           <t>[('నా', 'U'), ('టి', '|'), ('కి', 'U'), ('ప్పు', '|'), ('డె', '|'), ('చే', 'U'), ('తు', '|'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('భ', '|'), ('జ', '|'), ('న', '|'), ('త', '|'), ('ల', '|'), ('చె', '|'), ('ద', '|'), ('ను', '|'), ('జె', '|'), ('వి', '|'), ('ని', '|'), ('డ', '|'), ('వ', 'U'), ('య్య', '|'), ('ధై', 'U'), ('ర్య', '|'), ('ము', '|'), ('గ', '|'), ('ను', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
         <is>
           <t>పాంచభౌతికము దుర్బలమైన కాయం బి - దెప్పుడో విడుచుట యెఱుకలేదు
 శతవర్షములదాఁక మితముఁ జెప్పిరి గాని - నమ్మరాదా మాట నెమ్మనమున
@@ -1693,63 +1576,57 @@
 యూరనో యడవినో యుదకమధ్యముననో - యెప్పుడో విడుచుట యే క్షణంబొ</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
           <t>[('పాం', 'U'), ('చ', '|'), ('భౌ', 'U'), ('తి', '|'), ('క', '|'), ('ము', '|'), ('దు', 'U'), ('ర్బ', '|'), ('ల', '|'), ('మై', 'U'), ('న', '|'), ('కా', 'U'), ('యం', 'U'), ('బి', '|'), ('దె', 'U'), ('ప్పు', '|'), ('డో', 'U'), ('వి', '|'), ('డు', '|'), ('చు', '|'), ('ట', '|'), ('యె', '|'), ('ఱు', '|'), ('క', '|'), ('లే', 'U'), ('దు', '|'), ('శ', '|'), ('త', '|'), ('వ', 'U'), ('ర్ష', '|'), ('ము', '|'), ('ల', '|'), ('దా', 'U'), ('క', '|'), ('మి', '|'), ('త', '|'), ('ము', '|'), ('జె', 'U'), ('ప్పి', '|'), ('రి', '|'), ('గా', 'U'), ('ని', '|'), ('న', 'U'), ('మ్మ', '|'), ('రా', 'U'), ('దా', 'U'), ('మా', 'U'), ('ట', '|'), ('నె', 'U'), ('మ్మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('బా', 'U'), ('ల్య', '|'), ('మం', 'U'), ('దో', 'U'), ('మం', 'U'), ('చి', 'U'), ('ప్రా', 'U'), ('య', '|'), ('మం', 'U'), ('దో', 'U'), ('లే', 'U'), ('క', '|'), ('ము', '|'), ('ది', '|'), ('మి', '|'), ('యం', 'U'), ('దో', 'U'), ('లే', 'U'), ('క', '|'), ('ము', '|'), ('స', '|'), ('లి', '|'), ('యం', 'U'), ('దో', 'U'), ('యూ', 'U'), ('ర', '|'), ('నో', 'U'), ('య', '|'), ('డ', '|'), ('వి', '|'), ('నో', 'U'), ('యు', '|'), ('ద', '|'), ('క', '|'), ('మ', 'U'), ('ధ్య', '|'), ('ము', '|'), ('న', '|'), ('నో', 'U'), ('యె', 'U'), ('ప్పు', '|'), ('డో', 'U'), ('వి', '|'), ('డు', '|'), ('చు', '|'), ('ట', '|'), ('యే', 'U'), ('క్ష', '|'), ('ణం', 'U'), ('బొ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మరణమే నిశ్చయము బుద్ధిమంతుఁడైన - దేహమున్నంతలో మిమ్ముఁదెలియవలయు
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>మరణమే నిశ్చయము బుద్ధిమంతుఁడైన - దేహమున్నంతలో మిమ్ముఁదెలియవలయు
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('ర', '|'), ('ణ', '|'), ('మే', 'U'), ('ని', 'U'), ('శ్చ', '|'), ('య', '|'), ('ము', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('మం', 'U'), ('తు', '|'), ('డై', 'U'), ('న', '|'), ('దే', 'U'), ('హ', '|'), ('ము', 'U'), ('న్నం', 'U'), ('త', '|'), ('లో', 'U'), ('మి', 'U'), ('మ్ము', '|'), ('దె', '|'), ('లి', '|'), ('య', '|'), ('వ', '|'), ('ల', '|'), ('యు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
         <is>
           <t>తల్లిదండ్రులు భార్య తనయు లాప్తులు బావ - మఱఁదు లన్నలు మేనమామ గారు
 ఘనముగా బంధువుల్‌ గల్గినప్పటికైనఁ - దాను దర్లఁగ వెంటఁదగిలి రారు
@@ -1757,63 +1634,57 @@
 బలగ మందఱు దుఃఖపడుట మాత్రమె కాని - యించుక యాయుష్యమియ్యలేరు</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
           <t>[('త', 'U'), ('ల్లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('లు', '|'), ('భా', 'U'), ('ర్య', '|'), ('త', '|'), ('న', '|'), ('యు', '|'), ('లా', 'U'), ('ప్తు', '|'), ('లు', '|'), ('బా', 'U'), ('వ', '|'), ('మ', '|'), ('ఱ', '|'), ('దు', '|'), ('ల', 'U'), ('న్న', '|'), ('లు', '|'), ('మే', 'U'), ('న', '|'), ('మా', 'U'), ('మ', '|'), ('గా', 'U'), ('రు', '|'), ('ఘ', '|'), ('న', '|'), ('ము', '|'), ('గా', 'U'), ('బం', 'U'), ('ధు', '|'), ('వుల్', 'U'), ('గ', 'U'), ('ల్గి', '|'), ('న', 'U'), ('ప్ప', '|'), ('టి', '|'), ('కై', 'U'), ('న', '|'), ('దా', 'U'), ('ను', '|'), ('ద', 'U'), ('ర్ల', '|'), ('గ', '|'), ('వెం', 'U'), ('ట', '|'), ('ద', '|'), ('గి', '|'), ('లి', '|'), ('రా', 'U'), ('రు', '|'), ('య', '|'), ('ము', '|'), ('ని', '|'), ('దూ', 'U'), ('త', '|'), ('లు', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('మ', '|'), ('ప', '|'), ('హ', '|'), ('రిం', 'U'), ('చు', '|'), ('క', '|'), ('పో', 'U'), ('గ', '|'), ('మ', '|'), ('మ', '|'), ('త', '|'), ('తో', 'U'), ('బో', 'U'), ('రా', 'U'), ('డి', '|'), ('మా', 'U'), ('న్ప', '|'), ('లే', 'U'), ('రు', '|'), ('బ', '|'), ('ల', '|'), ('గ', '|'), ('మం', 'U'), ('ద', '|'), ('ఱు', '|'), ('దుః', 'U'), ('ఖ', '|'), ('ప', '|'), ('డు', '|'), ('ట', '|'), ('మా', 'U'), ('త్ర', '|'), ('మె', '|'), ('కా', 'U'), ('ని', '|'), ('యిం', 'U'), ('చు', '|'), ('క', '|'), ('యా', 'U'), ('యు', 'U'), ('ష్య', '|'), ('మి', 'U'), ('య్య', '|'), ('లే', 'U'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>చుట్టముల మీఁది భ్రమదీసి చూరఁ జెక్కి - సంతతము మిమ్ము నమ్ముట సార్థకంబు
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>చుట్టముల మీఁది భ్రమదీసి చూరఁ జెక్కి - సంతతము మిమ్ము నమ్ముట సార్థకంబు
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
           <t>[('చు', 'U'), ('ట్ట', '|'), ('ము', '|'), ('ల', '|'), ('మీ', 'U'), ('ది', 'U'), ('భ్ర', '|'), ('మ', '|'), ('దీ', 'U'), ('సి', '|'), ('చూ', 'U'), ('ర', '|'), ('జె', 'U'), ('క్కి', '|'), ('సం', 'U'), ('త', '|'), ('త', '|'), ('ము', '|'), ('మి', 'U'), ('మ్ము', '|'), ('న', 'U'), ('మ్ము', '|'), ('ట', '|'), ('సా', 'U'), ('ర్థ', '|'), ('కం', 'U'), ('బు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
         <is>
           <t>ఇభరాజవరద! నిన్నెంతఁ బిల్చినఁగాని - మాఱు పల్కవదేమి మౌనితనమొ?
 మునిజనార్చిత! నిన్నుమ్రొక్కి వేఁడినఁగాని - కనులఁ బడవదేమి గడుసుఁదనమొ?
@@ -1821,63 +1692,57 @@
 స్థిరముగా నీ పాదసేవఁ జేసెద నన్న - దొరకఁ జాలవదేమి ధూర్తతనమొ?</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('భ', '|'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ర', '|'), ('ద', '|'), ('ని', 'U'), ('న్నెం', 'U'), ('త', '|'), ('బి', 'U'), ('ల్చి', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('మా', 'U'), ('ఱు', '|'), ('ప', 'U'), ('ల్క', '|'), ('వ', '|'), ('దే', 'U'), ('మి', '|'), ('మౌ', 'U'), ('ని', '|'), ('త', '|'), ('న', '|'), ('మొ', '|'), ('ము', '|'), ('ని', '|'), ('జ', '|'), ('నా', 'U'), ('ర్చి', '|'), ('త', '|'), ('ని', 'U'), ('న్ను', '|'), ('మ్రొ', 'U'), ('క్కి', '|'), ('వే', 'U'), ('డి', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('క', '|'), ('ను', '|'), ('ల', '|'), ('బ', '|'), ('డ', '|'), ('వ', '|'), ('దే', 'U'), ('మి', '|'), ('గ', '|'), ('డు', '|'), ('సు', '|'), ('ద', '|'), ('న', '|'), ('మొ', '|'), ('చా', 'U'), ('ల', '|'), ('దై', 'U'), ('న్య', '|'), ('ము', '|'), ('నొం', 'U'), ('ది', '|'), ('చా', 'U'), ('టు', '|'), ('జొ', 'U'), ('చ్చి', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('భా', 'U'), ('గ్య', '|'), ('మి', 'U'), ('య్య', '|'), ('వ', '|'), ('దే', 'U'), ('మి', 'U'), ('ప్రౌ', 'U'), ('ఢ', '|'), ('త', '|'), ('న', '|'), ('మొ', 'U'), ('స్థి', '|'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('నీ', 'U'), ('పా', 'U'), ('ద', '|'), ('సే', 'U'), ('వ', '|'), ('జే', 'U'), ('సె', '|'), ('ద', '|'), ('న', 'U'), ('న్న', '|'), ('దొ', '|'), ('ర', '|'), ('క', '|'), ('జా', 'U'), ('ల', '|'), ('వ', '|'), ('దే', 'U'), ('మి', '|'), ('ధూ', 'U'), ('ర్త', '|'), ('త', '|'), ('న', '|'), ('మొ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మోక్షదాయక! యిటువంటి మూర్ఖజనుని - కష్టపెట్టిన నీకేమి కడుపునిండు
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>మోక్షదాయక! యిటువంటి మూర్ఖజనుని - కష్టపెట్టిన నీకేమి కడుపునిండు
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
           <t>[('మో', 'U'), ('క్ష', '|'), ('దా', 'U'), ('య', '|'), ('క', '|'), ('యి', '|'), ('టు', '|'), ('వం', 'U'), ('టి', '|'), ('మూ', 'U'), ('ర్ఖ', '|'), ('జ', '|'), ('ను', '|'), ('ని', '|'), ('క', 'U'), ('ష్ట', '|'), ('పె', 'U'), ('ట్టి', '|'), ('న', '|'), ('నీ', 'U'), ('కే', 'U'), ('మి', '|'), ('క', '|'), ('డు', '|'), ('పు', '|'), ('నిం', 'U'), ('డు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
         <is>
           <t>నీమీఁది కీర్తనల్‌ నిత్యగానముఁ జేసి - రమ్యమొందింప నారదుఁడఁగాను
 సావధానముగ నీచరణ పంకజ సేవ - సలిపి మెప్పింపంగ శబరిఁగాను
@@ -1885,63 +1750,57 @@
 ఘనముగా నీమీఁద గ్రంథముల్‌ గల్పించి - వినుతిసేయను వ్యాసమునినిగాను</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('మీ', 'U'), ('ది', '|'), ('కీ', 'U'), ('ర్త', '|'), ('నల్', 'U'), ('ని', 'U'), ('త్య', '|'), ('గా', 'U'), ('న', '|'), ('ము', '|'), ('జే', 'U'), ('సి', '|'), ('ర', 'U'), ('మ్య', '|'), ('మొం', 'U'), ('దిం', 'U'), ('ప', '|'), ('నా', 'U'), ('ర', '|'), ('దు', '|'), ('డ', '|'), ('గా', 'U'), ('ను', '|'), ('సా', 'U'), ('వ', '|'), ('ధా', 'U'), ('న', '|'), ('ము', '|'), ('గ', '|'), ('నీ', 'U'), ('చ', '|'), ('ర', '|'), ('ణ', '|'), ('పం', 'U'), ('క', '|'), ('జ', '|'), ('సే', 'U'), ('వ', '|'), ('స', '|'), ('లి', '|'), ('పి', '|'), ('మె', 'U'), ('ప్పిం', 'U'), ('పం', 'U'), ('గ', '|'), ('శ', '|'), ('బ', '|'), ('రి', '|'), ('గా', 'U'), ('ను', '|'), ('బా', 'U'), ('ల్య', '|'), ('మ', 'U'), ('ప్ప', '|'), ('టి', '|'), ('నుం', 'U'), ('డి', '|'), ('భ', 'U'), ('క్తి', '|'), ('నీ', 'U'), ('యం', 'U'), ('దు', '|'), ('న', '|'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('ను', 'U'), ('బ్ర', 'U'), ('హ్లా', 'U'), ('ద', '|'), ('ఘ', '|'), ('ను', '|'), ('డ', '|'), ('గా', 'U'), ('ను', '|'), ('ఘ', '|'), ('న', '|'), ('ము', '|'), ('గా', 'U'), ('నీ', 'U'), ('మీ', 'U'), ('ద', 'U'), ('గ్రం', 'U'), ('థ', '|'), ('ముల్', 'U'), ('గ', 'U'), ('ల్పిం', 'U'), ('చి', '|'), ('వి', '|'), ('ను', '|'), ('తి', '|'), ('సే', 'U'), ('య', '|'), ('ను', 'U'), ('వ్యా', 'U'), ('స', '|'), ('ము', '|'), ('ని', '|'), ('ని', '|'), ('గా', 'U'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>సాధుఁడను మూర్ఖమతి మనుష్యాధముఁడను - హీనుఁడను జుమ్మి నీవు నన్నేలుకొనుము
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>సాధుఁడను మూర్ఖమతి మనుష్యాధముఁడను - హీనుఁడను జుమ్మి నీవు నన్నేలుకొనుము
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
           <t>[('సా', 'U'), ('ధు', '|'), ('డ', '|'), ('ను', '|'), ('మూ', 'U'), ('ర్ఖ', '|'), ('మ', '|'), ('తి', '|'), ('మ', '|'), ('ను', 'U'), ('ష్యా', 'U'), ('ధ', '|'), ('ము', '|'), ('డ', '|'), ('ను', '|'), ('హీ', 'U'), ('ను', '|'), ('డ', '|'), ('ను', '|'), ('జు', 'U'), ('మ్మి', '|'), ('నీ', 'U'), ('వు', '|'), ('న', 'U'), ('న్నే', 'U'), ('లు', '|'), ('కొ', '|'), ('ను', '|'), ('ము', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
         <is>
           <t>అతిశయంబుగఁ గల్లలాడనేర్చితిఁగాని - పాటిగా సత్యముల్‌ పలుకనేర
 సత్కార్య విఘ్నముల్‌ సలుప నేర్చితిఁగాని - యిష్ట మొందఁగ నిర్వహింపనేర
@@ -1949,63 +1808,57 @@
 ధనము లియ్యంగ వద్దనఁగ నేర్చితిఁ గాని - శీఘ్ర మిచ్చెడునట్లు చెప్పనేరఁ</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('తి', '|'), ('శ', '|'), ('యం', 'U'), ('బు', '|'), ('గ', '|'), ('గ', 'U'), ('ల్ల', '|'), ('లా', 'U'), ('డ', '|'), ('నే', 'U'), ('ర్చి', '|'), ('తి', '|'), ('గా', 'U'), ('ని', '|'), ('పా', 'U'), ('టి', '|'), ('గా', 'U'), ('స', 'U'), ('త్య', '|'), ('ముల్', 'U'), ('ప', '|'), ('లు', '|'), ('క', '|'), ('నే', 'U'), ('ర', '|'), ('స', 'U'), ('త్కా', 'U'), ('ర్య', '|'), ('వి', 'U'), ('ఘ్న', '|'), ('ముల్', 'U'), ('స', '|'), ('లు', '|'), ('ప', '|'), ('నే', 'U'), ('ర్చి', '|'), ('తి', '|'), ('గా', 'U'), ('ని', '|'), ('యి', 'U'), ('ష్ట', '|'), ('మొం', 'U'), ('ద', '|'), ('గ', '|'), ('ని', 'U'), ('ర్వ', '|'), ('హిం', 'U'), ('ప', '|'), ('నే', 'U'), ('ర', '|'), ('నొ', '|'), ('క', '|'), ('రి', '|'), ('సొ', 'U'), ('మ్ము', '|'), ('కు', '|'), ('దో', 'U'), ('సి', '|'), ('లొ', 'U'), ('గ్గ', '|'), ('నే', 'U'), ('ర్చి', '|'), ('తి', '|'), ('గా', 'U'), ('ని', '|'), ('చె', '|'), ('లు', '|'), ('వు', '|'), ('గా', 'U'), ('ధ', '|'), ('ర్మం', 'U'), ('బు', '|'), ('సే', 'U'), ('య', '|'), ('నే', 'U'), ('ర', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('లి', 'U'), ('య్యం', 'U'), ('గ', '|'), ('వ', 'U'), ('ద్ద', '|'), ('న', '|'), ('గ', '|'), ('నే', 'U'), ('ర్చి', '|'), ('తి', '|'), ('గా', 'U'), ('ని', '|'), ('శీ', 'U'), ('ఘ్ర', '|'), ('మి', 'U'), ('చ్చె', '|'), ('డు', '|'), ('న', 'U'), ('ట్లు', '|'), ('చె', 'U'), ('ప్ప', '|'), ('నే', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>బంకజాతాక్ష! నే నతిపాతకుఁడను - దప్పులన్నియు క్షమియింపఁ దండ్రి వీవె!
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>బంకజాతాక్ష! నే నతిపాతకుఁడను - దప్పులన్నియు క్షమియింపఁ దండ్రి వీవె!
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
           <t>[('బం', 'U'), ('క', '|'), ('జా', 'U'), ('తా', 'U'), ('క్ష', '|'), ('నే', 'U'), ('న', '|'), ('తి', '|'), ('పా', 'U'), ('త', '|'), ('కు', '|'), ('డ', '|'), ('ను', '|'), ('ద', 'U'), ('ప్పు', '|'), ('ల', 'U'), ('న్ని', '|'), ('యు', 'U'), ('క్ష', '|'), ('మి', '|'), ('యిం', 'U'), ('ప', '|'), ('దం', 'U'), ('డ్రి', '|'), ('వీ', 'U'), ('వె', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
         <is>
           <t>ఉర్విలో నాయుష్యమున్న పర్యంతంబు - మాయ సంసారంబు మఱగి నరుఁడు
 సకల పాపములైన సంగ్రహించును గాని - నిన్నుఁ జేరెడి యుక్తినేర్వలేఁడు
@@ -2013,63 +1866,57 @@
 హింస కోర్వఁగలేక యేడ్చి గంతులువేసి - దిక్కు లేదని నాల్గుదిశలు చూడఁ</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
           <t>[('ఉ', 'U'), ('ర్వి', '|'), ('లో', 'U'), ('నా', 'U'), ('యు', 'U'), ('ష్య', '|'), ('ము', 'U'), ('న్న', '|'), ('ప', 'U'), ('ర్యం', 'U'), ('తం', 'U'), ('బు', '|'), ('మా', 'U'), ('య', '|'), ('సం', 'U'), ('సా', 'U'), ('రం', 'U'), ('బు', '|'), ('మ', '|'), ('ఱ', '|'), ('గి', '|'), ('న', '|'), ('రు', '|'), ('డు', '|'), ('స', '|'), ('క', '|'), ('ల', '|'), ('పా', 'U'), ('ప', '|'), ('ము', '|'), ('లై', 'U'), ('న', '|'), ('సం', 'U'), ('గ్ర', '|'), ('హిం', 'U'), ('చు', '|'), ('ను', '|'), ('గా', 'U'), ('ని', '|'), ('ని', 'U'), ('న్ను', '|'), ('జే', 'U'), ('రె', '|'), ('డి', '|'), ('యు', 'U'), ('క్తి', '|'), ('నే', 'U'), ('ర్వ', '|'), ('లే', 'U'), ('డు', '|'), ('తు', '|'), ('ద', '|'), ('కు', '|'), ('గా', 'U'), ('లు', '|'), ('ని', '|'), ('యొ', 'U'), ('ద్ద', '|'), ('దూ', 'U'), ('త', '|'), ('లి', 'U'), ('ద్ద', '|'), ('ఱు', '|'), ('వ', 'U'), ('చ్చి', '|'), ('గుం', 'U'), ('జు', '|'), ('క', '|'), ('చ', '|'), ('ని', '|'), ('వా', 'U'), ('రు', 'U'), ('గ్రు', 'U'), ('ద్దు', '|'), ('చుం', 'U'), ('డ', '|'), ('హిం', 'U'), ('స', '|'), ('కో', 'U'), ('ర్వ', '|'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('యే', 'U'), ('డ్చి', '|'), ('గం', 'U'), ('తు', '|'), ('లు', '|'), ('వే', 'U'), ('సి', '|'), ('ది', 'U'), ('క్కు', '|'), ('లే', 'U'), ('ద', '|'), ('ని', '|'), ('నా', 'U'), ('ల్గు', '|'), ('ది', '|'), ('శ', '|'), ('లు', '|'), ('చూ', 'U'), ('డ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>దన్ను విడిపింప వచ్చెడి ధన్యుఁడేడి - ముందు నీ దాసుఁడైయున్న ముక్తి గలుగు
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>దన్ను విడిపింప వచ్చెడి ధన్యుఁడేడి - ముందు నీ దాసుఁడైయున్న ముక్తి గలుగు
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
           <t>[('ద', 'U'), ('న్ను', '|'), ('వి', '|'), ('డి', '|'), ('పిం', 'U'), ('ప', '|'), ('వ', 'U'), ('చ్చె', '|'), ('డి', '|'), ('ధ', 'U'), ('న్యు', '|'), ('డే', 'U'), ('డి', '|'), ('ముం', 'U'), ('దు', '|'), ('నీ', 'U'), ('దా', 'U'), ('సు', '|'), ('డై', 'U'), ('యు', 'U'), ('న్న', '|'), ('ము', 'U'), ('క్తి', '|'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
         <is>
           <t>అధిక విద్యావంతులప్రయోజకులైరి - పూర్ణశుంఠలు సభాపూజ్యులైరి
 సత్యవంతులమాట జనవిరోధంబాయె - వదరుఁబోతులమాట వాసికెక్కె
@@ -2077,63 +1924,57 @@
 పుణ్యవంతులు రోగభూత పీడితులైరి - దుష్టమానవులు వర్ధిష్ణులైరి</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ధి', '|'), ('క', '|'), ('వి', 'U'), ('ద్యా', 'U'), ('వం', 'U'), ('తు', '|'), ('ల', 'U'), ('ప్ర', '|'), ('యో', 'U'), ('జ', '|'), ('కు', '|'), ('లై', 'U'), ('రి', '|'), ('పూ', 'U'), ('ర్ణ', '|'), ('శుం', 'U'), ('ఠ', '|'), ('లు', '|'), ('స', '|'), ('భా', 'U'), ('పూ', 'U'), ('జ్యు', '|'), ('లై', 'U'), ('రి', '|'), ('స', 'U'), ('త్య', '|'), ('వం', 'U'), ('తు', '|'), ('ల', '|'), ('మా', 'U'), ('ట', '|'), ('జ', '|'), ('న', '|'), ('వి', '|'), ('రో', 'U'), ('ధం', 'U'), ('బా', 'U'), ('యె', '|'), ('వ', '|'), ('ద', '|'), ('రు', '|'), ('బో', 'U'), ('తు', '|'), ('ల', '|'), ('మా', 'U'), ('ట', '|'), ('వా', 'U'), ('సి', '|'), ('కె', 'U'), ('క్కె', '|'), ('ధ', '|'), ('ర్మ', '|'), ('వా', 'U'), ('ద', '|'), ('న', '|'), ('ప', '|'), ('రుల్', 'U'), ('దా', 'U'), ('రి', '|'), ('ద్ర్య', '|'), ('మొం', 'U'), ('ది', '|'), ('రి', '|'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('లో', 'U'), ('భు', '|'), ('లు', '|'), ('ధ', '|'), ('న', 'U'), ('ప్రా', 'U'), ('ప్తు', '|'), ('లై', 'U'), ('రి', '|'), ('పు', 'U'), ('ణ్య', '|'), ('వం', 'U'), ('తు', '|'), ('లు', '|'), ('రో', 'U'), ('గ', '|'), ('భూ', 'U'), ('త', '|'), ('పీ', 'U'), ('డి', '|'), ('తు', '|'), ('లై', 'U'), ('రి', '|'), ('దు', 'U'), ('ష్ట', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('లు', '|'), ('వ', 'U'), ('ర్ధి', 'U'), ('ష్ణు', '|'), ('లై', 'U'), ('రి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>పక్షివాహన! మావంటిభిక్షుకులకు - శక్తిలేదాయె నిఁక నీవెచాటు మాకు
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>పక్షివాహన! మావంటిభిక్షుకులకు - శక్తిలేదాయె నిఁక నీవెచాటు మాకు
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
           <t>[('ప', 'U'), ('క్షి', '|'), ('వా', 'U'), ('హ', '|'), ('న', '|'), ('మా', 'U'), ('వం', 'U'), ('టి', '|'), ('భి', 'U'), ('క్షు', '|'), ('కు', '|'), ('ల', '|'), ('కు', '|'), ('శ', 'U'), ('క్తి', '|'), ('లే', 'U'), ('దా', 'U'), ('యె', '|'), ('ని', '|'), ('క', '|'), ('నీ', 'U'), ('వె', '|'), ('చా', 'U'), ('టు', '|'), ('మా', 'U'), ('కు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
         <is>
           <t>భుజబలంబునఁ బెద్దపులులఁ జంపఁగవచ్చు - పాము కంఠముఁ చేతఁబట్టవచ్చు
 బ్రహ్మరాక్షసకోట్ల బాఱఁద్రోలఁగవచ్చు - మనుజుల రోగముల్‌ మాన్పవచ్చు
@@ -2141,63 +1982,57 @@
 గష్టమొందుచు ముండ్లకంపలోఁ జొరవచ్చుఁ - దిట్టుఁబోతుల నోళ్లు కట్టవచ్చుఁ</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
           <t>[('భు', '|'), ('జ', '|'), ('బ', '|'), ('లం', 'U'), ('బు', '|'), ('న', '|'), ('బె', 'U'), ('ద్ద', '|'), ('పు', '|'), ('లు', '|'), ('ల', '|'), ('జం', 'U'), ('ప', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('పా', 'U'), ('ము', '|'), ('కం', 'U'), ('ఠ', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('బ', 'U'), ('ట్ట', '|'), ('వ', 'U'), ('చ్చు', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('రా', 'U'), ('క్ష', '|'), ('స', '|'), ('కో', 'U'), ('ట్ల', '|'), ('బా', 'U'), ('ఱ', '|'), ('ద్రో', 'U'), ('ల', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('మ', '|'), ('ను', '|'), ('జు', '|'), ('ల', '|'), ('రో', 'U'), ('గ', '|'), ('ముల్', 'U'), ('మా', 'U'), ('న్ప', '|'), ('వ', 'U'), ('చ్చు', '|'), ('జి', 'U'), ('హ్వ', '|'), ('కి', 'U'), ('ష్ట', '|'), ('ము', '|'), ('గా', 'U'), ('ని', '|'), ('చే', 'U'), ('దు', '|'), ('మ్రిం', 'U'), ('గ', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ప', '|'), ('దు', '|'), ('ను', '|'), ('ఖ', 'U'), ('డ్గ', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('న', '|'), ('దు', '|'), ('మ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('గ', 'U'), ('ష్ట', '|'), ('మొం', 'U'), ('దు', '|'), ('చు', '|'), ('ముం', 'U'), ('డ్ల', '|'), ('కం', 'U'), ('ప', '|'), ('లో', 'U'), ('జొ', '|'), ('ర', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ది', 'U'), ('ట్టు', '|'), ('బో', 'U'), ('తు', '|'), ('ల', '|'), ('నో', 'U'), ('ళ్లు', '|'), ('క', 'U'), ('ట్ట', '|'), ('వ', 'U'), ('చ్చు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>బుడమిలో దుష్టులకు జ్ఞానబోధ తెలిపి - సజ్జనులఁ జేయలేఁడెంత చతురుఁడైన
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>బుడమిలో దుష్టులకు జ్ఞానబోధ తెలిపి - సజ్జనులఁ జేయలేఁడెంత చతురుఁడైన
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
           <t>[('బు', '|'), ('డ', '|'), ('మి', '|'), ('లో', 'U'), ('దు', 'U'), ('ష్టు', '|'), ('ల', '|'), ('కు', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('బో', 'U'), ('ధ', '|'), ('తె', '|'), ('లి', '|'), ('పి', '|'), ('స', 'U'), ('జ్జ', '|'), ('ను', '|'), ('ల', '|'), ('జే', 'U'), ('య', '|'), ('లే', 'U'), ('డెం', 'U'), ('త', '|'), ('చ', '|'), ('తు', '|'), ('రు', '|'), ('డై', 'U'), ('న', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
         <is>
           <t>అవనిలోఁ గల యాత్రలన్ని చేయఁగవచ్చు - ముఖ్యుఁడై నదులందు మునుఁగవచ్చు
 ముక్కుపట్టుక సంధ్యమొనసి వార్వఁగవచ్చు - దిన్నఁగా జపమాలఁ ద్రిప్పవచ్చుఁ
@@ -2205,63 +2040,57 @@
 ధనము లక్షలు కోట్లు దానమియ్యఁగవచ్చు - నైష్ఠికాచారముల్‌ నడుపవచ్చు</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('వ', '|'), ('ని', '|'), ('లో', 'U'), ('గ', '|'), ('ల', '|'), ('యా', 'U'), ('త్ర', '|'), ('ల', 'U'), ('న్ని', '|'), ('చే', 'U'), ('య', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ము', 'U'), ('ఖ్యు', '|'), ('డై', 'U'), ('న', '|'), ('దు', '|'), ('లం', 'U'), ('దు', '|'), ('ము', '|'), ('ను', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ము', 'U'), ('క్కు', '|'), ('ప', 'U'), ('ట్టు', '|'), ('క', '|'), ('సం', 'U'), ('ధ్య', '|'), ('మొ', '|'), ('న', '|'), ('సి', '|'), ('వా', 'U'), ('ర్వ', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ది', 'U'), ('న్న', '|'), ('గా', 'U'), ('జ', '|'), ('ప', '|'), ('మా', 'U'), ('ల', '|'), ('ద్రి', 'U'), ('ప్ప', '|'), ('వ', 'U'), ('చ్చు', '|'), ('వే', 'U'), ('దా', 'U'), ('ల', '|'), ('క', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('వి', '|'), ('ఱి', '|'), ('చి', '|'), ('చె', 'U'), ('ప్ప', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', 'U'), ('శ్రే', 'U'), ('ష్ఠ', 'U'), ('క్ర', '|'), ('తు', '|'), ('వు', '|'), ('లె', 'U'), ('ల్ల', '|'), ('జే', 'U'), ('య', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('ల', 'U'), ('క్ష', '|'), ('లు', '|'), ('కో', 'U'), ('ట్లు', '|'), ('దా', 'U'), ('న', '|'), ('మి', 'U'), ('య్య', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నై', 'U'), ('ష్ఠి', '|'), ('కా', 'U'), ('చా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('న', '|'), ('డు', '|'), ('ప', '|'), ('వ', 'U'), ('చ్చు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>జిత్త మన్యస్థలంబునఁ జేరకుండ - నీ పదాంభోజములయందు నిలుపరాదు
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>జిత్త మన్యస్థలంబునఁ జేరకుండ - నీ పదాంభోజములయందు నిలుపరాదు
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
           <t>[('జి', 'U'), ('త్త', '|'), ('మ', 'U'), ('న్య', 'U'), ('స్థ', '|'), ('లం', 'U'), ('బు', '|'), ('న', '|'), ('జే', 'U'), ('ర', '|'), ('కుం', 'U'), ('డ', '|'), ('నీ', 'U'), ('ప', '|'), ('దాం', 'U'), ('భో', 'U'), ('జ', '|'), ('ము', '|'), ('ల', '|'), ('యం', 'U'), ('దు', '|'), ('ని', '|'), ('లు', '|'), ('ప', '|'), ('రా', 'U'), ('దు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
         <is>
           <t>కర్ణయుగ్మమున నీకథలు సోఁకినఁజాలు - పెద్ద పోగుల జోళ్లుపెట్టినట్లు
 చేతు లెత్తుచుఁ బూజసేయఁగల్గినఁజాలు - తోరంపు కడియాలు దొడిగినట్లు
@@ -2269,63 +2098,57 @@
 గళము నొవ్వఁగ నిన్నుఁబలుకఁ గల్గినఁ జాలు - వింతగాఁ గంఠీలువేసినట్లు</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
           <t>[('క', 'U'), ('ర్ణ', '|'), ('యు', 'U'), ('గ్మ', '|'), ('ము', '|'), ('న', '|'), ('నీ', 'U'), ('క', '|'), ('థ', '|'), ('లు', '|'), ('సో', 'U'), ('కి', '|'), ('న', '|'), ('జా', 'U'), ('లు', '|'), ('పె', 'U'), ('ద్ద', '|'), ('పో', 'U'), ('గు', '|'), ('ల', '|'), ('జో', 'U'), ('ళ్లు', '|'), ('పె', 'U'), ('ట్టి', '|'), ('న', 'U'), ('ట్లు', '|'), ('చే', 'U'), ('తు', '|'), ('లె', 'U'), ('త్తు', '|'), ('చు', '|'), ('బూ', 'U'), ('జ', '|'), ('సే', 'U'), ('య', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('జా', 'U'), ('లు', '|'), ('తో', 'U'), ('రం', 'U'), ('పు', '|'), ('క', '|'), ('డి', '|'), ('యా', 'U'), ('లు', '|'), ('దొ', '|'), ('డి', '|'), ('గి', '|'), ('న', 'U'), ('ట్లు', '|'), ('మొ', '|'), ('న', '|'), ('సి', '|'), ('మ', 'U'), ('స్త', '|'), ('క', '|'), ('ము', '|'), ('తో', 'U'), ('మ్రొ', 'U'), ('క్క', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('జా', 'U'), ('లు', '|'), ('చె', '|'), ('లు', '|'), ('వ', '|'), ('మై', 'U'), ('న', '|'), ('తు', '|'), ('రా', 'U'), ('యి', '|'), ('చె', 'U'), ('క్కి', '|'), ('న', 'U'), ('ట్లు', '|'), ('గ', '|'), ('ళ', '|'), ('ము', '|'), ('నొ', 'U'), ('వ్వ', '|'), ('గ', '|'), ('ని', 'U'), ('న్ను', '|'), ('బ', '|'), ('లు', '|'), ('క', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('జా', 'U'), ('లు', '|'), ('విం', 'U'), ('త', '|'), ('గా', 'U'), ('గం', 'U'), ('ఠీ', 'U'), ('లు', '|'), ('వే', 'U'), ('సి', '|'), ('న', 'U'), ('ట్లు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>పూని నిన్నుఁ గొల్చుటే సర్వభూషణంబు - లితర భూషణముల నిచ్చగింపనేల?
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>పూని నిన్నుఁ గొల్చుటే సర్వభూషణంబు - లితర భూషణముల నిచ్చగింపనేల?
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
           <t>[('పూ', 'U'), ('ని', '|'), ('ని', 'U'), ('న్ను', '|'), ('గొ', 'U'), ('ల్చు', '|'), ('టే', 'U'), ('స', 'U'), ('ర్వ', '|'), ('భూ', 'U'), ('ష', '|'), ('ణం', 'U'), ('బు', '|'), ('లి', '|'), ('త', '|'), ('ర', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('ల', '|'), ('ని', 'U'), ('చ్చ', '|'), ('గిం', 'U'), ('ప', '|'), ('నే', 'U'), ('ల', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
         <is>
           <t>భువనరక్షక! నిన్నుఁబొగడనేరని నోరు - ప్రజకు గోచరమైన పాడుబొంద
 సురవరార్చిత! నిన్నుఁజూడఁగోరని కనుల్‌ - జలము లోపల నెల్లిసరపుగుండ్లు
@@ -2333,63 +2156,57 @@
 వేడ్కతో నీ కథల్‌వినని కర్ణములైనఁ - గఠినశిలాదులఁగలుగు తొలలు</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
           <t>[('భు', '|'), ('వ', '|'), ('న', '|'), ('ర', 'U'), ('క్ష', '|'), ('క', '|'), ('ని', 'U'), ('న్ను', '|'), ('బొ', '|'), ('గ', '|'), ('డ', '|'), ('నే', 'U'), ('ర', '|'), ('ని', '|'), ('నో', 'U'), ('రు', 'U'), ('ప్ర', '|'), ('జ', '|'), ('కు', '|'), ('గో', 'U'), ('చ', '|'), ('ర', '|'), ('మై', 'U'), ('న', '|'), ('పా', 'U'), ('డు', '|'), ('బొం', 'U'), ('ద', '|'), ('సు', '|'), ('ర', '|'), ('వ', '|'), ('రా', 'U'), ('ర్చి', '|'), ('త', '|'), ('ని', 'U'), ('న్ను', '|'), ('జూ', 'U'), ('డ', '|'), ('గో', 'U'), ('ర', '|'), ('ని', '|'), ('క', '|'), ('నుల్', 'U'), ('జ', '|'), ('ల', '|'), ('ము', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('నె', 'U'), ('ల్లి', '|'), ('స', '|'), ('ర', '|'), ('పు', '|'), ('గుం', 'U'), ('డ్లు', 'U'), ('శ్రీ', 'U'), ('ర', '|'), ('మా', 'U'), ('ధి', '|'), ('ప', '|'), ('నీ', 'U'), ('కు', '|'), ('సే', 'U'), ('వ', '|'), ('జే', 'U'), ('య', '|'), ('ని', '|'), ('మే', 'U'), ('ను', '|'), ('కూ', 'U'), ('లి', '|'), ('క', 'U'), ('మ్ము', '|'), ('డు', '|'), ('వో', 'U'), ('ని', '|'), ('కొ', '|'), ('లి', '|'), ('మి', '|'), ('తి', 'U'), ('త్తి', '|'), ('వే', 'U'), ('డ్క', '|'), ('తో', 'U'), ('నీ', 'U'), ('క', '|'), ('థ', 'U'), ('ల్వి', '|'), ('న', '|'), ('ని', '|'), ('క', 'U'), ('ర్ణ', '|'), ('ము', '|'), ('లై', 'U'), ('న', '|'), ('గ', '|'), ('ఠి', '|'), ('న', '|'), ('శి', '|'), ('లా', 'U'), ('దు', '|'), ('ల', '|'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('తొ', '|'), ('ల', '|'), ('లు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>పద్మలోచన! నీ మీఁద భక్తిలేని - మానవుఁడు రెండుపాదాల మహిషమయ్య
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>పద్మలోచన! నీ మీఁద భక్తిలేని - మానవుఁడు రెండుపాదాల మహిషమయ్య
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
           <t>[('ప', 'U'), ('ద్మ', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('నీ', 'U'), ('మీ', 'U'), ('ద', '|'), ('భ', 'U'), ('క్తి', '|'), ('లే', 'U'), ('ని', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('డు', '|'), ('రెం', 'U'), ('డు', '|'), ('పా', 'U'), ('దా', 'U'), ('ల', '|'), ('మ', '|'), ('హి', '|'), ('ష', '|'), ('మ', 'U'), ('య్య', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
         <is>
           <t>అతివిద్యనేర్చుట యన్నవస్త్రములకే - పసుల నార్జించుట పాలకొఱకె
 సతిని బెండ్లాడుట సంసారసుఖముకే - సుతులఁ బోషించుట గతులకొఱకె
@@ -2397,63 +2214,57 @@
 దానమిచ్చుటయు ముందటి సంచితమునకే - ఘనముగాఁ జదువుట కడుపుకొఱకె</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('తి', '|'), ('వి', 'U'), ('ద్య', '|'), ('నే', 'U'), ('ర్చు', '|'), ('ట', '|'), ('య', 'U'), ('న్న', '|'), ('వ', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('ల', '|'), ('కే', 'U'), ('ప', '|'), ('సు', '|'), ('ల', '|'), ('నా', 'U'), ('ర్జిం', 'U'), ('చు', '|'), ('ట', '|'), ('పా', 'U'), ('ల', '|'), ('కొ', '|'), ('ఱ', '|'), ('కె', '|'), ('స', '|'), ('తి', '|'), ('ని', '|'), ('బెం', 'U'), ('డ్లా', 'U'), ('డు', '|'), ('ట', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('సు', '|'), ('ఖ', '|'), ('ము', '|'), ('కే', 'U'), ('సు', '|'), ('తు', '|'), ('ల', '|'), ('బో', 'U'), ('షిం', 'U'), ('చు', '|'), ('ట', '|'), ('గ', '|'), ('తు', '|'), ('ల', '|'), ('కొ', '|'), ('ఱ', '|'), ('కె', '|'), ('సై', 'U'), ('న్య', '|'), ('ముల్', 'U'), ('గూ', 'U'), ('ర్చు', '|'), ('ట', '|'), ('శ', 'U'), ('త్రు', '|'), ('భ', '|'), ('య', '|'), ('ము', '|'), ('న', '|'), ('కే', 'U'), ('సా', 'U'), ('ము', '|'), ('నే', 'U'), ('ర్చు', '|'), ('ట', '|'), ('లె', 'U'), ('ల్ల', '|'), ('చా', 'U'), ('వు', '|'), ('కొ', '|'), ('ఱ', '|'), ('కె', '|'), ('దా', 'U'), ('న', '|'), ('మి', 'U'), ('చ్చు', '|'), ('ట', '|'), ('యు', '|'), ('ముం', 'U'), ('ద', '|'), ('టి', '|'), ('సం', 'U'), ('చి', '|'), ('త', '|'), ('ము', '|'), ('న', '|'), ('కే', 'U'), ('ఘ', '|'), ('న', '|'), ('ము', '|'), ('గా', 'U'), ('జ', '|'), ('దు', '|'), ('వు', '|'), ('ట', '|'), ('క', '|'), ('డు', '|'), ('పు', '|'), ('కొ', '|'), ('ఱ', '|'), ('కె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యితర కామంబుఁ గోరక సతతముగను - భక్తి నీయందు నిలుపుట ముక్తికొఱకె
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>యితర కామంబుఁ గోరక సతతముగను - భక్తి నీయందు నిలుపుట ముక్తికొఱకె
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
           <t>[('యి', '|'), ('త', '|'), ('ర', '|'), ('కా', 'U'), ('మం', 'U'), ('బు', '|'), ('గో', 'U'), ('ర', '|'), ('క', '|'), ('స', '|'), ('త', '|'), ('త', '|'), ('ము', '|'), ('గ', '|'), ('ను', '|'), ('భ', 'U'), ('క్తి', '|'), ('నీ', 'U'), ('యం', 'U'), ('దు', '|'), ('ని', '|'), ('లు', '|'), ('పు', '|'), ('ట', '|'), ('ము', 'U'), ('క్తి', '|'), ('కొ', '|'), ('ఱ', '|'), ('కె', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
         <is>
           <t>ధరణిలో వేయేండ్లు తనువు నిల్వఁగబోదు - ధన మెప్పటికి శాశ్వతంబు గాదు
 దారసుతాదులు తనవెంట రాలేరు - భృత్యులు మృతినిఁ దప్పించలేరు
@@ -2461,63 +2272,57 @@
 ఘనమైన సకల భాగ్యం బెంతఁ గల్గిన - గోచిమాత్రంబైనఁ గొనుచుఁబోఁడు</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర', '|'), ('ణి', '|'), ('లో', 'U'), ('వే', 'U'), ('యేం', 'U'), ('డ్లు', '|'), ('త', '|'), ('ను', '|'), ('వు', '|'), ('ని', 'U'), ('ల్వ', '|'), ('గ', '|'), ('బో', 'U'), ('దు', '|'), ('ధ', '|'), ('న', '|'), ('మె', 'U'), ('ప్ప', '|'), ('టి', '|'), ('కి', '|'), ('శా', 'U'), ('శ్వ', '|'), ('తం', 'U'), ('బు', '|'), ('గా', 'U'), ('దు', '|'), ('దా', 'U'), ('ర', '|'), ('సు', '|'), ('తా', 'U'), ('దు', '|'), ('లు', '|'), ('త', '|'), ('న', '|'), ('వెం', 'U'), ('ట', '|'), ('రా', 'U'), ('లే', 'U'), ('రు', '|'), ('భృ', 'U'), ('త్యు', '|'), ('లు', '|'), ('మృ', '|'), ('తి', '|'), ('ని', '|'), ('ద', 'U'), ('ప్పిం', 'U'), ('చ', '|'), ('లే', 'U'), ('రు', '|'), ('బం', 'U'), ('ధు', '|'), ('జా', 'U'), ('ల', '|'), ('ము', '|'), ('త', 'U'), ('న్ను', 'U'), ('బ్ర', '|'), ('తి', '|'), ('కిం', 'U'), ('చు', '|'), ('కో', 'U'), ('లే', 'U'), ('దు', '|'), ('బ', '|'), ('ల', '|'), ('ప', '|'), ('రా', 'U'), ('క్ర', '|'), ('మ', '|'), ('మే', 'U'), ('మి', '|'), ('ప', '|'), ('ని', '|'), ('కి', '|'), ('రా', 'U'), ('దు', '|'), ('ఘ', '|'), ('న', '|'), ('మై', 'U'), ('న', '|'), ('స', '|'), ('క', '|'), ('ల', '|'), ('భా', 'U'), ('గ్యం', 'U'), ('బెం', 'U'), ('త', '|'), ('గ', 'U'), ('ల్గి', '|'), ('న', '|'), ('గో', 'U'), ('చి', '|'), ('మా', 'U'), ('త్రం', 'U'), ('బై', 'U'), ('న', '|'), ('గొ', '|'), ('ను', '|'), ('చు', '|'), ('బో', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>వెఱ్ఱికుక్కల భ్రమలన్ని విడిచి నిన్ను - భజనఁ జేసెడివారికిఁ బరమసుఖము
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>వెఱ్ఱికుక్కల భ్రమలన్ని విడిచి నిన్ను - భజనఁ జేసెడివారికిఁ బరమసుఖము
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
           <t>[('వె', 'U'), ('ఱ్ఱి', '|'), ('కు', 'U'), ('క్క', '|'), ('ల', 'U'), ('భ్ర', '|'), ('మ', '|'), ('ల', 'U'), ('న్ని', '|'), ('వి', '|'), ('డి', '|'), ('చి', '|'), ('ని', 'U'), ('న్ను', '|'), ('భ', '|'), ('జ', '|'), ('న', '|'), ('జే', 'U'), ('సె', '|'), ('డి', '|'), ('వా', 'U'), ('రి', '|'), ('కి', '|'), ('బ', '|'), ('ర', '|'), ('మ', '|'), ('సు', '|'), ('ఖ', '|'), ('ము', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
         <is>
           <t>నరసింహ! నాకు దుర్ణయములే మెండాయె - సుగుణ మొక్కటి లేదు చూఁడ జనిన
 నన్యకాంతల మీఁద యాశ మానఁగలేను - నొరుల క్షేమము చూచియోర్వలేను
@@ -2525,63 +2330,57 @@
 నావంటి పాపిష్ఠినరుని భూలోకాన - బుట్టఁ జేసితివేల భోగిశయన!</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('నా', 'U'), ('కు', '|'), ('దు', 'U'), ('ర్ణ', '|'), ('య', '|'), ('ము', '|'), ('లే', 'U'), ('మెం', 'U'), ('డా', 'U'), ('యె', '|'), ('సు', '|'), ('గు', '|'), ('ణ', '|'), ('మొ', 'U'), ('క్క', '|'), ('టి', '|'), ('లే', 'U'), ('దు', '|'), ('చూ', 'U'), ('డ', '|'), ('జ', '|'), ('ని', '|'), ('న', '|'), ('న', 'U'), ('న్య', '|'), ('కాం', 'U'), ('త', '|'), ('ల', '|'), ('మీ', 'U'), ('ద', '|'), ('యా', 'U'), ('శ', '|'), ('మా', 'U'), ('న', '|'), ('గ', '|'), ('లే', 'U'), ('ను', '|'), ('నొ', '|'), ('రు', '|'), ('ల', 'U'), ('క్షే', 'U'), ('మ', '|'), ('ము', '|'), ('చూ', 'U'), ('చి', '|'), ('యో', 'U'), ('ర్వ', '|'), ('లే', 'U'), ('ను', '|'), ('ఇ', '|'), ('టు', '|'), ('వం', 'U'), ('టి', '|'), ('దు', 'U'), ('ర్బు', 'U'), ('ద్ధు', '|'), ('లి', 'U'), ('న్ని', '|'), ('నా', 'U'), ('కు', 'U'), ('న్న', '|'), ('వి', '|'), ('నే', 'U'), ('ను', '|'), ('జే', 'U'), ('సె', '|'), ('డి', '|'), ('వ', 'U'), ('న్ని', '|'), ('నీ', 'U'), ('చ', '|'), ('కృ', '|'), ('తు', '|'), ('లు', '|'), ('నా', 'U'), ('వం', 'U'), ('టి', '|'), ('పా', 'U'), ('పి', 'U'), ('ష్ఠి', '|'), ('న', '|'), ('రు', '|'), ('ని', '|'), ('భూ', 'U'), ('లో', 'U'), ('కా', 'U'), ('న', '|'), ('బు', 'U'), ('ట్ట', '|'), ('జే', 'U'), ('సి', '|'), ('తి', '|'), ('వే', 'U'), ('ల', '|'), ('భో', 'U'), ('గి', '|'), ('శ', '|'), ('య', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>అబ్జదళనేత్ర! నాతండ్రివైన ఫలము - నేరములు గాచి రక్షింపు నీవె దిక్కు
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>అబ్జదళనేత్ర! నాతండ్రివైన ఫలము - నేరములు గాచి రక్షింపు నీవె దిక్కు
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('బ్జ', '|'), ('ద', '|'), ('ళ', '|'), ('నే', 'U'), ('త్ర', '|'), ('నా', 'U'), ('తం', 'U'), ('డ్రి', '|'), ('వై', 'U'), ('న', '|'), ('ఫ', '|'), ('ల', '|'), ('ము', '|'), ('నే', 'U'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('గా', 'U'), ('చి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('పు', '|'), ('నీ', 'U'), ('వె', '|'), ('ది', 'U'), ('క్కు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
         <is>
           <t>ధీరతఁ బరుల నిందింప నేర్చితి గాని - తిన్నఁగా నినుఁ బ్రస్తుతింపనైతిఁ
 బొరుగు కామినులందు బుద్ధి నిల్పితిఁ గాని - నిన్ను సంతతము ధ్యానింపనైతిఁ
@@ -2589,63 +2388,57 @@
 గౌతుకంబునఁ బాతకము గడించితిఁ గాని - హెచ్చు పుణ్యము సంగ్రహింపనైతి</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
           <t>[('ధీ', 'U'), ('ర', '|'), ('త', '|'), ('బ', '|'), ('రు', '|'), ('ల', '|'), ('నిం', 'U'), ('దిం', 'U'), ('ప', '|'), ('నే', 'U'), ('ర్చి', '|'), ('తి', '|'), ('గా', 'U'), ('ని', '|'), ('తి', 'U'), ('న్న', '|'), ('గా', 'U'), ('ని', '|'), ('ను', 'U'), ('బ్ర', 'U'), ('స్తు', '|'), ('తిం', 'U'), ('ప', '|'), ('నై', 'U'), ('తి', '|'), ('బొ', '|'), ('రు', '|'), ('గు', '|'), ('కా', 'U'), ('మి', '|'), ('ను', '|'), ('లం', 'U'), ('దు', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('ని', 'U'), ('ల్పి', '|'), ('తి', '|'), ('గా', 'U'), ('ని', '|'), ('ని', 'U'), ('న్ను', '|'), ('సం', 'U'), ('త', '|'), ('త', '|'), ('ము', 'U'), ('ధ్యా', 'U'), ('నిం', 'U'), ('ప', '|'), ('నై', 'U'), ('తి', '|'), ('బె', '|'), ('రి', '|'), ('కి', '|'), ('ము', 'U'), ('చ్చ', '|'), ('ట', '|'), ('లై', 'U'), ('న', '|'), ('ము', '|'), ('రి', '|'), ('సి', '|'), ('విం', 'U'), ('టి', '|'), ('ని', '|'), ('గా', 'U'), ('ని', '|'), ('యెం', 'U'), ('చి', '|'), ('నీ', 'U'), ('క', '|'), ('థ', '|'), ('లా', 'U'), ('ల', '|'), ('కిం', 'U'), ('చ', '|'), ('నై', 'U'), ('తి', '|'), ('గౌ', 'U'), ('తు', '|'), ('కం', 'U'), ('బు', '|'), ('న', '|'), ('బా', 'U'), ('త', '|'), ('క', '|'), ('ము', '|'), ('గ', '|'), ('డిం', 'U'), ('చి', '|'), ('తి', '|'), ('గా', 'U'), ('ని', '|'), ('హె', 'U'), ('చ్చు', '|'), ('పు', 'U'), ('ణ్య', '|'), ('ము', '|'), ('సం', 'U'), ('గ్ర', '|'), ('హిం', 'U'), ('ప', '|'), ('నై', 'U'), ('తి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నవనిలో నేను జన్మించినందుకేమి - సార్థకము గానరాదాయె స్వల్పమైన
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>నవనిలో నేను జన్మించినందుకేమి - సార్థకము గానరాదాయె స్వల్పమైన
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('వ', '|'), ('ని', '|'), ('లో', 'U'), ('నే', 'U'), ('ను', '|'), ('జ', 'U'), ('న్మిం', 'U'), ('చి', '|'), ('నం', 'U'), ('దు', '|'), ('కే', 'U'), ('మి', '|'), ('సా', 'U'), ('ర్థ', '|'), ('క', '|'), ('ము', '|'), ('గా', 'U'), ('న', '|'), ('రా', 'U'), ('దా', 'U'), ('యె', 'U'), ('స్వ', 'U'), ('ల్ప', '|'), ('మై', 'U'), ('న', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
         <is>
           <t>అంత్యకాలమునందు నాయాసమున నిన్నుఁ - దలఁతునో తలఁపనో తలఁతు నిపుడె
 నరసింహ! నరసింహ! నరసింహ! లక్ష్మీశ! - దానవాంతక! కోటిభానుతేజ!
@@ -2653,63 +2446,57 @@
 మధువైరి! మధువైరి! మధువైరి! లోకేశ! - నీలమేఘశరీర! నిగమవినుత!</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
           <t>[('అం', 'U'), ('త్య', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('నా', 'U'), ('యా', 'U'), ('స', '|'), ('ము', '|'), ('న', '|'), ('ని', 'U'), ('న్ను', '|'), ('ద', '|'), ('ల', '|'), ('తు', '|'), ('నో', 'U'), ('త', '|'), ('ల', '|'), ('ప', '|'), ('నో', 'U'), ('త', '|'), ('ల', '|'), ('తు', '|'), ('ని', '|'), ('పు', '|'), ('డె', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('శ', '|'), ('దా', 'U'), ('న', '|'), ('వాం', 'U'), ('త', '|'), ('క', '|'), ('కో', 'U'), ('టి', '|'), ('భా', 'U'), ('ను', '|'), ('తే', 'U'), ('జ', '|'), ('గో', 'U'), ('విం', 'U'), ('ద', '|'), ('గో', 'U'), ('విం', 'U'), ('ద', '|'), ('గో', 'U'), ('విం', 'U'), ('ద', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ', '|'), ('ప', 'U'), ('న్న', '|'), ('గా', 'U'), ('ధి', '|'), ('ప', '|'), ('శా', 'U'), ('యి', '|'), ('ప', 'U'), ('ద్మ', '|'), ('నా', 'U'), ('భ', '|'), ('మ', '|'), ('ధు', '|'), ('వై', 'U'), ('రి', '|'), ('మ', '|'), ('ధు', '|'), ('వై', 'U'), ('రి', '|'), ('మ', '|'), ('ధు', '|'), ('వై', 'U'), ('రి', '|'), ('లో', 'U'), ('కే', 'U'), ('శ', '|'), ('నీ', 'U'), ('ల', '|'), ('మే', 'U'), ('ఘ', '|'), ('శ', '|'), ('రీ', 'U'), ('ర', '|'), ('ని', '|'), ('గ', '|'), ('మ', '|'), ('వి', '|'), ('ను', '|'), ('త', '|')]</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ఈ విధంబున నీనామమిష్టముగను - భజన సేయుచు నుందు నా భావమందు
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ఈ విధంబున నీనామమిష్టముగను - భజన సేయుచు నుందు నా భావమందు
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
           <t>[('ఈ', 'U'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('న', '|'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('మి', 'U'), ('ష్ట', '|'), ('ము', '|'), ('గ', '|'), ('ను', '|'), ('భ', '|'), ('జ', '|'), ('న', '|'), ('సే', 'U'), ('యు', '|'), ('చు', '|'), ('నుం', 'U'), ('దు', '|'), ('నా', 'U'), ('భా', 'U'), ('వ', '|'), ('మం', 'U'), ('దు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
         <is>
           <t>ఆయురారోగ్య పుత్రార్థ సంపదలన్ని - కలుగఁజేసెడి భారకర్త వీవె
 చదువు లెస్సఁగనేర్పి సభలో గరిష్ఠాధి - కార మొందించెడి ఘనుఁడ వీవె
@@ -2717,63 +2504,57 @@
 బలువైన వైరాగ్యభక్తిజ్ఞానములిచ్చి - ముక్తిఁ బొందించెడు మూర్తి వీవె</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('యు', '|'), ('రా', 'U'), ('రో', 'U'), ('గ్య', '|'), ('పు', 'U'), ('త్రా', 'U'), ('ర్థ', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('ల', 'U'), ('న్ని', '|'), ('క', '|'), ('లు', '|'), ('గ', '|'), ('జే', 'U'), ('సె', '|'), ('డి', '|'), ('భా', 'U'), ('ర', '|'), ('క', 'U'), ('ర్త', '|'), ('వీ', 'U'), ('వె', '|'), ('చ', '|'), ('దు', '|'), ('వు', '|'), ('లె', 'U'), ('స్స', '|'), ('గ', '|'), ('నే', 'U'), ('ర్పి', '|'), ('స', '|'), ('భ', '|'), ('లో', 'U'), ('గ', '|'), ('రి', 'U'), ('ష్ఠా', 'U'), ('ధి', '|'), ('కా', 'U'), ('ర', '|'), ('మొం', 'U'), ('దిం', 'U'), ('చె', '|'), ('డి', '|'), ('ఘ', '|'), ('ను', '|'), ('డ', '|'), ('వీ', 'U'), ('వె', '|'), ('న', '|'), ('డ', '|'), ('క', '|'), ('మం', 'U'), ('చి', '|'), ('ది', '|'), ('పె', 'U'), ('ట్టి', '|'), ('న', '|'), ('రు', '|'), ('లు', '|'), ('మె', 'U'), ('చ్చె', '|'), ('డు', '|'), ('న', 'U'), ('ట్టి', '|'), ('పే', 'U'), ('రు', '|'), ('ర', 'U'), ('ప్పిం', 'U'), ('చె', '|'), ('డి', '|'), ('పె', 'U'), ('ద్ద', '|'), ('వీ', 'U'), ('వె', '|'), ('బ', '|'), ('లు', '|'), ('వై', 'U'), ('న', '|'), ('వై', 'U'), ('రా', 'U'), ('గ్య', '|'), ('భ', 'U'), ('క్తి', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('ము', '|'), ('లి', 'U'), ('చ్చి', '|'), ('ము', 'U'), ('క్తి', '|'), ('బొం', 'U'), ('దిం', 'U'), ('చె', '|'), ('డు', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వీ', 'U'), ('వె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>అవనిలో మానవుల కన్నియాసలిచ్చి - వ్యర్థులను జేసి తెలిపెడివాఁడ వీవె
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>అవనిలో మానవుల కన్నియాసలిచ్చి - వ్యర్థులను జేసి తెలిపెడివాఁడ వీవె
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('వ', '|'), ('ని', '|'), ('లో', 'U'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('ల', '|'), ('క', 'U'), ('న్ని', '|'), ('యా', 'U'), ('స', '|'), ('లి', 'U'), ('చ్చి', 'U'), ('వ్య', 'U'), ('ర్థు', '|'), ('ల', '|'), ('ను', '|'), ('జే', 'U'), ('సి', '|'), ('తె', '|'), ('లి', '|'), ('పె', '|'), ('డి', '|'), ('వా', 'U'), ('డ', '|'), ('వీ', 'U'), ('వె', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
         <is>
           <t>కాయ మెంత భయానఁ గాపాడిననుగాని - ధాత్రిలో నది చూడ దక్కఁబోదు
 ఏవేళ నేరోగమేమరించునొ? సత్త్వ - మొందఁగఁ జేయునే చందమునను
@@ -2781,63 +2562,57 @@
 కోటివైద్యులు గుంపుగూడివచ్చినఁ గాని - మరణ మయ్యెడు వ్యాధిమాన్పలేరు</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('య', '|'), ('మెం', 'U'), ('త', '|'), ('భ', '|'), ('యా', 'U'), ('న', '|'), ('గా', 'U'), ('పా', 'U'), ('డి', '|'), ('న', '|'), ('ను', '|'), ('గా', 'U'), ('ని', '|'), ('ధా', 'U'), ('త్రి', '|'), ('లో', 'U'), ('న', '|'), ('ది', '|'), ('చూ', 'U'), ('డ', '|'), ('ద', 'U'), ('క్క', '|'), ('బో', 'U'), ('దు', '|'), ('ఏ', 'U'), ('వే', 'U'), ('ళ', '|'), ('నే', 'U'), ('రో', 'U'), ('గ', '|'), ('మే', 'U'), ('మ', '|'), ('రిం', 'U'), ('చు', '|'), ('నొ', '|'), ('స', 'U'), ('త్త్వ', '|'), ('మొం', 'U'), ('ద', '|'), ('గ', '|'), ('జే', 'U'), ('యు', '|'), ('నే', 'U'), ('చం', 'U'), ('ద', '|'), ('ము', '|'), ('న', '|'), ('ను', '|'), ('ఔ', 'U'), ('ష', '|'), ('ధం', 'U'), ('బు', '|'), ('లు', '|'), ('మం', 'U'), ('చి', '|'), ('వ', '|'), ('ను', '|'), ('భ', '|'), ('విం', 'U'), ('చి', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('క', '|'), ('ర్మ', 'U'), ('క్షీ', 'U'), ('ణం', 'U'), ('బై', 'U'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('వి', '|'), ('డ', '|'), ('దు', '|'), ('కో', 'U'), ('టి', '|'), ('వై', 'U'), ('ద్యు', '|'), ('లు', '|'), ('గుం', 'U'), ('పు', '|'), ('గూ', 'U'), ('డి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('మ', '|'), ('ర', '|'), ('ణ', '|'), ('మ', 'U'), ('య్యె', '|'), ('డు', 'U'), ('వ్యా', 'U'), ('ధి', '|'), ('మా', 'U'), ('న్ప', '|'), ('లే', 'U'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>జీవుని ప్రయాణకాలంబు సిద్ధమైన - నిలుచునా దేహ మిందొక్క నిమిషమైన?
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>జీవుని ప్రయాణకాలంబు సిద్ధమైన - నిలుచునా దేహ మిందొక్క నిమిషమైన?
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
           <t>[('జీ', 'U'), ('వు', '|'), ('ని', 'U'), ('ప్ర', '|'), ('యా', 'U'), ('ణ', '|'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('మై', 'U'), ('న', '|'), ('ని', '|'), ('లు', '|'), ('చు', '|'), ('నా', 'U'), ('దే', 'U'), ('హ', '|'), ('మిం', 'U'), ('దొ', 'U'), ('క్క', '|'), ('ని', '|'), ('మి', '|'), ('ష', '|'), ('మై', 'U'), ('న', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
         <is>
           <t>జందెమింపుగ వేసి సంధ్య వార్చిన నేమి - బ్రహ్మ మందక కాఁడు బ్రాహ్మణుండు
 తిరుమణి శ్రీచూర్ణగురురేఖ లిడినను - విష్ణు నొందక కాఁడు వైష్ణవుండు
@@ -2845,63 +2620,57 @@
 కాషాయ వస్త్రాలుగట్టి కప్పిన నేమి - యాశ పోవక కాఁడు యతివరుండు</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
           <t>[('జం', 'U'), ('దె', '|'), ('మిం', 'U'), ('పు', '|'), ('గ', '|'), ('వే', 'U'), ('సి', '|'), ('సం', 'U'), ('ధ్య', '|'), ('వా', 'U'), ('ర్చి', '|'), ('న', '|'), ('నే', 'U'), ('మి', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('మం', 'U'), ('ద', '|'), ('క', '|'), ('కా', 'U'), ('డు', 'U'), ('బ్రా', 'U'), ('హ్మ', '|'), ('ణుం', 'U'), ('డు', '|'), ('తి', '|'), ('రు', '|'), ('మ', '|'), ('ణి', 'U'), ('శ్రీ', 'U'), ('చూ', 'U'), ('ర్ణ', '|'), ('గు', '|'), ('రు', '|'), ('రే', 'U'), ('ఖ', '|'), ('లి', '|'), ('డి', '|'), ('న', '|'), ('ను', '|'), ('వి', 'U'), ('ష్ణు', '|'), ('నొం', 'U'), ('ద', '|'), ('క', '|'), ('కా', 'U'), ('డు', '|'), ('వై', 'U'), ('ష్ణ', '|'), ('వుం', 'U'), ('డు', '|'), ('బూ', 'U'), ('ది', '|'), ('ని', '|'), ('ను', '|'), ('దు', '|'), ('ట', '|'), ('ను', '|'), ('బూ', 'U'), ('సి', '|'), ('కొ', '|'), ('ని', '|'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('శం', 'U'), ('భు', '|'), ('నొం', 'U'), ('ద', '|'), ('క', '|'), ('కా', 'U'), ('డు', '|'), ('శై', 'U'), ('వ', '|'), ('జ', '|'), ('ను', '|'), ('డు', '|'), ('కా', 'U'), ('షా', 'U'), ('య', '|'), ('వ', 'U'), ('స్త్రా', 'U'), ('లు', '|'), ('గ', 'U'), ('ట్టి', '|'), ('క', 'U'), ('ప్పి', '|'), ('న', '|'), ('నే', 'U'), ('మి', '|'), ('యా', 'U'), ('శ', '|'), ('పో', 'U'), ('వ', '|'), ('క', '|'), ('కా', 'U'), ('డు', '|'), ('య', '|'), ('తి', '|'), ('వ', '|'), ('రుం', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ఎట్టి లౌకికవేషాలు గట్టుకొనిన - గురునిఁ జెందక సన్ముక్తి దొరకఁబోదు
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ఎట్టి లౌకికవేషాలు గట్టుకొనిన - గురునిఁ జెందక సన్ముక్తి దొరకఁబోదు
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
           <t>[('ఎ', 'U'), ('ట్టి', '|'), ('లౌ', 'U'), ('కి', '|'), ('క', '|'), ('వే', 'U'), ('షా', 'U'), ('లు', '|'), ('గ', 'U'), ('ట్టు', '|'), ('కొ', '|'), ('ని', '|'), ('న', '|'), ('గు', '|'), ('రు', '|'), ('ని', '|'), ('జెం', 'U'), ('ద', '|'), ('క', '|'), ('స', 'U'), ('న్ము', 'U'), ('క్తి', '|'), ('దొ', '|'), ('ర', '|'), ('క', '|'), ('బో', 'U'), ('దు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
         <is>
           <t>నరసింహ! నే నిన్ను నమ్మినందుకుఁ జాల - నెనరు నాయందుంచు నెమ్మనమున
 నన్ని వస్తువులు నిన్నడిగి వేసటపుట్టె - నింకనైనఁ గటాక్షమియ్యవయ్య
@@ -2909,63 +2678,57 @@
 నయముగా వైకుంఠనగరమందే యుంచు - నరకమందే యుంచు నళిననాభ!</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('నే', 'U'), ('ని', 'U'), ('న్ను', '|'), ('న', 'U'), ('మ్మి', '|'), ('నం', 'U'), ('దు', '|'), ('కు', '|'), ('జా', 'U'), ('ల', '|'), ('నె', '|'), ('న', '|'), ('రు', '|'), ('నా', 'U'), ('యం', 'U'), ('దుం', 'U'), ('చు', '|'), ('నె', 'U'), ('మ్మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('న', 'U'), ('న్ని', '|'), ('వ', 'U'), ('స్తు', '|'), ('వు', '|'), ('లు', '|'), ('ని', 'U'), ('న్న', '|'), ('డి', '|'), ('గి', '|'), ('వే', 'U'), ('స', '|'), ('ట', '|'), ('పు', 'U'), ('ట్టె', '|'), ('నిం', 'U'), ('క', '|'), ('నై', 'U'), ('న', '|'), ('గ', '|'), ('టా', 'U'), ('క్ష', '|'), ('మి', 'U'), ('య్య', '|'), ('వ', 'U'), ('య్య', '|'), ('సం', 'U'), ('త', '|'), ('సం', 'U'), ('బు', '|'), ('న', '|'), ('న', 'U'), ('న్ను', 'U'), ('స్వ', 'U'), ('ర్గ', '|'), ('మం', 'U'), ('దే', 'U'), ('యుం', 'U'), ('చు', '|'), ('భూ', 'U'), ('మి', '|'), ('యం', 'U'), ('దే', 'U'), ('యుం', 'U'), ('చు', '|'), ('భో', 'U'), ('గి', '|'), ('శ', '|'), ('య', '|'), ('న', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('గా', 'U'), ('వై', 'U'), ('కుం', 'U'), ('ఠ', '|'), ('న', '|'), ('గ', '|'), ('ర', '|'), ('మం', 'U'), ('దే', 'U'), ('యుం', 'U'), ('చు', '|'), ('న', '|'), ('ర', '|'), ('క', '|'), ('మం', 'U'), ('దే', 'U'), ('యుం', 'U'), ('చు', '|'), ('న', '|'), ('ళి', '|'), ('న', '|'), ('నా', 'U'), ('భ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ఎచట నన్నుంచిననుగాని యెపుడు నిన్ను - మఱచి పోకుండ నీ నామస్మరణనొసఁగు
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ఎచట నన్నుంచిననుగాని యెపుడు నిన్ను - మఱచి పోకుండ నీ నామస్మరణనొసఁగు
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
           <t>[('ఎ', '|'), ('చ', '|'), ('ట', '|'), ('న', 'U'), ('న్నుం', 'U'), ('చి', '|'), ('న', '|'), ('ను', '|'), ('గా', 'U'), ('ని', '|'), ('యె', '|'), ('పు', '|'), ('డు', '|'), ('ని', 'U'), ('న్ను', '|'), ('మ', '|'), ('ఱ', '|'), ('చి', '|'), ('పో', 'U'), ('కుం', 'U'), ('డ', '|'), ('నీ', 'U'), ('నా', 'U'), ('మ', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణ', '|'), ('నొ', '|'), ('స', '|'), ('గు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
         <is>
           <t>దేహ మున్నవఱకు మోహసాగరమందు - మునుఁగుచుందురు శుద్ధమూఢజనులు
 సలలితైశ్వర్యముల్‌ శాశ్వతం బనుకొని - షడ్భ్రమలను మానఁజాల రెవరు
@@ -2973,63 +2736,57 @@
 జ్ఞాన భక్తి విరక్తులైన పెద్దలఁ జూచి - నిందఁ జేయక తాము నిలువలేరు</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
           <t>[('దే', 'U'), ('హ', '|'), ('ము', 'U'), ('న్న', '|'), ('వ', '|'), ('ఱ', '|'), ('కు', '|'), ('మో', 'U'), ('హ', '|'), ('సా', 'U'), ('గ', '|'), ('ర', '|'), ('మం', 'U'), ('దు', '|'), ('ము', '|'), ('ను', '|'), ('గు', '|'), ('చుం', 'U'), ('దు', '|'), ('రు', '|'), ('శు', 'U'), ('ద్ధ', '|'), ('మూ', 'U'), ('ఢ', '|'), ('జ', '|'), ('ను', '|'), ('లు', '|'), ('స', '|'), ('ల', '|'), ('లి', '|'), ('తై', 'U'), ('శ్వ', 'U'), ('ర్య', '|'), ('ముల్', 'U'), ('శా', 'U'), ('శ్వ', '|'), ('తం', 'U'), ('బ', '|'), ('ను', '|'), ('కొ', '|'), ('ని', '|'), ('ష', 'U'), ('డ్భ్ర', '|'), ('మ', '|'), ('ల', '|'), ('ను', '|'), ('మా', 'U'), ('న', '|'), ('జా', 'U'), ('ల', '|'), ('రె', '|'), ('వ', '|'), ('రు', '|'), ('స', 'U'), ('ర్వ', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('మా', 'U'), ('య', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('బ', 'U'), ('ద్ధు', '|'), ('లై', 'U'), ('గు', '|'), ('రు', '|'), ('ని', '|'), ('కా', 'U'), ('రు', 'U'), ('ణ్యం', 'U'), ('బు', '|'), ('గో', 'U'), ('రు', '|'), ('కొ', '|'), ('న', '|'), ('రు', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('భ', 'U'), ('క్తి', '|'), ('వి', '|'), ('ర', 'U'), ('క్తు', '|'), ('లై', 'U'), ('న', '|'), ('పె', 'U'), ('ద్ద', '|'), ('ల', '|'), ('జూ', 'U'), ('చి', '|'), ('నిం', 'U'), ('ద', '|'), ('జే', 'U'), ('య', '|'), ('క', '|'), ('తా', 'U'), ('ము', '|'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('లే', 'U'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>మత్తులైనట్టి దుర్జాతిమనుజులెల్ల - నిన్నుఁ గనలేరు మొదటికే నీరజాక్ష!
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>మత్తులైనట్టి దుర్జాతిమనుజులెల్ల - నిన్నుఁ గనలేరు మొదటికే నీరజాక్ష!
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
           <t>[('మ', 'U'), ('త్తు', '|'), ('లై', 'U'), ('న', 'U'), ('ట్టి', '|'), ('దు', 'U'), ('ర్జా', 'U'), ('తి', '|'), ('మ', '|'), ('ను', '|'), ('జు', '|'), ('లె', 'U'), ('ల్ల', '|'), ('ని', 'U'), ('న్ను', '|'), ('గ', '|'), ('న', '|'), ('లే', 'U'), ('రు', '|'), ('మొ', '|'), ('ద', '|'), ('టి', '|'), ('కే', 'U'), ('నీ', 'U'), ('ర', '|'), ('జా', 'U'), ('క్ష', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
         <is>
           <t>ఇలలోన నే జన్మమెత్తినప్పటినుండి - బహు గడించితినయ్య పాతకములు
 తెలిసి చేసితిఁ గొన్ని తెలియఁజాలక చేసి - బాధ నొందితినయ్య పద్మనాభ!
@@ -3037,63 +2794,57 @@
 నెగిరి పోవుటకునై యే యుపాయంబైనఁ - జేసి చూతమఁటన్నఁ జేతఁగాదు</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('నే', 'U'), ('జ', 'U'), ('న్మ', '|'), ('మె', 'U'), ('త్తి', '|'), ('న', 'U'), ('ప్ప', '|'), ('టి', '|'), ('నుం', 'U'), ('డి', '|'), ('బ', '|'), ('హు', '|'), ('గ', '|'), ('డిం', 'U'), ('చి', '|'), ('తి', '|'), ('న', 'U'), ('య్య', '|'), ('పా', 'U'), ('త', '|'), ('క', '|'), ('ము', '|'), ('లు', '|'), ('తె', '|'), ('లి', '|'), ('సి', '|'), ('చే', 'U'), ('సి', '|'), ('తి', '|'), ('గొ', 'U'), ('న్ని', '|'), ('తె', '|'), ('లి', '|'), ('య', '|'), ('జా', 'U'), ('ల', '|'), ('క', '|'), ('చే', 'U'), ('సి', '|'), ('బా', 'U'), ('ధ', '|'), ('నొం', 'U'), ('ది', '|'), ('తి', '|'), ('న', 'U'), ('య్య', '|'), ('ప', 'U'), ('ద్మ', '|'), ('నా', 'U'), ('భ', '|'), ('అ', '|'), ('ను', '|'), ('భ', '|'), ('విం', 'U'), ('చె', '|'), ('డు', '|'), ('న', 'U'), ('ప్పు', '|'), ('డ', '|'), ('తి', 'U'), ('ప్ర', '|'), ('యా', 'U'), ('సం', 'U'), ('బం', 'U'), ('చు', 'U'), ('బ్ర', '|'), ('జ', '|'), ('లు', '|'), ('చె', 'U'), ('ప్ప', '|'), ('గ', '|'), ('జా', 'U'), ('ల', '|'), ('భ', '|'), ('య', '|'), ('ము', '|'), ('గ', '|'), ('లి', '|'), ('గె', '|'), ('నె', '|'), ('గి', '|'), ('రి', '|'), ('పో', 'U'), ('వు', '|'), ('ట', '|'), ('కు', '|'), ('నై', 'U'), ('యే', 'U'), ('యు', '|'), ('పా', 'U'), ('యం', 'U'), ('బై', 'U'), ('న', '|'), ('జే', 'U'), ('సి', '|'), ('చూ', 'U'), ('త', '|'), ('మ', '|'), ('ట', 'U'), ('న్న', '|'), ('జే', 'U'), ('త', '|'), ('గా', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>సూర్యశశినేత్ర! నీ చాటుఁజొచ్చి నాను - కలుషములు ద్రుంచి నన్నేలు కష్టమనక
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>సూర్యశశినేత్ర! నీ చాటుఁజొచ్చి నాను - కలుషములు ద్రుంచి నన్నేలు కష్టమనక
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
           <t>[('సూ', 'U'), ('ర్య', '|'), ('శ', '|'), ('శి', '|'), ('నే', 'U'), ('త్ర', '|'), ('నీ', 'U'), ('చా', 'U'), ('టు', '|'), ('జొ', 'U'), ('చ్చి', '|'), ('నా', 'U'), ('ను', '|'), ('క', '|'), ('లు', '|'), ('ష', '|'), ('ము', '|'), ('లు', '|'), ('ద్రుం', 'U'), ('చి', '|'), ('న', 'U'), ('న్నే', 'U'), ('లు', '|'), ('క', 'U'), ('ష్ట', '|'), ('మ', '|'), ('న', '|'), ('క', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
         <is>
           <t>తాపసార్చిత! నేను పాపకర్ముఁడనంచు - నాకు వంకలఁ బెట్టఁబోకు సుమ్మి
 నాఁటికి శిక్షలు నన్ను చేయుటకంటె - నేఁడు సేయుము నీవు నేస్తమనక
@@ -3101,63 +2852,57 @@
 నీ దాసులను బట్టి నీవు దండింపంగ - వద్దు వద్దనరెంత పెద్దలైనఁ</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
           <t>[('తా', 'U'), ('ప', '|'), ('సా', 'U'), ('ర్చి', '|'), ('త', '|'), ('నే', 'U'), ('ను', '|'), ('పా', 'U'), ('ప', '|'), ('క', '|'), ('ర్ము', '|'), ('డ', '|'), ('నం', 'U'), ('చు', '|'), ('నా', 'U'), ('కు', '|'), ('వం', 'U'), ('క', '|'), ('ల', '|'), ('బె', 'U'), ('ట్ట', '|'), ('బో', 'U'), ('కు', '|'), ('సు', 'U'), ('మ్మి', '|'), ('నా', 'U'), ('టి', '|'), ('కి', '|'), ('శి', 'U'), ('క్ష', '|'), ('లు', '|'), ('న', 'U'), ('న్ను', '|'), ('చే', 'U'), ('యు', '|'), ('ట', '|'), ('కం', 'U'), ('టె', '|'), ('నే', 'U'), ('డు', '|'), ('సే', 'U'), ('యు', '|'), ('ము', '|'), ('నీ', 'U'), ('వు', '|'), ('నే', 'U'), ('స్త', '|'), ('మ', '|'), ('న', '|'), ('క', '|'), ('అ', '|'), ('తి', '|'), ('భ', '|'), ('యం', 'U'), ('క', '|'), ('రు', '|'), ('లై', 'U'), ('న', '|'), ('య', '|'), ('మ', '|'), ('దూ', 'U'), ('త', '|'), ('ల', '|'), ('కు', '|'), ('న', 'U'), ('న్ను', '|'), ('నొ', 'U'), ('ప్ప', '|'), ('గిం', 'U'), ('ప', '|'), ('కు', '|'), ('మ', 'U'), ('య్య', '|'), ('యు', '|'), ('ర', '|'), ('గ', '|'), ('శ', '|'), ('య', '|'), ('న', '|'), ('నీ', 'U'), ('దా', 'U'), ('సు', '|'), ('ల', '|'), ('ను', '|'), ('బ', 'U'), ('ట్టి', '|'), ('నీ', 'U'), ('వు', '|'), ('దం', 'U'), ('డిం', 'U'), ('పం', 'U'), ('గ', '|'), ('వ', 'U'), ('ద్దు', '|'), ('వ', 'U'), ('ద్ద', '|'), ('న', '|'), ('రెం', 'U'), ('త', '|'), ('పె', 'U'), ('ద్ద', '|'), ('లై', 'U'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>దండ్రివై నీవు పరపీడ దగులఁజేయ - వాసిగల పేరు కపకీర్తి వచ్చునయ్య
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>దండ్రివై నీవు పరపీడ దగులఁజేయ - వాసిగల పేరు కపకీర్తి వచ్చునయ్య
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
           <t>[('దం', 'U'), ('డ్రి', '|'), ('వై', 'U'), ('నీ', 'U'), ('వు', '|'), ('ప', '|'), ('ర', '|'), ('పీ', 'U'), ('డ', '|'), ('ద', '|'), ('గు', '|'), ('ల', '|'), ('జే', 'U'), ('య', '|'), ('వా', 'U'), ('సి', '|'), ('గ', '|'), ('ల', '|'), ('పే', 'U'), ('రు', '|'), ('క', '|'), ('ప', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', 'U'), ('య్య', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
         <is>
           <t>ధరణిలోపల నేను తల్లి గర్భమునందుఁ - బుట్టినప్పటినుండి పుణ్య మెఱుఁగ
 నేకాదశీ వ్రతంబెన్నఁ డుండఁగ లేదు - తీర్థయాత్రలకైనఁ దిరుగలేదు
@@ -3165,63 +2910,57 @@
 జ్ఞానవంతులకైనఁ బూని మ్రొక్కఁగ లేదు - ఇతర దానములైన నియ్యలేదు</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర', '|'), ('ణి', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('నే', 'U'), ('ను', '|'), ('త', 'U'), ('ల్లి', '|'), ('గ', 'U'), ('ర్భ', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('బు', 'U'), ('ట్టి', '|'), ('న', 'U'), ('ప్ప', '|'), ('టి', '|'), ('నుం', 'U'), ('డి', '|'), ('పు', 'U'), ('ణ్య', '|'), ('మె', '|'), ('ఱు', '|'), ('గ', '|'), ('నే', 'U'), ('కా', 'U'), ('ద', '|'), ('శీ', 'U'), ('వ్ర', '|'), ('తం', 'U'), ('బె', 'U'), ('న్న', '|'), ('డుం', 'U'), ('డ', '|'), ('గ', '|'), ('లే', 'U'), ('దు', '|'), ('తీ', 'U'), ('ర్థ', '|'), ('యా', 'U'), ('త్ర', '|'), ('ల', '|'), ('కై', 'U'), ('న', '|'), ('ది', '|'), ('రు', '|'), ('గ', '|'), ('లే', 'U'), ('దు', '|'), ('పా', 'U'), ('ర', '|'), ('మా', 'U'), ('ర్థి', '|'), ('క', '|'), ('మై', 'U'), ('న', '|'), ('ప', '|'), ('ను', '|'), ('లు', '|'), ('చే', 'U'), ('య', '|'), ('గ', '|'), ('లే', 'U'), ('దు', '|'), ('భి', 'U'), ('క్ష', '|'), ('మొ', 'U'), ('క్క', '|'), ('ని', '|'), ('కై', 'U'), ('న', '|'), ('బె', 'U'), ('ట్ట', '|'), ('లే', 'U'), ('దు', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('వం', 'U'), ('తు', '|'), ('ల', '|'), ('కై', 'U'), ('న', '|'), ('బూ', 'U'), ('ని', '|'), ('మ్రొ', 'U'), ('క్క', '|'), ('గ', '|'), ('లే', 'U'), ('దు', '|'), ('ఇ', '|'), ('త', '|'), ('ర', '|'), ('దా', 'U'), ('న', '|'), ('ము', '|'), ('లై', 'U'), ('న', '|'), ('ని', 'U'), ('య్య', '|'), ('లే', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నళినదళనేత్ర! నిన్ను నే నమ్మినాను - జేరి రక్షింపవే నన్ను శీఘ్రముగను
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>నళినదళనేత్ర! నిన్ను నే నమ్మినాను - జేరి రక్షింపవే నన్ను శీఘ్రముగను
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('ళి', '|'), ('న', '|'), ('ద', '|'), ('ళ', '|'), ('నే', 'U'), ('త్ర', '|'), ('ని', 'U'), ('న్ను', '|'), ('నే', 'U'), ('న', 'U'), ('మ్మి', '|'), ('నా', 'U'), ('ను', '|'), ('జే', 'U'), ('రి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('వే', 'U'), ('న', 'U'), ('న్ను', '|'), ('శీ', 'U'), ('ఘ్ర', '|'), ('ము', '|'), ('గ', '|'), ('ను', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
         <is>
           <t>అడవిపక్షుల కెవ్వఁడాహార మిచ్చెను - మృగజాతి కెవ్వఁడు మేఁతఁబెట్టె
 వనచరాదులకు భోజన మెవ్వఁ డిప్పించెఁ - జెట్లకెవ్వఁడు నీళ్లు చేదిపోసె
@@ -3229,63 +2968,57 @@
 మధుపాళి కెవ్వఁడు మకరంద మొనరించె - బసుల కెవ్వఁ డొసంగెఁ బచ్చిపూరి</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('డ', '|'), ('వి', '|'), ('ప', 'U'), ('క్షు', '|'), ('ల', '|'), ('కె', 'U'), ('వ్వ', '|'), ('డా', 'U'), ('హా', 'U'), ('ర', '|'), ('మి', 'U'), ('చ్చె', '|'), ('ను', '|'), ('మృ', '|'), ('గ', '|'), ('జా', 'U'), ('తి', '|'), ('కె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('మే', 'U'), ('త', '|'), ('బె', 'U'), ('ట్టె', '|'), ('వ', '|'), ('న', '|'), ('చ', '|'), ('రా', 'U'), ('దు', '|'), ('ల', '|'), ('కు', '|'), ('భో', 'U'), ('జ', '|'), ('న', '|'), ('మె', 'U'), ('వ్వ', '|'), ('డి', 'U'), ('ప్పిం', 'U'), ('చె', '|'), ('జె', 'U'), ('ట్ల', '|'), ('కె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('నీ', 'U'), ('ళ్లు', '|'), ('చే', 'U'), ('ది', '|'), ('పో', 'U'), ('సె', 'U'), ('స్త్రీ', 'U'), ('ల', '|'), ('గ', 'U'), ('ర్భం', 'U'), ('బు', '|'), ('న', '|'), ('శి', '|'), ('శు', '|'), ('వు', '|'), ('నె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('పెం', 'U'), ('చె', '|'), ('ఫ', '|'), ('ణు', '|'), ('ల', '|'), ('కె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('పో', 'U'), ('సె', '|'), ('బ', '|'), ('ర', '|'), ('గ', '|'), ('బా', 'U'), ('లు', '|'), ('మ', '|'), ('ధు', '|'), ('పా', 'U'), ('ళి', '|'), ('కె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('మ', '|'), ('క', '|'), ('రం', 'U'), ('ద', '|'), ('మొ', '|'), ('న', '|'), ('రిం', 'U'), ('చె', '|'), ('బ', '|'), ('సు', '|'), ('ల', '|'), ('కె', 'U'), ('వ్వ', '|'), ('డొ', '|'), ('సం', 'U'), ('గె', '|'), ('బ', 'U'), ('చ్చి', '|'), ('పూ', 'U'), ('రి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>జీవకోట్లను బోషింప నీవెకాని - వేఱె యొక దాత లేఁడయ్య వెదకిచూడ
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>జీవకోట్లను బోషింప నీవెకాని - వేఱె యొక దాత లేఁడయ్య వెదకిచూడ
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
           <t>[('జీ', 'U'), ('వ', '|'), ('కో', 'U'), ('ట్ల', '|'), ('ను', '|'), ('బో', 'U'), ('షిం', 'U'), ('ప', '|'), ('నీ', 'U'), ('వె', '|'), ('కా', 'U'), ('ని', '|'), ('వే', 'U'), ('ఱె', '|'), ('యొ', '|'), ('క', '|'), ('దా', 'U'), ('త', '|'), ('లే', 'U'), ('డ', 'U'), ('య్య', '|'), ('వె', '|'), ('ద', '|'), ('కి', '|'), ('చూ', 'U'), ('డ', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
         <is>
           <t>దనుజారి! నావంటి దాసజాలము నీకు - కోటి సంఖ్య గలరు కొదువ లేదు
 బంట్లసందడివల్ల బహుపరాకై నన్ను - మఱచి పోకుము భాగ్యమహిమచేత
@@ -3293,63 +3026,57 @@
 నీవు మెచ్చెడి పనుల్‌ నేను జేయఁగలేక - యింత వృథా జన్మమెత్తినాను</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
           <t>[('ద', '|'), ('ను', '|'), ('జా', 'U'), ('రి', '|'), ('నా', 'U'), ('వం', 'U'), ('టి', '|'), ('దా', 'U'), ('స', '|'), ('జా', 'U'), ('ల', '|'), ('ము', '|'), ('నీ', 'U'), ('కు', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('ఖ్య', '|'), ('గ', '|'), ('ల', '|'), ('రు', '|'), ('కొ', '|'), ('దు', '|'), ('వ', '|'), ('లే', 'U'), ('దు', '|'), ('బం', 'U'), ('ట్ల', '|'), ('సం', 'U'), ('ద', '|'), ('డి', '|'), ('వ', 'U'), ('ల్ల', '|'), ('బ', '|'), ('హు', '|'), ('ప', '|'), ('రా', 'U'), ('కై', 'U'), ('న', 'U'), ('న్ను', '|'), ('మ', '|'), ('ఱ', '|'), ('చి', '|'), ('పో', 'U'), ('కు', '|'), ('ము', '|'), ('భా', 'U'), ('గ్య', '|'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('చే', 'U'), ('త', '|'), ('దం', 'U'), ('డి', '|'), ('గా', 'U'), ('భృ', 'U'), ('త్యు', '|'), ('లు', '|'), ('ద', '|'), ('గి', '|'), ('లి', '|'), ('నీ', 'U'), ('కుం', 'U'), ('డం', 'U'), ('గ', '|'), ('బ', 'U'), ('క్క', '|'), ('బం', 'U'), ('టే', 'U'), ('పా', 'U'), ('టి', '|'), ('ప', '|'), ('ని', '|'), ('కి', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నీ', 'U'), ('వు', '|'), ('మె', 'U'), ('చ్చె', '|'), ('డి', '|'), ('ప', '|'), ('నుల్', 'U'), ('నే', 'U'), ('ను', '|'), ('జే', 'U'), ('య', '|'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('యిం', 'U'), ('త', '|'), ('వృ', '|'), ('థా', 'U'), ('జ', 'U'), ('న్మ', '|'), ('మె', 'U'), ('త్తి', '|'), ('నా', 'U'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>భూజనులలోన నే నప్రయోజకుఁడను - గనుక నీ సత్కటాక్షంబు గలుగఁజేయు
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>భూజనులలోన నే నప్రయోజకుఁడను - గనుక నీ సత్కటాక్షంబు గలుగఁజేయు
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
           <t>[('భూ', 'U'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('నే', 'U'), ('న', 'U'), ('ప్ర', '|'), ('యో', 'U'), ('జ', '|'), ('కు', '|'), ('డ', '|'), ('ను', '|'), ('గ', '|'), ('ను', '|'), ('క', '|'), ('నీ', 'U'), ('స', 'U'), ('త్క', '|'), ('టా', 'U'), ('క్షం', 'U'), ('బు', '|'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('జే', 'U'), ('యు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
         <is>
           <t>కమలలోచన! నన్నుఁ గన్నతండ్రివి గాన - నిన్ను నేమఱకుంటి నేను విడక
 యుదరపోషణకునై యొకరి నే నాశింప - నేర నా కన్నంబు నీవు నడుపు
@@ -3357,63 +3084,57 @@
 ధనము భారంబైనఁ దల కిరీటము నమ్ము - కుండలంబులు పైఁడిగొలుసు లమ్ము</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('మ', '|'), ('ల', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('న', 'U'), ('న్ను', '|'), ('గ', 'U'), ('న్న', '|'), ('తం', 'U'), ('డ్రి', '|'), ('వి', '|'), ('గా', 'U'), ('న', '|'), ('ని', 'U'), ('న్ను', '|'), ('నే', 'U'), ('మ', '|'), ('ఱ', '|'), ('కుం', 'U'), ('టి', '|'), ('నే', 'U'), ('ను', '|'), ('వి', '|'), ('డ', '|'), ('క', '|'), ('యు', '|'), ('ద', '|'), ('ర', '|'), ('పో', 'U'), ('ష', '|'), ('ణ', '|'), ('కు', '|'), ('నై', 'U'), ('యొ', '|'), ('క', '|'), ('రి', '|'), ('నే', 'U'), ('నా', 'U'), ('శిం', 'U'), ('ప', '|'), ('నే', 'U'), ('ర', '|'), ('నా', 'U'), ('క', 'U'), ('న్నం', 'U'), ('బు', '|'), ('నీ', 'U'), ('వు', '|'), ('న', '|'), ('డు', '|'), ('పు', '|'), ('పె', 'U'), ('ట్ట', '|'), ('లే', 'U'), ('నం', 'U'), ('టి', '|'), ('వా', 'U'), ('పి', 'U'), ('న్న', '|'), ('పె', 'U'), ('ద్ద', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('ద', '|'), ('గ', '|'), ('వు', '|'), ('కి', 'U'), ('ప్పు', '|'), ('డు', '|'), ('దీ', 'U'), ('య', '|'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('నా', 'U'), ('ను', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('భా', 'U'), ('రం', 'U'), ('బై', 'U'), ('న', '|'), ('ద', '|'), ('ల', '|'), ('కి', '|'), ('రీ', 'U'), ('ట', '|'), ('ము', '|'), ('న', 'U'), ('మ్ము', '|'), ('కుం', 'U'), ('డ', '|'), ('లం', 'U'), ('బు', '|'), ('లు', '|'), ('పై', 'U'), ('డి', '|'), ('గొ', '|'), ('లు', '|'), ('సు', '|'), ('ల', 'U'), ('మ్ము', '|')]</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కొసకు నీ శంఖచక్రముల్‌ కుదువఁబెట్టి - గ్రాసము నొసంగి పోషించు కపటముడిగి
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>కొసకు నీ శంఖచక్రముల్‌ కుదువఁబెట్టి - గ్రాసము నొసంగి పోషించు కపటముడిగి
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
           <t>[('కొ', '|'), ('స', '|'), ('కు', '|'), ('నీ', 'U'), ('శం', 'U'), ('ఖ', '|'), ('చ', 'U'), ('క్ర', '|'), ('ముల్', 'U'), ('కు', '|'), ('దు', '|'), ('వ', '|'), ('బె', 'U'), ('ట్టి', 'U'), ('గ్రా', 'U'), ('స', '|'), ('ము', '|'), ('నొ', '|'), ('సం', 'U'), ('గి', '|'), ('పో', 'U'), ('షిం', 'U'), ('చు', '|'), ('క', '|'), ('ప', '|'), ('ట', '|'), ('ము', '|'), ('డి', '|'), ('గి', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
         <is>
           <t>కువలయశ్యామ! నీకొలువు చేసిన నాకు - జీత మెందుకు ముట్టఁజెప్పవైతి
 మంచిమాటలచేతఁ గొంచెమియ్యఁగలేవు - కలహమౌ నిఁకఁ జుమ్మి ఖండితముగ
@@ -3421,63 +3142,57 @@
 నిఁక నేసహింప నీవిపుడు నన్నేమైన - శిక్ష చేసినఁ జేయు సిద్ధమైతి</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
           <t>[('కు', '|'), ('వ', '|'), ('ల', '|'), ('య', 'U'), ('శ్యా', 'U'), ('మ', '|'), ('నీ', 'U'), ('కొ', '|'), ('లు', '|'), ('వు', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('నా', 'U'), ('కు', '|'), ('జీ', 'U'), ('త', '|'), ('మెం', 'U'), ('దు', '|'), ('కు', '|'), ('ము', 'U'), ('ట్ట', '|'), ('జె', 'U'), ('ప్ప', '|'), ('వై', 'U'), ('తి', '|'), ('మం', 'U'), ('చి', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('చే', 'U'), ('త', '|'), ('గొం', 'U'), ('చె', '|'), ('మి', 'U'), ('య్య', '|'), ('గ', '|'), ('లే', 'U'), ('వు', '|'), ('క', '|'), ('ల', '|'), ('హ', '|'), ('మౌ', 'U'), ('ని', '|'), ('క', '|'), ('జు', 'U'), ('మ్మి', '|'), ('ఖం', 'U'), ('డి', '|'), ('త', '|'), ('ము', '|'), ('గ', '|'), ('నీ', 'U'), ('వు', '|'), ('సా', 'U'), ('ధు', '|'), ('వు', '|'), ('గా', 'U'), ('న', '|'), ('నిం', 'U'), ('త', '|'), ('ప', 'U'), ('ర్యం', 'U'), ('తం', 'U'), ('బు', '|'), ('చ', '|'), ('న', '|'), ('వు', '|'), ('చే', 'U'), ('ని', 'U'), ('న్నా', 'U'), ('ళ్ళు', '|'), ('జ', '|'), ('రు', '|'), ('ప', '|'), ('వ', '|'), ('ల', '|'), ('సె', '|'), ('ని', '|'), ('క', '|'), ('నే', 'U'), ('స', '|'), ('హిం', 'U'), ('ప', '|'), ('నీ', 'U'), ('వి', '|'), ('పు', '|'), ('డు', '|'), ('న', 'U'), ('న్నే', 'U'), ('మై', 'U'), ('న', '|'), ('శి', 'U'), ('క్ష', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('జే', 'U'), ('యు', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('మై', 'U'), ('తి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నేఁడు కరుణింపకుంటివా నిశ్చయముగఁ - దెగఁబడితి చూడు నీ తోడ జగడమునకు
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>నేఁడు కరుణింపకుంటివా నిశ్చయముగఁ - దెగఁబడితి చూడు నీ తోడ జగడమునకు
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
           <t>[('నే', 'U'), ('డు', '|'), ('క', '|'), ('రు', '|'), ('ణిం', 'U'), ('ప', '|'), ('కుం', 'U'), ('టి', '|'), ('వా', 'U'), ('ని', 'U'), ('శ్చ', '|'), ('య', '|'), ('ము', '|'), ('గ', '|'), ('దె', '|'), ('గ', '|'), ('బ', '|'), ('డి', '|'), ('తి', '|'), ('చూ', 'U'), ('డు', '|'), ('నీ', 'U'), ('తో', 'U'), ('డ', '|'), ('జ', '|'), ('గ', '|'), ('డ', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
         <is>
           <t>హరి! నీకుఁ బర్యంకమైన శేషుడు చాలఁ - బవనము భక్షించి బ్రతుకుచుండు
 ననువుగా నీకు వాహనమైన ఖగరాజు - గొప్పపామును నోటఁ గొఱుకుచుండు
@@ -3485,63 +3200,57 @@
 నిన్ను భక్తులు పిల్చి నిత్యపూజలు చేసి - ప్రేమఁ బక్వాన్నముల్‌ పెట్టుచుండ్రు</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
           <t>[('హ', '|'), ('రి', '|'), ('నీ', 'U'), ('కు', '|'), ('బ', 'U'), ('ర్యం', 'U'), ('క', '|'), ('మై', 'U'), ('న', '|'), ('శే', 'U'), ('షు', '|'), ('డు', '|'), ('చా', 'U'), ('ల', '|'), ('బ', '|'), ('వ', '|'), ('న', '|'), ('ము', '|'), ('భ', 'U'), ('క్షిం', 'U'), ('చి', 'U'), ('బ్ర', '|'), ('తు', '|'), ('కు', '|'), ('చుం', 'U'), ('డు', '|'), ('న', '|'), ('ను', '|'), ('వు', '|'), ('గా', 'U'), ('నీ', 'U'), ('కు', '|'), ('వా', 'U'), ('హ', '|'), ('న', '|'), ('మై', 'U'), ('న', '|'), ('ఖ', '|'), ('గ', '|'), ('రా', 'U'), ('జు', '|'), ('గొ', 'U'), ('ప్ప', '|'), ('పా', 'U'), ('ము', '|'), ('ను', '|'), ('నో', 'U'), ('ట', '|'), ('గొ', '|'), ('ఱు', '|'), ('కు', '|'), ('చుం', 'U'), ('డు', '|'), ('య', '|'), ('ది', '|'), ('గా', 'U'), ('క', '|'), ('నీ', 'U'), ('భా', 'U'), ('ర్య', '|'), ('యై', 'U'), ('న', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('దే', 'U'), ('వి', '|'), ('ది', '|'), ('న', '|'), ('ము', '|'), ('పే', 'U'), ('రం', 'U'), ('టం', 'U'), ('బు', '|'), ('ది', '|'), ('రు', '|'), ('గు', '|'), ('చుం', 'U'), ('డు', '|'), ('ని', 'U'), ('న్ను', '|'), ('భ', 'U'), ('క్తు', '|'), ('లు', '|'), ('పి', 'U'), ('ల్చి', '|'), ('ని', 'U'), ('త్య', '|'), ('పూ', 'U'), ('జ', '|'), ('లు', '|'), ('చే', 'U'), ('సి', 'U'), ('ప్రే', 'U'), ('మ', '|'), ('బ', 'U'), ('క్వా', 'U'), ('న్న', '|'), ('ముల్', 'U'), ('పె', 'U'), ('ట్టు', '|'), ('చుం', 'U'), ('డ్రు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>స్వస్థముగ నీకు గ్రాసము జరుగుచుండఁ - గాసు నీ చేతి దొకటైనఁ గాదు వ్యయము
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>స్వస్థముగ నీకు గ్రాసము జరుగుచుండఁ - గాసు నీ చేతి దొకటైనఁ గాదు వ్యయము
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
           <t>[('స్వ', 'U'), ('స్థ', '|'), ('ము', '|'), ('గ', '|'), ('నీ', 'U'), ('కు', 'U'), ('గ్రా', 'U'), ('స', '|'), ('ము', '|'), ('జ', '|'), ('రు', '|'), ('గు', '|'), ('చుం', 'U'), ('డ', '|'), ('గా', 'U'), ('సు', '|'), ('నీ', 'U'), ('చే', 'U'), ('తి', '|'), ('దొ', '|'), ('క', '|'), ('టై', 'U'), ('న', '|'), ('గా', 'U'), ('దు', 'U'), ('వ్య', '|'), ('య', '|'), ('ము', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
         <is>
           <t>పుండరీకాక్ష! నారెండు కన్నుల నిండ - నిన్నుఁ జూచెడి భాగ్యమెన్నఁడయ్య
 వాసిగా నా మనోవాంఛ దీరెడునట్లు - సొగసుగా నీ రూపు చూపవయ్య
@@ -3549,63 +3258,57 @@
 వసుధలోఁ బతిత పావనుఁడ వీ వంచు నేఁ - బుణ్యవంతుల నోటఁ బొగడ వింటి</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
           <t>[('పుం', 'U'), ('డ', '|'), ('రీ', 'U'), ('కా', 'U'), ('క్ష', '|'), ('నా', 'U'), ('రెం', 'U'), ('డు', '|'), ('క', 'U'), ('న్ను', '|'), ('ల', '|'), ('నిం', 'U'), ('డ', '|'), ('ని', 'U'), ('న్ను', '|'), ('జూ', 'U'), ('చె', '|'), ('డి', '|'), ('భా', 'U'), ('గ్య', '|'), ('మె', 'U'), ('న్న', '|'), ('డ', 'U'), ('య్య', '|'), ('వా', 'U'), ('సి', '|'), ('గా', 'U'), ('నా', 'U'), ('మ', '|'), ('నో', 'U'), ('వాం', 'U'), ('ఛ', '|'), ('దీ', 'U'), ('రె', '|'), ('డు', '|'), ('న', 'U'), ('ట్లు', '|'), ('సొ', '|'), ('గ', '|'), ('సు', '|'), ('గా', 'U'), ('నీ', 'U'), ('రూ', 'U'), ('పు', '|'), ('చూ', 'U'), ('ప', '|'), ('వ', 'U'), ('య్య', '|'), ('పా', 'U'), ('ప', '|'), ('క', '|'), ('ర్ము', '|'), ('ని', '|'), ('కం', 'U'), ('ట', '|'), ('బ', '|'), ('డ', '|'), ('క', '|'), ('బో', 'U'), ('వు', '|'), ('ద', '|'), ('మం', 'U'), ('చు', '|'), ('బ', '|'), ('రు', '|'), ('ష', '|'), ('మై', 'U'), ('న', 'U'), ('ప్ర', '|'), ('తి', 'U'), ('జ్ఞ', '|'), ('బ', 'U'), ('ట్టి', '|'), ('నా', 'U'), ('వె', '|'), ('వ', '|'), ('సు', '|'), ('ధ', '|'), ('లో', 'U'), ('బ', '|'), ('తి', '|'), ('త', '|'), ('పా', 'U'), ('వ', '|'), ('ను', '|'), ('డ', '|'), ('వీ', 'U'), ('వం', 'U'), ('చు', '|'), ('నే', 'U'), ('బు', 'U'), ('ణ్య', '|'), ('వం', 'U'), ('తు', '|'), ('ల', '|'), ('నో', 'U'), ('ట', '|'), ('బొ', '|'), ('గ', '|'), ('డ', '|'), ('విం', 'U'), ('టి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నేమిటికి విస్తరించె నీకింత కీర్తి - ద్రోహినైనను నా కీవు దొరకరాదె?
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>నేమిటికి విస్తరించె నీకింత కీర్తి - ద్రోహినైనను నా కీవు దొరకరాదె?
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
           <t>[('నే', 'U'), ('మి', '|'), ('టి', '|'), ('కి', '|'), ('వి', 'U'), ('స్త', '|'), ('రిం', 'U'), ('చె', '|'), ('నీ', 'U'), ('కిం', 'U'), ('త', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('ద్రో', 'U'), ('హి', '|'), ('నై', 'U'), ('న', '|'), ('ను', '|'), ('నా', 'U'), ('కీ', 'U'), ('వు', '|'), ('దొ', '|'), ('ర', '|'), ('క', '|'), ('రా', 'U'), ('దె', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
         <is>
           <t>పచ్చి చర్మపుఁదిత్తి పసలేదు దేహంబు - లోపల నంతట రోయ రోఁత
 నరములు శల్యముల్‌ నవరంధ్రములు రక్త - మాంసంబు కండలు మైల తిత్తి
@@ -3613,63 +3316,57 @@
 సకల రోగములకు సంస్థానమై యుండు - నిలువ దస్థిరమైన నీటి బుగ్గ</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
           <t>[('ప', 'U'), ('చ్చి', '|'), ('చ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ది', 'U'), ('త్తి', '|'), ('ప', '|'), ('స', '|'), ('లే', 'U'), ('దు', '|'), ('దే', 'U'), ('హం', 'U'), ('బు', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('నం', 'U'), ('త', '|'), ('ట', '|'), ('రో', 'U'), ('య', '|'), ('రో', 'U'), ('త', '|'), ('న', '|'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('శ', 'U'), ('ల్య', '|'), ('ముల్', 'U'), ('న', '|'), ('వ', '|'), ('రం', 'U'), ('ధ్ర', '|'), ('ము', '|'), ('లు', '|'), ('ర', 'U'), ('క్త', '|'), ('మాం', 'U'), ('సం', 'U'), ('బు', '|'), ('కం', 'U'), ('డ', '|'), ('లు', '|'), ('మై', 'U'), ('ల', '|'), ('తి', 'U'), ('త్తి', '|'), ('బ', '|'), ('లు', '|'), ('వై', 'U'), ('న', '|'), ('యెం', 'U'), ('డ', '|'), ('వా', 'U'), ('న', '|'), ('ల', '|'), ('కో', 'U'), ('ర్వ', '|'), ('దిం', 'U'), ('తై', 'U'), ('న', '|'), ('దా', 'U'), ('ళ', '|'), ('లే', 'U'), ('దా', 'U'), ('క', '|'), ('లి', '|'), ('దా', 'U'), ('హ', '|'), ('ము', '|'), ('ల', '|'), ('కు', '|'), ('స', '|'), ('క', '|'), ('ల', '|'), ('రో', 'U'), ('గ', '|'), ('ము', '|'), ('ల', '|'), ('కు', '|'), ('సం', 'U'), ('స్థా', 'U'), ('న', '|'), ('మై', 'U'), ('యుం', 'U'), ('డు', '|'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('ద', 'U'), ('స్థి', '|'), ('ర', '|'), ('మై', 'U'), ('న', '|'), ('నీ', 'U'), ('టి', '|'), ('బు', 'U'), ('గ్గ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>బొందిలో నుండు ప్రాణముల్‌ పోయినంతఁ - గాటికే గాని కొఱగాదు గవ్వకైన
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>బొందిలో నుండు ప్రాణముల్‌ పోయినంతఁ - గాటికే గాని కొఱగాదు గవ్వకైన
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
           <t>[('బొం', 'U'), ('ది', '|'), ('లో', 'U'), ('నుం', 'U'), ('డు', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('ముల్', 'U'), ('పో', 'U'), ('యి', '|'), ('నం', 'U'), ('త', '|'), ('గా', 'U'), ('టి', '|'), ('కే', 'U'), ('గా', 'U'), ('ని', '|'), ('కొ', '|'), ('ఱ', '|'), ('గా', 'U'), ('దు', '|'), ('గ', 'U'), ('వ్వ', '|'), ('కై', 'U'), ('న', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B102" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
         <is>
           <t>పలురోగములకు నీపాదతీర్థమె కాని - వలపు మందులు నాకు వలదు వలదు
 చెలిమిసేయుచు నీకు సేవఁ జేసెదఁ గాన - నీ దాసకోటిలో నిలుపవయ్య
@@ -3677,63 +3374,57 @@
 పాముకాటుకు నిన్నుఁభజనఁ జేసెదఁ గాని - దాని మంత్రము నేను తలఁపనయ్య</t>
         </is>
       </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('లు', '|'), ('రో', 'U'), ('గ', '|'), ('ము', '|'), ('ల', '|'), ('కు', '|'), ('నీ', 'U'), ('పా', 'U'), ('ద', '|'), ('తీ', 'U'), ('ర్థ', '|'), ('మె', '|'), ('కా', 'U'), ('ని', '|'), ('వ', '|'), ('ల', '|'), ('పు', '|'), ('మం', 'U'), ('దు', '|'), ('లు', '|'), ('నా', 'U'), ('కు', '|'), ('వ', '|'), ('ల', '|'), ('దు', '|'), ('వ', '|'), ('ల', '|'), ('దు', '|'), ('చె', '|'), ('లి', '|'), ('మి', '|'), ('సే', 'U'), ('యు', '|'), ('చు', '|'), ('నీ', 'U'), ('కు', '|'), ('సే', 'U'), ('వ', '|'), ('జే', 'U'), ('సె', '|'), ('ద', '|'), ('గా', 'U'), ('న', '|'), ('నీ', 'U'), ('దా', 'U'), ('స', '|'), ('కో', 'U'), ('టి', '|'), ('లో', 'U'), ('ని', '|'), ('లు', '|'), ('ప', '|'), ('వ', 'U'), ('య్య', 'U'), ('గ్ర', '|'), ('హ', '|'), ('భ', '|'), ('యం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('జ', 'U'), ('క్ర', '|'), ('ము', '|'), ('ద', '|'), ('లం', 'U'), ('చె', '|'), ('ద', '|'), ('గా', 'U'), ('ని', '|'), ('ఘో', 'U'), ('ర', '|'), ('ర', 'U'), ('క్ష', '|'), ('లు', '|'), ('గ', 'U'), ('ట్ట', '|'), ('గో', 'U'), ('ర', '|'), ('న', 'U'), ('య్య', '|'), ('పా', 'U'), ('ము', '|'), ('కా', 'U'), ('టు', '|'), ('కు', '|'), ('ని', 'U'), ('న్ను', '|'), ('భ', '|'), ('జ', '|'), ('న', '|'), ('జే', 'U'), ('సె', '|'), ('ద', '|'), ('గా', 'U'), ('ని', '|'), ('దా', 'U'), ('ని', '|'), ('మం', 'U'), ('త్ర', '|'), ('ము', '|'), ('నే', 'U'), ('ను', '|'), ('త', '|'), ('ల', '|'), ('ప', '|'), ('న', 'U'), ('య్య', '|')]</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>దొరికితివి నాకు దండి వైద్యుఁడవు నీవు - వేయికష్టాలు వచ్చిన వెఱవనయ్య
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>దొరికితివి నాకు దండి వైద్యుఁడవు నీవు - వేయికష్టాలు వచ్చిన వెఱవనయ్య
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
           <t>[('దొ', '|'), ('రి', '|'), ('కి', '|'), ('తి', '|'), ('వి', '|'), ('నా', 'U'), ('కు', '|'), ('దం', 'U'), ('డి', '|'), ('వై', 'U'), ('ద్యు', '|'), ('డ', '|'), ('వు', '|'), ('నీ', 'U'), ('వు', '|'), ('వే', 'U'), ('యి', '|'), ('క', 'U'), ('ష్టా', 'U'), ('లు', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('వె', '|'), ('ఱ', '|'), ('వ', '|'), ('న', 'U'), ('య్య', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B104" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
         <is>
           <t>కూటికోసము నేఁ గొఱగాని జనులచేఁ - బలు గద్దరింపులు పడఁగ వలసె
 దార సుత భ్రమ దగిలి యుండఁగఁ గదా - దేశ దేశము లెల్లఁ దిరుగవలసెఁ?
@@ -3741,63 +3432,57 @@
 నభిమానములు మదినంటి యుండఁగఁ గదా - పరులఁ జూచిన భీతి పడఁగవలసె?</t>
         </is>
       </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
           <t>[('కూ', 'U'), ('టి', '|'), ('కో', 'U'), ('స', '|'), ('ము', '|'), ('నే', 'U'), ('గొ', '|'), ('ఱ', '|'), ('గా', 'U'), ('ని', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('చే', 'U'), ('బ', '|'), ('లు', '|'), ('గ', 'U'), ('ద్ద', '|'), ('రిం', 'U'), ('పు', '|'), ('లు', '|'), ('ప', '|'), ('డ', '|'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('సె', '|'), ('దా', 'U'), ('ర', '|'), ('సు', '|'), ('త', 'U'), ('భ్ర', '|'), ('మ', '|'), ('ద', '|'), ('గి', '|'), ('లి', '|'), ('యుం', 'U'), ('డ', '|'), ('గ', '|'), ('గ', '|'), ('దా', 'U'), ('దే', 'U'), ('శ', '|'), ('దే', 'U'), ('శ', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('ది', '|'), ('రు', '|'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('సె', '|'), ('బె', '|'), ('ను', '|'), ('ద', '|'), ('రి', '|'), ('ద్ర', '|'), ('త', '|'), ('పై', 'U'), ('ని', '|'), ('బె', '|'), ('న', '|'), ('గి', '|'), ('యుం', 'U'), ('డ', '|'), ('గ', '|'), ('గ', '|'), ('దా', 'U'), ('చే', 'U'), ('రి', '|'), ('నీ', 'U'), ('చు', '|'), ('ల', '|'), ('సే', 'U'), ('వ', '|'), ('చే', 'U'), ('య', '|'), ('వ', '|'), ('ల', '|'), ('సె', '|'), ('న', '|'), ('భి', '|'), ('మా', 'U'), ('న', '|'), ('ము', '|'), ('లు', '|'), ('మ', '|'), ('ది', '|'), ('నం', 'U'), ('టి', '|'), ('యుం', 'U'), ('డ', '|'), ('గ', '|'), ('గ', '|'), ('దా', 'U'), ('ప', '|'), ('రు', '|'), ('ల', '|'), ('జూ', 'U'), ('చి', '|'), ('న', '|'), ('భీ', 'U'), ('తి', '|'), ('ప', '|'), ('డ', '|'), ('గ', '|'), ('వ', '|'), ('ల', '|'), ('సె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నిటుల సంసారవారధి నీఁదలేక - వేయి విధముల నిన్ను నే వేఁడుకొంటి
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>నిటుల సంసారవారధి నీఁదలేక - వేయి విధముల నిన్ను నే వేఁడుకొంటి
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('టు', '|'), ('ల', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('వా', 'U'), ('ర', '|'), ('ధి', '|'), ('నీ', 'U'), ('ద', '|'), ('లే', 'U'), ('క', '|'), ('వే', 'U'), ('యి', '|'), ('వి', '|'), ('ధ', '|'), ('ము', '|'), ('ల', '|'), ('ని', 'U'), ('న్ను', '|'), ('నే', 'U'), ('వే', 'U'), ('డు', '|'), ('కొం', 'U'), ('టి', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B106" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
         <is>
           <t>సాధు సజ్జనులతో జగడమాడినఁ గీడు - కవులతో వైరంబుఁ గాంచఁ గీడు
 పరమ దీనులఁ జిక్కఁబట్టి కొట్టినఁ గీడు - భిక్షగాండ్రను దుఃఖపెట్టఁ గీడు
@@ -3805,63 +3490,57 @@
 సద్భక్తులను దిరస్కారమాడినఁ గీడు - గురుని ద్రవ్యము దోఁచుకొనినఁ గీడు</t>
         </is>
       </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
           <t>[('సా', 'U'), ('ధు', '|'), ('స', 'U'), ('జ్జ', '|'), ('ను', '|'), ('ల', '|'), ('తో', 'U'), ('జ', '|'), ('గ', '|'), ('డ', '|'), ('మా', 'U'), ('డి', '|'), ('న', '|'), ('గీ', 'U'), ('డు', '|'), ('క', '|'), ('వు', '|'), ('ల', '|'), ('తో', 'U'), ('వై', 'U'), ('రం', 'U'), ('బు', '|'), ('గాం', 'U'), ('చ', '|'), ('గీ', 'U'), ('డు', '|'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('దీ', 'U'), ('ను', '|'), ('ల', '|'), ('జి', 'U'), ('క్క', '|'), ('బ', 'U'), ('ట్టి', '|'), ('కొ', 'U'), ('ట్టి', '|'), ('న', '|'), ('గీ', 'U'), ('డు', '|'), ('భి', 'U'), ('క్ష', '|'), ('గాం', 'U'), ('డ్ర', '|'), ('ను', '|'), ('దుః', 'U'), ('ఖ', '|'), ('పె', 'U'), ('ట్ట', '|'), ('గీ', 'U'), ('డు', '|'), ('ని', '|'), ('రు', '|'), ('పే', 'U'), ('ద', '|'), ('ల', '|'), ('ను', '|'), ('జూ', 'U'), ('చి', '|'), ('నిం', 'U'), ('ద', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('గీ', 'U'), ('డు', '|'), ('పు', 'U'), ('ణ్య', '|'), ('వం', 'U'), ('తు', '|'), ('ల', '|'), ('ది', 'U'), ('ట్ట', '|'), ('బొ', '|'), ('స', '|'), ('గు', '|'), ('గీ', 'U'), ('డు', '|'), ('స', 'U'), ('ద్భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('ను', '|'), ('ది', '|'), ('ర', 'U'), ('స్కా', 'U'), ('ర', '|'), ('మా', 'U'), ('డి', '|'), ('న', '|'), ('గీ', 'U'), ('డు', '|'), ('గు', '|'), ('రు', '|'), ('ని', '|'), ('ద్ర', 'U'), ('వ్య', '|'), ('ము', '|'), ('దో', 'U'), ('చు', '|'), ('కొ', '|'), ('ని', '|'), ('న', '|'), ('గీ', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>దుష్టకార్యము లొనరించు దుర్జనులకు - ఘనతరంబైన నరకంబు గట్టిముల్లె
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>దుష్టకార్యము లొనరించు దుర్జనులకు - ఘనతరంబైన నరకంబు గట్టిముల్లె
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
           <t>[('దు', 'U'), ('ష్ట', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', '|'), ('లొ', '|'), ('న', '|'), ('రిం', 'U'), ('చు', '|'), ('దు', 'U'), ('ర్జ', '|'), ('ను', '|'), ('ల', '|'), ('కు', '|'), ('ఘ', '|'), ('న', '|'), ('త', '|'), ('రం', 'U'), ('బై', 'U'), ('న', '|'), ('న', '|'), ('ర', '|'), ('కం', 'U'), ('బు', '|'), ('గ', 'U'), ('ట్టి', '|'), ('ము', 'U'), ('ల్లె', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B108" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
         <is>
           <t>పరులద్రవ్యము మీఁద భ్రాంతి నొందినవాఁడు - పరకాంతల కపేక్ష పడెడువాఁడు
 అర్థుల విత్తంబు లపహరించెడువాఁడు - దాన మియ్యంగ వద్దనెడివాఁడు
@@ -3869,63 +3548,57 @@
 విష్ణుదాసులఁ జూచి వెక్కిరించెడివాఁడు - ధర్మసాధులఁ దిట్టఁ దలఁచువాఁడు</t>
         </is>
       </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('రు', '|'), ('ల', '|'), ('ద్ర', 'U'), ('వ్య', '|'), ('ము', '|'), ('మీ', 'U'), ('ద', 'U'), ('భ్రాం', 'U'), ('తి', '|'), ('నొం', 'U'), ('ది', '|'), ('న', '|'), ('వా', 'U'), ('డు', '|'), ('ప', '|'), ('ర', '|'), ('కాం', 'U'), ('త', '|'), ('ల', '|'), ('క', '|'), ('పే', 'U'), ('క్ష', '|'), ('ప', '|'), ('డె', '|'), ('డు', '|'), ('వా', 'U'), ('డు', '|'), ('అ', 'U'), ('ర్థు', '|'), ('ల', '|'), ('వి', 'U'), ('త్తం', 'U'), ('బు', '|'), ('ల', '|'), ('ప', '|'), ('హ', '|'), ('రిం', 'U'), ('చె', '|'), ('డు', '|'), ('వా', 'U'), ('డు', '|'), ('దా', 'U'), ('న', '|'), ('మి', 'U'), ('య్యం', 'U'), ('గ', '|'), ('వ', 'U'), ('ద్ద', '|'), ('నె', '|'), ('డి', '|'), ('వా', 'U'), ('డు', '|'), ('స', '|'), ('భ', '|'), ('ల', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('ని', 'U'), ('ల్చి', '|'), ('చా', 'U'), ('డి', '|'), ('చె', 'U'), ('ప్పె', '|'), ('డి', '|'), ('వా', 'U'), ('డు', '|'), ('ప', 'U'), ('క్ష', '|'), ('పు', '|'), ('సా', 'U'), ('క్ష్యం', 'U'), ('బు', '|'), ('ప', '|'), ('లు', '|'), ('కు', '|'), ('వా', 'U'), ('డు', '|'), ('వి', 'U'), ('ష్ణు', '|'), ('దా', 'U'), ('సు', '|'), ('ల', '|'), ('జూ', 'U'), ('చి', '|'), ('వె', 'U'), ('క్కి', '|'), ('రిం', 'U'), ('చె', '|'), ('డి', '|'), ('వా', 'U'), ('డు', '|'), ('ధ', '|'), ('ర్మ', '|'), ('సా', 'U'), ('ధు', '|'), ('ల', '|'), ('ది', 'U'), ('ట్ట', '|'), ('ద', '|'), ('ల', '|'), ('చు', '|'), ('వా', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ప్రజల జంతుల హింసించు పాతకుండు - కాలకింకర గదలచేఁ గష్టమొందు
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>ప్రజల జంతుల హింసించు పాతకుండు - కాలకింకర గదలచేఁ గష్టమొందు
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
           <t>[('ప్ర', '|'), ('జ', '|'), ('ల', '|'), ('జం', 'U'), ('తు', '|'), ('ల', '|'), ('హిం', 'U'), ('సిం', 'U'), ('చు', '|'), ('పా', 'U'), ('త', '|'), ('కుం', 'U'), ('డు', '|'), ('కా', 'U'), ('ల', '|'), ('కిం', 'U'), ('క', '|'), ('ర', '|'), ('గ', '|'), ('ద', '|'), ('ల', '|'), ('చే', 'U'), ('గ', 'U'), ('ష్ట', '|'), ('మొం', 'U'), ('దు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B110" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
         <is>
           <t>నరసింహ! నా తండ్రి నన్నేలు నన్నేలు - కామితార్థము లిచ్చి కావు కావు
 దైత్యసంహార! చాల దయయుంచు దయయుంచు - దీనపోషక! నీవె దిక్కు దిక్కు
@@ -3933,63 +3606,57 @@
 మారకోటిస్వరూప! మన్నించు మన్నించు - పద్మలోచన! చేయి పట్టు పట్టు</t>
         </is>
       </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('నా', 'U'), ('తం', 'U'), ('డ్రి', '|'), ('న', 'U'), ('న్నే', 'U'), ('లు', '|'), ('న', 'U'), ('న్నే', 'U'), ('లు', '|'), ('కా', 'U'), ('మి', '|'), ('తా', 'U'), ('ర్థ', '|'), ('ము', '|'), ('లి', 'U'), ('చ్చి', '|'), ('కా', 'U'), ('వు', '|'), ('కా', 'U'), ('వు', '|'), ('దై', 'U'), ('త్య', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('చా', 'U'), ('ల', '|'), ('ద', '|'), ('య', '|'), ('యుం', 'U'), ('చు', '|'), ('ద', '|'), ('య', '|'), ('యుం', 'U'), ('చు', '|'), ('దీ', 'U'), ('న', '|'), ('పో', 'U'), ('ష', '|'), ('క', '|'), ('నీ', 'U'), ('వె', '|'), ('ది', 'U'), ('క్కు', '|'), ('ది', 'U'), ('క్కు', '|'), ('ర', 'U'), ('త్న', '|'), ('భూ', 'U'), ('షి', '|'), ('త', '|'), ('వ', 'U'), ('క్ష', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చు', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చు', '|'), ('భు', '|'), ('వ', '|'), ('న', '|'), ('ర', 'U'), ('క్ష', '|'), ('క', '|'), ('న', 'U'), ('న్ను', 'U'), ('బ్రో', 'U'), ('వు', 'U'), ('బ్రో', 'U'), ('వు', '|'), ('మా', 'U'), ('ర', '|'), ('కో', 'U'), ('టి', 'U'), ('స్వ', '|'), ('రూ', 'U'), ('ప', '|'), ('మ', 'U'), ('న్నిం', 'U'), ('చు', '|'), ('మ', 'U'), ('న్నిం', 'U'), ('చు', '|'), ('ప', 'U'), ('ద్మ', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('చే', 'U'), ('యి', '|'), ('ప', 'U'), ('ట్టు', '|'), ('ప', 'U'), ('ట్టు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>సురవినుత! నేను నీచాటుఁ జొచ్చినాను - నా మొఱాలించి కడతేర్చు నాగశయన!
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>సురవినుత! నేను నీచాటుఁ జొచ్చినాను - నా మొఱాలించి కడతేర్చు నాగశయన!
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
           <t>[('సు', '|'), ('ర', '|'), ('వి', '|'), ('ను', '|'), ('త', '|'), ('నే', 'U'), ('ను', '|'), ('నీ', 'U'), ('చా', 'U'), ('టు', '|'), ('జొ', 'U'), ('చ్చి', '|'), ('నా', 'U'), ('ను', '|'), ('నా', 'U'), ('మొ', '|'), ('ఱా', 'U'), ('లిం', 'U'), ('చి', '|'), ('క', '|'), ('డ', '|'), ('తే', 'U'), ('ర్చు', '|'), ('నా', 'U'), ('గ', '|'), ('శ', '|'), ('య', '|'), ('న', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B112" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
         <is>
           <t>నీ భక్తులను గనుల్‌ నిండఁ జూచియు రెండు - చేతుల జోహారు సేయువాఁడు
 నేర్పుతో నెవరైన నీకథల్‌ చెప్పంగ - వినయమందుచుఁ జాల వినెడువాఁడు
@@ -3997,63 +3664,57 @@
 నీ సేవకుల జాతినీతు లెన్నక చాల - దాసోహ మని చేరఁ దలఁచువాఁడు</t>
         </is>
       </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('ను', '|'), ('గ', '|'), ('నుల్', 'U'), ('నిం', 'U'), ('డ', '|'), ('జూ', 'U'), ('చి', '|'), ('యు', '|'), ('రెం', 'U'), ('డు', '|'), ('చే', 'U'), ('తు', '|'), ('ల', '|'), ('జో', 'U'), ('హా', 'U'), ('రు', '|'), ('సే', 'U'), ('యు', '|'), ('వా', 'U'), ('డు', '|'), ('నే', 'U'), ('ర్పు', '|'), ('తో', 'U'), ('నె', '|'), ('వ', '|'), ('రై', 'U'), ('న', '|'), ('నీ', 'U'), ('క', '|'), ('థల్', 'U'), ('చె', 'U'), ('ప్పం', 'U'), ('గ', '|'), ('వి', '|'), ('న', '|'), ('య', '|'), ('మం', 'U'), ('దు', '|'), ('చు', '|'), ('జా', 'U'), ('ల', '|'), ('వి', '|'), ('నె', '|'), ('డు', '|'), ('వా', 'U'), ('డు', '|'), ('త', '|'), ('న', '|'), ('గృ', '|'), ('హం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('నీ', 'U'), ('దా', 'U'), ('సు', '|'), ('లు', '|'), ('రా', 'U'), ('జూ', 'U'), ('చి', '|'), ('పీ', 'U'), ('ట', '|'), ('పై', 'U'), ('గూ', 'U'), ('ర్చుం', 'U'), ('డ', '|'), ('బె', 'U'), ('ట్టు', '|'), ('వా', 'U'), ('డు', '|'), ('నీ', 'U'), ('సే', 'U'), ('వ', '|'), ('కు', '|'), ('ల', '|'), ('జా', 'U'), ('తి', '|'), ('నీ', 'U'), ('తు', '|'), ('లె', 'U'), ('న్న', '|'), ('క', '|'), ('చా', 'U'), ('ల', '|'), ('దా', 'U'), ('సో', 'U'), ('హ', '|'), ('మ', '|'), ('ని', '|'), ('చే', 'U'), ('ర', '|'), ('ద', '|'), ('ల', '|'), ('చు', '|'), ('వా', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>పరమభక్తుండు ధన్యుండు భానుతేజ! - వానిఁ గనుఁగొన్నఁ బుణ్యంబు వసుధలోన
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>పరమభక్తుండు ధన్యుండు భానుతేజ! - వానిఁ గనుఁగొన్నఁ బుణ్యంబు వసుధలోన
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ర', '|'), ('మ', '|'), ('భ', 'U'), ('క్తుం', 'U'), ('డు', '|'), ('ధ', 'U'), ('న్యుం', 'U'), ('డు', '|'), ('భా', 'U'), ('ను', '|'), ('తే', 'U'), ('జ', '|'), ('వా', 'U'), ('ని', '|'), ('గ', '|'), ('ను', '|'), ('గొ', 'U'), ('న్న', '|'), ('బు', 'U'), ('ణ్యం', 'U'), ('బు', '|'), ('వ', '|'), ('సు', '|'), ('ధ', '|'), ('లో', 'U'), ('న', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B114" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
         <is>
           <t>పక్షివాహన! నేనుబ్రతికినన్ని దినాలు - కొండెగాండ్రను గూడి కుమతినైతి
 నన్నవస్త్రము లిచ్చి యాదరింపుము నన్నుఁ - గన్నతండ్రివి నీవె కమలనాభ!
@@ -4061,63 +3722,57 @@
 ఇనజభటావళి యీడిచి కొనిపోక - కరుణతో నా యొద్దఁ గావలుంచు</t>
         </is>
       </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
           <t>[('ప', 'U'), ('క్షి', '|'), ('వా', 'U'), ('హ', '|'), ('న', '|'), ('నే', 'U'), ('ను', 'U'), ('బ్ర', '|'), ('తి', '|'), ('కి', '|'), ('న', 'U'), ('న్ని', '|'), ('ది', '|'), ('నా', 'U'), ('లు', '|'), ('కొం', 'U'), ('డె', '|'), ('గాం', 'U'), ('డ్ర', '|'), ('ను', '|'), ('గూ', 'U'), ('డి', '|'), ('కు', '|'), ('మ', '|'), ('తి', '|'), ('నై', 'U'), ('తి', '|'), ('న', 'U'), ('న్న', '|'), ('వ', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('లి', 'U'), ('చ్చి', '|'), ('యా', 'U'), ('ద', '|'), ('రిం', 'U'), ('పు', '|'), ('ము', '|'), ('న', 'U'), ('న్ను', '|'), ('గ', 'U'), ('న్న', '|'), ('తం', 'U'), ('డ్రి', '|'), ('వి', '|'), ('నీ', 'U'), ('వె', '|'), ('క', '|'), ('మ', '|'), ('ల', '|'), ('నా', 'U'), ('భ', '|'), ('మ', '|'), ('ర', '|'), ('ణ', '|'), ('మ', 'U'), ('య్యె', '|'), ('డి', '|'), ('నా', 'U'), ('డు', '|'), ('మ', '|'), ('మ', '|'), ('త', '|'), ('తో', 'U'), ('నీ', 'U'), ('యొ', 'U'), ('ద్ద', '|'), ('బం', 'U'), ('ట్ల', '|'), ('తో', 'U'), ('లు', '|'), ('ము', '|'), ('ముం', 'U'), ('దు', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('జ', '|'), ('న', '|'), ('క', '|'), ('ఇ', '|'), ('న', '|'), ('జ', '|'), ('భ', '|'), ('టా', 'U'), ('వ', '|'), ('ళి', '|'), ('యీ', 'U'), ('డి', '|'), ('చి', '|'), ('కొ', '|'), ('ని', '|'), ('పో', 'U'), ('క', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('తో', 'U'), ('నా', 'U'), ('యొ', 'U'), ('ద్ద', '|'), ('గా', 'U'), ('వ', '|'), ('లుం', 'U'), ('చు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కొసకు నీ సన్నిధికిఁ బిల్చుకొనియు నీకు - సేవకునిఁ జేసికొనవయ్య శేషశయన!
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>కొసకు నీ సన్నిధికిఁ బిల్చుకొనియు నీకు - సేవకునిఁ జేసికొనవయ్య శేషశయన!
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
           <t>[('కొ', '|'), ('స', '|'), ('కు', '|'), ('నీ', 'U'), ('స', 'U'), ('న్ని', '|'), ('ధి', '|'), ('కి', '|'), ('బి', 'U'), ('ల్చు', '|'), ('కొ', '|'), ('ని', '|'), ('యు', '|'), ('నీ', 'U'), ('కు', '|'), ('సే', 'U'), ('వ', '|'), ('కు', '|'), ('ని', '|'), ('జే', 'U'), ('సి', '|'), ('కొ', '|'), ('న', '|'), ('వ', 'U'), ('య్య', '|'), ('శే', 'U'), ('ష', '|'), ('శ', '|'), ('య', '|'), ('న', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B116" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
         <is>
           <t>నిగమాదిశాస్త్రముల్‌ నేర్చిన ద్విజుఁడైన - యజ్ఞకర్తగు సోమయాజియైన
 ధరణిలోపలఁ బ్రభాత స్నానపరుడైన - నిత్య సత్కర్మాది నిరతుఁడైన
@@ -4125,63 +3780,57 @@
 దండిషోడశ మహాదానపరుండైన - సకల యాత్రలు సల్పు సరసుఁడైన</t>
         </is>
       </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('గ', '|'), ('మా', 'U'), ('ది', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ముల్', 'U'), ('నే', 'U'), ('ర్చి', '|'), ('న', 'U'), ('ద్వి', '|'), ('జు', '|'), ('డై', 'U'), ('న', '|'), ('య', 'U'), ('జ్ఞ', '|'), ('క', 'U'), ('ర్త', '|'), ('గు', '|'), ('సో', 'U'), ('మ', '|'), ('యా', 'U'), ('జి', '|'), ('యై', 'U'), ('న', '|'), ('ధ', '|'), ('ర', '|'), ('ణి', '|'), ('లో', 'U'), ('ప', '|'), ('ల', 'U'), ('బ్ర', '|'), ('భా', 'U'), ('త', 'U'), ('స్నా', 'U'), ('న', '|'), ('ప', '|'), ('రు', '|'), ('డై', 'U'), ('న', '|'), ('ని', 'U'), ('త్య', '|'), ('స', 'U'), ('త్క', '|'), ('ర్మా', 'U'), ('ది', '|'), ('ని', '|'), ('ర', '|'), ('తు', '|'), ('డై', 'U'), ('న', '|'), ('ను', '|'), ('ప', '|'), ('వా', 'U'), ('స', '|'), ('ని', '|'), ('య', '|'), ('మం', 'U'), ('బు', '|'), ('లొం', 'U'), ('దు', '|'), ('స', 'U'), ('జ్జ', '|'), ('ను', '|'), ('డై', 'U'), ('న', '|'), ('గా', 'U'), ('వి', '|'), ('వ', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('గ', 'U'), ('ట్టు', '|'), ('ఘ', '|'), ('ను', '|'), ('డు', '|'), ('నై', 'U'), ('న', '|'), ('దం', 'U'), ('డి', '|'), ('షో', 'U'), ('డ', '|'), ('శ', '|'), ('మ', '|'), ('హా', 'U'), ('దా', 'U'), ('న', '|'), ('ప', '|'), ('రుం', 'U'), ('డై', 'U'), ('న', '|'), ('స', '|'), ('క', '|'), ('ల', '|'), ('యా', 'U'), ('త్ర', '|'), ('లు', '|'), ('స', 'U'), ('ల్పు', '|'), ('స', '|'), ('ర', '|'), ('సు', '|'), ('డై', 'U'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గర్వమునఁ గష్టపడి నిన్నుఁ గానకున్న - మోక్షసామ్రాజ్య మొందఁడు మోహనాంగ!
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>గర్వమునఁ గష్టపడి నిన్నుఁ గానకున్న - మోక్షసామ్రాజ్య మొందఁడు మోహనాంగ!
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
           <t>[('గ', 'U'), ('ర్వ', '|'), ('ము', '|'), ('న', '|'), ('గ', 'U'), ('ష్ట', '|'), ('ప', '|'), ('డి', '|'), ('ని', 'U'), ('న్ను', '|'), ('గా', 'U'), ('న', '|'), ('కు', 'U'), ('న్న', '|'), ('మో', 'U'), ('క్ష', '|'), ('సా', 'U'), ('మ్రా', 'U'), ('జ్య', '|'), ('మొం', 'U'), ('ద', '|'), ('డు', '|'), ('మో', 'U'), ('హ', '|'), ('నాం', 'U'), ('గ', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B118" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
         <is>
           <t>పంజరంబునఁ గాకిఁ బట్టి యుంచిన లెస్స - పలుకునే వింతైన చిలుక వలెను?
 గార్దభంబును దెచ్చి కళ్లెమింపుగ వేయఁ - దిరుగునే గుఱ్ఱంబు తీరుగాను?
@@ -4189,63 +3838,57 @@
 పెద్దపిట్టను మేఁతఁబెట్టి పెంచినఁ గ్రొవ్వి - సాగునే వేఁటాడు డేఁగ వలెను?</t>
         </is>
       </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
           <t>[('పం', 'U'), ('జ', '|'), ('రం', 'U'), ('బు', '|'), ('న', '|'), ('గా', 'U'), ('కి', '|'), ('బ', 'U'), ('ట్టి', '|'), ('యుం', 'U'), ('చి', '|'), ('న', '|'), ('లె', 'U'), ('స్స', '|'), ('ప', '|'), ('లు', '|'), ('కు', '|'), ('నే', 'U'), ('విం', 'U'), ('తై', 'U'), ('న', '|'), ('చి', '|'), ('లు', '|'), ('క', '|'), ('వ', '|'), ('లె', '|'), ('ను', '|'), ('గా', 'U'), ('ర్ద', '|'), ('భం', 'U'), ('బు', '|'), ('ను', '|'), ('దె', 'U'), ('చ్చి', '|'), ('క', 'U'), ('ళ్లె', '|'), ('మిం', 'U'), ('పు', '|'), ('గ', '|'), ('వే', 'U'), ('య', '|'), ('ది', '|'), ('రు', '|'), ('గు', '|'), ('నే', 'U'), ('గు', 'U'), ('ఱ్ఱం', 'U'), ('బు', '|'), ('తీ', 'U'), ('రు', '|'), ('గా', 'U'), ('ను', '|'), ('ఎ', '|'), ('ను', '|'), ('ప', '|'), ('పో', 'U'), ('తు', '|'), ('ను', '|'), ('మా', 'U'), ('వ', '|'), ('టీ', 'U'), ('డు', '|'), ('శి', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('న', '|'), ('న', '|'), ('డ', '|'), ('చు', '|'), ('నే', 'U'), ('మ', '|'), ('ద', '|'), ('వా', 'U'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('వ', '|'), ('లె', '|'), ('ను', '|'), ('పె', 'U'), ('ద్ద', '|'), ('పి', 'U'), ('ట్ట', '|'), ('ను', '|'), ('మే', 'U'), ('త', '|'), ('బె', 'U'), ('ట్టి', '|'), ('పెం', 'U'), ('చి', '|'), ('న', 'U'), ('గ్రొ', 'U'), ('వ్వి', '|'), ('సా', 'U'), ('గు', '|'), ('నే', 'U'), ('వే', 'U'), ('టా', 'U'), ('డు', '|'), ('డే', 'U'), ('గ', '|'), ('వ', '|'), ('లె', '|'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>కుజనులను దెచ్చి నీ సేవ కొరకుఁ బెట్ట - వాంఛతోఁ జేతురే భక్తవరుల వలెను?
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>కుజనులను దెచ్చి నీ సేవ కొరకుఁ బెట్ట - వాంఛతోఁ జేతురే భక్తవరుల వలెను?
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
           <t>[('కు', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('ను', '|'), ('దె', 'U'), ('చ్చి', '|'), ('నీ', 'U'), ('సే', 'U'), ('వ', '|'), ('కొ', '|'), ('ర', '|'), ('కు', '|'), ('బె', 'U'), ('ట్ట', '|'), ('వాం', 'U'), ('ఛ', '|'), ('తో', 'U'), ('జే', 'U'), ('తు', '|'), ('రే', 'U'), ('భ', 'U'), ('క్త', '|'), ('వ', '|'), ('రు', '|'), ('ల', '|'), ('వ', '|'), ('లె', '|'), ('ను', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B120" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
         <is>
           <t>నీకు దాసుఁడ నంటి నిన్ను నమ్ముకయుంటిఁ - గాన నాపై నేఁడు కరుణఁజూడు
 దోసిలొగ్గితి నీకు ద్రోహ మెన్నఁగఁబోకు - పద్మలోచన! నేను పరుఁడగాను
@@ -4253,63 +3896,57 @@
 దండిదాతవు నీవు తడవు సేయక కావు - ఘోరపాతకరాశిఁ గొట్టివైచి</t>
         </is>
       </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('కు', '|'), ('దా', 'U'), ('సు', '|'), ('డ', '|'), ('నం', 'U'), ('టి', '|'), ('ని', 'U'), ('న్ను', '|'), ('న', 'U'), ('మ్ము', '|'), ('క', '|'), ('యుం', 'U'), ('టి', '|'), ('గా', 'U'), ('న', '|'), ('నా', 'U'), ('పై', 'U'), ('నే', 'U'), ('డు', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('జూ', 'U'), ('డు', '|'), ('దో', 'U'), ('సి', '|'), ('లొ', 'U'), ('గ్గి', '|'), ('తి', '|'), ('నీ', 'U'), ('కు', '|'), ('ద్రో', 'U'), ('హ', '|'), ('మె', 'U'), ('న్న', '|'), ('గ', '|'), ('బో', 'U'), ('కు', '|'), ('ప', 'U'), ('ద్మ', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('నే', 'U'), ('ను', '|'), ('ప', '|'), ('రు', '|'), ('డ', '|'), ('గా', 'U'), ('ను', '|'), ('భ', 'U'), ('క్తి', '|'), ('నీ', 'U'), ('పై', 'U'), ('నుం', 'U'), ('చి', '|'), ('భ', '|'), ('జ', '|'), ('న', '|'), ('జే', 'U'), ('సె', '|'), ('ద', '|'), ('గా', 'U'), ('ని', '|'), ('ప', '|'), ('రు', '|'), ('ల', '|'), ('వే', 'U'), ('డ', '|'), ('ను', '|'), ('జు', 'U'), ('మ్మి', '|'), ('వ', '|'), ('ర', '|'), ('ము', '|'), ('లి', 'U'), ('మ్ము', '|'), ('దం', 'U'), ('డి', '|'), ('దా', 'U'), ('త', '|'), ('వు', '|'), ('నీ', 'U'), ('వు', '|'), ('త', '|'), ('డ', '|'), ('వు', '|'), ('సే', 'U'), ('య', '|'), ('క', '|'), ('కా', 'U'), ('వు', '|'), ('ఘో', 'U'), ('ర', '|'), ('పా', 'U'), ('త', '|'), ('క', '|'), ('రా', 'U'), ('శి', '|'), ('గొ', 'U'), ('ట్టి', '|'), ('వై', 'U'), ('చి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>శీఘ్రముగఁ గోర్కె లీడేర్చి చింత దీర్చు - నిరతముగ నన్ను బోషించు నెనరు నుంచు
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>శీఘ్రముగఁ గోర్కె లీడేర్చి చింత దీర్చు - నిరతముగ నన్ను బోషించు నెనరు నుంచు
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
           <t>[('శీ', 'U'), ('ఘ్ర', '|'), ('ము', '|'), ('గ', '|'), ('గో', 'U'), ('ర్కె', '|'), ('లీ', 'U'), ('డే', 'U'), ('ర్చి', '|'), ('చిం', 'U'), ('త', '|'), ('దీ', 'U'), ('ర్చు', '|'), ('ని', '|'), ('ర', '|'), ('త', '|'), ('ము', '|'), ('గ', '|'), ('న', 'U'), ('న్ను', '|'), ('బో', 'U'), ('షిం', 'U'), ('చు', '|'), ('నె', '|'), ('న', '|'), ('రు', '|'), ('నుం', 'U'), ('చు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B122" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
         <is>
           <t>విద్య నేర్చితి నంచు విఱ్ఱవీఁగఁగ లేదు - భాగ్యవంతుఁడ నంచు బలుక లేదు
 ద్రవ్యవంతుఁడ నంచు దఱుచు నిక్కఁగ లేదు - నిరత దానములైన నెఱప లేదు
@@ -4317,63 +3954,57 @@
 శౌర్యవంతుఁడ నంచు సంతసించగ లేదు - కార్యవంతుఁడ నంచు గడపలేదు</t>
         </is>
       </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
           <t>[('వి', 'U'), ('ద్య', '|'), ('నే', 'U'), ('ర్చి', '|'), ('తి', '|'), ('నం', 'U'), ('చు', '|'), ('వి', 'U'), ('ఱ్ఱ', '|'), ('వీ', 'U'), ('గ', '|'), ('గ', '|'), ('లే', 'U'), ('దు', '|'), ('భా', 'U'), ('గ్య', '|'), ('వం', 'U'), ('తు', '|'), ('డ', '|'), ('నం', 'U'), ('చు', '|'), ('బ', '|'), ('లు', '|'), ('క', '|'), ('లే', 'U'), ('దు', '|'), ('ద్ర', 'U'), ('వ్య', '|'), ('వం', 'U'), ('తు', '|'), ('డ', '|'), ('నం', 'U'), ('చు', '|'), ('ద', '|'), ('ఱు', '|'), ('చు', '|'), ('ని', 'U'), ('క్క', '|'), ('గ', '|'), ('లే', 'U'), ('దు', '|'), ('ని', '|'), ('ర', '|'), ('త', '|'), ('దా', 'U'), ('న', '|'), ('ము', '|'), ('లై', 'U'), ('న', '|'), ('నె', '|'), ('ఱ', '|'), ('ప', '|'), ('లే', 'U'), ('దు', '|'), ('పు', 'U'), ('త్ర', '|'), ('వం', 'U'), ('తు', '|'), ('డ', '|'), ('నం', 'U'), ('చు', '|'), ('బొ', '|'), ('గ', '|'), ('డిం', 'U'), ('చు', '|'), ('కొ', '|'), ('న', '|'), ('లే', 'U'), ('దు', '|'), ('భృ', 'U'), ('త్య', '|'), ('వం', 'U'), ('తు', '|'), ('డ', '|'), ('నం', 'U'), ('చు', '|'), ('బొం', 'U'), ('గ', '|'), ('లే', 'U'), ('దు', '|'), ('శౌ', 'U'), ('ర్య', '|'), ('వం', 'U'), ('తు', '|'), ('డ', '|'), ('నం', 'U'), ('చు', '|'), ('సం', 'U'), ('త', '|'), ('సిం', 'U'), ('చ', '|'), ('గ', '|'), ('లే', 'U'), ('దు', '|'), ('కా', 'U'), ('ర్య', '|'), ('వం', 'U'), ('తు', '|'), ('డ', '|'), ('నం', 'U'), ('చు', '|'), ('గ', '|'), ('డ', '|'), ('ప', '|'), ('లే', 'U'), ('దు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నలుగురికి మెప్పుగానైన నడువ లేదు - నళినదళనేత్ర! నిన్ను నే నమ్మినాను
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>నలుగురికి మెప్పుగానైన నడువ లేదు - నళినదళనేత్ర! నిన్ను నే నమ్మినాను
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('లు', '|'), ('గు', '|'), ('రి', '|'), ('కి', '|'), ('మె', 'U'), ('ప్పు', '|'), ('గా', 'U'), ('నై', 'U'), ('న', '|'), ('న', '|'), ('డు', '|'), ('వ', '|'), ('లే', 'U'), ('దు', '|'), ('న', '|'), ('ళి', '|'), ('న', '|'), ('ద', '|'), ('ళ', '|'), ('నే', 'U'), ('త్ర', '|'), ('ని', 'U'), ('న్ను', '|'), ('నే', 'U'), ('న', 'U'), ('మ్మి', '|'), ('నా', 'U'), ('ను', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B124" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
         <is>
           <t>అతి లోభులను భిక్షమడుగ బోవుట రోఁత - తన ద్రవ్య మొకరింట దాఁచ రోఁత
 గుణహీనుఁడగు వాని కొలువుఁ గొల్చుట రోఁత - యొరుల పంచల క్రిందనుండ రోఁత
@@ -4381,63 +4012,57 @@
 ఆదాయములు లేక యప్పుదీయుట రోఁత - జార చోరులఁ గూడ చనుట రోఁత</t>
         </is>
       </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('తి', '|'), ('లో', 'U'), ('భు', '|'), ('ల', '|'), ('ను', '|'), ('భి', 'U'), ('క్ష', '|'), ('మ', '|'), ('డు', '|'), ('గ', '|'), ('బో', 'U'), ('వు', '|'), ('ట', '|'), ('రో', 'U'), ('త', '|'), ('త', '|'), ('న', '|'), ('ద్ర', 'U'), ('వ్య', '|'), ('మొ', '|'), ('క', '|'), ('రిం', 'U'), ('ట', '|'), ('దా', 'U'), ('చ', '|'), ('రో', 'U'), ('త', '|'), ('గు', '|'), ('ణ', '|'), ('హీ', 'U'), ('ను', '|'), ('డ', '|'), ('గు', '|'), ('వా', 'U'), ('ని', '|'), ('కొ', '|'), ('లు', '|'), ('వు', '|'), ('గొ', 'U'), ('ల్చు', '|'), ('ట', '|'), ('రో', 'U'), ('త', '|'), ('యొ', '|'), ('రు', '|'), ('ల', '|'), ('పం', 'U'), ('చ', '|'), ('ల', 'U'), ('క్రిం', 'U'), ('ద', '|'), ('నుం', 'U'), ('డ', '|'), ('రో', 'U'), ('త', '|'), ('భా', 'U'), ('గ్య', '|'), ('వం', 'U'), ('తు', '|'), ('ల', '|'), ('తో', 'U'), ('డ', '|'), ('బం', 'U'), ('త', '|'), ('మా', 'U'), ('డు', '|'), ('ట', '|'), ('రో', 'U'), ('త', '|'), ('గు', '|'), ('ఱి', '|'), ('లే', 'U'), ('ని', '|'), ('బం', 'U'), ('ధు', '|'), ('ల', '|'), ('గూ', 'U'), ('డ', '|'), ('రో', 'U'), ('త', '|'), ('ఆ', 'U'), ('దా', 'U'), ('య', '|'), ('ము', '|'), ('లు', '|'), ('లే', 'U'), ('క', '|'), ('య', 'U'), ('ప్పు', '|'), ('దీ', 'U'), ('యు', '|'), ('ట', '|'), ('రో', 'U'), ('త', '|'), ('జా', 'U'), ('ర', '|'), ('చో', 'U'), ('రు', '|'), ('ల', '|'), ('గూ', 'U'), ('డ', '|'), ('చ', '|'), ('ను', '|'), ('ట', '|'), ('రో', 'U'), ('త', '|')]</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ఆదిలక్ష్మీశ! నీ బంటు నయితినయ్య - యింక నెడబాపు జన్మంబులెత్త రోఁత
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>ఆదిలక్ష్మీశ! నీ బంటు నయితినయ్య - యింక నెడబాపు జన్మంబులెత్త రోఁత
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('ది', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('శ', '|'), ('నీ', 'U'), ('బం', 'U'), ('టు', '|'), ('న', '|'), ('యి', '|'), ('తి', '|'), ('న', 'U'), ('య్య', '|'), ('యిం', 'U'), ('క', '|'), ('నె', '|'), ('డ', '|'), ('బా', 'U'), ('పు', '|'), ('జ', 'U'), ('న్మం', 'U'), ('బు', '|'), ('లె', 'U'), ('త్త', '|'), ('రో', 'U'), ('త', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B126" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
         <is>
           <t>వెఱ్ఱివానికి నేల వేదాక్షరంబులు? - మోటువానికి మంచిపాట లేల?
 పసులకాఁపరి కేల పరతత్త్వబోధలు? విటకాని కేటికో విష్ణుకథలు?
@@ -4445,63 +4070,57 @@
 ద్రవ్యలోభికి నేల దాతృత్వ గుణములు? - దొంగబంటుకు మంచిసంగ తేల?</t>
         </is>
       </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
           <t>[('వె', 'U'), ('ఱ్ఱి', '|'), ('వా', 'U'), ('ని', '|'), ('కి', '|'), ('నే', 'U'), ('ల', '|'), ('వే', 'U'), ('దా', 'U'), ('క్ష', '|'), ('రం', 'U'), ('బు', '|'), ('లు', '|'), ('మో', 'U'), ('టు', '|'), ('వా', 'U'), ('ని', '|'), ('కి', '|'), ('మం', 'U'), ('చి', '|'), ('పా', 'U'), ('ట', '|'), ('లే', 'U'), ('ల', '|'), ('ప', '|'), ('సు', '|'), ('ల', '|'), ('కా', 'U'), ('ప', '|'), ('రి', '|'), ('కే', 'U'), ('ల', '|'), ('ప', '|'), ('ర', '|'), ('త', 'U'), ('త్త్వ', '|'), ('బో', 'U'), ('ధ', '|'), ('లు', '|'), ('వి', '|'), ('ట', '|'), ('కా', 'U'), ('ని', '|'), ('కే', 'U'), ('టి', '|'), ('కో', 'U'), ('వి', 'U'), ('ష్ణు', '|'), ('క', '|'), ('థ', '|'), ('లు', '|'), ('వ', '|'), ('ద', '|'), ('రు', '|'), ('శుం', 'U'), ('ఠ', '|'), ('ల', '|'), ('కే', 'U'), ('ల', 'U'), ('వ్రా', 'U'), ('త', '|'), ('పు', 'U'), ('స్త', '|'), ('క', '|'), ('ము', '|'), ('లు', '|'), ('తి', '|'), ('రు', '|'), ('గు', '|'), ('ద్రి', 'U'), ('మ్మ', '|'), ('రి', '|'), ('కే', 'U'), ('ల', '|'), ('దే', 'U'), ('వ', '|'), ('పూ', 'U'), ('జ', '|'), ('ద్ర', 'U'), ('వ్య', '|'), ('లో', 'U'), ('భి', '|'), ('కి', '|'), ('నే', 'U'), ('ల', '|'), ('దా', 'U'), ('తృ', 'U'), ('త్వ', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('దొం', 'U'), ('గ', '|'), ('బం', 'U'), ('టు', '|'), ('కు', '|'), ('మం', 'U'), ('చి', '|'), ('సం', 'U'), ('గ', '|'), ('తే', 'U'), ('ల', '|')]</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>క్రూరజనులకు నీమీఁద గోరి కేల? - ద్రోహి పాపాత్మునకు దయాదుఃఖ మేల?
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>క్రూరజనులకు నీమీఁద గోరి కేల? - ద్రోహి పాపాత్మునకు దయాదుఃఖ మేల?
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
           <t>[('క్రూ', 'U'), ('ర', '|'), ('జ', '|'), ('ను', '|'), ('ల', '|'), ('కు', '|'), ('నీ', 'U'), ('మీ', 'U'), ('ద', '|'), ('గో', 'U'), ('రి', '|'), ('కే', 'U'), ('ల', '|'), ('ద్రో', 'U'), ('హి', '|'), ('పా', 'U'), ('పా', 'U'), ('త్ము', '|'), ('న', '|'), ('కు', '|'), ('ద', '|'), ('యా', 'U'), ('దుః', 'U'), ('ఖ', '|'), ('మే', 'U'), ('ల', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B128" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
         <is>
           <t>నాతండ్రి! నాదాత! నాయిష్టదైవమా! - నన్ను మన్నన సేయు నారసింహ!
 దయయుంచు నామీఁద దప్పులన్ని క్షమించు - నిగమగోచర! నాకు నీవె దిక్కు
@@ -4509,63 +4128,57 @@
 ముక్తిదాయక నీకు మ్రొక్కినందుకు నన్నుఁ - గరుణించి రక్షించు కమలనాభ!</t>
         </is>
       </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
           <t>[('నా', 'U'), ('తం', 'U'), ('డ్రి', '|'), ('నా', 'U'), ('దా', 'U'), ('త', '|'), ('నా', 'U'), ('యి', 'U'), ('ష్ట', '|'), ('దై', 'U'), ('వ', '|'), ('మా', 'U'), ('న', 'U'), ('న్ను', '|'), ('మ', 'U'), ('న్న', '|'), ('న', '|'), ('సే', 'U'), ('యు', '|'), ('నా', 'U'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('ద', '|'), ('య', '|'), ('యుం', 'U'), ('చు', '|'), ('నా', 'U'), ('మీ', 'U'), ('ద', '|'), ('ద', 'U'), ('ప్పు', '|'), ('ల', 'U'), ('న్ని', 'U'), ('క్ష', '|'), ('మిం', 'U'), ('చు', '|'), ('ని', '|'), ('గ', '|'), ('మ', '|'), ('గో', 'U'), ('చ', '|'), ('ర', '|'), ('నా', 'U'), ('కు', '|'), ('నీ', 'U'), ('వె', '|'), ('ది', 'U'), ('క్కు', '|'), ('నే', 'U'), ('దు', '|'), ('రా', 'U'), ('త్ము', '|'), ('డ', '|'), ('నం', 'U'), ('చు', '|'), ('నీ', 'U'), ('మ', '|'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('గో', 'U'), ('ప', '|'), ('గిం', 'U'), ('ప', '|'), ('బో', 'U'), ('కు', '|'), ('ము', 'U'), ('స్వా', 'U'), ('మి', '|'), ('యెం', 'U'), ('త', '|'), ('కై', 'U'), ('న', '|'), ('ము', 'U'), ('క్తి', '|'), ('దా', 'U'), ('య', '|'), ('క', '|'), ('నీ', 'U'), ('కు', '|'), ('మ్రొ', 'U'), ('క్కి', '|'), ('నం', 'U'), ('దు', '|'), ('కు', '|'), ('న', 'U'), ('న్ను', '|'), ('గ', '|'), ('రు', '|'), ('ణిం', 'U'), ('చి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చు', '|'), ('క', '|'), ('మ', '|'), ('ల', '|'), ('నా', 'U'), ('భ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>దండిదొర వంచు నీ వెంటఁ దగిలినాను - నేఁడు ప్రత్యక్షమై నన్ను నిర్వహింపు
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>దండిదొర వంచు నీ వెంటఁ దగిలినాను - నేఁడు ప్రత్యక్షమై నన్ను నిర్వహింపు
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
           <t>[('దం', 'U'), ('డి', '|'), ('దొ', '|'), ('ర', '|'), ('వం', 'U'), ('చు', '|'), ('నీ', 'U'), ('వెం', 'U'), ('ట', '|'), ('ద', '|'), ('గి', '|'), ('లి', '|'), ('నా', 'U'), ('ను', '|'), ('నే', 'U'), ('డు', 'U'), ('ప్ర', 'U'), ('త్య', 'U'), ('క్ష', '|'), ('మై', 'U'), ('న', 'U'), ('న్ను', '|'), ('ని', 'U'), ('ర్వ', '|'), ('హిం', 'U'), ('పు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B130" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
         <is>
           <t>వేమాఱు నీకథల్‌ వినుచు నుండెడివాఁడు - పరుల ముచ్చటమీఁద భ్రాంతిపడఁడు
 అగణితంబుగ నిన్నుఁ బొగడ నేర్చినవాఁడు - చెడ్డమాటలు నోటఁ జెప్పఁబోఁడు
@@ -4573,63 +4186,57 @@
 సంతసంబున నిన్ను స్మరణఁ జేసెడివాఁడు - చెలఁగి నీచులపేరుఁ దలఁపఁబోఁడు</t>
         </is>
       </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
           <t>[('వే', 'U'), ('మా', 'U'), ('ఱు', '|'), ('నీ', 'U'), ('క', '|'), ('థల్', 'U'), ('వి', '|'), ('ను', '|'), ('చు', '|'), ('నుం', 'U'), ('డె', '|'), ('డి', '|'), ('వా', 'U'), ('డు', '|'), ('ప', '|'), ('రు', '|'), ('ల', '|'), ('ము', 'U'), ('చ్చ', '|'), ('ట', '|'), ('మీ', 'U'), ('ద', 'U'), ('భ్రాం', 'U'), ('తి', '|'), ('ప', '|'), ('డ', '|'), ('డు', '|'), ('అ', '|'), ('గ', '|'), ('ణి', '|'), ('తం', 'U'), ('బు', '|'), ('గ', '|'), ('ని', 'U'), ('న్ను', '|'), ('బొ', '|'), ('గ', '|'), ('డ', '|'), ('నే', 'U'), ('ర్చి', '|'), ('న', '|'), ('వా', 'U'), ('డు', '|'), ('చె', 'U'), ('డ్డ', '|'), ('మా', 'U'), ('ట', '|'), ('లు', '|'), ('నో', 'U'), ('ట', '|'), ('జె', 'U'), ('ప్ప', '|'), ('బో', 'U'), ('డు', '|'), ('ఆ', 'U'), ('స', 'U'), ('క్తి', '|'), ('చే', 'U'), ('త', '|'), ('ని', 'U'), ('న్న', '|'), ('ను', '|'), ('స', '|'), ('రిం', 'U'), ('చె', '|'), ('డి', '|'), ('వా', 'U'), ('డు', '|'), ('ధ', '|'), ('న', '|'), ('మ', '|'), ('దాం', 'U'), ('ధు', '|'), ('ల', '|'), ('వెం', 'U'), ('ట', '|'), ('ద', '|'), ('గు', '|'), ('ల', '|'), ('బో', 'U'), ('డు', '|'), ('సం', 'U'), ('త', '|'), ('సం', 'U'), ('బు', '|'), ('న', '|'), ('ని', 'U'), ('న్ను', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణ', '|'), ('జే', 'U'), ('సె', '|'), ('డి', '|'), ('వా', 'U'), ('డు', '|'), ('చె', '|'), ('ల', '|'), ('గి', '|'), ('నీ', 'U'), ('చు', '|'), ('ల', '|'), ('పే', 'U'), ('రు', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('బో', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నిన్ను నమ్మిన భక్తుండు నిశ్చయముగఁ - గోరి చిల్లరవేల్పులఁ గొల్వఁబోఁఁడు
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>నిన్ను నమ్మిన భక్తుండు నిశ్చయముగఁ - గోరి చిల్లరవేల్పులఁ గొల్వఁబోఁఁడు
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
           <t>[('ని', 'U'), ('న్ను', '|'), ('న', 'U'), ('మ్మి', '|'), ('న', '|'), ('భ', 'U'), ('క్తుం', 'U'), ('డు', '|'), ('ని', 'U'), ('శ్చ', '|'), ('య', '|'), ('ము', '|'), ('గ', '|'), ('గో', 'U'), ('రి', '|'), ('చి', 'U'), ('ల్ల', '|'), ('ర', '|'), ('వే', 'U'), ('ల్పు', '|'), ('ల', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('బో', 'U'), ('డు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B132" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
         <is>
           <t>నే నెంత వేఁడిన నీకేల దయరాదు? - పలుమాఱు పిలిచినఁ బలుక వేమి?
 పలికిన నీ కున్న పద వేమి బోవు? నీ - మోమైనఁ బొడచూపవేమి నాకు?
@@ -4637,63 +4244,57 @@
 నీ దాసులను నీవు నిర్వహింపక యున్నఁ - బరు లెవ్వ రగుదురు పంకజాక్ష!</t>
         </is>
       </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
           <t>[('నే', 'U'), ('నెం', 'U'), ('త', '|'), ('వే', 'U'), ('డి', '|'), ('న', '|'), ('నీ', 'U'), ('కే', 'U'), ('ల', '|'), ('ద', '|'), ('య', '|'), ('రా', 'U'), ('దు', '|'), ('ప', '|'), ('లు', '|'), ('మా', 'U'), ('ఱు', '|'), ('పి', '|'), ('లి', '|'), ('చి', '|'), ('న', '|'), ('బ', '|'), ('లు', '|'), ('క', '|'), ('వే', 'U'), ('మి', '|'), ('ప', '|'), ('లి', '|'), ('కి', '|'), ('న', '|'), ('నీ', 'U'), ('కు', 'U'), ('న్న', '|'), ('ప', '|'), ('ద', '|'), ('వే', 'U'), ('మి', '|'), ('బో', 'U'), ('వు', '|'), ('నీ', 'U'), ('మో', 'U'), ('మై', 'U'), ('న', '|'), ('బొ', '|'), ('డ', '|'), ('చూ', 'U'), ('ప', '|'), ('వే', 'U'), ('మి', '|'), ('నా', 'U'), ('కు', '|'), ('శ', '|'), ('ర', '|'), ('ణు', '|'), ('జొ', 'U'), ('చ్చి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('స', '|'), ('వ', '|'), ('రిం', 'U'), ('ప', '|'), ('వ', '|'), ('లె', '|'), ('గా', 'U'), ('క', '|'), ('ప', '|'), ('రి', '|'), ('హ', '|'), ('రిం', 'U'), ('చు', '|'), ('ట', '|'), ('నీ', 'U'), ('కు', '|'), ('బి', '|'), ('రు', '|'), ('దు', '|'), ('గా', 'U'), ('దు', '|'), ('నీ', 'U'), ('దా', 'U'), ('సు', '|'), ('ల', '|'), ('ను', '|'), ('నీ', 'U'), ('వు', '|'), ('ని', 'U'), ('ర్వ', '|'), ('హిం', 'U'), ('ప', '|'), ('క', '|'), ('యు', 'U'), ('న్న', '|'), ('బ', '|'), ('రు', '|'), ('లె', 'U'), ('వ్వ', '|'), ('ర', '|'), ('గు', '|'), ('దు', '|'), ('రు', '|'), ('పం', 'U'), ('క', '|'), ('జా', 'U'), ('క్ష', '|')]</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>దాత దైవంబు తల్లియుఁ దండ్రి వీవె - నమ్మియున్నాను నీ పాదనళినములను
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>దాత దైవంబు తల్లియుఁ దండ్రి వీవె - నమ్మియున్నాను నీ పాదనళినములను
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
           <t>[('దా', 'U'), ('త', '|'), ('దై', 'U'), ('వం', 'U'), ('బు', '|'), ('త', 'U'), ('ల్లి', '|'), ('యు', '|'), ('దం', 'U'), ('డ్రి', '|'), ('వీ', 'U'), ('వె', '|'), ('న', 'U'), ('మ్మి', '|'), ('యు', 'U'), ('న్నా', 'U'), ('ను', '|'), ('నీ', 'U'), ('పా', 'U'), ('ద', '|'), ('న', '|'), ('ళి', '|'), ('న', '|'), ('ము', '|'), ('ల', '|'), ('ను', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B134" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
         <is>
           <t>వేదముల్‌ చదివెడు విప్రవర్యుండైన - రణము సాధించెడు రాజులైన
 వర్తక కృషికుఁడౌ వైశ్యముఖ్యుండైనఁ - బరిచరించెడు శూద్రవర్యుఁడైన
@@ -4701,63 +4302,57 @@
 చర్మ మమ్మెడు హీన చండాలనరుఁడైన - నీ మహీతలమందు నెవ్వఁడైన</t>
         </is>
       </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
           <t>[('వే', 'U'), ('ద', '|'), ('ముల్', 'U'), ('చ', '|'), ('ది', '|'), ('వె', '|'), ('డు', '|'), ('వి', 'U'), ('ప్ర', '|'), ('వ', 'U'), ('ర్యుం', 'U'), ('డై', 'U'), ('న', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('సా', 'U'), ('ధిం', 'U'), ('చె', '|'), ('డు', '|'), ('రా', 'U'), ('జు', '|'), ('లై', 'U'), ('న', '|'), ('వ', 'U'), ('ర్త', '|'), ('క', '|'), ('కృ', '|'), ('షి', '|'), ('కు', '|'), ('డౌ', 'U'), ('వై', 'U'), ('శ్య', '|'), ('ము', 'U'), ('ఖ్యుం', 'U'), ('డై', 'U'), ('న', '|'), ('బ', '|'), ('రి', '|'), ('చ', '|'), ('రిం', 'U'), ('చె', '|'), ('డు', '|'), ('శూ', 'U'), ('ద్ర', '|'), ('వ', 'U'), ('ర్యు', '|'), ('డై', 'U'), ('న', '|'), ('మె', 'U'), ('చ్చు', '|'), ('ఖ', 'U'), ('డ్గ', '|'), ('ము', '|'), ('బ', 'U'), ('ట్టి', '|'), ('మె', '|'), ('ఱ', '|'), ('యు', 'U'), ('మ్లే', 'U'), ('చ్ఛుం', 'U'), ('డై', 'U'), ('న', 'U'), ('బ్ర', '|'), ('జ', '|'), ('ల', '|'), ('క', 'U'), ('క్క', '|'), ('ఱ', '|'), ('ప', '|'), ('డు', '|'), ('ర', '|'), ('జ', '|'), ('కు', '|'), ('డై', 'U'), ('న', '|'), ('చ', '|'), ('ర్మ', '|'), ('మ', 'U'), ('మ్మె', '|'), ('డు', '|'), ('హీ', 'U'), ('న', '|'), ('చం', 'U'), ('డా', 'U'), ('ల', '|'), ('న', '|'), ('రు', '|'), ('డై', 'U'), ('న', '|'), ('నీ', 'U'), ('మ', '|'), ('హీ', 'U'), ('త', '|'), ('ల', '|'), ('మం', 'U'), ('దు', '|'), ('నె', 'U'), ('వ్వ', '|'), ('డై', 'U'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నిన్నుఁ గొనియాడుచుండెనా నిశ్చయముగ - వాఁడు మోక్షాధికారి యీ వసుధలోన
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>నిన్నుఁ గొనియాడుచుండెనా నిశ్చయముగ - వాఁడు మోక్షాధికారి యీ వసుధలోన
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
           <t>[('ని', 'U'), ('న్ను', '|'), ('గొ', '|'), ('ని', '|'), ('యా', 'U'), ('డు', '|'), ('చుం', 'U'), ('డె', '|'), ('నా', 'U'), ('ని', 'U'), ('శ్చ', '|'), ('య', '|'), ('ము', '|'), ('గ', '|'), ('వా', 'U'), ('డు', '|'), ('మో', 'U'), ('క్షా', 'U'), ('ధి', '|'), ('కా', 'U'), ('రి', '|'), ('యీ', 'U'), ('వ', '|'), ('సు', '|'), ('ధ', '|'), ('లో', 'U'), ('న', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B136" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
         <is>
           <t>సకలవిద్యలు నేర్చి సభ జయింపఁగవచ్చుఁ - శూరుఁడై రణమందుఁ బోరవచ్చు
 రాజరాజై పుట్టి రాజ్య మేలఁగవచ్చు - హేమ గోదానంబు లియ్యగవచ్చు
@@ -4765,63 +4360,57 @@
 నష్టాంగయోగము లభ్యసింపఁగవచ్చు - మేఁక రీతిగ నాకు మెసవవచ్చు</t>
         </is>
       </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('క', '|'), ('ల', '|'), ('వి', 'U'), ('ద్య', '|'), ('లు', '|'), ('నే', 'U'), ('ర్చి', '|'), ('స', '|'), ('భ', '|'), ('జ', '|'), ('యిం', 'U'), ('ప', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('శూ', 'U'), ('రు', '|'), ('డై', 'U'), ('ర', '|'), ('ణ', '|'), ('మం', 'U'), ('దు', '|'), ('బో', 'U'), ('ర', '|'), ('వ', 'U'), ('చ్చు', '|'), ('రా', 'U'), ('జ', '|'), ('రా', 'U'), ('జై', 'U'), ('పు', 'U'), ('ట్టి', '|'), ('రా', 'U'), ('జ్య', '|'), ('మే', 'U'), ('ల', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('హే', 'U'), ('మ', '|'), ('గో', 'U'), ('దా', 'U'), ('నం', 'U'), ('బు', '|'), ('లి', 'U'), ('య్య', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('గ', '|'), ('గ', '|'), ('న', '|'), ('మం', 'U'), ('దు', 'U'), ('న్న', '|'), ('చు', 'U'), ('క్క', '|'), ('ల', '|'), ('నెం', 'U'), ('చ', '|'), ('గా', 'U'), ('వ', 'U'), ('చ్చు', '|'), ('జీ', 'U'), ('వ', '|'), ('రా', 'U'), ('శు', '|'), ('ల', '|'), ('పే', 'U'), ('ళ్లు', '|'), ('చె', 'U'), ('ప్ప', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', 'U'), ('ష్టాం', 'U'), ('గ', '|'), ('యో', 'U'), ('గ', '|'), ('ము', '|'), ('ల', 'U'), ('భ్య', '|'), ('సిం', 'U'), ('ప', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('మే', 'U'), ('క', '|'), ('రీ', 'U'), ('తి', '|'), ('గ', '|'), ('నా', 'U'), ('కు', '|'), ('మె', '|'), ('స', '|'), ('వ', '|'), ('వ', 'U'), ('చ్చు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>తామరస గర్భ! హర పురందరులకైన - నిన్ను వర్ణింపఁ దరమౌనె నీరజాక్ష!
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>తామరస గర్భ! హర పురందరులకైన - నిన్ను వర్ణింపఁ దరమౌనె నీరజాక్ష!
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
           <t>[('తా', 'U'), ('మ', '|'), ('ర', '|'), ('స', '|'), ('గ', 'U'), ('ర్భ', '|'), ('హ', '|'), ('ర', '|'), ('పు', '|'), ('రం', 'U'), ('ద', '|'), ('రు', '|'), ('ల', '|'), ('కై', 'U'), ('న', '|'), ('ని', 'U'), ('న్ను', '|'), ('వ', 'U'), ('ర్ణిం', 'U'), ('ప', '|'), ('ద', '|'), ('ర', '|'), ('మౌ', 'U'), ('నె', '|'), ('నీ', 'U'), ('ర', '|'), ('జా', 'U'), ('క్ష', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B138" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
         <is>
           <t>నరసింహ! నీవంటిదొరను సంపాదించి - సుమతి మానవుల నేఁ గొల్వఁజాల
 నెక్కు వైశ్వర్యంబు లియ్యలేకున్నను - బొట్టకు మాత్రము పోయరాదె?
@@ -4829,63 +4418,57 @@
 పెట్టఁ జాలక యేల భిక్షమెత్తించెదవు - నన్ను బీదను జేసినా వదేమి?</t>
         </is>
       </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('నీ', 'U'), ('వం', 'U'), ('టి', '|'), ('దొ', '|'), ('ర', '|'), ('ను', '|'), ('సం', 'U'), ('పా', 'U'), ('దిం', 'U'), ('చి', '|'), ('సు', '|'), ('మ', '|'), ('తి', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('ల', '|'), ('నే', 'U'), ('గొ', 'U'), ('ల్వ', '|'), ('జా', 'U'), ('ల', '|'), ('నె', 'U'), ('క్కు', '|'), ('వై', 'U'), ('శ్వ', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('లి', 'U'), ('య్య', '|'), ('లే', 'U'), ('కు', 'U'), ('న్న', '|'), ('ను', '|'), ('బొ', 'U'), ('ట్ట', '|'), ('కు', '|'), ('మా', 'U'), ('త్ర', '|'), ('ము', '|'), ('పో', 'U'), ('య', '|'), ('రా', 'U'), ('దె', '|'), ('ఘ', '|'), ('న', '|'), ('ము', '|'), ('గా', 'U'), ('ది', '|'), ('ది', '|'), ('నీ', 'U'), ('కు', '|'), ('క', '|'), ('ర', '|'), ('వు', '|'), ('న', '|'), ('బో', 'U'), ('షిం', 'U'), ('ప', '|'), ('గ', 'U'), ('ష్ట', '|'), ('మెం', 'U'), ('త', '|'), ('టి', 'U'), ('స్వ', 'U'), ('ల్ప', '|'), ('కా', 'U'), ('ర్య', '|'), ('మ', 'U'), ('య్య', '|'), ('పె', 'U'), ('ట్ట', '|'), ('జా', 'U'), ('ల', '|'), ('క', '|'), ('యే', 'U'), ('ల', '|'), ('భి', 'U'), ('క్ష', '|'), ('మె', 'U'), ('త్తిం', 'U'), ('చె', '|'), ('ద', '|'), ('వు', '|'), ('న', 'U'), ('న్ను', '|'), ('బీ', 'U'), ('ద', '|'), ('ను', '|'), ('జే', 'U'), ('సి', '|'), ('నా', 'U'), ('వ', '|'), ('దే', 'U'), ('మి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>అమల! కమలాక్ష! నేనిట్లు శ్రమపడంగఁ - గన్నులకుఁ బండువై నీకుఁ గానఁబడునె?
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>అమల! కమలాక్ష! నేనిట్లు శ్రమపడంగఁ - గన్నులకుఁ బండువై నీకుఁ గానఁబడునె?
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('మ', '|'), ('ల', '|'), ('క', '|'), ('మ', '|'), ('లా', 'U'), ('క్ష', '|'), ('నే', 'U'), ('ని', 'U'), ('ట్లు', 'U'), ('శ్ర', '|'), ('మ', '|'), ('ప', '|'), ('డం', 'U'), ('గ', '|'), ('గ', 'U'), ('న్ను', '|'), ('ల', '|'), ('కు', '|'), ('బం', 'U'), ('డు', '|'), ('వై', 'U'), ('నీ', 'U'), ('కు', '|'), ('గా', 'U'), ('న', '|'), ('బ', '|'), ('డు', '|'), ('నె', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B140" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
         <is>
           <t>వనరుహనాభ! నీవంకఁ జేరితి నేను - గట్టిగా ననుఁ గావు కావు మనుచు
 వచ్చినందుకు వేగ వరము లియ్యకకాని - లేవఁబోయిన నిన్ను లేవనియ్యఁ
@@ -4893,63 +4476,57 @@
 యీవేళ నీ కడ్డమెవరు వచ్చినఁ గాని - వారికైనను లొంగి వడఁకఁబోను</t>
         </is>
       </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('న', '|'), ('రు', '|'), ('హ', '|'), ('నా', 'U'), ('భ', '|'), ('నీ', 'U'), ('వం', 'U'), ('క', '|'), ('జే', 'U'), ('రి', '|'), ('తి', '|'), ('నే', 'U'), ('ను', '|'), ('గ', 'U'), ('ట్టి', '|'), ('గా', 'U'), ('న', '|'), ('ను', '|'), ('గా', 'U'), ('వు', '|'), ('కా', 'U'), ('వు', '|'), ('మ', '|'), ('ను', '|'), ('చు', '|'), ('వ', 'U'), ('చ్చి', '|'), ('నం', 'U'), ('దు', '|'), ('కు', '|'), ('వే', 'U'), ('గ', '|'), ('వ', '|'), ('ర', '|'), ('ము', '|'), ('లి', 'U'), ('య్య', '|'), ('క', '|'), ('కా', 'U'), ('ని', '|'), ('లే', 'U'), ('వ', '|'), ('బో', 'U'), ('యి', '|'), ('న', '|'), ('ని', 'U'), ('న్ను', '|'), ('లే', 'U'), ('వ', '|'), ('ని', 'U'), ('య్య', '|'), ('గూ', 'U'), ('ర్చుం', 'U'), ('డ', '|'), ('బె', 'U'), ('ట్టి', '|'), ('నీ', 'U'), ('కొం', 'U'), ('గు', '|'), ('గ', 'U'), ('ట్టి', '|'), ('గ', '|'), ('బ', 'U'), ('ట్టి', '|'), ('పు', 'U'), ('చ్చు', '|'), ('కొం', 'U'), ('దు', '|'), ('ను', '|'), ('జూ', 'U'), ('డు', '|'), ('భో', 'U'), ('గి', '|'), ('శ', '|'), ('య', '|'), ('న', '|'), ('యీ', 'U'), ('వే', 'U'), ('ళ', '|'), ('నీ', 'U'), ('క', 'U'), ('డ్డ', '|'), ('మె', '|'), ('వ', '|'), ('రు', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('గా', 'U'), ('ని', '|'), ('వా', 'U'), ('రి', '|'), ('కై', 'U'), ('న', '|'), ('ను', '|'), ('లొం', 'U'), ('గి', '|'), ('వ', '|'), ('డ', '|'), ('క', '|'), ('బో', 'U'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>గోపగాఁడను నీవు నా గుణము తెలిసి - యిప్పుడే నన్ను రక్షించి యేలుకొమ్ము
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>గోపగాఁడను నీవు నా గుణము తెలిసి - యిప్పుడే నన్ను రక్షించి యేలుకొమ్ము
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
           <t>[('గో', 'U'), ('ప', '|'), ('గా', 'U'), ('డ', '|'), ('ను', '|'), ('నీ', 'U'), ('వు', '|'), ('నా', 'U'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('తె', '|'), ('లి', '|'), ('సి', '|'), ('యి', 'U'), ('ప్పు', '|'), ('డే', 'U'), ('న', 'U'), ('న్ను', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('యే', 'U'), ('లు', '|'), ('కొ', 'U'), ('మ్ము', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B142" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
         <is>
           <t>ప్రహ్లాదుఁ డేపాటి పైఁడి కానుక లిచ్చె? - మదగజం బెన్నిచ్చె మౌక్తికములు?
 నారదుం డెన్నిచ్చె నగలు రత్నంబు? ల - హల్య నీకే యగ్రహారమిచ్చె?
@@ -4957,63 +4534,57 @@
 పంచపాండవు లేమి లంచ మిచ్చిరి నీకు? - ద్రౌపతి నీ కెంత ద్రవ్యమిచ్చె?</t>
         </is>
       </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
           <t>[('ప్ర', 'U'), ('హ్లా', 'U'), ('దు', '|'), ('డే', 'U'), ('పా', 'U'), ('టి', '|'), ('పై', 'U'), ('డి', '|'), ('కా', 'U'), ('ను', '|'), ('క', '|'), ('లి', 'U'), ('చ్చె', '|'), ('మ', '|'), ('ద', '|'), ('గ', '|'), ('జం', 'U'), ('బె', 'U'), ('న్ని', 'U'), ('చ్చె', '|'), ('మౌ', 'U'), ('క్తి', '|'), ('క', '|'), ('ము', '|'), ('లు', '|'), ('నా', 'U'), ('ర', '|'), ('దుం', 'U'), ('డె', 'U'), ('న్ని', 'U'), ('చ్చె', '|'), ('న', '|'), ('గ', '|'), ('లు', '|'), ('ర', 'U'), ('త్నం', 'U'), ('బు', '|'), ('ల', '|'), ('హ', 'U'), ('ల్య', '|'), ('నీ', 'U'), ('కే', 'U'), ('య', 'U'), ('గ్ర', '|'), ('హా', 'U'), ('ర', '|'), ('మి', 'U'), ('చ్చె', '|'), ('ఉ', '|'), ('డు', '|'), ('త', '|'), ('నీ', 'U'), ('కే', 'U'), ('పా', 'U'), ('టి', '|'), ('యూ', 'U'), ('డి', '|'), ('గం', 'U'), ('బు', '|'), ('లు', '|'), ('చే', 'U'), ('సె', '|'), ('ఘ', '|'), ('న', '|'), ('వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణు', '|'), ('డే', 'U'), ('మి', '|'), ('క', 'U'), ('ట్న', '|'), ('మి', 'U'), ('చ్చె', '|'), ('పం', 'U'), ('చ', '|'), ('పాం', 'U'), ('డ', '|'), ('వు', '|'), ('లే', 'U'), ('మి', '|'), ('లం', 'U'), ('చ', '|'), ('మి', 'U'), ('చ్చి', '|'), ('రి', '|'), ('నీ', 'U'), ('కు', '|'), ('ద్రౌ', 'U'), ('ప', '|'), ('తి', '|'), ('నీ', 'U'), ('కెం', 'U'), ('త', '|'), ('ద్ర', 'U'), ('వ్య', '|'), ('మి', 'U'), ('చ్చె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నీకు వీరంద ఱయినట్లు నేను గాన? - యెందుకని నన్ను రక్షింప విందువదన?
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>నీకు వీరంద ఱయినట్లు నేను గాన? - యెందుకని నన్ను రక్షింప విందువదన?
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('కు', '|'), ('వీ', 'U'), ('రం', 'U'), ('ద', '|'), ('ఱ', '|'), ('యి', '|'), ('న', 'U'), ('ట్లు', '|'), ('నే', 'U'), ('ను', '|'), ('గా', 'U'), ('న', '|'), ('యెం', 'U'), ('దు', '|'), ('క', '|'), ('ని', '|'), ('న', 'U'), ('న్ను', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('విం', 'U'), ('దు', '|'), ('వ', '|'), ('ద', '|'), ('న', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B144" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
         <is>
           <t>వాంఛతో బలిచక్రవర్తి దగ్గర జేరి - భిక్షమెత్తితి వేల, బిడియపడక?
 యడవిలో శబరి దియ్యని ఫలా లందియ్యఁ - జేతులొగ్గితి వేల, సిగ్గుపడక?
@@ -5021,63 +4592,57 @@
 నటుకు లల్పము కుచేలుఁడు గడించుక తేర - బొక్కసాగితి వేల, లెక్కగొనక?</t>
         </is>
       </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
           <t>[('వాం', 'U'), ('ఛ', '|'), ('తో', 'U'), ('బ', '|'), ('లి', '|'), ('చ', 'U'), ('క్ర', '|'), ('వ', 'U'), ('ర్తి', '|'), ('ద', 'U'), ('గ్గ', '|'), ('ర', '|'), ('జే', 'U'), ('రి', '|'), ('భి', 'U'), ('క్ష', '|'), ('మె', 'U'), ('త్తి', '|'), ('తి', '|'), ('వే', 'U'), ('ల', '|'), ('బి', '|'), ('డి', '|'), ('య', '|'), ('ప', '|'), ('డ', '|'), ('క', '|'), ('య', '|'), ('డ', '|'), ('వి', '|'), ('లో', 'U'), ('శ', '|'), ('బ', '|'), ('రి', '|'), ('ది', 'U'), ('య్య', '|'), ('ని', '|'), ('ఫ', '|'), ('లా', 'U'), ('లం', 'U'), ('ది', 'U'), ('య్య', '|'), ('జే', 'U'), ('తు', '|'), ('లొ', 'U'), ('గ్గి', '|'), ('తి', '|'), ('వే', 'U'), ('ల', '|'), ('సి', 'U'), ('గ్గు', '|'), ('ప', '|'), ('డ', '|'), ('క', '|'), ('వే', 'U'), ('డ్క', '|'), ('తో', 'U'), ('వే', 'U'), ('వే', 'U'), ('గ', '|'), ('వి', '|'), ('దు', '|'), ('రు', '|'), ('నిం', 'U'), ('టి', '|'), ('కి', '|'), ('నే', 'U'), ('గి', '|'), ('విం', 'U'), ('దు', '|'), ('గొం', 'U'), ('టి', '|'), ('వ', '|'), ('దే', 'U'), ('మి', '|'), ('వె', '|'), ('లి', '|'), ('తి', '|'), ('ప', '|'), ('డ', '|'), ('క', '|'), ('న', '|'), ('టు', '|'), ('కు', '|'), ('ల', 'U'), ('ల్ప', '|'), ('ము', '|'), ('కు', '|'), ('చే', 'U'), ('లు', '|'), ('డు', '|'), ('గ', '|'), ('డిం', 'U'), ('చు', '|'), ('క', '|'), ('తే', 'U'), ('ర', '|'), ('బొ', 'U'), ('క్క', '|'), ('సా', 'U'), ('గి', '|'), ('తి', '|'), ('వే', 'U'), ('ల', '|'), ('లె', 'U'), ('క్క', '|'), ('గొ', '|'), ('న', '|'), ('క', '|')]</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>భక్తులకు నీవు పెట్టుట భాగ్యమౌను - వారి కాశించితివి తిండివాఁడ వగుచు
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>భక్తులకు నీవు పెట్టుట భాగ్యమౌను - వారి కాశించితివి తిండివాఁడ వగుచు
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
           <t>[('భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('కు', '|'), ('నీ', 'U'), ('వు', '|'), ('పె', 'U'), ('ట్టు', '|'), ('ట', '|'), ('భా', 'U'), ('గ్య', '|'), ('మౌ', 'U'), ('ను', '|'), ('వా', 'U'), ('రి', '|'), ('కా', 'U'), ('శిం', 'U'), ('చి', '|'), ('తి', '|'), ('వి', '|'), ('తిం', 'U'), ('డి', '|'), ('వా', 'U'), ('డ', '|'), ('వ', '|'), ('గు', '|'), ('చు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B146" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
         <is>
           <t>స్తంభమం దుదయించి దానవేంద్రునిఁ ద్రుంచి - కరుణతోఁ బ్రహ్లాదుఁ గాచినావు
 మకరిచేఁ జిక్కి సామజము దుఃఖించంగఁ - గృపయుంచి వేగ రక్షించినావు
@@ -5085,63 +4650,57 @@
 ఆ కుచేలుఁడు చేరెఁడటుకు లర్పించిన - బహుసంపదల నిచ్చి పంపినావు</t>
         </is>
       </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
           <t>[('స్తం', 'U'), ('భ', '|'), ('మం', 'U'), ('దు', '|'), ('ద', '|'), ('యిం', 'U'), ('చి', '|'), ('దా', 'U'), ('న', '|'), ('వేం', 'U'), ('ద్రు', '|'), ('ని', '|'), ('ద్రుం', 'U'), ('చి', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('తో', 'U'), ('బ్ర', 'U'), ('హ్లా', 'U'), ('దు', '|'), ('గా', 'U'), ('చి', '|'), ('నా', 'U'), ('వు', '|'), ('మ', '|'), ('క', '|'), ('రి', '|'), ('చే', 'U'), ('జి', 'U'), ('క్కి', '|'), ('సా', 'U'), ('మ', '|'), ('జ', '|'), ('ము', '|'), ('దుః', 'U'), ('ఖిం', 'U'), ('చం', 'U'), ('గ', '|'), ('గృ', '|'), ('ప', '|'), ('యుం', 'U'), ('చి', '|'), ('వే', 'U'), ('గ', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('నా', 'U'), ('వు', '|'), ('శ', '|'), ('ర', '|'), ('ణం', 'U'), ('చు', '|'), ('నా', 'U'), ('వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణు', '|'), ('డు', '|'), ('నీ', 'U'), ('చా', 'U'), ('టు', '|'), ('న', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', 'U'), ('ప్పు', '|'), ('డె', '|'), ('లం', 'U'), ('క', '|'), ('ని', 'U'), ('చ్చి', '|'), ('నా', 'U'), ('వు', '|'), ('ఆ', 'U'), ('కు', '|'), ('చే', 'U'), ('లు', '|'), ('డు', '|'), ('చే', 'U'), ('రె', '|'), ('డ', '|'), ('టు', '|'), ('కు', '|'), ('ల', 'U'), ('ర్పిం', 'U'), ('చి', '|'), ('న', '|'), ('బ', '|'), ('హు', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('ల', '|'), ('ని', 'U'), ('చ్చి', '|'), ('పం', 'U'), ('పి', '|'), ('నా', 'U'), ('వు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>వారివలె నన్నుఁ బోషింప వశముగాదె? - యింత వలపక్ష మేల శ్రీకాంత! నీకు?
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>వారివలె నన్నుఁ బోషింప వశముగాదె? - యింత వలపక్ష మేల శ్రీకాంత! నీకు?
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
           <t>[('వా', 'U'), ('రి', '|'), ('వ', '|'), ('లె', '|'), ('న', 'U'), ('న్ను', '|'), ('బో', 'U'), ('షిం', 'U'), ('ప', '|'), ('వ', '|'), ('శ', '|'), ('ము', '|'), ('గా', 'U'), ('దె', '|'), ('యిం', 'U'), ('త', '|'), ('వ', '|'), ('ల', '|'), ('ప', 'U'), ('క్ష', '|'), ('మే', 'U'), ('ల', 'U'), ('శ్రీ', 'U'), ('కాం', 'U'), ('త', '|'), ('నీ', 'U'), ('కు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B148" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
         <is>
           <t>వ్యాసుఁడే కులమందు వాసిగా జన్మించె? - విదురుఁడే కులమందు వృద్ధిఁ బొందెఁ?
 గర్ణుఁడే కులమందు ఘనముగా వర్ధిల్లె? - నా వసిష్ఠుం డెందు నవతరించె?
@@ -5149,63 +4708,57 @@
 శ్రీశుకుఁ డెచ్చటఁ జెలఁగి జన్మించెను? - శబరి యే కులమందు జన్మమొందె?</t>
         </is>
       </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
           <t>[('వ్యా', 'U'), ('సు', '|'), ('డే', 'U'), ('కు', '|'), ('ల', '|'), ('మం', 'U'), ('దు', '|'), ('వా', 'U'), ('సి', '|'), ('గా', 'U'), ('జ', 'U'), ('న్మిం', 'U'), ('చె', '|'), ('వి', '|'), ('దు', '|'), ('రు', '|'), ('డే', 'U'), ('కు', '|'), ('ల', '|'), ('మం', 'U'), ('దు', '|'), ('వృ', 'U'), ('ద్ధి', '|'), ('బొం', 'U'), ('దె', '|'), ('గ', 'U'), ('ర్ణు', '|'), ('డే', 'U'), ('కు', '|'), ('ల', '|'), ('మం', 'U'), ('దు', '|'), ('ఘ', '|'), ('న', '|'), ('ము', '|'), ('గా', 'U'), ('వ', 'U'), ('ర్ధి', 'U'), ('ల్లె', '|'), ('నా', 'U'), ('వ', '|'), ('సి', 'U'), ('ష్ఠుం', 'U'), ('డెం', 'U'), ('దు', '|'), ('న', '|'), ('వ', '|'), ('త', '|'), ('రిం', 'U'), ('చె', '|'), ('నిం', 'U'), ('పు', '|'), ('గా', 'U'), ('వా', 'U'), ('ల్మీ', 'U'), ('కి', '|'), ('యే', 'U'), ('కు', '|'), ('లం', 'U'), ('బు', '|'), ('న', '|'), ('బు', 'U'), ('ట్టె', '|'), ('గు', '|'), ('హు', '|'), ('డ', '|'), ('ను', '|'), ('పు', 'U'), ('ణ్యు', '|'), ('డే', 'U'), ('కు', '|'), ('ల', '|'), ('ము', '|'), ('వా', 'U'), ('డు', 'U'), ('శ్రీ', 'U'), ('శు', '|'), ('కు', '|'), ('డె', 'U'), ('చ్చ', '|'), ('ట', '|'), ('జె', '|'), ('ల', '|'), ('గి', '|'), ('జ', 'U'), ('న్మిం', 'U'), ('చె', '|'), ('ను', '|'), ('శ', '|'), ('బ', '|'), ('రి', '|'), ('యే', 'U'), ('కు', '|'), ('ల', '|'), ('మం', 'U'), ('దు', '|'), ('జ', 'U'), ('న్మ', '|'), ('మొం', 'U'), ('దె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నే కులంబున వీరంద ఱెచ్చినారు? - నీ కృపాపాత్రులకు జాతినీతు లేల?
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>నే కులంబున వీరంద ఱెచ్చినారు? - నీ కృపాపాత్రులకు జాతినీతు లేల?
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
           <t>[('నే', 'U'), ('కు', '|'), ('లం', 'U'), ('బు', '|'), ('న', '|'), ('వీ', 'U'), ('రం', 'U'), ('ద', '|'), ('ఱె', 'U'), ('చ్చి', '|'), ('నా', 'U'), ('రు', '|'), ('నీ', 'U'), ('కృ', '|'), ('పా', 'U'), ('పా', 'U'), ('త్రు', '|'), ('ల', '|'), ('కు', '|'), ('జా', 'U'), ('తి', '|'), ('నీ', 'U'), ('తు', '|'), ('లే', 'U'), ('ల', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B150" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
         <is>
           <t>వసుధాస్థలంబున వర్ణహీనుఁడు గాని - బహుళ దురాచారపరుఁడు గాని
 తడసి కాసియ్యని ధర్మశూన్యుఁడు గాని - చదువనేరని మూఢజనుఁడు గాని
@@ -5213,63 +4766,57 @@
 అప్రతిష్ఠలకు లోనైన దీనుఁడు గాని - మొదటికే మెఱుఁగని మోటుగాని</t>
         </is>
       </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('సు', '|'), ('ధా', 'U'), ('స్థ', '|'), ('లం', 'U'), ('బు', '|'), ('న', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('హీ', 'U'), ('ను', '|'), ('డు', '|'), ('గా', 'U'), ('ని', '|'), ('బ', '|'), ('హు', '|'), ('ళ', '|'), ('దు', '|'), ('రా', 'U'), ('చా', 'U'), ('ర', '|'), ('ప', '|'), ('రు', '|'), ('డు', '|'), ('గా', 'U'), ('ని', '|'), ('త', '|'), ('డ', '|'), ('సి', '|'), ('కా', 'U'), ('సి', 'U'), ('య్య', '|'), ('ని', '|'), ('ధ', '|'), ('ర్మ', '|'), ('శూ', 'U'), ('న్యు', '|'), ('డు', '|'), ('గా', 'U'), ('ని', '|'), ('చ', '|'), ('దు', '|'), ('వ', '|'), ('నే', 'U'), ('ర', '|'), ('ని', '|'), ('మూ', 'U'), ('ఢ', '|'), ('జ', '|'), ('ను', '|'), ('డు', '|'), ('గా', 'U'), ('ని', '|'), ('స', '|'), ('క', '|'), ('ల', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('లు', '|'), ('మె', 'U'), ('చ్చ', '|'), ('ని', '|'), ('కృ', '|'), ('త', 'U'), ('ఘ్ను', '|'), ('డు', '|'), ('గా', 'U'), ('ని', '|'), ('చూ', 'U'), ('డ', '|'), ('సొం', 'U'), ('పు', '|'), ('ను', '|'), ('లే', 'U'), ('ని', '|'), ('శుం', 'U'), ('ఠ', '|'), ('గా', 'U'), ('ని', '|'), ('అ', 'U'), ('ప్ర', '|'), ('తి', 'U'), ('ష్ఠ', '|'), ('ల', '|'), ('కు', '|'), ('లో', 'U'), ('నై', 'U'), ('న', '|'), ('దీ', 'U'), ('ను', '|'), ('డు', '|'), ('గా', 'U'), ('ని', '|'), ('మొ', '|'), ('ద', '|'), ('టి', '|'), ('కే', 'U'), ('మె', '|'), ('ఱు', '|'), ('గ', '|'), ('ని', '|'), ('మో', 'U'), ('టు', '|'), ('గా', 'U'), ('ని', '|')]</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ప్రతిదినము నీదు భజనచేఁ బరఁగునట్టి - వానికే వంక లేదయ్య వచ్చు ముక్తి
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>ప్రతిదినము నీదు భజనచేఁ బరఁగునట్టి - వానికే వంక లేదయ్య వచ్చు ముక్తి
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
           <t>[('ప్ర', '|'), ('తి', '|'), ('ది', '|'), ('న', '|'), ('ము', '|'), ('నీ', 'U'), ('దు', '|'), ('భ', '|'), ('జ', '|'), ('న', '|'), ('చే', 'U'), ('బ', '|'), ('ర', '|'), ('గు', '|'), ('న', 'U'), ('ట్టి', '|'), ('వా', 'U'), ('ని', '|'), ('కే', 'U'), ('వం', 'U'), ('క', '|'), ('లే', 'U'), ('ద', 'U'), ('య్య', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ము', 'U'), ('క్తి', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B152" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
         <is>
           <t>ఇభకుంభములమీఁది కెగిరెడి సింగంబు - ముట్టునే కుఱచైన మూషికమును?
 నవచూతపత్రముల్‌ నమలుచున్న పికంబు - గొఱుకునే జిల్లేడుకొనలు నోట?
@@ -5277,63 +4824,57 @@
 లలితమైన రసాలఫలముఁ గోరెడి చిల్క - మెసవునే భ్రమత నుమ్మెత్తకాయ?</t>
         </is>
       </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('భ', '|'), ('కుం', 'U'), ('భ', '|'), ('ము', '|'), ('ల', '|'), ('మీ', 'U'), ('ది', '|'), ('కె', '|'), ('గి', '|'), ('రె', '|'), ('డి', '|'), ('సిం', 'U'), ('గం', 'U'), ('బు', '|'), ('ము', 'U'), ('ట్టు', '|'), ('నే', 'U'), ('కు', '|'), ('ఱ', '|'), ('చై', 'U'), ('న', '|'), ('మూ', 'U'), ('షి', '|'), ('క', '|'), ('ము', '|'), ('ను', '|'), ('న', '|'), ('వ', '|'), ('చూ', 'U'), ('త', '|'), ('ప', 'U'), ('త్ర', '|'), ('ముల్', 'U'), ('న', '|'), ('మ', '|'), ('లు', '|'), ('చు', 'U'), ('న్న', '|'), ('పి', '|'), ('కం', 'U'), ('బు', '|'), ('గొ', '|'), ('ఱు', '|'), ('కు', '|'), ('నే', 'U'), ('జి', 'U'), ('ల్లే', 'U'), ('డు', '|'), ('కొ', '|'), ('న', '|'), ('లు', '|'), ('నో', 'U'), ('ట', '|'), ('అ', '|'), ('ర', '|'), ('విం', 'U'), ('ద', '|'), ('మ', '|'), ('క', '|'), ('రం', 'U'), ('ద', '|'), ('మ', '|'), ('ను', '|'), ('భ', '|'), ('విం', 'U'), ('చె', '|'), ('డి', '|'), ('తే', 'U'), ('టి', '|'), ('పో', 'U'), ('వు', '|'), ('నే', 'U'), ('ప', 'U'), ('ల్లే', 'U'), ('రు', '|'), ('పూ', 'U'), ('ల', '|'), ('క', '|'), ('డ', '|'), ('కు', '|'), ('ల', '|'), ('లి', '|'), ('త', '|'), ('మై', 'U'), ('న', '|'), ('ర', '|'), ('సా', 'U'), ('ల', '|'), ('ఫ', '|'), ('ల', '|'), ('ము', '|'), ('గో', 'U'), ('రె', '|'), ('డి', '|'), ('చి', 'U'), ('ల్క', '|'), ('మె', '|'), ('స', '|'), ('వు', '|'), ('నే', 'U'), ('భ్ర', '|'), ('మ', '|'), ('త', '|'), ('ను', 'U'), ('మ్మె', 'U'), ('త్త', '|'), ('కా', 'U'), ('య', '|')]</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నిలను నీకీర్తనలు పాడనేర్చినతఁడు - పరులకీర్తనఁ బాడునే యరసి చూడ?
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>నిలను నీకీర్తనలు పాడనేర్చినతఁడు - పరులకీర్తనఁ బాడునే యరసి చూడ?
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('ల', '|'), ('ను', '|'), ('నీ', 'U'), ('కీ', 'U'), ('ర్త', '|'), ('న', '|'), ('లు', '|'), ('పా', 'U'), ('డ', '|'), ('నే', 'U'), ('ర్చి', '|'), ('న', '|'), ('త', '|'), ('డు', '|'), ('ప', '|'), ('రు', '|'), ('ల', '|'), ('కీ', 'U'), ('ర్త', '|'), ('న', '|'), ('బా', 'U'), ('డు', '|'), ('నే', 'U'), ('య', '|'), ('ర', '|'), ('సి', '|'), ('చూ', 'U'), ('డ', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B154" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
         <is>
           <t>సర్వేశ! నీపాదసరసిజ ద్వయమందుఁ - జిత్త ముంపఁగలేను జెదరకుండ
 నీవైన దయయుంచి నిలిచి యుండెడునట్లు - చేరి నన్నిపుడేలు సేవకుఁడను
@@ -5341,63 +4882,57 @@
 తన కుమారుల కుగ్గు తల్లి వోసినయట్లు - భక్తిమార్గంబను పాలు పోసి</t>
         </is>
       </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
           <t>[('స', 'U'), ('ర్వే', 'U'), ('శ', '|'), ('నీ', 'U'), ('పా', 'U'), ('ద', '|'), ('స', '|'), ('ర', '|'), ('సి', '|'), ('జ', 'U'), ('ద్వ', '|'), ('య', '|'), ('మం', 'U'), ('దు', '|'), ('జి', 'U'), ('త్త', '|'), ('ముం', 'U'), ('ప', '|'), ('గ', '|'), ('లే', 'U'), ('ను', '|'), ('జె', '|'), ('ద', '|'), ('ర', '|'), ('కుం', 'U'), ('డ', '|'), ('నీ', 'U'), ('వై', 'U'), ('న', '|'), ('ద', '|'), ('య', '|'), ('యుం', 'U'), ('చి', '|'), ('ని', '|'), ('లి', '|'), ('చి', '|'), ('యుం', 'U'), ('డె', '|'), ('డు', '|'), ('న', 'U'), ('ట్లు', '|'), ('చే', 'U'), ('రి', '|'), ('న', 'U'), ('న్ని', '|'), ('పు', '|'), ('డే', 'U'), ('లు', '|'), ('సే', 'U'), ('వ', '|'), ('కు', '|'), ('డ', '|'), ('ను', '|'), ('వ', '|'), ('న', '|'), ('జ', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('నే', 'U'), ('ను', '|'), ('వ', 'U'), ('ట్టి', '|'), ('మూ', 'U'), ('ర్ఖు', '|'), ('డ', '|'), ('జు', 'U'), ('మ్మి', '|'), ('నీ', 'U'), ('స్వ', '|'), ('రూ', 'U'), ('ప', '|'), ('ము', '|'), ('జూ', 'U'), ('డ', '|'), ('నే', 'U'), ('ర్పు', '|'), ('వే', 'U'), ('గ', '|'), ('త', '|'), ('న', '|'), ('కు', '|'), ('మా', 'U'), ('రు', '|'), ('ల', '|'), ('కు', 'U'), ('గ్గు', '|'), ('త', 'U'), ('ల్లి', '|'), ('వో', 'U'), ('సి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('భ', 'U'), ('క్తి', '|'), ('మా', 'U'), ('ర్గం', 'U'), ('బ', '|'), ('ను', '|'), ('పా', 'U'), ('లు', '|'), ('పో', 'U'), ('సి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ప్రేమతో నన్నుఁ బోషించి పెంచుకొనుము - ఘనత కెక్కించు నీ దాసగుణములోన
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>ప్రేమతో నన్నుఁ బోషించి పెంచుకొనుము - ఘనత కెక్కించు నీ దాసగుణములోన
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
           <t>[('ప్రే', 'U'), ('మ', '|'), ('తో', 'U'), ('న', 'U'), ('న్ను', '|'), ('బో', 'U'), ('షిం', 'U'), ('చి', '|'), ('పెం', 'U'), ('చు', '|'), ('కొ', '|'), ('ను', '|'), ('ము', '|'), ('ఘ', '|'), ('న', '|'), ('త', '|'), ('కె', 'U'), ('క్కిం', 'U'), ('చు', '|'), ('నీ', 'U'), ('దా', 'U'), ('స', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B156" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
         <is>
           <t>జీమూతవర్ణ! నీ మోముతో సరిరాక - కమలారి యతికళంకమునుఁ బడసె
 సొగసైన నీ నేత్రయుగముతో సరిరాక - నళినబృందము నీళ్లనడుమఁ జేరెఁ
@@ -5405,63 +4940,57 @@
 శ్రీపతి! నీ దివ్యరూపుతో సరి రాక - పుష్పబాణుఁడు నీకుఁ బుత్రుఁ డయ్యె</t>
         </is>
       </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
           <t>[('జీ', 'U'), ('మూ', 'U'), ('త', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('నీ', 'U'), ('మో', 'U'), ('ము', '|'), ('తో', 'U'), ('స', '|'), ('రి', '|'), ('రా', 'U'), ('క', '|'), ('క', '|'), ('మ', '|'), ('లా', 'U'), ('రి', '|'), ('య', '|'), ('తి', '|'), ('క', '|'), ('ళం', 'U'), ('క', '|'), ('ము', '|'), ('ను', '|'), ('బ', '|'), ('డ', '|'), ('సె', '|'), ('సొ', '|'), ('గ', '|'), ('సై', 'U'), ('న', '|'), ('నీ', 'U'), ('నే', 'U'), ('త్ర', '|'), ('యు', '|'), ('గ', '|'), ('ము', '|'), ('తో', 'U'), ('స', '|'), ('రి', '|'), ('రా', 'U'), ('క', '|'), ('న', '|'), ('ళి', '|'), ('న', '|'), ('బృం', 'U'), ('ద', '|'), ('ము', '|'), ('నీ', 'U'), ('ళ్ల', '|'), ('న', '|'), ('డు', '|'), ('మ', '|'), ('జే', 'U'), ('రె', '|'), ('గ', '|'), ('రి', '|'), ('రా', 'U'), ('జ', '|'), ('వ', '|'), ('ర', '|'), ('ద', '|'), ('నీ', 'U'), ('గ', '|'), ('ళ', '|'), ('ము', '|'), ('తో', 'U'), ('స', '|'), ('రి', '|'), ('రా', 'U'), ('క', '|'), ('పె', 'U'), ('ద్ద', '|'), ('శం', 'U'), ('ఖ', '|'), ('ము', '|'), ('బొ', 'U'), ('బ్బ', '|'), ('పె', 'U'), ('ట్ట', '|'), ('దొ', '|'), ('డ', '|'), ('గె', 'U'), ('శ్రీ', 'U'), ('ప', '|'), ('తి', '|'), ('నీ', 'U'), ('ది', 'U'), ('వ్య', '|'), ('రూ', 'U'), ('పు', '|'), ('తో', 'U'), ('స', '|'), ('రి', '|'), ('రా', 'U'), ('క', '|'), ('పు', 'U'), ('ష్ప', '|'), ('బా', 'U'), ('ణు', '|'), ('డు', '|'), ('నీ', 'U'), ('కు', '|'), ('బు', 'U'), ('త్రు', '|'), ('డ', 'U'), ('య్యె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నిందిరాదేవి నిన్ను మోహించి విడక - నీకుఁ బట్టమహిషి యయ్యె నిశ్చయముగ
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>నిందిరాదేవి నిన్ను మోహించి విడక - నీకుఁ బట్టమహిషి యయ్యె నిశ్చయముగ
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
           <t>[('నిం', 'U'), ('ది', '|'), ('రా', 'U'), ('దే', 'U'), ('వి', '|'), ('ని', 'U'), ('న్ను', '|'), ('మో', 'U'), ('హిం', 'U'), ('చి', '|'), ('వి', '|'), ('డ', '|'), ('క', '|'), ('నీ', 'U'), ('కు', '|'), ('బ', 'U'), ('ట్ట', '|'), ('మ', '|'), ('హి', '|'), ('షి', '|'), ('య', 'U'), ('య్యె', '|'), ('ని', 'U'), ('శ్చ', '|'), ('య', '|'), ('ము', '|'), ('గ', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B158" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
         <is>
           <t>హరిదాసులను నిందలాడకుండినఁ జాలు - సకలగ్రంథంబులు చదివినట్లు
 భిక్ష మియ్యంగఁ దప్పింపకుండినఁ జాలుఁ - జేముట్టి దానంబు చేసినట్లు
@@ -5469,63 +4998,57 @@
 దేవాగ్రహారముల్‌ దీయకుండినఁ జాలు - గనకకంబపు గుళ్లుగట్టినట్లు</t>
         </is>
       </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
           <t>[('హ', '|'), ('రి', '|'), ('దా', 'U'), ('సు', '|'), ('ల', '|'), ('ను', '|'), ('నిం', 'U'), ('ద', '|'), ('లా', 'U'), ('డ', '|'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('జా', 'U'), ('లు', '|'), ('స', '|'), ('క', '|'), ('ల', 'U'), ('గ్రం', 'U'), ('థం', 'U'), ('బు', '|'), ('లు', '|'), ('చ', '|'), ('ది', '|'), ('వి', '|'), ('న', 'U'), ('ట్లు', '|'), ('భి', 'U'), ('క్ష', '|'), ('మి', 'U'), ('య్యం', 'U'), ('గ', '|'), ('ద', 'U'), ('ప్పిం', 'U'), ('ప', '|'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('జా', 'U'), ('లు', '|'), ('జే', 'U'), ('ము', 'U'), ('ట్టి', '|'), ('దా', 'U'), ('నం', 'U'), ('బు', '|'), ('చే', 'U'), ('సి', '|'), ('న', 'U'), ('ట్లు', '|'), ('మిం', 'U'), ('చి', '|'), ('స', 'U'), ('జ్జ', '|'), ('ను', '|'), ('ల', '|'), ('వం', 'U'), ('చిం', 'U'), ('చ', '|'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('జా', 'U'), ('లు', '|'), ('నిం', 'U'), ('పు', '|'), ('గా', 'U'), ('బ', '|'), ('హు', '|'), ('మా', 'U'), ('న', '|'), ('మి', 'U'), ('చ్చి', '|'), ('న', 'U'), ('ట్లు', '|'), ('దే', 'U'), ('వా', 'U'), ('గ్ర', '|'), ('హా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('దీ', 'U'), ('య', '|'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('జా', 'U'), ('లు', '|'), ('గ', '|'), ('న', '|'), ('క', '|'), ('కం', 'U'), ('బ', '|'), ('పు', '|'), ('గు', 'U'), ('ళ్లు', '|'), ('గ', 'U'), ('ట్టి', '|'), ('న', 'U'), ('ట్లు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ఒకరి వర్షాశనము ముంచకున్నఁ జాలుఁ - బేరుకీర్తిగ సత్రముల్‌ పెట్టినట్లు
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>ఒకరి వర్షాశనము ముంచకున్నఁ జాలుఁ - బేరుకీర్తిగ సత్రముల్‌ పెట్టినట్లు
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
           <t>[('ఒ', '|'), ('క', '|'), ('రి', '|'), ('వ', 'U'), ('ర్షా', 'U'), ('శ', '|'), ('న', '|'), ('ము', '|'), ('ముం', 'U'), ('చ', '|'), ('కు', 'U'), ('న్న', '|'), ('జా', 'U'), ('లు', '|'), ('బే', 'U'), ('రు', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('గ', '|'), ('స', 'U'), ('త్ర', '|'), ('ముల్', 'U'), ('పె', 'U'), ('ట్టి', '|'), ('న', 'U'), ('ట్లు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B160" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
         <is>
           <t>ఇహలోకసౌఖ్యము లిచ్చగించెద మన్న - దేహ మెప్పటికిఁ దా స్థిరత నొంద
 దాయుష్యమున్న పర్యంతంబు పటుతయు - నొక్కతీరున నుండ దుర్విలోన
@@ -5533,63 +5056,57 @@
 భ్రాంతితో దీనిఁ గాపాడుద మనుకొన్నఁ - గాల మృత్యువు చేతఁ గోలుపోవు</t>
         </is>
       </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('హ', '|'), ('లో', 'U'), ('క', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('ము', '|'), ('లి', 'U'), ('చ్చ', '|'), ('గిం', 'U'), ('చె', '|'), ('ద', '|'), ('మ', 'U'), ('న్న', '|'), ('దే', 'U'), ('హ', '|'), ('మె', 'U'), ('ప్ప', '|'), ('టి', '|'), ('కి', '|'), ('దా', 'U'), ('స్థి', '|'), ('ర', '|'), ('త', '|'), ('నొం', 'U'), ('ద', '|'), ('దా', 'U'), ('యు', 'U'), ('ష్య', '|'), ('ము', 'U'), ('న్న', '|'), ('ప', 'U'), ('ర్యం', 'U'), ('తం', 'U'), ('బు', '|'), ('ప', '|'), ('టు', '|'), ('త', '|'), ('యు', '|'), ('నొ', 'U'), ('క్క', '|'), ('తీ', 'U'), ('రు', '|'), ('న', '|'), ('నుం', 'U'), ('డ', '|'), ('దు', 'U'), ('ర్వి', '|'), ('లో', 'U'), ('న', '|'), ('బా', 'U'), ('ల్య', '|'), ('యు', '|'), ('వ', 'U'), ('త్వ', '|'), ('దు', 'U'), ('ర్బ', '|'), ('ల', '|'), ('వా', 'U'), ('ర్ధ', '|'), ('క', '|'), ('ము', '|'), ('ల', '|'), ('ను', '|'), ('మూ', 'U'), ('టి', '|'), ('లో', 'U'), ('ము', '|'), ('ని', '|'), ('గె', '|'), ('డి', '|'), ('ము', '|'), ('ఱి', '|'), ('కి', '|'), ('కొం', 'U'), ('ప', 'U'), ('భ్రాం', 'U'), ('తి', '|'), ('తో', 'U'), ('దీ', 'U'), ('ని', '|'), ('గా', 'U'), ('పా', 'U'), ('డు', '|'), ('ద', '|'), ('మ', '|'), ('ను', '|'), ('కొ', 'U'), ('న్న', '|'), ('గా', 'U'), ('ల', '|'), ('మృ', 'U'), ('త్యు', '|'), ('వు', '|'), ('చే', 'U'), ('త', '|'), ('గో', 'U'), ('లు', '|'), ('పో', 'U'), ('వు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నమ్మరాదయ్య! యిది మాయనాటకంబు - జన్మమిఁక నొల్ల నన్నేలు జలజనాభ!
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>నమ్మరాదయ్య! యిది మాయనాటకంబు - జన్మమిఁక నొల్ల నన్నేలు జలజనాభ!
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
           <t>[('న', 'U'), ('మ్మ', '|'), ('రా', 'U'), ('ద', 'U'), ('య్య', '|'), ('యి', '|'), ('ది', '|'), ('మా', 'U'), ('య', '|'), ('నా', 'U'), ('ట', '|'), ('కం', 'U'), ('బు', '|'), ('జ', 'U'), ('న్మ', '|'), ('మి', '|'), ('క', '|'), ('నొ', 'U'), ('ల్ల', '|'), ('న', 'U'), ('న్నే', 'U'), ('లు', '|'), ('జ', '|'), ('ల', '|'), ('జ', '|'), ('నా', 'U'), ('భ', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B162" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
         <is>
           <t>వదనంబు నీనామభజన గోరుచునుండు - జిహ్వ నీ కీర్తనల్‌ సేయఁ గోరు
 హస్తయుగ్మంబు నిన్నర్చింపఁ గోరును - గర్ణముల్‌ నీ మీఁద కథలు గోరుఁ
@@ -5597,63 +5114,57 @@
 మూర్ధమ్ము నీ పదమ్ముల మ్రొక్కఁగాఁ గోరుఁ - నాత్మ నీదై యుండు నరసి చూడ</t>
         </is>
       </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('భ', '|'), ('జ', '|'), ('న', '|'), ('గో', 'U'), ('రు', '|'), ('చు', '|'), ('నుం', 'U'), ('డు', '|'), ('జి', 'U'), ('హ్వ', '|'), ('నీ', 'U'), ('కీ', 'U'), ('ర్త', '|'), ('నల్', 'U'), ('సే', 'U'), ('య', '|'), ('గో', 'U'), ('రు', '|'), ('హ', 'U'), ('స్త', '|'), ('యు', 'U'), ('గ్మం', 'U'), ('బు', '|'), ('ని', 'U'), ('న్న', 'U'), ('ర్చిం', 'U'), ('ప', '|'), ('గో', 'U'), ('రు', '|'), ('ను', '|'), ('గ', 'U'), ('ర్ణ', '|'), ('ముల్', 'U'), ('నీ', 'U'), ('మీ', 'U'), ('ద', '|'), ('క', '|'), ('థ', '|'), ('లు', '|'), ('గో', 'U'), ('రు', '|'), ('ద', '|'), ('ను', '|'), ('వు', '|'), ('నీ', 'U'), ('సే', 'U'), ('వ', '|'), ('యే', 'U'), ('ఘ', '|'), ('న', '|'), ('ము', '|'), ('గా', 'U'), ('గో', 'U'), ('రు', '|'), ('ను', '|'), ('న', '|'), ('య', '|'), ('న', '|'), ('ముల్', 'U'), ('నీ', 'U'), ('ద', 'U'), ('ర్శ', '|'), ('నం', 'U'), ('బు', '|'), ('గో', 'U'), ('రు', '|'), ('మూ', 'U'), ('ర్ధ', 'U'), ('మ్ము', '|'), ('నీ', 'U'), ('ప', '|'), ('ద', 'U'), ('మ్ము', '|'), ('ల', '|'), ('మ్రొ', 'U'), ('క్క', '|'), ('గా', 'U'), ('గో', 'U'), ('రు', '|'), ('నా', 'U'), ('త్మ', '|'), ('నీ', 'U'), ('దై', 'U'), ('యుం', 'U'), ('డు', '|'), ('న', '|'), ('ర', '|'), ('సి', '|'), ('చూ', 'U'), ('డ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>స్వప్నమున నైన నేవేళ సంతతమును - బుద్ధి నీ పాదములయందుఁ బూనియుండు
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>స్వప్నమున నైన నేవేళ సంతతమును - బుద్ధి నీ పాదములయందుఁ బూనియుండు
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
           <t>[('స్వ', 'U'), ('ప్న', '|'), ('ము', '|'), ('న', '|'), ('నై', 'U'), ('న', '|'), ('నే', 'U'), ('వే', 'U'), ('ళ', '|'), ('సం', 'U'), ('త', '|'), ('త', '|'), ('ము', '|'), ('ను', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('నీ', 'U'), ('పా', 'U'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('యం', 'U'), ('దు', '|'), ('బూ', 'U'), ('ని', '|'), ('యుం', 'U'), ('డు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B164" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
         <is>
           <t>పద్మాక్ష! మమతచేఁ బరము నందెద మంచు - విఱ్ఱవీఁగుదుమయ్య వెఱ్ఱిపట్టి
 మాస్వతంత్రంబైన మదము గండ్లకుఁ గప్పి - మొగము పట్టదు కామమోహమునను
@@ -5661,63 +5172,57 @@
 తుచ్ఛమైనటువంటి తోలెమ్ముకల తోడి - ముఱికి చెత్తలు చేర్చి మూట కట్టె</t>
         </is>
       </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
           <t>[('ప', 'U'), ('ద్మా', 'U'), ('క్ష', '|'), ('మ', '|'), ('మ', '|'), ('త', '|'), ('చే', 'U'), ('బ', '|'), ('ర', '|'), ('ము', '|'), ('నం', 'U'), ('దె', '|'), ('ద', '|'), ('మం', 'U'), ('చు', '|'), ('వి', 'U'), ('ఱ్ఱ', '|'), ('వీ', 'U'), ('గు', '|'), ('దు', '|'), ('మ', 'U'), ('య్య', '|'), ('వె', 'U'), ('ఱ్ఱి', '|'), ('ప', 'U'), ('ట్టి', '|'), ('మా', 'U'), ('స్వ', '|'), ('తం', 'U'), ('త్రం', 'U'), ('బై', 'U'), ('న', '|'), ('మ', '|'), ('ద', '|'), ('ము', '|'), ('గం', 'U'), ('డ్ల', '|'), ('కు', '|'), ('గ', 'U'), ('ప్పి', '|'), ('మొ', '|'), ('గ', '|'), ('ము', '|'), ('ప', 'U'), ('ట్ట', '|'), ('దు', '|'), ('కా', 'U'), ('మ', '|'), ('మో', 'U'), ('హ', '|'), ('ము', '|'), ('న', '|'), ('ను', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('దే', 'U'), ('వుం', 'U'), ('డై', 'U'), ('న', '|'), ('బై', 'U'), ('డి', '|'), ('దే', 'U'), ('హ', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గ', '|'), ('జే', 'U'), ('సి', '|'), ('వే', 'U'), ('య', '|'), ('క', '|'), ('మ', 'U'), ('మ్ము', '|'), ('జె', '|'), ('ఱి', '|'), ('చె', '|'), ('న', '|'), ('త', '|'), ('డు', '|'), ('తు', 'U'), ('చ్ఛ', '|'), ('మై', 'U'), ('న', '|'), ('టు', '|'), ('వం', 'U'), ('టి', '|'), ('తో', 'U'), ('లె', 'U'), ('మ్ము', '|'), ('క', '|'), ('ల', '|'), ('తో', 'U'), ('డి', '|'), ('ము', '|'), ('ఱి', '|'), ('కి', '|'), ('చె', 'U'), ('త్త', '|'), ('లు', '|'), ('చే', 'U'), ('ర్చి', '|'), ('మూ', 'U'), ('ట', '|'), ('క', 'U'), ('ట్టె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నీ శరీరాలు పడిపోవుటెఱుఁగ కేము - కాముకుల మైతిమిఁక మిమ్ముఁగానలేము
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>నీ శరీరాలు పడిపోవుటెఱుఁగ కేము - కాముకుల మైతిమిఁక మిమ్ముఁగానలేము
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('శ', '|'), ('రీ', 'U'), ('రా', 'U'), ('లు', '|'), ('ప', '|'), ('డి', '|'), ('పో', 'U'), ('వు', '|'), ('టె', '|'), ('ఱు', '|'), ('గ', '|'), ('కే', 'U'), ('ము', '|'), ('కా', 'U'), ('ము', '|'), ('కు', '|'), ('ల', '|'), ('మై', 'U'), ('తి', '|'), ('మి', '|'), ('క', '|'), ('మి', 'U'), ('మ్ము', '|'), ('గా', 'U'), ('న', '|'), ('లే', 'U'), ('ము', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B166" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
         <is>
           <t>గరుడవాహన! దివ్యకౌస్తుభాలంకార! - రవికోటితేజ! సారంగవదన!
 మణిగణాన్విత! హేమమకుటాభరణ! చారు - మకరకుండల! లసన్మందహాస!
@@ -5725,63 +5230,57 @@
 కమలనాభ! ముకుంద! గంగాధరస్తుత! - రాక్షసాంతక! నాగరాజశయన!</t>
         </is>
       </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
           <t>[('గ', '|'), ('రు', '|'), ('డ', '|'), ('వా', 'U'), ('హ', '|'), ('న', '|'), ('ది', 'U'), ('వ్య', '|'), ('కౌ', 'U'), ('స్తు', '|'), ('భా', 'U'), ('లం', 'U'), ('కా', 'U'), ('ర', '|'), ('ర', '|'), ('వి', '|'), ('కో', 'U'), ('టి', '|'), ('తే', 'U'), ('జ', '|'), ('సా', 'U'), ('రం', 'U'), ('గ', '|'), ('వ', '|'), ('ద', '|'), ('న', '|'), ('మ', '|'), ('ణి', '|'), ('గ', '|'), ('ణా', 'U'), ('న్వి', '|'), ('త', '|'), ('హే', 'U'), ('మ', '|'), ('మ', '|'), ('కు', '|'), ('టా', 'U'), ('భ', '|'), ('ర', '|'), ('ణ', '|'), ('చా', 'U'), ('రు', '|'), ('మ', '|'), ('క', '|'), ('ర', '|'), ('కుం', 'U'), ('డ', '|'), ('ల', '|'), ('ల', '|'), ('స', 'U'), ('న్మం', 'U'), ('ద', '|'), ('హా', 'U'), ('స', '|'), ('కాం', 'U'), ('చ', '|'), ('నాం', 'U'), ('బ', '|'), ('ర', '|'), ('ర', 'U'), ('త్న', '|'), ('కాం', 'U'), ('చీ', 'U'), ('వి', '|'), ('భూ', 'U'), ('షి', '|'), ('త', '|'), ('సు', '|'), ('ర', '|'), ('వ', '|'), ('రా', 'U'), ('ర్చి', '|'), ('త', '|'), ('చం', 'U'), ('ద్ర', '|'), ('సూ', 'U'), ('ర్య', '|'), ('న', '|'), ('య', '|'), ('న', '|'), ('క', '|'), ('మ', '|'), ('ల', '|'), ('నా', 'U'), ('భ', '|'), ('ము', '|'), ('కుం', 'U'), ('ద', '|'), ('గం', 'U'), ('గా', 'U'), ('ధ', '|'), ('ర', 'U'), ('స్తు', '|'), ('త', '|'), ('రా', 'U'), ('క్ష', '|'), ('సాం', 'U'), ('త', '|'), ('క', '|'), ('నా', 'U'), ('గ', '|'), ('రా', 'U'), ('జ', '|'), ('శ', '|'), ('య', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>పతితపావన! లక్ష్మీశ! బ్రహ్మజనక! - భక్తవత్సల! సర్వేశ! పరమపురుష!
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>పతితపావన! లక్ష్మీశ! బ్రహ్మజనక! - భక్తవత్సల! సర్వేశ! పరమపురుష!
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('తి', '|'), ('త', '|'), ('పా', 'U'), ('వ', '|'), ('న', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('శ', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('జ', '|'), ('న', '|'), ('క', '|'), ('భ', 'U'), ('క్త', '|'), ('వ', 'U'), ('త్స', '|'), ('ల', '|'), ('స', 'U'), ('ర్వే', 'U'), ('శ', '|'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('పు', '|'), ('రు', '|'), ('ష', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B168" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
         <is>
           <t>పలుమాఱు దశ రూపములు ధరించితి వేల? - యేకరూపముఁ బొందవేల నీవు?
 నయమున క్షీరాబ్ధి నడుమఁ జేరితి వేల? - రత్నకాంచన మందిరములు లేవె?
@@ -5789,63 +5288,57 @@
 ఱెక్కలు గల పక్షినెక్కసాగితి వేల? - గజతురంగాందోళికములు లేవె?</t>
         </is>
       </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('లు', '|'), ('మా', 'U'), ('ఱు', '|'), ('ద', '|'), ('శ', '|'), ('రూ', 'U'), ('ప', '|'), ('ము', '|'), ('లు', '|'), ('ధ', '|'), ('రిం', 'U'), ('చి', '|'), ('తి', '|'), ('వే', 'U'), ('ల', '|'), ('యే', 'U'), ('క', '|'), ('రూ', 'U'), ('ప', '|'), ('ము', '|'), ('బొం', 'U'), ('ద', '|'), ('వే', 'U'), ('ల', '|'), ('నీ', 'U'), ('వు', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('న', 'U'), ('క్షీ', 'U'), ('రా', 'U'), ('బ్ధి', '|'), ('న', '|'), ('డు', '|'), ('మ', '|'), ('జే', 'U'), ('రి', '|'), ('తి', '|'), ('వే', 'U'), ('ల', '|'), ('ర', 'U'), ('త్న', '|'), ('కాం', 'U'), ('చ', '|'), ('న', '|'), ('మం', 'U'), ('ది', '|'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('లే', 'U'), ('వె', '|'), ('ప', 'U'), ('న్న', '|'), ('గేం', 'U'), ('ద్రు', '|'), ('ని', '|'), ('మీ', 'U'), ('ద', '|'), ('బ', 'U'), ('వ్వ', '|'), ('ళిం', 'U'), ('చి', '|'), ('తి', '|'), ('వే', 'U'), ('ల', '|'), ('జ', '|'), ('ల', '|'), ('తా', 'U'), ('రు', '|'), ('ప', 'U'), ('ట్టె', '|'), ('మం', 'U'), ('చ', '|'), ('ము', '|'), ('లు', '|'), ('లే', 'U'), ('రె', '|'), ('ఱె', 'U'), ('క్క', '|'), ('లు', '|'), ('గ', '|'), ('ల', '|'), ('ప', 'U'), ('క్షి', '|'), ('నె', 'U'), ('క్క', '|'), ('సా', 'U'), ('గి', '|'), ('తి', '|'), ('వే', 'U'), ('ల', '|'), ('గ', '|'), ('జ', '|'), ('తు', '|'), ('రం', 'U'), ('గాం', 'U'), ('దో', 'U'), ('ళి', '|'), ('క', '|'), ('ము', '|'), ('లు', '|'), ('లే', 'U'), ('వె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>వనజలోచన! యిటువంటివైభవములు - సొగసుగా నీకుఁ దోఁచెనో సుందరాంగ?
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>వనజలోచన! యిటువంటివైభవములు - సొగసుగా నీకుఁ దోఁచెనో సుందరాంగ?
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('న', '|'), ('జ', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('యి', '|'), ('టు', '|'), ('వం', 'U'), ('టి', '|'), ('వై', 'U'), ('భ', '|'), ('వ', '|'), ('ము', '|'), ('లు', '|'), ('సొ', '|'), ('గ', '|'), ('సు', '|'), ('గా', 'U'), ('నీ', 'U'), ('కు', '|'), ('దో', 'U'), ('చె', '|'), ('నో', 'U'), ('సుం', 'U'), ('ద', '|'), ('రాం', 'U'), ('గ', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B170" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
         <is>
           <t>తిరుపతి స్థలమందుఁ దిన్నఁగా నే నున్న - వేంకటేశుఁడు మేఁతవేయలేఁడొ?
 పురుషోత్తమమునకుఁ బోయినఁజాలు జ - గన్నాథుఁ డన్నంబుఁ గడపలేఁడొ?
@@ -5853,63 +5346,57 @@
 కాంచీపురములోనఁ గదిసి నేఁ గొలువున్నఁ - గరివరదుఁడు పొట్టఁ గడపలేఁడొ?</t>
         </is>
       </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
           <t>[('తి', '|'), ('రు', '|'), ('ప', '|'), ('తి', 'U'), ('స్థ', '|'), ('ల', '|'), ('మం', 'U'), ('దు', '|'), ('ది', 'U'), ('న్న', '|'), ('గా', 'U'), ('నే', 'U'), ('ను', 'U'), ('న్న', '|'), ('వేం', 'U'), ('క', '|'), ('టే', 'U'), ('శు', '|'), ('డు', '|'), ('మే', 'U'), ('త', '|'), ('వే', 'U'), ('య', '|'), ('లే', 'U'), ('డొ', '|'), ('పు', '|'), ('రు', '|'), ('షో', 'U'), ('త్త', '|'), ('మ', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('బో', 'U'), ('యి', '|'), ('న', '|'), ('జా', 'U'), ('లు', '|'), ('జ', '|'), ('గ', 'U'), ('న్నా', 'U'), ('థు', '|'), ('డ', 'U'), ('న్నం', 'U'), ('బు', '|'), ('గ', '|'), ('డ', '|'), ('ప', '|'), ('లే', 'U'), ('డొ', 'U'), ('శ్రీ', 'U'), ('రం', 'U'), ('గ', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('నే', 'U'), ('జే', 'U'), ('ర', '|'), ('బో', 'U'), ('యి', '|'), ('న', '|'), ('జా', 'U'), ('లు', 'U'), ('స్వా', 'U'), ('మి', 'U'), ('గ్రా', 'U'), ('స', '|'), ('ము', '|'), ('బె', 'U'), ('ట్టి', '|'), ('సా', 'U'), ('క', '|'), ('లే', 'U'), ('డొ', '|'), ('కాం', 'U'), ('చీ', 'U'), ('పు', '|'), ('ర', '|'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('గ', '|'), ('ది', '|'), ('సి', '|'), ('నే', 'U'), ('గొ', '|'), ('లు', '|'), ('వు', 'U'), ('న్న', '|'), ('గ', '|'), ('రి', '|'), ('వ', '|'), ('ర', '|'), ('దు', '|'), ('డు', '|'), ('పొ', 'U'), ('ట్ట', '|'), ('గ', '|'), ('డ', '|'), ('ప', '|'), ('లే', 'U'), ('డొ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యెందుఁ బోవక నేను నీ మందిరమున - నిలిచితిని నీకు నామీఁద నెనరు లేదు
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>యెందుఁ బోవక నేను నీ మందిరమున - నిలిచితిని నీకు నామీఁద నెనరు లేదు
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
           <t>[('యెం', 'U'), ('దు', '|'), ('బో', 'U'), ('వ', '|'), ('క', '|'), ('నే', 'U'), ('ను', '|'), ('నీ', 'U'), ('మం', 'U'), ('ది', '|'), ('ర', '|'), ('ము', '|'), ('న', '|'), ('ని', '|'), ('లి', '|'), ('చి', '|'), ('తి', '|'), ('ని', '|'), ('నీ', 'U'), ('కు', '|'), ('నా', 'U'), ('మీ', 'U'), ('ద', '|'), ('నె', '|'), ('న', '|'), ('రు', '|'), ('లే', 'U'), ('దు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B172" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
         <is>
           <t>తార్క్ష్యవాహన! నీవు దండిదాత వటంచుఁ - గోరి వేడుక నిన్నుఁ గొల్వవచ్చి
 యర్థిమార్గమును నేననుసరించితినయ్య - లావైనఁ బదునాల్గులక్ష లైన
@@ -5917,63 +5404,57 @@
 యానందమైన నేనడుగ వచ్చిన దెచ్చి - వాంఛఁ దీర్పుము నీలవర్ణ! వేగ</t>
         </is>
       </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
           <t>[('తా', 'U'), ('ర్క్ష్య', '|'), ('వా', 'U'), ('హ', '|'), ('న', '|'), ('నీ', 'U'), ('వు', '|'), ('దం', 'U'), ('డి', '|'), ('దా', 'U'), ('త', '|'), ('వ', '|'), ('టం', 'U'), ('చు', '|'), ('గో', 'U'), ('రి', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('ని', 'U'), ('న్ను', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('వ', 'U'), ('చ్చి', '|'), ('య', 'U'), ('ర్థి', '|'), ('మా', 'U'), ('ర్గ', '|'), ('ము', '|'), ('ను', '|'), ('నే', 'U'), ('న', '|'), ('ను', '|'), ('స', '|'), ('రిం', 'U'), ('చి', '|'), ('తి', '|'), ('న', 'U'), ('య్య', '|'), ('లా', 'U'), ('వై', 'U'), ('న', '|'), ('బ', '|'), ('దు', '|'), ('నా', 'U'), ('ల్గు', '|'), ('ల', 'U'), ('క్ష', '|'), ('లై', 'U'), ('న', '|'), ('వే', 'U'), ('ష', '|'), ('ముల్', 'U'), ('వే', 'U'), ('సి', '|'), ('నా', 'U'), ('వి', 'U'), ('ద్యా', 'U'), ('ప్ర', '|'), ('గ', 'U'), ('ల్భ', '|'), ('త', '|'), ('జూ', 'U'), ('ప', '|'), ('సా', 'U'), ('గి', '|'), ('తి', '|'), ('నీ', 'U'), ('కు', '|'), ('సుం', 'U'), ('ద', '|'), ('రాం', 'U'), ('గ', '|'), ('యా', 'U'), ('నం', 'U'), ('ద', '|'), ('మై', 'U'), ('న', '|'), ('నే', 'U'), ('న', '|'), ('డు', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('దె', 'U'), ('చ్చి', '|'), ('వాం', 'U'), ('ఛ', '|'), ('దీ', 'U'), ('ర్పు', '|'), ('ము', '|'), ('నీ', 'U'), ('ల', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('వే', 'U'), ('గ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నీకు నావిద్య హర్షంబుగాక యున్న - తేపతేపకు వేషముల్‌ దేను సుమ్మి
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>నీకు నావిద్య హర్షంబుగాక యున్న - తేపతేపకు వేషముల్‌ దేను సుమ్మి
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('కు', '|'), ('నా', 'U'), ('వి', 'U'), ('ద్య', '|'), ('హ', 'U'), ('ర్షం', 'U'), ('బు', '|'), ('గా', 'U'), ('క', '|'), ('యు', 'U'), ('న్న', '|'), ('తే', 'U'), ('ప', '|'), ('తే', 'U'), ('ప', '|'), ('కు', '|'), ('వే', 'U'), ('ష', '|'), ('ముల్', 'U'), ('దే', 'U'), ('ను', '|'), ('సు', 'U'), ('మ్మి', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B174" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
         <is>
           <t>అమరేంద్రవినుత! నేనతి దురాత్ముఁడ నంచుఁ - గలలోన నైనను గనులఁ బడవు
 నీవు ప్రత్యక్షమై నిలువకుండిన మానె - దొడ్డగా నొక యుక్తి దొరకెనయ్య!
@@ -5981,63 +5462,57 @@
 ధూప దీపము లిచ్చి తులసితోఁ బూజించి - నిత్యనైవేద్యముల్‌ నేమముగను</t>
         </is>
       </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('మ', '|'), ('రేం', 'U'), ('ద్ర', '|'), ('వి', '|'), ('ను', '|'), ('త', '|'), ('నే', 'U'), ('న', '|'), ('తి', '|'), ('దు', '|'), ('రా', 'U'), ('త్ము', '|'), ('డ', '|'), ('నం', 'U'), ('చు', '|'), ('గ', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('నై', 'U'), ('న', '|'), ('ను', '|'), ('గ', '|'), ('ను', '|'), ('ల', '|'), ('బ', '|'), ('డ', '|'), ('వు', '|'), ('నీ', 'U'), ('వు', 'U'), ('ప్ర', 'U'), ('త్య', 'U'), ('క్ష', '|'), ('మై', 'U'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('మా', 'U'), ('నె', '|'), ('దొ', 'U'), ('డ్డ', '|'), ('గా', 'U'), ('నొ', '|'), ('క', '|'), ('యు', 'U'), ('క్తి', '|'), ('దొ', '|'), ('ర', '|'), ('కె', '|'), ('న', 'U'), ('య్య', '|'), ('గ', 'U'), ('ట్టి', '|'), ('కొ', 'U'), ('య్య', '|'), ('ను', '|'), ('దె', 'U'), ('చ్చి', '|'), ('ఘ', '|'), ('న', '|'), ('ము', '|'), ('గా', 'U'), ('ఖం', 'U'), ('డిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('స్వ', '|'), ('రూ', 'U'), ('ప', '|'), ('ము', '|'), ('చే', 'U'), ('సి', '|'), ('ని', '|'), ('లు', '|'), ('పు', '|'), ('కొం', 'U'), ('దు', '|'), ('ధూ', 'U'), ('ప', '|'), ('దీ', 'U'), ('ప', '|'), ('ము', '|'), ('లి', 'U'), ('చ్చి', '|'), ('తు', '|'), ('ల', '|'), ('సి', '|'), ('తో', 'U'), ('బూ', 'U'), ('జిం', 'U'), ('చి', '|'), ('ని', 'U'), ('త్య', '|'), ('నై', 'U'), ('వే', 'U'), ('ద్య', '|'), ('ముల్', 'U'), ('నే', 'U'), ('మ', '|'), ('ము', '|'), ('గ', '|'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నడుపుచును నిన్నుఁ గొలిచెదనమ్మి బుద్ధి - నీ ప్రపంచంబు గలుగు నాకింతె చాలు
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>నడుపుచును నిన్నుఁ గొలిచెదనమ్మి బుద్ధి - నీ ప్రపంచంబు గలుగు నాకింతె చాలు
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('డు', '|'), ('పు', '|'), ('చు', '|'), ('ను', '|'), ('ని', 'U'), ('న్ను', '|'), ('గొ', '|'), ('లి', '|'), ('చె', '|'), ('ద', '|'), ('న', 'U'), ('మ్మి', '|'), ('బు', 'U'), ('ద్ధి', '|'), ('నీ', 'U'), ('ప్ర', '|'), ('పం', 'U'), ('చం', 'U'), ('బు', '|'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('నా', 'U'), ('కిం', 'U'), ('తె', '|'), ('చా', 'U'), ('లు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B176" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
         <is>
           <t>భువనేశ! గోవింద! రవికోటిసంకాశ! - పక్షివాహన! భక్తపారిజాత!
 యంభోజభవరుద్ర జంభారిసన్నుత! - సామగానవిలోల! సారసాక్ష!
@@ -6045,63 +5520,57 @@
 దీనరక్షక! వాసుదేవ! దైత్యవినాశ! - నారదార్చిత! దివ్యనాగశయన!</t>
         </is>
       </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
           <t>[('భు', '|'), ('వ', '|'), ('నే', 'U'), ('శ', '|'), ('గో', 'U'), ('విం', 'U'), ('ద', '|'), ('ర', '|'), ('వి', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('కా', 'U'), ('శ', '|'), ('ప', 'U'), ('క్షి', '|'), ('వా', 'U'), ('హ', '|'), ('న', '|'), ('భ', 'U'), ('క్త', '|'), ('పా', 'U'), ('రి', '|'), ('జా', 'U'), ('త', '|'), ('యం', 'U'), ('భో', 'U'), ('జ', '|'), ('భ', '|'), ('వ', '|'), ('రు', '|'), ('ద్ర', '|'), ('జం', 'U'), ('భా', 'U'), ('రి', '|'), ('స', 'U'), ('న్ను', '|'), ('త', '|'), ('సా', 'U'), ('మ', '|'), ('గా', 'U'), ('న', '|'), ('వి', '|'), ('లో', 'U'), ('ల', '|'), ('సా', 'U'), ('ర', '|'), ('సా', 'U'), ('క్ష', '|'), ('వ', '|'), ('న', '|'), ('ధి', '|'), ('గం', 'U'), ('భీ', 'U'), ('ర', 'U'), ('శ్రీ', 'U'), ('వ', 'U'), ('త్స', '|'), ('కౌ', 'U'), ('స్తు', '|'), ('భ', '|'), ('వ', 'U'), ('క్ష', '|'), ('శం', 'U'), ('ఖ', '|'), ('చ', 'U'), ('క్ర', '|'), ('గ', '|'), ('దా', 'U'), ('సి', '|'), ('శా', 'U'), ('ర్ఙ్గ', '|'), ('హ', 'U'), ('స్త', '|'), ('దీ', 'U'), ('న', '|'), ('ర', 'U'), ('క్ష', '|'), ('క', '|'), ('వా', 'U'), ('సు', '|'), ('దే', 'U'), ('వ', '|'), ('దై', 'U'), ('త్య', '|'), ('వి', '|'), ('నా', 'U'), ('శ', '|'), ('నా', 'U'), ('ర', '|'), ('దా', 'U'), ('ర్చి', '|'), ('త', '|'), ('ది', 'U'), ('వ్య', '|'), ('నా', 'U'), ('గ', '|'), ('శ', '|'), ('య', '|'), ('న', '|')]</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>చారు నవరత్నకుండల శ్రవణయుగళ! - విబుధవందిత పాదాబ్జ! విశ్వరూప!
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>చారు నవరత్నకుండల శ్రవణయుగళ! - విబుధవందిత పాదాబ్జ! విశ్వరూప!
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
           <t>[('చా', 'U'), ('రు', '|'), ('న', '|'), ('వ', '|'), ('ర', 'U'), ('త్న', '|'), ('కుం', 'U'), ('డ', '|'), ('ల', 'U'), ('శ్ర', '|'), ('వ', '|'), ('ణ', '|'), ('యు', '|'), ('గ', '|'), ('ళ', '|'), ('వి', '|'), ('బు', '|'), ('ధ', '|'), ('వం', 'U'), ('ది', '|'), ('త', '|'), ('పా', 'U'), ('దా', 'U'), ('బ్జ', '|'), ('వి', 'U'), ('శ్వ', '|'), ('రూ', 'U'), ('ప', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B178" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
         <is>
           <t>నాగేంద్రశయన! నీనామమాధుర్యంబు - మూఁడుకన్నుల సాంబమూర్తి కెఱుక
 పంకజాతాక్ష! నీ బలపరాక్రమ మెల్ల - భారతీపతి యైన బ్రహ్మ కెఱుక
@@ -6109,63 +5578,57 @@
 పరమాత్మ! నీదగు పక్షపాతిత్వంబు - దశశతాక్షుల పురందరుని కెఱుక</t>
         </is>
       </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
           <t>[('నా', 'U'), ('గేం', 'U'), ('ద్ర', '|'), ('శ', '|'), ('య', '|'), ('న', '|'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('మా', 'U'), ('ధు', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('మూ', 'U'), ('డు', '|'), ('క', 'U'), ('న్ను', '|'), ('ల', '|'), ('సాం', 'U'), ('బ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('కె', '|'), ('ఱు', '|'), ('క', '|'), ('పం', 'U'), ('క', '|'), ('జా', 'U'), ('తా', 'U'), ('క్ష', '|'), ('నీ', 'U'), ('బ', '|'), ('ల', '|'), ('ప', '|'), ('రా', 'U'), ('క్ర', '|'), ('మ', '|'), ('మె', 'U'), ('ల్ల', '|'), ('భా', 'U'), ('ర', '|'), ('తీ', 'U'), ('ప', '|'), ('తి', '|'), ('యై', 'U'), ('న', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('కె', '|'), ('ఱు', '|'), ('క', '|'), ('మ', '|'), ('ధు', '|'), ('కై', 'U'), ('ట', '|'), ('భా', 'U'), ('రి', '|'), ('నీ', 'U'), ('మా', 'U'), ('యా', 'U'), ('స', '|'), ('మ', 'U'), ('ర్థ', '|'), ('త', '|'), ('వ', '|'), ('సు', '|'), ('ధ', '|'), ('లో', 'U'), ('బ', '|'), ('లి', '|'), ('చ', 'U'), ('క్ర', '|'), ('వ', 'U'), ('ర్తి', '|'), ('కె', '|'), ('ఱు', '|'), ('క', '|'), ('ప', '|'), ('ర', '|'), ('మా', 'U'), ('త్మ', '|'), ('నీ', 'U'), ('ద', '|'), ('గు', '|'), ('ప', 'U'), ('క్ష', '|'), ('పా', 'U'), ('తి', 'U'), ('త్వం', 'U'), ('బు', '|'), ('ద', '|'), ('శ', '|'), ('శ', '|'), ('తా', 'U'), ('క్షు', '|'), ('ల', '|'), ('పు', '|'), ('రం', 'U'), ('ద', '|'), ('రు', '|'), ('ని', '|'), ('కె', '|'), ('ఱు', '|'), ('క', '|')]</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>వీరి కెఱుకగు నీకథల్‌ వింత లెల్ల - నరుల కెఱుకన్న నెవరైన నవ్విపోరె?
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>వీరి కెఱుకగు నీకథల్‌ వింత లెల్ల - నరుల కెఱుకన్న నెవరైన నవ్విపోరె?
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
           <t>[('వీ', 'U'), ('రి', '|'), ('కె', '|'), ('ఱు', '|'), ('క', '|'), ('గు', '|'), ('నీ', 'U'), ('క', '|'), ('థల్', 'U'), ('విం', 'U'), ('త', '|'), ('లె', 'U'), ('ల్ల', '|'), ('న', '|'), ('రు', '|'), ('ల', '|'), ('కె', '|'), ('ఱు', '|'), ('క', 'U'), ('న్న', '|'), ('నె', '|'), ('వ', '|'), ('రై', 'U'), ('న', '|'), ('న', 'U'), ('వ్వి', '|'), ('పో', 'U'), ('రె', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B180" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
         <is>
           <t>అర్థులేమైన నిన్నడుగ వచ్చెద రంచు - క్షీరసాగరమందుఁ జేరినావు
 నీచుట్టు సేవకుల్‌ నిలువకుండుటకునై - భయద సర్పముమీఁదఁ బండినావు
@@ -6173,63 +5636,57 @@
 దాసులు నీ ద్వారమాసింపకుంటకు - మంచి యోధుల కావలుంచినావు</t>
         </is>
       </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('ర్థు', '|'), ('లే', 'U'), ('మై', 'U'), ('న', '|'), ('ని', 'U'), ('న్న', '|'), ('డు', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చె', '|'), ('ద', '|'), ('రం', 'U'), ('చు', 'U'), ('క్షీ', 'U'), ('ర', '|'), ('సా', 'U'), ('గ', '|'), ('ర', '|'), ('మం', 'U'), ('దు', '|'), ('జే', 'U'), ('రి', '|'), ('నా', 'U'), ('వు', '|'), ('నీ', 'U'), ('చు', 'U'), ('ట్టు', '|'), ('సే', 'U'), ('వ', '|'), ('కుల్', 'U'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('కుం', 'U'), ('డు', '|'), ('ట', '|'), ('కు', '|'), ('నై', 'U'), ('భ', '|'), ('య', '|'), ('ద', '|'), ('స', 'U'), ('ర్ప', '|'), ('ము', '|'), ('మీ', 'U'), ('ద', '|'), ('బం', 'U'), ('డి', '|'), ('నా', 'U'), ('వు', '|'), ('భ', 'U'), ('క్త', '|'), ('బృం', 'U'), ('ద', '|'), ('ము', '|'), ('వెం', 'U'), ('ట', '|'), ('బ', '|'), ('డి', '|'), ('చ', '|'), ('రిం', 'U'), ('చె', '|'), ('ద', '|'), ('రం', 'U'), ('చు', '|'), ('నె', '|'), ('గ', '|'), ('సి', '|'), ('పో', 'U'), ('యె', '|'), ('డి', '|'), ('ప', 'U'), ('క్షి', '|'), ('నె', 'U'), ('క్కి', '|'), ('నా', 'U'), ('వు', '|'), ('దా', 'U'), ('సు', '|'), ('లు', '|'), ('నీ', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('మా', 'U'), ('సిం', 'U'), ('ప', '|'), ('కుం', 'U'), ('ట', '|'), ('కు', '|'), ('మం', 'U'), ('చి', '|'), ('యో', 'U'), ('ధు', '|'), ('ల', '|'), ('కా', 'U'), ('వ', '|'), ('లుం', 'U'), ('చి', '|'), ('నా', 'U'), ('వు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>లావు గలవాఁడ వైతి వేలాగు నేను - నిన్నుఁ జూతును నా తండ్రి నీరజాక్ష!
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>లావు గలవాఁడ వైతి వేలాగు నేను - నిన్నుఁ జూతును నా తండ్రి నీరజాక్ష!
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
           <t>[('లా', 'U'), ('వు', '|'), ('గ', '|'), ('ల', '|'), ('వా', 'U'), ('డ', '|'), ('వై', 'U'), ('తి', '|'), ('వే', 'U'), ('లా', 'U'), ('గు', '|'), ('నే', 'U'), ('ను', '|'), ('ని', 'U'), ('న్ను', '|'), ('జూ', 'U'), ('తు', '|'), ('ను', '|'), ('నా', 'U'), ('తం', 'U'), ('డ్రి', '|'), ('నీ', 'U'), ('ర', '|'), ('జా', 'U'), ('క్ష', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B182" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
         <is>
           <t>నీకథల్‌ చెవులలో సోఁకుట మొదలుగాఁ - బులకాంకురము మేనఁ బుట్టువాఁడు
 నయమైన నీ దివ్యనామకీర్తనలోన - మగ్నుఁడై దేహంబు మఱచువాఁడు
@@ -6237,63 +5694,57 @@
 హా పుండరీకాక్ష! హా రామ! హరి! యంచు - వేడ్కతోఁ గేకలు వేయువాఁడు</t>
         </is>
       </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('క', '|'), ('థల్', 'U'), ('చె', '|'), ('వు', '|'), ('ల', '|'), ('లో', 'U'), ('సో', 'U'), ('కు', '|'), ('ట', '|'), ('మొ', '|'), ('ద', '|'), ('లు', '|'), ('గా', 'U'), ('బు', '|'), ('ల', '|'), ('కాం', 'U'), ('కు', '|'), ('ర', '|'), ('ము', '|'), ('మే', 'U'), ('న', '|'), ('బు', 'U'), ('ట్టు', '|'), ('వా', 'U'), ('డు', '|'), ('న', '|'), ('య', '|'), ('మై', 'U'), ('న', '|'), ('నీ', 'U'), ('ది', 'U'), ('వ్య', '|'), ('నా', 'U'), ('మ', '|'), ('కీ', 'U'), ('ర్త', '|'), ('న', '|'), ('లో', 'U'), ('న', '|'), ('మ', 'U'), ('గ్ను', '|'), ('డై', 'U'), ('దే', 'U'), ('హం', 'U'), ('బు', '|'), ('మ', '|'), ('ఱ', '|'), ('చు', '|'), ('వా', 'U'), ('డు', '|'), ('ఫా', 'U'), ('లం', 'U'), ('బు', '|'), ('తో', 'U'), ('నీ', 'U'), ('దు', '|'), ('పా', 'U'), ('ద', '|'), ('యు', 'U'), ('గ్మ', '|'), ('ము', '|'), ('న', '|'), ('కు', 'U'), ('బ్రే', 'U'), ('మ', '|'), ('తో', 'U'), ('దం', 'U'), ('డ', '|'), ('మ', 'U'), ('ర్పిం', 'U'), ('చు', '|'), ('వా', 'U'), ('డు', '|'), ('హా', 'U'), ('పుం', 'U'), ('డ', '|'), ('రీ', 'U'), ('కా', 'U'), ('క్ష', '|'), ('హా', 'U'), ('రా', 'U'), ('మ', '|'), ('హ', '|'), ('రి', '|'), ('యం', 'U'), ('చు', '|'), ('వే', 'U'), ('డ్క', '|'), ('తో', 'U'), ('గే', 'U'), ('క', '|'), ('లు', '|'), ('వే', 'U'), ('యు', '|'), ('వా', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>చిత్తకమలంబునను నిన్నుఁ జేర్చువాఁడు - నీదు లోకంబు నందుండు నీరజాక్ష!
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>చిత్తకమలంబునను నిన్నుఁ జేర్చువాఁడు - నీదు లోకంబు నందుండు నీరజాక్ష!
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
           <t>[('చి', 'U'), ('త్త', '|'), ('క', '|'), ('మ', '|'), ('లం', 'U'), ('బు', '|'), ('న', '|'), ('ను', '|'), ('ని', 'U'), ('న్ను', '|'), ('జే', 'U'), ('ర్చు', '|'), ('వా', 'U'), ('డు', '|'), ('నీ', 'U'), ('దు', '|'), ('లో', 'U'), ('కం', 'U'), ('బు', '|'), ('నం', 'U'), ('దుం', 'U'), ('డు', '|'), ('నీ', 'U'), ('ర', '|'), ('జా', 'U'), ('క్ష', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B184" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
         <is>
           <t>నిగమగోచర! నేను నీకు మెప్పగునట్లు - లెస్సగాఁ బూజింపలేను సుమ్మి
 నాకుఁ దోఁచిన భూషణములు పెట్టెదనన్నఁ - గౌస్తుభమణి నీకుఁ గలదు ముందె
@@ -6301,63 +5752,57 @@
 గలిమికొలదిగఁ గానుకల నొసంగెద నన్న - భార్గవీదేవి నీ భార్యయయ్యె</t>
         </is>
       </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('గ', '|'), ('మ', '|'), ('గో', 'U'), ('చ', '|'), ('ర', '|'), ('నే', 'U'), ('ను', '|'), ('నీ', 'U'), ('కు', '|'), ('మె', 'U'), ('ప్ప', '|'), ('గు', '|'), ('న', 'U'), ('ట్లు', '|'), ('లె', 'U'), ('స్స', '|'), ('గా', 'U'), ('బూ', 'U'), ('జిం', 'U'), ('ప', '|'), ('లే', 'U'), ('ను', '|'), ('సు', 'U'), ('మ్మి', '|'), ('నా', 'U'), ('కు', '|'), ('దో', 'U'), ('చి', '|'), ('న', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('పె', 'U'), ('ట్టె', '|'), ('ద', '|'), ('న', 'U'), ('న్న', '|'), ('గౌ', 'U'), ('స్తు', '|'), ('భ', '|'), ('మ', '|'), ('ణి', '|'), ('నీ', 'U'), ('కు', '|'), ('గ', '|'), ('ల', '|'), ('దు', '|'), ('ముం', 'U'), ('దె', '|'), ('భ', 'U'), ('క్ష్య', '|'), ('భో', 'U'), ('జ్య', '|'), ('ము', '|'), ('ల', '|'), ('న', 'U'), ('ర్ప', '|'), ('ణ', '|'), ('ము', '|'), ('జే', 'U'), ('సె', '|'), ('ద', '|'), ('న', 'U'), ('న్న', '|'), ('నీ', 'U'), ('వు', '|'), ('పె', 'U'), ('ట్టి', '|'), ('తి', '|'), ('సు', '|'), ('ధ', '|'), ('ని', 'U'), ('ర్జ', '|'), ('రు', '|'), ('ల', '|'), ('కు', '|'), ('గ', '|'), ('లి', '|'), ('మి', '|'), ('కొ', '|'), ('ల', '|'), ('ది', '|'), ('గ', '|'), ('గా', 'U'), ('ను', '|'), ('క', '|'), ('ల', '|'), ('నొ', '|'), ('సం', 'U'), ('గె', '|'), ('ద', '|'), ('న', 'U'), ('న్న', '|'), ('భా', 'U'), ('ర్గ', '|'), ('వీ', 'U'), ('దే', 'U'), ('వి', '|'), ('నీ', 'U'), ('భా', 'U'), ('ర్య', '|'), ('య', 'U'), ('య్యె', '|')]</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నన్ని గలవాఁడ వఖిల లోకాధిపతివి! - నీకు సొమ్ములు పెట్ట నేనెంతవాఁడ!
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>నన్ని గలవాఁడ వఖిల లోకాధిపతివి! - నీకు సొమ్ములు పెట్ట నేనెంతవాఁడ!
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
           <t>[('న', 'U'), ('న్ని', '|'), ('గ', '|'), ('ల', '|'), ('వా', 'U'), ('డ', '|'), ('వ', '|'), ('ఖి', '|'), ('ల', '|'), ('లో', 'U'), ('కా', 'U'), ('ధి', '|'), ('ప', '|'), ('తి', '|'), ('వి', '|'), ('నీ', 'U'), ('కు', '|'), ('సొ', 'U'), ('మ్ము', '|'), ('లు', '|'), ('పె', 'U'), ('ట్ట', '|'), ('నే', 'U'), ('నెం', 'U'), ('త', '|'), ('వా', 'U'), ('డ', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B186" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
         <is>
           <t>నవ సరోజదళాక్ష! నన్నుఁ బోషించెడు - దాతవు నీవంచు ధైర్యపడితి
 నా మనంబున నిన్ను నమ్మినందుకుఁ దండ్రి! - మేలు నా కొనరింపు నీలదేహ!
@@ -6365,63 +5810,57 @@
 ముందుఁ జేసిన పాపమును నశింపఁగఁ జేసి - నిర్వహింపుము నన్ను నేర్పుతోడఁ</t>
         </is>
       </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('వ', '|'), ('స', '|'), ('రో', 'U'), ('జ', '|'), ('ద', '|'), ('ళా', 'U'), ('క్ష', '|'), ('న', 'U'), ('న్ను', '|'), ('బో', 'U'), ('షిం', 'U'), ('చె', '|'), ('డు', '|'), ('దా', 'U'), ('త', '|'), ('వు', '|'), ('నీ', 'U'), ('వం', 'U'), ('చు', '|'), ('ధై', 'U'), ('ర్య', '|'), ('ప', '|'), ('డి', '|'), ('తి', '|'), ('నా', 'U'), ('మ', '|'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('ని', 'U'), ('న్ను', '|'), ('న', 'U'), ('మ్మి', '|'), ('నం', 'U'), ('దు', '|'), ('కు', '|'), ('దం', 'U'), ('డ్రి', '|'), ('మే', 'U'), ('లు', '|'), ('నా', 'U'), ('కొ', '|'), ('న', '|'), ('రిం', 'U'), ('పు', '|'), ('నీ', 'U'), ('ల', '|'), ('దే', 'U'), ('హ', '|'), ('భ', '|'), ('ళి', '|'), ('భ', '|'), ('ళీ', 'U'), ('నీ', 'U'), ('యం', 'U'), ('త', 'U'), ('ప్ర', '|'), ('భు', '|'), ('వు', '|'), ('నె', 'U'), ('క్క', '|'), ('డ', '|'), ('జూ', 'U'), ('డ', '|'), ('బు', '|'), ('డ', '|'), ('మి', '|'), ('లో', 'U'), ('నీ', 'U'), ('పే', 'U'), ('రు', '|'), ('పొ', '|'), ('గ', '|'), ('డ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ముం', 'U'), ('దు', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('పా', 'U'), ('ప', '|'), ('ము', '|'), ('ను', '|'), ('న', '|'), ('శిం', 'U'), ('ప', '|'), ('గ', '|'), ('జే', 'U'), ('సి', '|'), ('ని', 'U'), ('ర్వ', '|'), ('హిం', 'U'), ('పు', '|'), ('ము', '|'), ('న', 'U'), ('న్ను', '|'), ('నే', 'U'), ('ర్పు', '|'), ('తో', 'U'), ('డ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>బరమ సంతోషమాయె నా ప్రాణములకు - నీ ఋణము దీర్చుకొననేర నీరజాక్ష!
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>బరమ సంతోషమాయె నా ప్రాణములకు - నీ ఋణము దీర్చుకొననేర నీరజాక్ష!
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('ర', '|'), ('మ', '|'), ('సం', 'U'), ('తో', 'U'), ('ష', '|'), ('మా', 'U'), ('యె', '|'), ('నా', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('ల', '|'), ('కు', '|'), ('నీ', 'U'), ('ఋ', '|'), ('ణ', '|'), ('ము', '|'), ('దీ', 'U'), ('ర్చు', '|'), ('కొ', '|'), ('న', '|'), ('నే', 'U'), ('ర', '|'), ('నీ', 'U'), ('ర', '|'), ('జా', 'U'), ('క్ష', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B188" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
         <is>
           <t>ఫణుల పుట్టల మీఁదఁ బవ్వళించిన యట్లు - పులుల గుంపునఁ జేరఁబోయిన యట్లు
 మకరి వర్గంబున్న మడుఁగుఁ జొచ్చినయట్లు - గంగ దాపున నిండ్లు గట్టినట్లు
@@ -6429,63 +5868,57 @@
 వెఱ్ఱివానికిఁ బహువిత్త మిచ్చినయట్లు - కమ్మగుడిసె మందుఁ గాల్చినట్లు</t>
         </is>
       </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
           <t>[('ఫ', '|'), ('ణు', '|'), ('ల', '|'), ('పు', 'U'), ('ట్ట', '|'), ('ల', '|'), ('మీ', 'U'), ('ద', '|'), ('బ', 'U'), ('వ్వ', '|'), ('ళిం', 'U'), ('చి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('పు', '|'), ('లు', '|'), ('ల', '|'), ('గుం', 'U'), ('పు', '|'), ('న', '|'), ('జే', 'U'), ('ర', '|'), ('బో', 'U'), ('యి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('మ', '|'), ('క', '|'), ('రి', '|'), ('వ', 'U'), ('ర్గం', 'U'), ('బు', 'U'), ('న్న', '|'), ('మ', '|'), ('డు', '|'), ('గు', '|'), ('జొ', 'U'), ('చ్చి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('గం', 'U'), ('గ', '|'), ('దా', 'U'), ('పు', '|'), ('న', '|'), ('నిం', 'U'), ('డ్లు', '|'), ('గ', 'U'), ('ట్టి', '|'), ('న', 'U'), ('ట్లు', '|'), ('చె', '|'), ('ద', '|'), ('ల', '|'), ('భూ', 'U'), ('మి', '|'), ('ని', '|'), ('చె', '|'), ('ర', '|'), ('గు', '|'), ('చా', 'U'), ('ప', '|'), ('బ', '|'), ('ఱ', '|'), ('చి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('ఓ', 'U'), ('టి', '|'), ('బిం', 'U'), ('దె', '|'), ('ల', '|'), ('బా', 'U'), ('ల', '|'), ('ను', '|'), ('ని', '|'), ('చి', '|'), ('న', 'U'), ('ట్లు', '|'), ('వె', 'U'), ('ఱ్ఱి', '|'), ('వా', 'U'), ('ని', '|'), ('కి', '|'), ('బ', '|'), ('హు', '|'), ('వి', 'U'), ('త్త', '|'), ('మి', 'U'), ('చ్చి', '|'), ('న', '|'), ('య', 'U'), ('ట్లు', '|'), ('క', 'U'), ('మ్మ', '|'), ('గు', '|'), ('డి', '|'), ('సె', '|'), ('మం', 'U'), ('దు', '|'), ('గా', 'U'), ('ల్చి', '|'), ('న', 'U'), ('ట్లు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>స్వామి నీ భక్తవరులు దుర్జనులతోడఁ - జెలిమిఁ జేసిన యట్లైనఁ జేటు వచ్చు
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>స్వామి నీ భక్తవరులు దుర్జనులతోడఁ - జెలిమిఁ జేసిన యట్లైనఁ జేటు వచ్చు
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
           <t>[('స్వా', 'U'), ('మి', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్త', '|'), ('వ', '|'), ('రు', '|'), ('లు', '|'), ('దు', 'U'), ('ర్జ', '|'), ('ను', '|'), ('ల', '|'), ('తో', 'U'), ('డ', '|'), ('జె', '|'), ('లి', '|'), ('మి', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('య', 'U'), ('ట్లై', 'U'), ('న', '|'), ('జే', 'U'), ('టు', '|'), ('వ', 'U'), ('చ్చు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B190" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
         <is>
           <t>దనుజసంహార! చక్రధర! నీకు దండంబు - లిందిరాధిప! నీకు వందనంబు
 పతితపావన! నీకు బహునమస్కారముల్‌ - నీరజాతదళాక్ష! నీకు శరణు
@@ -6493,63 +5926,57 @@
 కంబుకంధర! శార్ఙ్గకర! నీకు భద్రంబు - దీనరక్షక! నీకు దిగ్విజయము</t>
         </is>
       </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
           <t>[('ద', '|'), ('ను', '|'), ('జ', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('చ', 'U'), ('క్ర', '|'), ('ధ', '|'), ('ర', '|'), ('నీ', 'U'), ('కు', '|'), ('దం', 'U'), ('డం', 'U'), ('బు', '|'), ('లిం', 'U'), ('ది', '|'), ('రా', 'U'), ('ధి', '|'), ('ప', '|'), ('నీ', 'U'), ('కు', '|'), ('వం', 'U'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('ప', '|'), ('తి', '|'), ('త', '|'), ('పా', 'U'), ('వ', '|'), ('న', '|'), ('నీ', 'U'), ('కు', '|'), ('బ', '|'), ('హు', '|'), ('న', '|'), ('మ', 'U'), ('స్కా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('నీ', 'U'), ('ర', '|'), ('జా', 'U'), ('త', '|'), ('ద', '|'), ('ళా', 'U'), ('క్ష', '|'), ('నీ', 'U'), ('కు', '|'), ('శ', '|'), ('ర', '|'), ('ణు', '|'), ('వా', 'U'), ('స', '|'), ('వా', 'U'), ('ర్చి', '|'), ('త', '|'), ('మే', 'U'), ('ఘ', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('నీ', 'U'), ('కు', '|'), ('శు', '|'), ('భం', 'U'), ('బు', '|'), ('మం', 'U'), ('ద', '|'), ('ర', '|'), ('ధ', '|'), ('ర', '|'), ('నీ', 'U'), ('కు', '|'), ('మం', 'U'), ('గ', '|'), ('ళం', 'U'), ('బు', '|'), ('కం', 'U'), ('బు', '|'), ('కం', 'U'), ('ధ', '|'), ('ర', '|'), ('శా', 'U'), ('ర్ఙ్గ', '|'), ('క', '|'), ('ర', '|'), ('నీ', 'U'), ('కు', '|'), ('భ', '|'), ('ద్రం', 'U'), ('బు', '|'), ('దీ', 'U'), ('న', '|'), ('ర', 'U'), ('క్ష', '|'), ('క', '|'), ('నీ', 'U'), ('కు', '|'), ('ది', 'U'), ('గ్వి', '|'), ('జ', '|'), ('య', '|'), ('ము', '|')]</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>సకలవైభవములు నీకు సార్వభౌమ! - నిత్యకల్యాణములు నగు నీకు నెపుడు
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>సకలవైభవములు నీకు సార్వభౌమ! - నిత్యకల్యాణములు నగు నీకు నెపుడు
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('క', '|'), ('ల', '|'), ('వై', 'U'), ('భ', '|'), ('వ', '|'), ('ము', '|'), ('లు', '|'), ('నీ', 'U'), ('కు', '|'), ('సా', 'U'), ('ర్వ', '|'), ('భౌ', 'U'), ('మ', '|'), ('ని', 'U'), ('త్య', '|'), ('క', 'U'), ('ల్యా', 'U'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('న', '|'), ('గు', '|'), ('నీ', 'U'), ('కు', '|'), ('నె', '|'), ('పు', '|'), ('డు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B192" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
         <is>
           <t>మత్స్యావతారమై మడుఁగులోపలఁ జొచ్చి - సోమకాసురుఁ ద్రుంచి చోద్యముగను
 దెచ్చి వేదములెల్ల మెచ్చ దేవతలెల్ల - బ్రహ్మకిచ్చితి వీవు భళి! యనంగ
@@ -6557,63 +5984,57 @@
 సకలపాపంబులు సమసిపోవు నటంచు - మనుజులందఱు నీదు మహిమఁ దెలిసి</t>
         </is>
       </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
           <t>[('మ', 'U'), ('త్స్యా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('మై', 'U'), ('మ', '|'), ('డు', '|'), ('గు', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('జొ', 'U'), ('చ్చి', '|'), ('సో', 'U'), ('మ', '|'), ('కా', 'U'), ('సు', '|'), ('రు', '|'), ('ద్రుం', 'U'), ('చి', '|'), ('చో', 'U'), ('ద్య', '|'), ('ము', '|'), ('గ', '|'), ('ను', '|'), ('దె', 'U'), ('చ్చి', '|'), ('వే', 'U'), ('ద', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('మె', 'U'), ('చ్చ', '|'), ('దే', 'U'), ('వ', '|'), ('త', '|'), ('లె', 'U'), ('ల్ల', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('కి', 'U'), ('చ్చి', '|'), ('తి', '|'), ('వీ', 'U'), ('వు', '|'), ('భ', '|'), ('ళి', '|'), ('య', '|'), ('నం', 'U'), ('గ', '|'), ('నా', 'U'), ('వే', 'U'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('ని', 'U'), ('య్య', '|'), ('నా', 'U'), ('చా', 'U'), ('ర', '|'), ('ని', 'U'), ('ష్ఠ', '|'), ('ల', '|'), ('న', '|'), ('ను', '|'), ('భ', '|'), ('విం', 'U'), ('చు', '|'), ('చు', '|'), ('నుం', 'U'), ('దు', '|'), ('ర', '|'), ('వ', '|'), ('ని', '|'), ('సు', '|'), ('రు', '|'), ('లు', '|'), ('స', '|'), ('క', '|'), ('ల', '|'), ('పా', 'U'), ('పం', 'U'), ('బు', '|'), ('లు', '|'), ('స', '|'), ('మ', '|'), ('సి', '|'), ('పో', 'U'), ('వు', '|'), ('న', '|'), ('టం', 'U'), ('చు', '|'), ('మ', '|'), ('ను', '|'), ('జు', '|'), ('లం', 'U'), ('ద', '|'), ('ఱు', '|'), ('నీ', 'U'), ('దు', '|'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('దె', '|'), ('లి', '|'), ('సి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యుందు రరవిందనయన! నీయునికిఁ దెలియు - వారలకు వేగ మోక్షంబు వచ్చు ననఘ!
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>యుందు రరవిందనయన! నీయునికిఁ దెలియు - వారలకు వేగ మోక్షంబు వచ్చు ననఘ!
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
           <t>[('యుం', 'U'), ('దు', '|'), ('ర', '|'), ('ర', '|'), ('విం', 'U'), ('ద', '|'), ('న', '|'), ('య', '|'), ('న', '|'), ('నీ', 'U'), ('యు', '|'), ('ని', '|'), ('కి', '|'), ('దె', '|'), ('లి', '|'), ('యు', '|'), ('వా', 'U'), ('ర', '|'), ('ల', '|'), ('కు', '|'), ('వే', 'U'), ('గ', '|'), ('మో', 'U'), ('క్షం', 'U'), ('బు', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', '|'), ('న', '|'), ('ఘ', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B194" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
         <is>
           <t>కూర్మావతారమై కుధరంబు క్రిందను - గోర్కెతో నుండవా కొమరు మిగుల?
 వరాహావతారమై వనభూములను జొచ్చి - శిక్షింపవా హిరణ్యాక్షు నపుడు?
@@ -6621,63 +6042,57 @@
 వామనరూపమై వసుధలో బలిచక్ర - వర్తి నణంపవా వైర ముడిగి?</t>
         </is>
       </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
           <t>[('కూ', 'U'), ('ర్మా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('మై', 'U'), ('కు', '|'), ('ధ', '|'), ('రం', 'U'), ('బు', 'U'), ('క్రిం', 'U'), ('ద', '|'), ('ను', '|'), ('గో', 'U'), ('ర్కె', '|'), ('తో', 'U'), ('నుం', 'U'), ('డ', '|'), ('వా', 'U'), ('కొ', '|'), ('మ', '|'), ('రు', '|'), ('మి', '|'), ('గు', '|'), ('ల', '|'), ('వ', '|'), ('రా', 'U'), ('హా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('మై', 'U'), ('వ', '|'), ('న', '|'), ('భూ', 'U'), ('ము', '|'), ('ల', '|'), ('ను', '|'), ('జొ', 'U'), ('చ్చి', '|'), ('శి', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('వా', 'U'), ('హి', '|'), ('ర', 'U'), ('ణ్యా', 'U'), ('క్షు', '|'), ('న', '|'), ('పు', '|'), ('డు', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వై', 'U'), ('న', '|'), ('ర', '|'), ('భో', 'U'), ('జ', '|'), ('ను', '|'), ('హి', '|'), ('ర', 'U'), ('ణ్య', '|'), ('క', '|'), ('శి', '|'), ('పు', '|'), ('ని', '|'), ('ద్రుం', 'U'), ('ప', '|'), ('వా', 'U'), ('కాం', 'U'), ('తి', '|'), ('మీ', 'U'), ('ఱ', '|'), ('వా', 'U'), ('మ', '|'), ('న', '|'), ('రూ', 'U'), ('ప', '|'), ('మై', 'U'), ('వ', '|'), ('సు', '|'), ('ధ', '|'), ('లో', 'U'), ('బ', '|'), ('లి', '|'), ('చ', 'U'), ('క్ర', '|'), ('వ', 'U'), ('ర్తి', '|'), ('న', '|'), ('ణం', 'U'), ('ప', '|'), ('వా', 'U'), ('వై', 'U'), ('ర', '|'), ('ము', '|'), ('డి', '|'), ('గి', '|')]</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>యిట్టి పనులెల్లఁ జేయఁగా నెవరికేని - తగునె నరసింహ! నీ కిది దగును గాక!
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>యిట్టి పనులెల్లఁ జేయఁగా నెవరికేని - తగునె నరసింహ! నీ కిది దగును గాక!
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
           <t>[('యి', 'U'), ('ట్టి', '|'), ('ప', '|'), ('ను', '|'), ('లె', 'U'), ('ల్ల', '|'), ('జే', 'U'), ('య', '|'), ('గా', 'U'), ('నె', '|'), ('వ', '|'), ('రి', '|'), ('కే', 'U'), ('ని', '|'), ('త', '|'), ('గు', '|'), ('నె', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('నీ', 'U'), ('కి', '|'), ('ది', '|'), ('ద', '|'), ('గు', '|'), ('ను', '|'), ('గా', 'U'), ('క', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B196" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
         <is>
           <t>లక్ష్మీశ! నీ దివ్యలక్షణ గుణముల - వినఁజాల కెప్పుడు వెఱ్ఱినైతి
 నావెఱ్ఱిగుణములు నయముగా ఖండించి - నన్ను రక్షింపుమో నళిననేత్ర!
@@ -6685,63 +6100,57 @@
 కాపాడినను నీవె కష్టపెట్టిన నీవె - నీ పాదకమలముల్‌ నిరత మేను</t>
         </is>
       </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
           <t>[('ల', 'U'), ('క్ష్మీ', 'U'), ('శ', '|'), ('నీ', 'U'), ('ది', 'U'), ('వ్య', '|'), ('ల', 'U'), ('క్ష', '|'), ('ణ', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('ల', '|'), ('వి', '|'), ('న', '|'), ('జా', 'U'), ('ల', '|'), ('కె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('వె', 'U'), ('ఱ్ఱి', '|'), ('నై', 'U'), ('తి', '|'), ('నా', 'U'), ('వె', 'U'), ('ఱ్ఱి', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('గా', 'U'), ('ఖం', 'U'), ('డిం', 'U'), ('చి', '|'), ('న', 'U'), ('న్ను', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('పు', '|'), ('మో', 'U'), ('న', '|'), ('ళి', '|'), ('న', '|'), ('నే', 'U'), ('త్ర', '|'), ('ని', 'U'), ('న్ను', '|'), ('నే', 'U'), ('న', 'U'), ('మ్మి', '|'), ('తి', '|'), ('ని', '|'), ('త', '|'), ('ర', '|'), ('దై', 'U'), ('వ', '|'), ('ము', '|'), ('ల', '|'), ('నే', 'U'), ('న', 'U'), ('మ్మ', '|'), ('లే', 'U'), ('దె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('నా', 'U'), ('గ', '|'), ('శ', '|'), ('య', '|'), ('న', '|'), ('కా', 'U'), ('పా', 'U'), ('డి', '|'), ('న', '|'), ('ను', '|'), ('నీ', 'U'), ('వె', '|'), ('క', 'U'), ('ష్ట', '|'), ('పె', 'U'), ('ట్టి', '|'), ('న', '|'), ('నీ', 'U'), ('వె', '|'), ('నీ', 'U'), ('పా', 'U'), ('ద', '|'), ('క', '|'), ('మ', '|'), ('ల', '|'), ('ముల్', 'U'), ('ని', '|'), ('ర', '|'), ('త', '|'), ('మే', 'U'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నమ్మియున్నాను నీ పాదనళినభక్తి - వేగ దయచేసి రక్షింపు వేదవిద్య!
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>నమ్మియున్నాను నీ పాదనళినభక్తి - వేగ దయచేసి రక్షింపు వేదవిద్య!
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
           <t>[('న', 'U'), ('మ్మి', '|'), ('యు', 'U'), ('న్నా', 'U'), ('ను', '|'), ('నీ', 'U'), ('పా', 'U'), ('ద', '|'), ('న', '|'), ('ళి', '|'), ('న', '|'), ('భ', 'U'), ('క్తి', '|'), ('వే', 'U'), ('గ', '|'), ('ద', '|'), ('య', '|'), ('చే', 'U'), ('సి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('పు', '|'), ('వే', 'U'), ('ద', '|'), ('వి', 'U'), ('ద్య', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B198" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
         <is>
           <t>అమరేంద్రవినుత! నిన్ననుసరించినవారు - ముక్తిఁ బొందిరి వేగ ముదముతోడ
 నీ పాదపద్మముల్‌ నెఱ నమ్మియున్నాను - నాకు మోక్షంబిమ్ము నళిననేత్ర!
@@ -6749,63 +6158,57 @@
 గాపాడినను నీకుఁ గైంకర్యపరుఁడనై - చెలఁగి నీ పనులను జేయువాఁడ</t>
         </is>
       </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('మ', '|'), ('రేం', 'U'), ('ద్ర', '|'), ('వి', '|'), ('ను', '|'), ('త', '|'), ('ని', 'U'), ('న్న', '|'), ('ను', '|'), ('స', '|'), ('రిం', 'U'), ('చి', '|'), ('న', '|'), ('వా', 'U'), ('రు', '|'), ('ము', 'U'), ('క్తి', '|'), ('బొం', 'U'), ('ది', '|'), ('రి', '|'), ('వే', 'U'), ('గ', '|'), ('ము', '|'), ('ద', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('నీ', 'U'), ('పా', 'U'), ('ద', '|'), ('ప', 'U'), ('ద్మ', '|'), ('ముల్', 'U'), ('నె', '|'), ('ఱ', '|'), ('న', 'U'), ('మ్మి', '|'), ('యు', 'U'), ('న్నా', 'U'), ('ను', '|'), ('నా', 'U'), ('కు', '|'), ('మో', 'U'), ('క్షం', 'U'), ('బి', 'U'), ('మ్ము', '|'), ('న', '|'), ('ళి', '|'), ('న', '|'), ('నే', 'U'), ('త్ర', '|'), ('కా', 'U'), ('చి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చు', '|'), ('నన్', 'U'), ('గ', '|'), ('డ', '|'), ('తే', 'U'), ('ర్చు', '|'), ('వే', 'U'), ('గ', '|'), ('మే', 'U'), ('నీ', 'U'), ('సే', 'U'), ('వ', '|'), ('కు', '|'), ('ని', '|'), ('జే', 'U'), ('యు', '|'), ('ని', 'U'), ('శ్చ', '|'), ('య', '|'), ('ము', '|'), ('గ', '|'), ('గా', 'U'), ('పా', 'U'), ('డి', '|'), ('న', '|'), ('ను', '|'), ('నీ', 'U'), ('కు', '|'), ('గైం', 'U'), ('క', 'U'), ('ర్య', '|'), ('ప', '|'), ('రు', '|'), ('డ', '|'), ('నై', 'U'), ('చె', '|'), ('ల', '|'), ('గి', '|'), ('నీ', 'U'), ('ప', '|'), ('ను', '|'), ('ల', '|'), ('ను', '|'), ('జే', 'U'), ('యు', '|'), ('వా', 'U'), ('డ', '|')]</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>ననుచుఁ బలుమాఱు వేఁడెద నబ్జనాభ! - నాకుఁ బ్రత్యక్ష మగుము నిన్‌ నమ్మినాను
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>ననుచుఁ బలుమాఱు వేఁడెద నబ్జనాభ! - నాకుఁ బ్రత్యక్ష మగుము నిన్‌ నమ్మినాను
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('ను', '|'), ('చు', '|'), ('బ', '|'), ('లు', '|'), ('మా', 'U'), ('ఱు', '|'), ('వే', 'U'), ('డె', '|'), ('ద', '|'), ('న', 'U'), ('బ్జ', '|'), ('నా', 'U'), ('భ', '|'), ('నా', 'U'), ('కు', 'U'), ('బ్ర', 'U'), ('త్య', 'U'), ('క్ష', '|'), ('మ', '|'), ('గు', '|'), ('ము', '|'), ('నిన్', 'U'), ('న', 'U'), ('మ్మి', '|'), ('నా', 'U'), ('ను', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>seesamu</t>
+        </is>
       </c>
       <c r="B200" t="inlineStr">
-        <is>
-          <t>seesamu</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
         <is>
           <t>శేషప్ప యను కవిచెప్పిన పద్యముల్‌ - చెవుల కానందమై చెలఁగుచుండు
 నే మనుజుండైన నెలమి నీ శతకంబు - భక్తితో విన్న సత్ఫలము గలుగుఁ
@@ -6813,48 +6216,45 @@
 నింపుగాఁ బుస్తకంబెపుడుఁ బూజించిన - దురితజాలంబులు దొలఁగిపోవు</t>
         </is>
       </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>vupajaathi</t>
+        </is>
+      </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
           <t>[('శే', 'U'), ('ష', 'U'), ('ప్ప', '|'), ('య', '|'), ('ను', '|'), ('క', '|'), ('వి', '|'), ('చె', 'U'), ('ప్పి', '|'), ('న', '|'), ('ప', 'U'), ('ద్య', '|'), ('ముల్', 'U'), ('చె', '|'), ('వు', '|'), ('ల', '|'), ('కా', 'U'), ('నం', 'U'), ('ద', '|'), ('మై', 'U'), ('చె', '|'), ('ల', '|'), ('గు', '|'), ('చుం', 'U'), ('డు', '|'), ('నే', 'U'), ('మ', '|'), ('ను', '|'), ('జుం', 'U'), ('డై', 'U'), ('న', '|'), ('నె', '|'), ('ల', '|'), ('మి', '|'), ('నీ', 'U'), ('శ', '|'), ('త', '|'), ('కం', 'U'), ('బు', '|'), ('భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('వి', 'U'), ('న్న', '|'), ('స', 'U'), ('త్ఫ', '|'), ('ల', '|'), ('ము', '|'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('జె', '|'), ('ల', '|'), ('గి', '|'), ('యీ', 'U'), ('ప', 'U'), ('ద్య', '|'), ('ముల్', 'U'), ('చే', 'U'), ('ర్చి', 'U'), ('వ్రా', 'U'), ('సి', '|'), ('న', '|'), ('వా', 'U'), ('రు', '|'), ('క', '|'), ('మ', '|'), ('లా', 'U'), ('క్షు', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('ను', '|'), ('గాం', 'U'), ('తు', '|'), ('రె', '|'), ('పు', '|'), ('డు', '|'), ('నిం', 'U'), ('పు', '|'), ('గా', 'U'), ('బు', 'U'), ('స్త', '|'), ('కం', 'U'), ('బె', '|'), ('పు', '|'), ('డు', '|'), ('బూ', 'U'), ('జిం', 'U'), ('చి', '|'), ('న', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('జా', 'U'), ('లం', 'U'), ('బు', '|'), ('లు', '|'), ('దొ', '|'), ('ల', '|'), ('గి', '|'), ('పో', 'U'), ('వు', '|')]</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>teytageethi</t>
+        </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>teytageethi</t>
+          <t>నిద్ది పుణ్యాకరం బనియెపుడు జనులు - గష్టమెన్నక పఠియింపఁ గలుగు ముక్తి
+భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>నిద్ది పుణ్యాకరం బనియెపుడు జనులు - గష్టమెన్నక పఠియింపఁ గలుగు ముక్తి
-భూషణవికాస! శ్రీధర్మపురనివాస! - దుష్టసంహార! నరసింహ దురితదూర!</t>
+          <t>vupajaathi</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>vupajaathi</t>
+          <t>narasimha</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
-        <is>
-          <t>narasimha</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
         <is>
           <t>[('ని', 'U'), ('ద్ది', '|'), ('పు', 'U'), ('ణ్యా', 'U'), ('క', '|'), ('రం', 'U'), ('బ', '|'), ('ని', '|'), ('యె', '|'), ('పు', '|'), ('డు', '|'), ('జ', '|'), ('ను', '|'), ('లు', '|'), ('గ', 'U'), ('ష్ట', '|'), ('మె', 'U'), ('న్న', '|'), ('క', '|'), ('ప', '|'), ('ఠి', '|'), ('యిం', 'U'), ('ప', '|'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('ము', 'U'), ('క్తి', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', 'U'), ('శ్రీ', 'U'), ('ధ', '|'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>

--- a/dataset/lg/narasimha.xlsx
+++ b/dataset/lg/narasimha.xlsx
@@ -544,7 +544,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('ప', 'U'), ('ద్మ', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('సీ', 'U'), ('స', '|'), ('ప', 'U'), ('ద్య', '|'), ('ముల్', 'U'), ('నీ', 'U'), ('మీ', 'U'), ('ద', '|'), ('జె', 'U'), ('ప్ప', '|'), ('బూ', 'U'), ('ని', '|'), ('తి', '|'), ('న', 'U'), ('య్య', '|'), ('చి', 'U'), ('త్త', '|'), ('గిం', 'U'), ('పు', '|'), ('గ', '|'), ('ణ', '|'), ('య', '|'), ('తి', '|'), ('ప్రా', 'U'), ('స', '|'), ('ల', 'U'), ('క్ష', '|'), ('ణ', '|'), ('ము', '|'), ('జూ', 'U'), ('డ', '|'), ('గ', '|'), ('లే', 'U'), ('దు', '|'), ('పం', 'U'), ('చ', '|'), ('కా', 'U'), ('వ్య', 'U'), ('శ్లో', 'U'), ('క', '|'), ('ప', '|'), ('ఠ', '|'), ('న', '|'), ('లే', 'U'), ('దు', '|'), ('అ', '|'), ('మ', '|'), ('ర', '|'), ('కాం', 'U'), ('డ', '|'), ('త్ర', '|'), ('యం', 'U'), ('బ', '|'), ('ర', '|'), ('సి', '|'), ('చూ', 'U'), ('డ', '|'), ('గ', '|'), ('లే', 'U'), ('దు', '|'), ('శా', 'U'), ('స్త్రీ', 'U'), ('య', '|'), ('గ్రం', 'U'), ('థ', '|'), ('ముల్', 'U'), ('చ', '|'), ('దు', '|'), ('వ', '|'), ('లే', 'U'), ('దు', '|'), ('నీ', 'U'), ('క', '|'), ('టా', 'U'), ('క్షం', 'U'), ('బు', '|'), ('న', '|'), ('నే', 'U'), ('ర', '|'), ('చిం', 'U'), ('చె', '|'), ('ద', '|'), ('గా', 'U'), ('ని', '|'), ('ప్ర', 'U'), ('జ్ఞ', '|'), ('నా', 'U'), ('య', '|'), ('ది', '|'), ('గా', 'U'), ('దు', '|'), ('ప్ర', 'U'), ('స్తు', '|'), ('తిం', 'U'), ('ప', '|')]</t>
+          <t>[('ప', 'U'), ('ద్మ', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('సీ', 'U'), ('స', '|'), ('ప', 'U'), ('ద్య', '|'), ('ము', 'U'), ('ల్నీ', 'U'), ('మీ', 'U'), ('ద', '|'), ('జె', 'U'), ('ప్ప', '|'), ('బూ', 'U'), ('ని', '|'), ('తి', '|'), ('న', 'U'), ('య్య', '|'), ('చి', 'U'), ('త్త', '|'), ('గిం', 'U'), ('పు', '|'), ('గ', '|'), ('ణ', '|'), ('య', '|'), ('తి', '|'), ('ప్రా', 'U'), ('స', '|'), ('ల', 'U'), ('క్ష', '|'), ('ణ', '|'), ('ము', '|'), ('జూ', 'U'), ('డ', '|'), ('గ', '|'), ('లే', 'U'), ('దు', '|'), ('పం', 'U'), ('చ', '|'), ('కా', 'U'), ('వ్య', 'U'), ('శ్లో', 'U'), ('క', '|'), ('ప', '|'), ('ఠ', '|'), ('న', '|'), ('లే', 'U'), ('దు', '|'), ('అ', '|'), ('మ', '|'), ('ర', '|'), ('కాం', 'U'), ('డ', '|'), ('త్ర', '|'), ('యం', 'U'), ('బ', '|'), ('ర', '|'), ('సి', '|'), ('చూ', 'U'), ('డ', '|'), ('గ', '|'), ('లే', 'U'), ('దు', '|'), ('శా', 'U'), ('స్త్రీ', 'U'), ('య', '|'), ('గ్రం', 'U'), ('థ', '|'), ('ము', 'U'), ('ల్చ', '|'), ('దు', '|'), ('వ', '|'), ('లే', 'U'), ('దు', '|'), ('నీ', 'U'), ('క', '|'), ('టా', 'U'), ('క్షం', 'U'), ('బు', '|'), ('న', '|'), ('నే', 'U'), ('ర', '|'), ('చిం', 'U'), ('చె', '|'), ('ద', '|'), ('గా', 'U'), ('ని', '|'), ('ప్ర', 'U'), ('జ్ఞ', '|'), ('నా', 'U'), ('య', '|'), ('ది', '|'), ('గా', 'U'), ('దు', '|'), ('ప్ర', 'U'), ('స్తు', '|'), ('తిం', 'U'), ('ప', '|')]</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('నీ', 'U'), ('ది', 'U'), ('వ్య', '|'), ('నా', 'U'), ('మ', '|'), ('మం', 'U'), ('త్ర', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('జా', 'U'), ('ల', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('ద్రో', 'U'), ('ల', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('నీ', 'U'), ('ది', 'U'), ('వ్య', '|'), ('నా', 'U'), ('మ', '|'), ('మం', 'U'), ('త్ర', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('బ', '|'), ('లు', '|'), ('వై', 'U'), ('న', '|'), ('రో', 'U'), ('గ', '|'), ('ముల్', 'U'), ('బా', 'U'), ('ప', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('నీ', 'U'), ('ది', 'U'), ('వ్య', '|'), ('నా', 'U'), ('మ', '|'), ('మం', 'U'), ('త్ర', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('రి', '|'), ('పు', '|'), ('సం', 'U'), ('ఘ', '|'), ('ము', '|'), ('ల', '|'), ('సం', 'U'), ('హ', '|'), ('రిం', 'U'), ('ప', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('నీ', 'U'), ('ది', 'U'), ('వ్య', '|'), ('నా', 'U'), ('మ', '|'), ('మం', 'U'), ('త్ర', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('దం', 'U'), ('డ', '|'), ('హ', 'U'), ('స్తు', '|'), ('ని', '|'), ('బం', 'U'), ('ట్ల', '|'), ('ద', '|'), ('ఱు', '|'), ('మ', '|'), ('వ', 'U'), ('చ్చు', '|')]</t>
+          <t>[('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('నీ', 'U'), ('ది', 'U'), ('వ్య', '|'), ('నా', 'U'), ('మ', '|'), ('మం', 'U'), ('త్ర', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('జా', 'U'), ('ల', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('ద్రో', 'U'), ('ల', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('నీ', 'U'), ('ది', 'U'), ('వ్య', '|'), ('నా', 'U'), ('మ', '|'), ('మం', 'U'), ('త్ర', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('బ', '|'), ('లు', '|'), ('వై', 'U'), ('న', '|'), ('రో', 'U'), ('గ', '|'), ('ము', 'U'), ('ల్బా', 'U'), ('ప', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('నీ', 'U'), ('ది', 'U'), ('వ్య', '|'), ('నా', 'U'), ('మ', '|'), ('మం', 'U'), ('త్ర', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('రి', '|'), ('పు', '|'), ('సం', 'U'), ('ఘ', '|'), ('ము', '|'), ('ల', '|'), ('సం', 'U'), ('హ', '|'), ('రిం', 'U'), ('ప', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('నీ', 'U'), ('ది', 'U'), ('వ్య', '|'), ('నా', 'U'), ('మ', '|'), ('మం', 'U'), ('త్ర', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('దం', 'U'), ('డ', '|'), ('హ', 'U'), ('స్తు', '|'), ('ని', '|'), ('బం', 'U'), ('ట్ల', '|'), ('ద', '|'), ('ఱు', '|'), ('మ', '|'), ('వ', 'U'), ('చ్చు', '|')]</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('శ్ర', '|'), ('వ', '|'), ('ణ', '|'), ('రం', 'U'), ('ధ్ర', '|'), ('ము', '|'), ('ల', '|'), ('నీ', 'U'), ('స', 'U'), ('త్క', '|'), ('థల్', 'U'), ('పొ', '|'), ('గ', '|'), ('డం', 'U'), ('గ', '|'), ('లే', 'U'), ('శ', '|'), ('మా', 'U'), ('నం', 'U'), ('దం', 'U'), ('బు', '|'), ('లే', 'U'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('పు', 'U'), ('ణ్య', '|'), ('వం', 'U'), ('తు', '|'), ('లు', '|'), ('ని', 'U'), ('న్ను', '|'), ('బూ', 'U'), ('జ', '|'), ('సే', 'U'), ('య', '|'), ('గ', '|'), ('జూ', 'U'), ('చి', '|'), ('భా', 'U'), ('వ', '|'), ('మం', 'U'), ('దు', 'U'), ('త్సా', 'U'), ('హ', '|'), ('ప', '|'), ('డ', '|'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('భ', 'U'), ('క్త', '|'), ('వ', 'U'), ('ర్యు', '|'), ('లు', '|'), ('నీ', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('ముల్', 'U'), ('పొ', '|'), ('గ', '|'), ('డం', 'U'), ('గ', '|'), ('ద', 'U'), ('త్ప', '|'), ('ర', 'U'), ('త్వ', '|'), ('ము', '|'), ('లే', 'U'), ('క', '|'), ('త', '|'), ('ల', '|'), ('గు', '|'), ('వా', 'U'), ('డు', '|'), ('త', '|'), ('న', '|'), ('చి', 'U'), ('త్త', '|'), ('మం', 'U'), ('దు', '|'), ('నీ', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('మె', 'U'), ('న్న', '|'), ('డు', '|'), ('లే', 'U'), ('క', '|'), ('కా', 'U'), ('ల', '|'), ('మం', 'U'), ('త', '|'), ('యు', '|'), ('వృ', '|'), ('థా', 'U'), ('గ', '|'), ('డు', '|'), ('పు', '|'), ('వా', 'U'), ('డు', '|')]</t>
+          <t>[('శ్ర', '|'), ('వ', '|'), ('ణ', '|'), ('రం', 'U'), ('ధ్ర', '|'), ('ము', '|'), ('ల', '|'), ('నీ', 'U'), ('స', 'U'), ('త్క', '|'), ('థ', 'U'), ('ల్పొ', '|'), ('గ', '|'), ('డం', 'U'), ('గ', '|'), ('లే', 'U'), ('శ', '|'), ('మా', 'U'), ('నం', 'U'), ('దం', 'U'), ('బు', '|'), ('లే', 'U'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('పు', 'U'), ('ణ్య', '|'), ('వం', 'U'), ('తు', '|'), ('లు', '|'), ('ని', 'U'), ('న్ను', '|'), ('బూ', 'U'), ('జ', '|'), ('సే', 'U'), ('య', '|'), ('గ', '|'), ('జూ', 'U'), ('చి', '|'), ('భా', 'U'), ('వ', '|'), ('మం', 'U'), ('దు', 'U'), ('త్సా', 'U'), ('హ', '|'), ('ప', '|'), ('డ', '|'), ('ని', '|'), ('వా', 'U'), ('డు', '|'), ('భ', 'U'), ('క్త', '|'), ('వ', 'U'), ('ర్యు', '|'), ('లు', '|'), ('నీ', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('ము', 'U'), ('ల్పొ', '|'), ('గ', '|'), ('డం', 'U'), ('గ', '|'), ('ద', 'U'), ('త్ప', '|'), ('ర', 'U'), ('త్వ', '|'), ('ము', '|'), ('లే', 'U'), ('క', '|'), ('త', '|'), ('ల', '|'), ('గు', '|'), ('వా', 'U'), ('డు', '|'), ('త', '|'), ('న', '|'), ('చి', 'U'), ('త్త', '|'), ('మం', 'U'), ('దు', '|'), ('నీ', 'U'), ('ధ్యా', 'U'), ('న', '|'), ('మె', 'U'), ('న్న', '|'), ('డు', '|'), ('లే', 'U'), ('క', '|'), ('కా', 'U'), ('ల', '|'), ('మం', 'U'), ('త', '|'), ('యు', '|'), ('వృ', '|'), ('థా', 'U'), ('గ', '|'), ('డు', '|'), ('పు', '|'), ('వా', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[('మా', 'U'), ('న్యం', 'U'), ('బు', '|'), ('లీ', 'U'), ('య', '|'), ('స', '|'), ('మ', 'U'), ('ర్థు', '|'), ('డొ', 'U'), ('క్క', '|'), ('డు', '|'), ('లే', 'U'), ('డు', '|'), ('మా', 'U'), ('న్య', '|'), ('ముల్', 'U'), ('చె', '|'), ('ఱు', '|'), ('ప', '|'), ('స', '|'), ('మ', 'U'), ('ర్థు', '|'), ('లం', 'U'), ('త', '|'), ('యెం', 'U'), ('డి', '|'), ('న', '|'), ('యూ', 'U'), ('ళ్ల', '|'), ('గో', 'U'), ('డె', '|'), ('ఱి', '|'), ('గిం', 'U'), ('ప', '|'), ('డె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('బం', 'U'), ('డి', '|'), ('న', '|'), ('యూ', 'U'), ('ళ్ల', '|'), ('కు', '|'), ('బ్ర', '|'), ('భు', '|'), ('వు', '|'), ('లం', 'U'), ('త', '|'), ('యి', '|'), ('త', '|'), ('డు', '|'), ('పే', 'U'), ('ద', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('నె', '|'), ('ఱి', '|'), ('గిం', 'U'), ('ప', '|'), ('డె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('క', '|'), ('ల', '|'), ('వా', 'U'), ('రి', '|'), ('సి', '|'), ('రు', '|'), ('లె', 'U'), ('న్న', '|'), ('గ', '|'), ('ల', '|'), ('రు', '|'), ('చా', 'U'), ('ల', '|'), ('ద', '|'), ('న', '|'), ('యా', 'U'), ('లి', '|'), ('చే', 'U'), ('ష్ట', '|'), ('ల', '|'), ('త', 'U'), ('ప్పె', 'U'), ('న్న', '|'), ('డె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('బె', '|'), ('ఱ', '|'), ('కాం', 'U'), ('త', '|'), ('ఱం', 'U'), ('కె', 'U'), ('న్న', '|'), ('బె', 'U'), ('ద్ద', '|'), ('లం', 'U'), ('త', '|')]</t>
+          <t>[('మా', 'U'), ('న్యం', 'U'), ('బు', '|'), ('లీ', 'U'), ('య', '|'), ('స', '|'), ('మ', 'U'), ('ర్థు', '|'), ('డొ', 'U'), ('క్క', '|'), ('డు', '|'), ('లే', 'U'), ('డు', '|'), ('మా', 'U'), ('న్య', '|'), ('ము', 'U'), ('ల్చె', '|'), ('ఱు', '|'), ('ప', '|'), ('స', '|'), ('మ', 'U'), ('ర్థు', '|'), ('లం', 'U'), ('త', '|'), ('యెం', 'U'), ('డి', '|'), ('న', '|'), ('యూ', 'U'), ('ళ్ల', '|'), ('గో', 'U'), ('డె', '|'), ('ఱి', '|'), ('గిం', 'U'), ('ప', '|'), ('డె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('బం', 'U'), ('డి', '|'), ('న', '|'), ('యూ', 'U'), ('ళ్ల', '|'), ('కు', '|'), ('బ్ర', '|'), ('భు', '|'), ('వు', '|'), ('లం', 'U'), ('త', '|'), ('యి', '|'), ('త', '|'), ('డు', '|'), ('పే', 'U'), ('ద', '|'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('నె', '|'), ('ఱి', '|'), ('గిం', 'U'), ('ప', '|'), ('డె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('క', '|'), ('ల', '|'), ('వా', 'U'), ('రి', '|'), ('సి', '|'), ('రు', '|'), ('లె', 'U'), ('న్న', '|'), ('గ', '|'), ('ల', '|'), ('రు', '|'), ('చా', 'U'), ('ల', '|'), ('ద', '|'), ('న', '|'), ('యా', 'U'), ('లి', '|'), ('చే', 'U'), ('ష్ట', '|'), ('ల', '|'), ('త', 'U'), ('ప్పె', 'U'), ('న్న', '|'), ('డె', 'U'), ('వ్వ', '|'), ('డు', '|'), ('బె', '|'), ('ఱ', '|'), ('కాం', 'U'), ('త', '|'), ('ఱం', 'U'), ('కె', 'U'), ('న్న', '|'), ('బె', 'U'), ('ద్ద', '|'), ('లం', 'U'), ('త', '|')]</t>
         </is>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('ను', '|'), ('వు', '|'), ('లో', 'U'), ('బ్రా', 'U'), ('ణ', '|'), ('ముల్', 'U'), ('త', 'U'), ('ర్లి', '|'), ('పొ', 'U'), ('య్యె', '|'), ('డి', '|'), ('వే', 'U'), ('ళ', '|'), ('నీ', 'U'), ('స్వ', '|'), ('రూ', 'U'), ('ప', '|'), ('ము', '|'), ('ను', 'U'), ('ధ్యా', 'U'), ('నిం', 'U'), ('చు', '|'), ('న', '|'), ('త', '|'), ('డు', '|'), ('ని', '|'), ('మి', '|'), ('ష', '|'), ('మా', 'U'), ('త్ర', '|'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('ని', 'U'), ('న్ను', '|'), ('జే', 'U'), ('రు', '|'), ('ను', '|'), ('గా', 'U'), ('ని', '|'), ('య', '|'), ('ము', '|'), ('ని', '|'), ('చే', 'U'), ('తి', '|'), ('కి', '|'), ('జి', 'U'), ('క్కి', '|'), ('శ్ర', '|'), ('మ', '|'), ('ల', '|'), ('బ', '|'), ('డ', '|'), ('డు', '|'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('సం', 'U'), ('తో', 'U'), ('షా', 'U'), ('న', '|'), ('భ', '|'), ('జ', '|'), ('న', '|'), ('జే', 'U'), ('సె', '|'), ('డి', '|'), ('వా', 'U'), ('రి', '|'), ('పు', 'U'), ('ణ్య', '|'), ('మే', 'U'), ('మ', '|'), ('న', '|'), ('వ', 'U'), ('చ్చు', '|'), ('భో', 'U'), ('గి', '|'), ('శ', '|'), ('య', '|'), ('న', '|'), ('మో', 'U'), ('క్ష', '|'), ('ము', '|'), ('నీ', 'U'), ('దా', 'U'), ('స', '|'), ('ము', 'U'), ('ఖ్యు', '|'), ('ల', '|'), ('క', '|'), ('గు', '|'), ('గా', 'U'), ('ని', '|'), ('న', '|'), ('ర', '|'), ('క', '|'), ('మె', 'U'), ('క్క', '|'), ('డి', '|'), ('ద', 'U'), ('య్య', '|'), ('న', '|'), ('ళి', '|'), ('న', '|'), ('నే', 'U'), ('త్ర', '|')]</t>
+          <t>[('త', '|'), ('ను', '|'), ('వు', '|'), ('లో', 'U'), ('బ్రా', 'U'), ('ణ', '|'), ('ము', 'U'), ('ల్త', 'U'), ('ర్లి', '|'), ('పొ', 'U'), ('య్యె', '|'), ('డి', '|'), ('వే', 'U'), ('ళ', '|'), ('నీ', 'U'), ('స్వ', '|'), ('రూ', 'U'), ('ప', '|'), ('ము', '|'), ('ను', 'U'), ('ధ్యా', 'U'), ('నిం', 'U'), ('చు', '|'), ('న', '|'), ('త', '|'), ('డు', '|'), ('ని', '|'), ('మి', '|'), ('ష', '|'), ('మా', 'U'), ('త్ర', '|'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('ని', 'U'), ('న్ను', '|'), ('జే', 'U'), ('రు', '|'), ('ను', '|'), ('గా', 'U'), ('ని', '|'), ('య', '|'), ('ము', '|'), ('ని', '|'), ('చే', 'U'), ('తి', '|'), ('కి', '|'), ('జి', 'U'), ('క్కి', '|'), ('శ్ర', '|'), ('మ', '|'), ('ల', '|'), ('బ', '|'), ('డ', '|'), ('డు', '|'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('సం', 'U'), ('తో', 'U'), ('షా', 'U'), ('న', '|'), ('భ', '|'), ('జ', '|'), ('న', '|'), ('జే', 'U'), ('సె', '|'), ('డి', '|'), ('వా', 'U'), ('రి', '|'), ('పు', 'U'), ('ణ్య', '|'), ('మే', 'U'), ('మ', '|'), ('న', '|'), ('వ', 'U'), ('చ్చు', '|'), ('భో', 'U'), ('గి', '|'), ('శ', '|'), ('య', '|'), ('న', '|'), ('మో', 'U'), ('క్ష', '|'), ('ము', '|'), ('నీ', 'U'), ('దా', 'U'), ('స', '|'), ('ము', 'U'), ('ఖ్యు', '|'), ('ల', '|'), ('క', '|'), ('గు', '|'), ('గా', 'U'), ('ని', '|'), ('న', '|'), ('ర', '|'), ('క', '|'), ('మె', 'U'), ('క్క', '|'), ('డి', '|'), ('ద', 'U'), ('య్య', '|'), ('న', '|'), ('ళి', '|'), ('న', '|'), ('నే', 'U'), ('త్ర', '|')]</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[('నీ', 'U'), ('ల', '|'), ('మే', 'U'), ('ఘ', 'U'), ('శ్యా', 'U'), ('మ', '|'), ('నీ', 'U'), ('వె', '|'), ('తం', 'U'), ('డ్రి', '|'), ('వి', '|'), ('మా', 'U'), ('కు', '|'), ('క', '|'), ('మ', '|'), ('ల', '|'), ('వా', 'U'), ('సి', '|'), ('ని', '|'), ('మ', 'U'), ('మ్ము', '|'), ('గ', 'U'), ('న్న', '|'), ('త', 'U'), ('ల్లి', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్త', '|'), ('వ', '|'), ('రు', '|'), ('లం', 'U'), ('త', '|'), ('ని', '|'), ('జ', '|'), ('మై', 'U'), ('న', '|'), ('బాం', 'U'), ('ధ', '|'), ('వుల్', 'U'), ('నీ', 'U'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('ము', '|'), ('మా', 'U'), ('క', '|'), ('నే', 'U'), ('క', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('నీ', 'U'), ('కీ', 'U'), ('ర్త', '|'), ('న', '|'), ('లు', '|'), ('మా', 'U'), ('కు', '|'), ('లో', 'U'), ('క', '|'), ('ప్ర', '|'), ('పం', 'U'), ('చం', 'U'), ('బు', '|'), ('నీ', 'U'), ('స', '|'), ('హా', 'U'), ('య', '|'), ('ము', '|'), ('మా', 'U'), ('కు', '|'), ('ని', 'U'), ('త్య', '|'), ('సు', '|'), ('ఖ', '|'), ('ము', '|'), ('నీ', 'U'), ('మం', 'U'), ('త్ర', '|'), ('మే', 'U'), ('మా', 'U'), ('కు', '|'), ('ని', 'U'), ('ష్క', '|'), ('ళం', 'U'), ('క', '|'), ('పు', '|'), ('వి', 'U'), ('ద్య', '|'), ('నీ', 'U'), ('ప', '|'), ('ద', 'U'), ('ధ్యా', 'U'), ('నం', 'U'), ('బు', '|'), ('ని', 'U'), ('త్య', '|'), ('జ', '|'), ('ప', '|'), ('ము', '|')]</t>
+          <t>[('నీ', 'U'), ('ల', '|'), ('మే', 'U'), ('ఘ', 'U'), ('శ్యా', 'U'), ('మ', '|'), ('నీ', 'U'), ('వె', '|'), ('తం', 'U'), ('డ్రి', '|'), ('వి', '|'), ('మా', 'U'), ('కు', '|'), ('క', '|'), ('మ', '|'), ('ల', '|'), ('వా', 'U'), ('సి', '|'), ('ని', '|'), ('మ', 'U'), ('మ్ము', '|'), ('గ', 'U'), ('న్న', '|'), ('త', 'U'), ('ల్లి', '|'), ('నీ', 'U'), ('భ', 'U'), ('క్త', '|'), ('వ', '|'), ('రు', '|'), ('లం', 'U'), ('త', '|'), ('ని', '|'), ('జ', '|'), ('మై', 'U'), ('న', '|'), ('బాం', 'U'), ('ధ', '|'), ('వు', 'U'), ('ల్నీ', 'U'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('ము', '|'), ('మా', 'U'), ('క', '|'), ('నే', 'U'), ('క', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('నీ', 'U'), ('కీ', 'U'), ('ర్త', '|'), ('న', '|'), ('లు', '|'), ('మా', 'U'), ('కు', '|'), ('లో', 'U'), ('క', '|'), ('ప్ర', '|'), ('పం', 'U'), ('చం', 'U'), ('బు', '|'), ('నీ', 'U'), ('స', '|'), ('హా', 'U'), ('య', '|'), ('ము', '|'), ('మా', 'U'), ('కు', '|'), ('ని', 'U'), ('త్య', '|'), ('సు', '|'), ('ఖ', '|'), ('ము', '|'), ('నీ', 'U'), ('మం', 'U'), ('త్ర', '|'), ('మే', 'U'), ('మా', 'U'), ('కు', '|'), ('ని', 'U'), ('ష్క', '|'), ('ళం', 'U'), ('క', '|'), ('పు', '|'), ('వి', 'U'), ('ద్య', '|'), ('నీ', 'U'), ('ప', '|'), ('ద', 'U'), ('ధ్యా', 'U'), ('నం', 'U'), ('బు', '|'), ('ని', 'U'), ('త్య', '|'), ('జ', '|'), ('ప', '|'), ('ము', '|')]</t>
         </is>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[('బ్ర', '|'), ('తి', '|'), ('కి', '|'), ('న', 'U'), ('న్నా', 'U'), ('ళ్లు', '|'), ('నీ', 'U'), ('భ', '|'), ('జ', '|'), ('న', '|'), ('త', 'U'), ('ప్ప', '|'), ('ను', '|'), ('గా', 'U'), ('ని', '|'), ('మ', '|'), ('ర', '|'), ('ణ', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('మ', '|'), ('ఱ', '|'), ('తు', '|'), ('నే', 'U'), ('మొ', '|'), ('యా', 'U'), ('వే', 'U'), ('ళ', '|'), ('య', '|'), ('మ', '|'), ('దూ', 'U'), ('త', '|'), ('లా', 'U'), ('గ్ర', '|'), ('హం', 'U'), ('బు', '|'), ('న', '|'), ('వ', 'U'), ('చ్చి', '|'), ('ప్రా', 'U'), ('ణ', '|'), ('ముల్', 'U'), ('పె', '|'), ('క', '|'), ('లిం', 'U'), ('చి', '|'), ('ప', 'U'), ('ట్టు', '|'), ('న', '|'), ('పు', '|'), ('డు', '|'), ('క', '|'), ('ఫ', '|'), ('వా', 'U'), ('త', '|'), ('పై', 'U'), ('త్య', '|'), ('ముల్', 'U'), ('గ', 'U'), ('ప్ప', '|'), ('గా', 'U'), ('భ్ర', '|'), ('మ', '|'), ('చే', 'U'), ('త', '|'), ('గం', 'U'), ('ప', '|'), ('ము', 'U'), ('ద్భ', '|'), ('వ', '|'), ('మం', 'U'), ('ది', '|'), ('క', 'U'), ('ష్ట', '|'), ('ప', '|'), ('డు', '|'), ('చు', '|'), ('నా', 'U'), ('జి', 'U'), ('హ్వ', '|'), ('తో', 'U'), ('ని', 'U'), ('న్ను', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U'), ('యం', 'U'), ('చు', '|'), ('బి', '|'), ('లు', '|'), ('తు', '|'), ('నో', 'U'), ('శ్ర', '|'), ('మ', '|'), ('చే', 'U'), ('త', '|'), ('బి', '|'), ('లు', '|'), ('వ', '|'), ('లే', 'U'), ('నో', 'U')]</t>
+          <t>[('బ్ర', '|'), ('తి', '|'), ('కి', '|'), ('న', 'U'), ('న్నా', 'U'), ('ళ్లు', '|'), ('నీ', 'U'), ('భ', '|'), ('జ', '|'), ('న', '|'), ('త', 'U'), ('ప్ప', '|'), ('ను', '|'), ('గా', 'U'), ('ని', '|'), ('మ', '|'), ('ర', '|'), ('ణ', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('మ', '|'), ('ఱ', '|'), ('తు', '|'), ('నే', 'U'), ('మొ', '|'), ('యా', 'U'), ('వే', 'U'), ('ళ', '|'), ('య', '|'), ('మ', '|'), ('దూ', 'U'), ('త', '|'), ('లా', 'U'), ('గ్ర', '|'), ('హం', 'U'), ('బు', '|'), ('న', '|'), ('వ', 'U'), ('చ్చి', '|'), ('ప్రా', 'U'), ('ణ', '|'), ('ము', 'U'), ('ల్పె', '|'), ('క', '|'), ('లిం', 'U'), ('చి', '|'), ('ప', 'U'), ('ట్టు', '|'), ('న', '|'), ('పు', '|'), ('డు', '|'), ('క', '|'), ('ఫ', '|'), ('వా', 'U'), ('త', '|'), ('పై', 'U'), ('త్య', '|'), ('ము', 'U'), ('ల్గ', 'U'), ('ప్ప', '|'), ('గా', 'U'), ('భ్ర', '|'), ('మ', '|'), ('చే', 'U'), ('త', '|'), ('గం', 'U'), ('ప', '|'), ('ము', 'U'), ('ద్భ', '|'), ('వ', '|'), ('మం', 'U'), ('ది', '|'), ('క', 'U'), ('ష్ట', '|'), ('ప', '|'), ('డు', '|'), ('చు', '|'), ('నా', 'U'), ('జి', 'U'), ('హ్వ', '|'), ('తో', 'U'), ('ని', 'U'), ('న్ను', '|'), ('నా', 'U'), ('రా', 'U'), ('య', '|'), ('ణా', 'U'), ('యం', 'U'), ('చు', '|'), ('బి', '|'), ('లు', '|'), ('తు', '|'), ('నో', 'U'), ('శ్ర', '|'), ('మ', '|'), ('చే', 'U'), ('త', '|'), ('బి', '|'), ('లు', '|'), ('వ', '|'), ('లే', 'U'), ('నో', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[('త', 'U'), ('ల్లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('లు', '|'), ('భా', 'U'), ('ర్య', '|'), ('త', '|'), ('న', '|'), ('యు', '|'), ('లా', 'U'), ('ప్తు', '|'), ('లు', '|'), ('బా', 'U'), ('వ', '|'), ('మ', '|'), ('ఱ', '|'), ('దు', '|'), ('ల', 'U'), ('న్న', '|'), ('లు', '|'), ('మే', 'U'), ('న', '|'), ('మా', 'U'), ('మ', '|'), ('గా', 'U'), ('రు', '|'), ('ఘ', '|'), ('న', '|'), ('ము', '|'), ('గా', 'U'), ('బం', 'U'), ('ధు', '|'), ('వుల్', 'U'), ('గ', 'U'), ('ల్గి', '|'), ('న', 'U'), ('ప్ప', '|'), ('టి', '|'), ('కై', 'U'), ('న', '|'), ('దా', 'U'), ('ను', '|'), ('ద', 'U'), ('ర్ల', '|'), ('గ', '|'), ('వెం', 'U'), ('ట', '|'), ('ద', '|'), ('గి', '|'), ('లి', '|'), ('రా', 'U'), ('రు', '|'), ('య', '|'), ('ము', '|'), ('ని', '|'), ('దూ', 'U'), ('త', '|'), ('లు', '|'), ('ప్రా', 'U'), ('ణ', '|'), ('మ', '|'), ('ప', '|'), ('హ', '|'), ('రిం', 'U'), ('చు', '|'), ('క', '|'), ('పో', 'U'), ('గ', '|'), ('మ', '|'), ('మ', '|'), ('త', '|'), ('తో', 'U'), ('బో', 'U'), ('రా', 'U'), ('డి', '|'), ('మా', 'U'), ('న్ప', '|'), ('లే', 'U'), ('రు', '|'), ('బ', '|'), ('ల', '|'), ('గ', '|'), ('మం', 'U'), ('ద', '|'), ('ఱు', '|'), ('దుః', 'U'), ('ఖ', '|'), ('ప', '|'), ('డు', '|'), ('ట', '|'), ('మా', 'U'), ('త్ర', '|'), ('మె', '|'), ('కా', 'U'), ('ని', '|'), ('యిం', 'U'), ('చు', '|'), ('క', '|'), ('యా', 'U'), ('యు', 'U'), ('ష్య', '|'), ('మి', 'U'), ('య్య', '|'), ('లే', 'U'), ('రు', '|')]</t>
+          <t>[('త', 'U'), ('ల్లి', '|'), ('దం', 'U'), ('డ్రు', '|'), ('లు', '|'), ('భా', 'U'), ('ర్య', '|'), ('త', '|'), ('న', '|'), ('యు', '|'), ('లా', 'U'), ('ప్తు', '|'), ('లు', '|'), ('బా', 'U'), ('వ', '|'), ('మ', '|'), ('ఱ', '|'), ('దు', '|'), ('ల', 'U'), ('న్న', '|'), ('లు', '|'), ('మే', 'U'), ('న', '|'), ('మా', 'U'), ('మ', '|'), ('గా', 'U'), ('రు', '|'), ('ఘ', '|'), ('న', '|'), ('ము', '|'), ('గా', 'U'), ('బం', 'U'), ('ధు', '|'), ('వు', 'U'), ('ల్గ', 'U'), ('ల్గి', '|'), ('న', 'U'), ('ప్ప', '|'), ('టి', '|'), ('కై', 'U'), ('న', '|'), ('దా', 'U'), ('ను', '|'), ('ద', 'U'), ('ర్ల', '|'), ('గ', '|'), ('వెం', 'U'), ('ట', '|'), ('ద', '|'), ('గి', '|'), ('లి', '|'), ('రా', 'U'), ('రు', '|'), ('య', '|'), ('ము', '|'), ('ని', '|'), ('దూ', 'U'), ('త', '|'), ('లు', '|'), ('ప్రా', 'U'), ('ణ', '|'), ('మ', '|'), ('ప', '|'), ('హ', '|'), ('రిం', 'U'), ('చు', '|'), ('క', '|'), ('పో', 'U'), ('గ', '|'), ('మ', '|'), ('మ', '|'), ('త', '|'), ('తో', 'U'), ('బో', 'U'), ('రా', 'U'), ('డి', '|'), ('మా', 'U'), ('న్ప', '|'), ('లే', 'U'), ('రు', '|'), ('బ', '|'), ('ల', '|'), ('గ', '|'), ('మం', 'U'), ('ద', '|'), ('ఱు', '|'), ('దుః', 'U'), ('ఖ', '|'), ('ప', '|'), ('డు', '|'), ('ట', '|'), ('మా', 'U'), ('త్ర', '|'), ('మె', '|'), ('కా', 'U'), ('ని', '|'), ('యిం', 'U'), ('చు', '|'), ('క', '|'), ('యా', 'U'), ('యు', 'U'), ('ష్య', '|'), ('మి', 'U'), ('య్య', '|'), ('లే', 'U'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[('నీ', 'U'), ('మీ', 'U'), ('ది', '|'), ('కీ', 'U'), ('ర్త', '|'), ('నల్', 'U'), ('ని', 'U'), ('త్య', '|'), ('గా', 'U'), ('న', '|'), ('ము', '|'), ('జే', 'U'), ('సి', '|'), ('ర', 'U'), ('మ్య', '|'), ('మొం', 'U'), ('దిం', 'U'), ('ప', '|'), ('నా', 'U'), ('ర', '|'), ('దు', '|'), ('డ', '|'), ('గా', 'U'), ('ను', '|'), ('సా', 'U'), ('వ', '|'), ('ధా', 'U'), ('న', '|'), ('ము', '|'), ('గ', '|'), ('నీ', 'U'), ('చ', '|'), ('ర', '|'), ('ణ', '|'), ('పం', 'U'), ('క', '|'), ('జ', '|'), ('సే', 'U'), ('వ', '|'), ('స', '|'), ('లి', '|'), ('పి', '|'), ('మె', 'U'), ('ప్పిం', 'U'), ('పం', 'U'), ('గ', '|'), ('శ', '|'), ('బ', '|'), ('రి', '|'), ('గా', 'U'), ('ను', '|'), ('బా', 'U'), ('ల్య', '|'), ('మ', 'U'), ('ప్ప', '|'), ('టి', '|'), ('నుం', 'U'), ('డి', '|'), ('భ', 'U'), ('క్తి', '|'), ('నీ', 'U'), ('యం', 'U'), ('దు', '|'), ('న', '|'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('ను', '|'), ('బ్ర', 'U'), ('హ్లా', 'U'), ('ద', '|'), ('ఘ', '|'), ('ను', '|'), ('డ', '|'), ('గా', 'U'), ('ను', '|'), ('ఘ', '|'), ('న', '|'), ('ము', '|'), ('గా', 'U'), ('నీ', 'U'), ('మీ', 'U'), ('ద', '|'), ('గ్రం', 'U'), ('థ', '|'), ('ముల్', 'U'), ('గ', 'U'), ('ల్పిం', 'U'), ('చి', '|'), ('వి', '|'), ('ను', '|'), ('తి', '|'), ('సే', 'U'), ('య', '|'), ('ను', 'U'), ('వ్యా', 'U'), ('స', '|'), ('ము', '|'), ('ని', '|'), ('ని', '|'), ('గా', 'U'), ('ను', '|')]</t>
+          <t>[('నీ', 'U'), ('మీ', 'U'), ('ది', '|'), ('కీ', 'U'), ('ర్త', '|'), ('న', 'U'), ('ల్ని', 'U'), ('త్య', '|'), ('గా', 'U'), ('న', '|'), ('ము', '|'), ('జే', 'U'), ('సి', '|'), ('ర', 'U'), ('మ్య', '|'), ('మొం', 'U'), ('దిం', 'U'), ('ప', '|'), ('నా', 'U'), ('ర', '|'), ('దు', '|'), ('డ', '|'), ('గా', 'U'), ('ను', '|'), ('సా', 'U'), ('వ', '|'), ('ధా', 'U'), ('న', '|'), ('ము', '|'), ('గ', '|'), ('నీ', 'U'), ('చ', '|'), ('ర', '|'), ('ణ', '|'), ('పం', 'U'), ('క', '|'), ('జ', '|'), ('సే', 'U'), ('వ', '|'), ('స', '|'), ('లి', '|'), ('పి', '|'), ('మె', 'U'), ('ప్పిం', 'U'), ('పం', 'U'), ('గ', '|'), ('శ', '|'), ('బ', '|'), ('రి', '|'), ('గా', 'U'), ('ను', '|'), ('బా', 'U'), ('ల్య', '|'), ('మ', 'U'), ('ప్ప', '|'), ('టి', '|'), ('నుం', 'U'), ('డి', '|'), ('భ', 'U'), ('క్తి', '|'), ('నీ', 'U'), ('యం', 'U'), ('దు', '|'), ('న', '|'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('ను', '|'), ('బ్ర', 'U'), ('హ్లా', 'U'), ('ద', '|'), ('ఘ', '|'), ('ను', '|'), ('డ', '|'), ('గా', 'U'), ('ను', '|'), ('ఘ', '|'), ('న', '|'), ('ము', '|'), ('గా', 'U'), ('నీ', 'U'), ('మీ', 'U'), ('ద', '|'), ('గ్రం', 'U'), ('థ', '|'), ('ము', 'U'), ('ల్గ', 'U'), ('ల్పిం', 'U'), ('చి', '|'), ('వి', '|'), ('ను', '|'), ('తి', '|'), ('సే', 'U'), ('య', '|'), ('ను', 'U'), ('వ్యా', 'U'), ('స', '|'), ('ము', '|'), ('ని', '|'), ('ని', '|'), ('గా', 'U'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('తి', '|'), ('శ', '|'), ('యం', 'U'), ('బు', '|'), ('గ', '|'), ('గ', 'U'), ('ల్ల', '|'), ('లా', 'U'), ('డ', '|'), ('నే', 'U'), ('ర్చి', '|'), ('తి', '|'), ('గా', 'U'), ('ని', '|'), ('పా', 'U'), ('టి', '|'), ('గా', 'U'), ('స', 'U'), ('త్య', '|'), ('ముల్', 'U'), ('ప', '|'), ('లు', '|'), ('క', '|'), ('నే', 'U'), ('ర', '|'), ('స', 'U'), ('త్కా', 'U'), ('ర్య', '|'), ('వి', 'U'), ('ఘ్న', '|'), ('ముల్', 'U'), ('స', '|'), ('లు', '|'), ('ప', '|'), ('నే', 'U'), ('ర్చి', '|'), ('తి', '|'), ('గా', 'U'), ('ని', '|'), ('యి', 'U'), ('ష్ట', '|'), ('మొం', 'U'), ('ద', '|'), ('గ', '|'), ('ని', 'U'), ('ర్వ', '|'), ('హిం', 'U'), ('ప', '|'), ('నే', 'U'), ('ర', '|'), ('నొ', '|'), ('క', '|'), ('రి', '|'), ('సొ', 'U'), ('మ్ము', '|'), ('కు', '|'), ('దో', 'U'), ('సి', '|'), ('లొ', 'U'), ('గ్గ', '|'), ('నే', 'U'), ('ర్చి', '|'), ('తి', '|'), ('గా', 'U'), ('ని', '|'), ('చె', '|'), ('లు', '|'), ('వు', '|'), ('గా', 'U'), ('ధ', 'U'), ('ర్మం', 'U'), ('బు', '|'), ('సే', 'U'), ('య', '|'), ('నే', 'U'), ('ర', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('లి', 'U'), ('య్యం', 'U'), ('గ', '|'), ('వ', 'U'), ('ద్ద', '|'), ('న', '|'), ('గ', '|'), ('నే', 'U'), ('ర్చి', '|'), ('తి', '|'), ('గా', 'U'), ('ని', '|'), ('శీ', 'U'), ('ఘ్ర', '|'), ('మి', 'U'), ('చ్చె', '|'), ('డు', '|'), ('న', 'U'), ('ట్లు', '|'), ('చె', 'U'), ('ప్ప', '|'), ('నే', 'U'), ('ర', '|')]</t>
+          <t>[('అ', '|'), ('తి', '|'), ('శ', '|'), ('యం', 'U'), ('బు', '|'), ('గ', '|'), ('గ', 'U'), ('ల్ల', '|'), ('లా', 'U'), ('డ', '|'), ('నే', 'U'), ('ర్చి', '|'), ('తి', '|'), ('గా', 'U'), ('ని', '|'), ('పా', 'U'), ('టి', '|'), ('గా', 'U'), ('స', 'U'), ('త్య', '|'), ('ము', 'U'), ('ల్ప', '|'), ('లు', '|'), ('క', '|'), ('నే', 'U'), ('ర', '|'), ('స', 'U'), ('త్కా', 'U'), ('ర్య', '|'), ('వి', 'U'), ('ఘ్న', '|'), ('ము', 'U'), ('ల్స', '|'), ('లు', '|'), ('ప', '|'), ('నే', 'U'), ('ర్చి', '|'), ('తి', '|'), ('గా', 'U'), ('ని', '|'), ('యి', 'U'), ('ష్ట', '|'), ('మొం', 'U'), ('ద', '|'), ('గ', '|'), ('ని', 'U'), ('ర్వ', '|'), ('హిం', 'U'), ('ప', '|'), ('నే', 'U'), ('ర', '|'), ('నొ', '|'), ('క', '|'), ('రి', '|'), ('సొ', 'U'), ('మ్ము', '|'), ('కు', '|'), ('దో', 'U'), ('సి', '|'), ('లొ', 'U'), ('గ్గ', '|'), ('నే', 'U'), ('ర్చి', '|'), ('తి', '|'), ('గా', 'U'), ('ని', '|'), ('చె', '|'), ('లు', '|'), ('వు', '|'), ('గా', 'U'), ('ధ', 'U'), ('ర్మం', 'U'), ('బు', '|'), ('సే', 'U'), ('య', '|'), ('నే', 'U'), ('ర', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('లి', 'U'), ('య్యం', 'U'), ('గ', '|'), ('వ', 'U'), ('ద్ద', '|'), ('న', '|'), ('గ', '|'), ('నే', 'U'), ('ర్చి', '|'), ('తి', '|'), ('గా', 'U'), ('ని', '|'), ('శీ', 'U'), ('ఘ్ర', '|'), ('మి', 'U'), ('చ్చె', '|'), ('డు', '|'), ('న', 'U'), ('ట్లు', '|'), ('చె', 'U'), ('ప్ప', '|'), ('నే', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('ధి', '|'), ('క', '|'), ('వి', 'U'), ('ద్యా', 'U'), ('వం', 'U'), ('తు', '|'), ('ల', '|'), ('ప్ర', '|'), ('యో', 'U'), ('జ', '|'), ('కు', '|'), ('లై', 'U'), ('రి', '|'), ('పూ', 'U'), ('ర్ణ', '|'), ('శుం', 'U'), ('ఠ', '|'), ('లు', '|'), ('స', '|'), ('భా', 'U'), ('పూ', 'U'), ('జ్యు', '|'), ('లై', 'U'), ('రి', '|'), ('స', 'U'), ('త్య', '|'), ('వం', 'U'), ('తు', '|'), ('ల', '|'), ('మా', 'U'), ('ట', '|'), ('జ', '|'), ('న', '|'), ('వి', '|'), ('రో', 'U'), ('ధం', 'U'), ('బా', 'U'), ('యె', '|'), ('వ', '|'), ('ద', '|'), ('రు', '|'), ('బో', 'U'), ('తు', '|'), ('ల', '|'), ('మా', 'U'), ('ట', '|'), ('వా', 'U'), ('సి', '|'), ('కె', 'U'), ('క్కె', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('వా', 'U'), ('ద', '|'), ('న', '|'), ('ప', '|'), ('రుల్', 'U'), ('దా', 'U'), ('రి', 'U'), ('ద్ర్య', '|'), ('మొం', 'U'), ('ది', '|'), ('రి', '|'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('లో', 'U'), ('భు', '|'), ('లు', '|'), ('ధ', '|'), ('న', '|'), ('ప్రా', 'U'), ('ప్తు', '|'), ('లై', 'U'), ('రి', '|'), ('పు', 'U'), ('ణ్య', '|'), ('వం', 'U'), ('తు', '|'), ('లు', '|'), ('రో', 'U'), ('గ', '|'), ('భూ', 'U'), ('త', '|'), ('పీ', 'U'), ('డి', '|'), ('తు', '|'), ('లై', 'U'), ('రి', '|'), ('దు', 'U'), ('ష్ట', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('లు', '|'), ('వ', 'U'), ('ర్ధి', 'U'), ('ష్ణు', '|'), ('లై', 'U'), ('రి', '|')]</t>
+          <t>[('అ', '|'), ('ధి', '|'), ('క', '|'), ('వి', 'U'), ('ద్యా', 'U'), ('వం', 'U'), ('తు', '|'), ('ల', '|'), ('ప్ర', '|'), ('యో', 'U'), ('జ', '|'), ('కు', '|'), ('లై', 'U'), ('రి', '|'), ('పూ', 'U'), ('ర్ణ', '|'), ('శుం', 'U'), ('ఠ', '|'), ('లు', '|'), ('స', '|'), ('భా', 'U'), ('పూ', 'U'), ('జ్యు', '|'), ('లై', 'U'), ('రి', '|'), ('స', 'U'), ('త్య', '|'), ('వం', 'U'), ('తు', '|'), ('ల', '|'), ('మా', 'U'), ('ట', '|'), ('జ', '|'), ('న', '|'), ('వి', '|'), ('రో', 'U'), ('ధం', 'U'), ('బా', 'U'), ('యె', '|'), ('వ', '|'), ('ద', '|'), ('రు', '|'), ('బో', 'U'), ('తు', '|'), ('ల', '|'), ('మా', 'U'), ('ట', '|'), ('వా', 'U'), ('సి', '|'), ('కె', 'U'), ('క్కె', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('వా', 'U'), ('ద', '|'), ('న', '|'), ('ప', '|'), ('రు', 'U'), ('ల్దా', 'U'), ('రి', 'U'), ('ద్ర్య', '|'), ('మొం', 'U'), ('ది', '|'), ('రి', '|'), ('ప', '|'), ('ర', '|'), ('మ', '|'), ('లో', 'U'), ('భు', '|'), ('లు', '|'), ('ధ', '|'), ('న', '|'), ('ప్రా', 'U'), ('ప్తు', '|'), ('లై', 'U'), ('రి', '|'), ('పు', 'U'), ('ణ్య', '|'), ('వం', 'U'), ('తు', '|'), ('లు', '|'), ('రో', 'U'), ('గ', '|'), ('భూ', 'U'), ('త', '|'), ('పీ', 'U'), ('డి', '|'), ('తు', '|'), ('లై', 'U'), ('రి', '|'), ('దు', 'U'), ('ష్ట', '|'), ('మా', 'U'), ('న', '|'), ('వు', '|'), ('లు', '|'), ('వ', 'U'), ('ర్ధి', 'U'), ('ష్ణు', '|'), ('లై', 'U'), ('రి', '|')]</t>
         </is>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[('భు', '|'), ('జ', '|'), ('బ', '|'), ('లం', 'U'), ('బు', '|'), ('న', '|'), ('బె', 'U'), ('ద్ద', '|'), ('పు', '|'), ('లు', '|'), ('ల', '|'), ('జం', 'U'), ('ప', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('పా', 'U'), ('ము', '|'), ('కం', 'U'), ('ఠ', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('బ', 'U'), ('ట్ట', '|'), ('వ', 'U'), ('చ్చు', '|'), ('బ్ర', 'U'), ('హ్మ', '|'), ('రా', 'U'), ('క్ష', '|'), ('స', '|'), ('కో', 'U'), ('ట్ల', '|'), ('బా', 'U'), ('ఱ', '|'), ('ద్రో', 'U'), ('ల', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('మ', '|'), ('ను', '|'), ('జు', '|'), ('ల', '|'), ('రో', 'U'), ('గ', '|'), ('ముల్', 'U'), ('మా', 'U'), ('న్ప', '|'), ('వ', 'U'), ('చ్చు', '|'), ('జి', 'U'), ('హ్వ', '|'), ('కి', 'U'), ('ష్ట', '|'), ('ము', '|'), ('గా', 'U'), ('ని', '|'), ('చే', 'U'), ('దు', '|'), ('మ్రిం', 'U'), ('గ', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ప', '|'), ('దు', '|'), ('ను', '|'), ('ఖ', 'U'), ('డ్గ', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('న', '|'), ('దు', '|'), ('మ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('గ', 'U'), ('ష్ట', '|'), ('మొం', 'U'), ('దు', '|'), ('చు', '|'), ('ముం', 'U'), ('డ్ల', '|'), ('కం', 'U'), ('ప', '|'), ('లో', 'U'), ('జొ', '|'), ('ర', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ది', 'U'), ('ట్టు', '|'), ('బో', 'U'), ('తు', '|'), ('ల', '|'), ('నో', 'U'), ('ళ్లు', '|'), ('క', 'U'), ('ట్ట', '|'), ('వ', 'U'), ('చ్చు', '|')]</t>
+          <t>[('భు', '|'), ('జ', '|'), ('బ', '|'), ('లం', 'U'), ('బు', '|'), ('న', '|'), ('బె', 'U'), ('ద్ద', '|'), ('పు', '|'), ('లు', '|'), ('ల', '|'), ('జం', 'U'), ('ప', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('పా', 'U'), ('ము', '|'), ('కం', 'U'), ('ఠ', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('బ', 'U'), ('ట్ట', '|'), ('వ', 'U'), ('చ్చు', '|'), ('బ్ర', 'U'), ('హ్మ', '|'), ('రా', 'U'), ('క్ష', '|'), ('స', '|'), ('కో', 'U'), ('ట్ల', '|'), ('బా', 'U'), ('ఱ', '|'), ('ద్రో', 'U'), ('ల', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('మ', '|'), ('ను', '|'), ('జు', '|'), ('ల', '|'), ('రో', 'U'), ('గ', '|'), ('ము', 'U'), ('ల్మా', 'U'), ('న్ప', '|'), ('వ', 'U'), ('చ్చు', '|'), ('జి', 'U'), ('హ్వ', '|'), ('కి', 'U'), ('ష్ట', '|'), ('ము', '|'), ('గా', 'U'), ('ని', '|'), ('చే', 'U'), ('దు', '|'), ('మ్రిం', 'U'), ('గ', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ప', '|'), ('దు', '|'), ('ను', '|'), ('ఖ', 'U'), ('డ్గ', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('న', '|'), ('దు', '|'), ('మ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('గ', 'U'), ('ష్ట', '|'), ('మొం', 'U'), ('దు', '|'), ('చు', '|'), ('ముం', 'U'), ('డ్ల', '|'), ('కం', 'U'), ('ప', '|'), ('లో', 'U'), ('జొ', '|'), ('ర', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ది', 'U'), ('ట్టు', '|'), ('బో', 'U'), ('తు', '|'), ('ల', '|'), ('నో', 'U'), ('ళ్లు', '|'), ('క', 'U'), ('ట్ట', '|'), ('వ', 'U'), ('చ్చు', '|')]</t>
         </is>
       </c>
     </row>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('వ', '|'), ('ని', '|'), ('లో', 'U'), ('గ', '|'), ('ల', '|'), ('యా', 'U'), ('త్ర', '|'), ('ల', 'U'), ('న్ని', '|'), ('చే', 'U'), ('య', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ము', 'U'), ('ఖ్యు', '|'), ('డై', 'U'), ('న', '|'), ('దు', '|'), ('లం', 'U'), ('దు', '|'), ('ము', '|'), ('ను', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ము', 'U'), ('క్కు', '|'), ('ప', 'U'), ('ట్టు', '|'), ('క', '|'), ('సం', 'U'), ('ధ్య', '|'), ('మొ', '|'), ('న', '|'), ('సి', '|'), ('వా', 'U'), ('ర్వ', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ది', 'U'), ('న్న', '|'), ('గా', 'U'), ('జ', '|'), ('ప', '|'), ('మా', 'U'), ('ల', '|'), ('ద్రి', 'U'), ('ప్ప', '|'), ('వ', 'U'), ('చ్చు', '|'), ('వే', 'U'), ('దా', 'U'), ('ల', '|'), ('క', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('వి', '|'), ('ఱి', '|'), ('చి', '|'), ('చె', 'U'), ('ప్ప', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('శ్రే', 'U'), ('ష్ఠ', '|'), ('క్ర', '|'), ('తు', '|'), ('వు', '|'), ('లె', 'U'), ('ల్ల', '|'), ('జే', 'U'), ('య', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('ల', 'U'), ('క్ష', '|'), ('లు', '|'), ('కో', 'U'), ('ట్లు', '|'), ('దా', 'U'), ('న', '|'), ('మి', 'U'), ('య్య', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నై', 'U'), ('ష్ఠి', '|'), ('కా', 'U'), ('చా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('న', '|'), ('డు', '|'), ('ప', '|'), ('వ', 'U'), ('చ్చు', '|')]</t>
+          <t>[('అ', '|'), ('వ', '|'), ('ని', '|'), ('లో', 'U'), ('గ', '|'), ('ల', '|'), ('యా', 'U'), ('త్ర', '|'), ('ల', 'U'), ('న్ని', '|'), ('చే', 'U'), ('య', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ము', 'U'), ('ఖ్యు', '|'), ('డై', 'U'), ('న', '|'), ('దు', '|'), ('లం', 'U'), ('దు', '|'), ('ము', '|'), ('ను', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ము', 'U'), ('క్కు', '|'), ('ప', 'U'), ('ట్టు', '|'), ('క', '|'), ('సం', 'U'), ('ధ్య', '|'), ('మొ', '|'), ('న', '|'), ('సి', '|'), ('వా', 'U'), ('ర్వ', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ది', 'U'), ('న్న', '|'), ('గా', 'U'), ('జ', '|'), ('ప', '|'), ('మా', 'U'), ('ల', '|'), ('ద్రి', 'U'), ('ప్ప', '|'), ('వ', 'U'), ('చ్చు', '|'), ('వే', 'U'), ('దా', 'U'), ('ల', '|'), ('క', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('వి', '|'), ('ఱి', '|'), ('చి', '|'), ('చె', 'U'), ('ప్ప', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('శ్రే', 'U'), ('ష్ఠ', '|'), ('క్ర', '|'), ('తు', '|'), ('వు', '|'), ('లె', 'U'), ('ల్ల', '|'), ('జే', 'U'), ('య', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ధ', '|'), ('న', '|'), ('ము', '|'), ('ల', 'U'), ('క్ష', '|'), ('లు', '|'), ('కో', 'U'), ('ట్లు', '|'), ('దా', 'U'), ('న', '|'), ('మి', 'U'), ('య్య', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నై', 'U'), ('ష్ఠి', '|'), ('కా', 'U'), ('చా', 'U'), ('ర', '|'), ('ము', 'U'), ('ల్న', '|'), ('డు', '|'), ('ప', '|'), ('వ', 'U'), ('చ్చు', '|')]</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[('భు', '|'), ('వ', '|'), ('న', '|'), ('ర', 'U'), ('క్ష', '|'), ('క', '|'), ('ని', 'U'), ('న్ను', '|'), ('బొ', '|'), ('గ', '|'), ('డ', '|'), ('నే', 'U'), ('ర', '|'), ('ని', '|'), ('నో', 'U'), ('రు', '|'), ('ప్ర', '|'), ('జ', '|'), ('కు', '|'), ('గో', 'U'), ('చ', '|'), ('ర', '|'), ('మై', 'U'), ('న', '|'), ('పా', 'U'), ('డు', '|'), ('బొం', 'U'), ('ద', '|'), ('సు', '|'), ('ర', '|'), ('వ', '|'), ('రా', 'U'), ('ర్చి', '|'), ('త', '|'), ('ని', 'U'), ('న్ను', '|'), ('జూ', 'U'), ('డ', '|'), ('గో', 'U'), ('ర', '|'), ('ని', '|'), ('క', '|'), ('నుల్', 'U'), ('జ', '|'), ('ల', '|'), ('ము', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('నె', 'U'), ('ల్లి', '|'), ('స', '|'), ('ర', '|'), ('పు', '|'), ('గుం', 'U'), ('డ్లు', '|'), ('శ్రీ', 'U'), ('ర', '|'), ('మా', 'U'), ('ధి', '|'), ('ప', '|'), ('నీ', 'U'), ('కు', '|'), ('సే', 'U'), ('వ', '|'), ('జే', 'U'), ('య', '|'), ('ని', '|'), ('మే', 'U'), ('ను', '|'), ('కూ', 'U'), ('లి', '|'), ('క', 'U'), ('మ్ము', '|'), ('డు', '|'), ('వో', 'U'), ('ని', '|'), ('కొ', '|'), ('లి', '|'), ('మి', '|'), ('తి', 'U'), ('త్తి', '|'), ('వే', 'U'), ('డ్క', '|'), ('తో', 'U'), ('నీ', 'U'), ('క', '|'), ('థ', 'U'), ('ల్వి', '|'), ('న', '|'), ('ని', '|'), ('క', 'U'), ('ర్ణ', '|'), ('ము', '|'), ('లై', 'U'), ('న', '|'), ('గ', '|'), ('ఠి', '|'), ('న', '|'), ('శి', '|'), ('లా', 'U'), ('దు', '|'), ('ల', '|'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('తొ', '|'), ('ల', '|'), ('లు', '|')]</t>
+          <t>[('భు', '|'), ('వ', '|'), ('న', '|'), ('ర', 'U'), ('క్ష', '|'), ('క', '|'), ('ని', 'U'), ('న్ను', '|'), ('బొ', '|'), ('గ', '|'), ('డ', '|'), ('నే', 'U'), ('ర', '|'), ('ని', '|'), ('నో', 'U'), ('రు', '|'), ('ప్ర', '|'), ('జ', '|'), ('కు', '|'), ('గో', 'U'), ('చ', '|'), ('ర', '|'), ('మై', 'U'), ('న', '|'), ('పా', 'U'), ('డు', '|'), ('బొం', 'U'), ('ద', '|'), ('సు', '|'), ('ర', '|'), ('వ', '|'), ('రా', 'U'), ('ర్చి', '|'), ('త', '|'), ('ని', 'U'), ('న్ను', '|'), ('జూ', 'U'), ('డ', '|'), ('గో', 'U'), ('ర', '|'), ('ని', '|'), ('క', '|'), ('ను', 'U'), ('ల్జ', '|'), ('ల', '|'), ('ము', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('నె', 'U'), ('ల్లి', '|'), ('స', '|'), ('ర', '|'), ('పు', '|'), ('గుం', 'U'), ('డ్లు', '|'), ('శ్రీ', 'U'), ('ర', '|'), ('మా', 'U'), ('ధి', '|'), ('ప', '|'), ('నీ', 'U'), ('కు', '|'), ('సే', 'U'), ('వ', '|'), ('జే', 'U'), ('య', '|'), ('ని', '|'), ('మే', 'U'), ('ను', '|'), ('కూ', 'U'), ('లి', '|'), ('క', 'U'), ('మ్ము', '|'), ('డు', '|'), ('వో', 'U'), ('ని', '|'), ('కొ', '|'), ('లి', '|'), ('మి', '|'), ('తి', 'U'), ('త్తి', '|'), ('వే', 'U'), ('డ్క', '|'), ('తో', 'U'), ('నీ', 'U'), ('క', '|'), ('థ', 'U'), ('ల్వి', '|'), ('న', '|'), ('ని', '|'), ('క', 'U'), ('ర్ణ', '|'), ('ము', '|'), ('లై', 'U'), ('న', '|'), ('గ', '|'), ('ఠి', '|'), ('న', '|'), ('శి', '|'), ('లా', 'U'), ('దు', '|'), ('ల', '|'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('తొ', '|'), ('ల', '|'), ('లు', '|')]</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('తి', '|'), ('వి', 'U'), ('ద్య', '|'), ('నే', 'U'), ('ర్చు', '|'), ('ట', '|'), ('య', 'U'), ('న్న', '|'), ('వ', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('ల', '|'), ('కే', 'U'), ('ప', '|'), ('సు', '|'), ('ల', '|'), ('నా', 'U'), ('ర్జిం', 'U'), ('చు', '|'), ('ట', '|'), ('పా', 'U'), ('ల', '|'), ('కొ', '|'), ('ఱ', '|'), ('కె', '|'), ('స', '|'), ('తి', '|'), ('ని', '|'), ('బెం', 'U'), ('డ్లా', 'U'), ('డు', '|'), ('ట', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('సు', '|'), ('ఖ', '|'), ('ము', '|'), ('కే', 'U'), ('సు', '|'), ('తు', '|'), ('ల', '|'), ('బో', 'U'), ('షిం', 'U'), ('చు', '|'), ('ట', '|'), ('గ', '|'), ('తు', '|'), ('ల', '|'), ('కొ', '|'), ('ఱ', '|'), ('కె', '|'), ('సై', 'U'), ('న్య', '|'), ('ముల్', 'U'), ('గూ', 'U'), ('ర్చు', '|'), ('ట', '|'), ('శ', '|'), ('త్రు', '|'), ('భ', '|'), ('య', '|'), ('ము', '|'), ('న', '|'), ('కే', 'U'), ('సా', 'U'), ('ము', '|'), ('నే', 'U'), ('ర్చు', '|'), ('ట', '|'), ('లె', 'U'), ('ల్ల', '|'), ('చా', 'U'), ('వు', '|'), ('కొ', '|'), ('ఱ', '|'), ('కె', '|'), ('దా', 'U'), ('న', '|'), ('మి', 'U'), ('చ్చు', '|'), ('ట', '|'), ('యు', '|'), ('ముం', 'U'), ('ద', '|'), ('టి', '|'), ('సం', 'U'), ('చి', '|'), ('త', '|'), ('ము', '|'), ('న', '|'), ('కే', 'U'), ('ఘ', '|'), ('న', '|'), ('ము', '|'), ('గా', 'U'), ('జ', '|'), ('దు', '|'), ('వు', '|'), ('ట', '|'), ('క', '|'), ('డు', '|'), ('పు', '|'), ('కొ', '|'), ('ఱ', '|'), ('కె', '|')]</t>
+          <t>[('అ', '|'), ('తి', '|'), ('వి', 'U'), ('ద్య', '|'), ('నే', 'U'), ('ర్చు', '|'), ('ట', '|'), ('య', 'U'), ('న్న', '|'), ('వ', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('ల', '|'), ('కే', 'U'), ('ప', '|'), ('సు', '|'), ('ల', '|'), ('నా', 'U'), ('ర్జిం', 'U'), ('చు', '|'), ('ట', '|'), ('పా', 'U'), ('ల', '|'), ('కొ', '|'), ('ఱ', '|'), ('కె', '|'), ('స', '|'), ('తి', '|'), ('ని', '|'), ('బెం', 'U'), ('డ్లా', 'U'), ('డు', '|'), ('ట', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('సు', '|'), ('ఖ', '|'), ('ము', '|'), ('కే', 'U'), ('సు', '|'), ('తు', '|'), ('ల', '|'), ('బో', 'U'), ('షిం', 'U'), ('చు', '|'), ('ట', '|'), ('గ', '|'), ('తు', '|'), ('ల', '|'), ('కొ', '|'), ('ఱ', '|'), ('కె', '|'), ('సై', 'U'), ('న్య', '|'), ('ము', 'U'), ('ల్గూ', 'U'), ('ర్చు', '|'), ('ట', '|'), ('శ', '|'), ('త్రు', '|'), ('భ', '|'), ('య', '|'), ('ము', '|'), ('న', '|'), ('కే', 'U'), ('సా', 'U'), ('ము', '|'), ('నే', 'U'), ('ర్చు', '|'), ('ట', '|'), ('లె', 'U'), ('ల్ల', '|'), ('చా', 'U'), ('వు', '|'), ('కొ', '|'), ('ఱ', '|'), ('కె', '|'), ('దా', 'U'), ('న', '|'), ('మి', 'U'), ('చ్చు', '|'), ('ట', '|'), ('యు', '|'), ('ముం', 'U'), ('ద', '|'), ('టి', '|'), ('సం', 'U'), ('చి', '|'), ('త', '|'), ('ము', '|'), ('న', '|'), ('కే', 'U'), ('ఘ', '|'), ('న', '|'), ('ము', '|'), ('గా', 'U'), ('జ', '|'), ('దు', '|'), ('వు', '|'), ('ట', '|'), ('క', '|'), ('డు', '|'), ('పు', '|'), ('కొ', '|'), ('ఱ', '|'), ('కె', '|')]</t>
         </is>
       </c>
     </row>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[('దే', 'U'), ('హ', '|'), ('ము', 'U'), ('న్న', '|'), ('వ', '|'), ('ఱ', '|'), ('కు', '|'), ('మో', 'U'), ('హ', '|'), ('సా', 'U'), ('గ', '|'), ('ర', '|'), ('మం', 'U'), ('దు', '|'), ('ము', '|'), ('ను', '|'), ('గు', '|'), ('చుం', 'U'), ('దు', '|'), ('రు', '|'), ('శు', 'U'), ('ద్ధ', '|'), ('మూ', 'U'), ('ఢ', '|'), ('జ', '|'), ('ను', '|'), ('లు', '|'), ('స', '|'), ('ల', '|'), ('లి', '|'), ('తై', 'U'), ('శ్వ', 'U'), ('ర్య', '|'), ('ముల్', 'U'), ('శా', 'U'), ('శ్వ', '|'), ('తం', 'U'), ('బ', '|'), ('ను', '|'), ('కొ', '|'), ('ని', '|'), ('ష', 'U'), ('డ్భ్ర', '|'), ('మ', '|'), ('ల', '|'), ('ను', '|'), ('మా', 'U'), ('న', '|'), ('జా', 'U'), ('ల', '|'), ('రె', '|'), ('వ', '|'), ('రు', '|'), ('స', 'U'), ('ర్వ', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('మా', 'U'), ('య', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('బ', 'U'), ('ద్ధు', '|'), ('లై', 'U'), ('గు', '|'), ('రు', '|'), ('ని', '|'), ('కా', 'U'), ('రు', 'U'), ('ణ్యం', 'U'), ('బు', '|'), ('గో', 'U'), ('రు', '|'), ('కొ', '|'), ('న', '|'), ('రు', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('భ', 'U'), ('క్తి', '|'), ('వి', '|'), ('ర', 'U'), ('క్తు', '|'), ('లై', 'U'), ('న', '|'), ('పె', 'U'), ('ద్ద', '|'), ('ల', '|'), ('జూ', 'U'), ('చి', '|'), ('నిం', 'U'), ('ద', '|'), ('జే', 'U'), ('య', '|'), ('క', '|'), ('తా', 'U'), ('ము', '|'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('లే', 'U'), ('రు', '|')]</t>
+          <t>[('దే', 'U'), ('హ', '|'), ('ము', 'U'), ('న్న', '|'), ('వ', '|'), ('ఱ', '|'), ('కు', '|'), ('మో', 'U'), ('హ', '|'), ('సా', 'U'), ('గ', '|'), ('ర', '|'), ('మం', 'U'), ('దు', '|'), ('ము', '|'), ('ను', '|'), ('గు', '|'), ('చుం', 'U'), ('దు', '|'), ('రు', '|'), ('శు', 'U'), ('ద్ధ', '|'), ('మూ', 'U'), ('ఢ', '|'), ('జ', '|'), ('ను', '|'), ('లు', '|'), ('స', '|'), ('ల', '|'), ('లి', '|'), ('తై', 'U'), ('శ్వ', 'U'), ('ర్య', '|'), ('ము', 'U'), ('ల్శా', 'U'), ('శ్వ', '|'), ('తం', 'U'), ('బ', '|'), ('ను', '|'), ('కొ', '|'), ('ని', '|'), ('ష', 'U'), ('డ్భ్ర', '|'), ('మ', '|'), ('ల', '|'), ('ను', '|'), ('మా', 'U'), ('న', '|'), ('జా', 'U'), ('ల', '|'), ('రె', '|'), ('వ', '|'), ('రు', '|'), ('స', 'U'), ('ర్వ', '|'), ('కా', 'U'), ('ల', '|'), ('ము', '|'), ('మా', 'U'), ('య', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('బ', 'U'), ('ద్ధు', '|'), ('లై', 'U'), ('గు', '|'), ('రు', '|'), ('ని', '|'), ('కా', 'U'), ('రు', 'U'), ('ణ్యం', 'U'), ('బు', '|'), ('గో', 'U'), ('రు', '|'), ('కొ', '|'), ('న', '|'), ('రు', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('భ', 'U'), ('క్తి', '|'), ('వి', '|'), ('ర', 'U'), ('క్తు', '|'), ('లై', 'U'), ('న', '|'), ('పె', 'U'), ('ద్ద', '|'), ('ల', '|'), ('జూ', 'U'), ('చి', '|'), ('నిం', 'U'), ('ద', '|'), ('జే', 'U'), ('య', '|'), ('క', '|'), ('తా', 'U'), ('ము', '|'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('లే', 'U'), ('రు', '|')]</t>
         </is>
       </c>
     </row>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[('ద', '|'), ('ను', '|'), ('జా', 'U'), ('రి', '|'), ('నా', 'U'), ('వం', 'U'), ('టి', '|'), ('దా', 'U'), ('స', '|'), ('జా', 'U'), ('ల', '|'), ('ము', '|'), ('నీ', 'U'), ('కు', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('ఖ్య', '|'), ('గ', '|'), ('ల', '|'), ('రు', '|'), ('కొ', '|'), ('దు', '|'), ('వ', '|'), ('లే', 'U'), ('దు', '|'), ('బం', 'U'), ('ట్ల', '|'), ('సం', 'U'), ('ద', '|'), ('డి', '|'), ('వ', 'U'), ('ల్ల', '|'), ('బ', '|'), ('హు', '|'), ('ప', '|'), ('రా', 'U'), ('కై', 'U'), ('న', 'U'), ('న్ను', '|'), ('మ', '|'), ('ఱ', '|'), ('చి', '|'), ('పో', 'U'), ('కు', '|'), ('ము', '|'), ('భా', 'U'), ('గ్య', '|'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('చే', 'U'), ('త', '|'), ('దం', 'U'), ('డి', '|'), ('గా', 'U'), ('భృ', 'U'), ('త్యు', '|'), ('లు', '|'), ('ద', '|'), ('గి', '|'), ('లి', '|'), ('నీ', 'U'), ('కుం', 'U'), ('డం', 'U'), ('గ', '|'), ('బ', 'U'), ('క్క', '|'), ('బం', 'U'), ('టే', 'U'), ('పా', 'U'), ('టి', '|'), ('ప', '|'), ('ని', '|'), ('కి', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నీ', 'U'), ('వు', '|'), ('మె', 'U'), ('చ్చె', '|'), ('డి', '|'), ('ప', '|'), ('నుల్', 'U'), ('నే', 'U'), ('ను', '|'), ('జే', 'U'), ('య', '|'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('యిం', 'U'), ('త', '|'), ('వృ', '|'), ('థా', 'U'), ('జ', 'U'), ('న్మ', '|'), ('మె', 'U'), ('త్తి', '|'), ('నా', 'U'), ('ను', '|')]</t>
+          <t>[('ద', '|'), ('ను', '|'), ('జా', 'U'), ('రి', '|'), ('నా', 'U'), ('వం', 'U'), ('టి', '|'), ('దా', 'U'), ('స', '|'), ('జా', 'U'), ('ల', '|'), ('ము', '|'), ('నీ', 'U'), ('కు', '|'), ('కో', 'U'), ('టి', '|'), ('సం', 'U'), ('ఖ్య', '|'), ('గ', '|'), ('ల', '|'), ('రు', '|'), ('కొ', '|'), ('దు', '|'), ('వ', '|'), ('లే', 'U'), ('దు', '|'), ('బం', 'U'), ('ట్ల', '|'), ('సం', 'U'), ('ద', '|'), ('డి', '|'), ('వ', 'U'), ('ల్ల', '|'), ('బ', '|'), ('హు', '|'), ('ప', '|'), ('రా', 'U'), ('కై', 'U'), ('న', 'U'), ('న్ను', '|'), ('మ', '|'), ('ఱ', '|'), ('చి', '|'), ('పో', 'U'), ('కు', '|'), ('ము', '|'), ('భా', 'U'), ('గ్య', '|'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('చే', 'U'), ('త', '|'), ('దం', 'U'), ('డి', '|'), ('గా', 'U'), ('భృ', 'U'), ('త్యు', '|'), ('లు', '|'), ('ద', '|'), ('గి', '|'), ('లి', '|'), ('నీ', 'U'), ('కుం', 'U'), ('డం', 'U'), ('గ', '|'), ('బ', 'U'), ('క్క', '|'), ('బం', 'U'), ('టే', 'U'), ('పా', 'U'), ('టి', '|'), ('ప', '|'), ('ని', '|'), ('కి', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నీ', 'U'), ('వు', '|'), ('మె', 'U'), ('చ్చె', '|'), ('డి', '|'), ('ప', '|'), ('ను', 'U'), ('ల్నే', 'U'), ('ను', '|'), ('జే', 'U'), ('య', '|'), ('గ', '|'), ('లే', 'U'), ('క', '|'), ('యిం', 'U'), ('త', '|'), ('వృ', '|'), ('థా', 'U'), ('జ', 'U'), ('న్మ', '|'), ('మె', 'U'), ('త్తి', '|'), ('నా', 'U'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[('కొ', '|'), ('స', '|'), ('కు', '|'), ('నీ', 'U'), ('శం', 'U'), ('ఖ', '|'), ('చ', '|'), ('క్ర', '|'), ('ముల్', 'U'), ('కు', '|'), ('దు', '|'), ('వ', '|'), ('బె', 'U'), ('ట్టి', '|'), ('గ్రా', 'U'), ('స', '|'), ('ము', '|'), ('నొ', '|'), ('సం', 'U'), ('గి', '|'), ('పో', 'U'), ('షిం', 'U'), ('చు', '|'), ('క', '|'), ('ప', '|'), ('ట', '|'), ('ము', '|'), ('డి', '|'), ('గి', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', '|'), ('శ్రీ', 'U'), ('ధ', 'U'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
+          <t>[('కొ', '|'), ('స', '|'), ('కు', '|'), ('నీ', 'U'), ('శం', 'U'), ('ఖ', '|'), ('చ', '|'), ('క్ర', '|'), ('ము', 'U'), ('ల్కు', '|'), ('దు', '|'), ('వ', '|'), ('బె', 'U'), ('ట్టి', '|'), ('గ్రా', 'U'), ('స', '|'), ('ము', '|'), ('నొ', '|'), ('సం', 'U'), ('గి', '|'), ('పో', 'U'), ('షిం', 'U'), ('చు', '|'), ('క', '|'), ('ప', '|'), ('ట', '|'), ('ము', '|'), ('డి', '|'), ('గి', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', '|'), ('శ్రీ', 'U'), ('ధ', 'U'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
@@ -3212,7 +3212,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[('హ', '|'), ('రి', '|'), ('నీ', 'U'), ('కు', '|'), ('బ', 'U'), ('ర్యం', 'U'), ('క', '|'), ('మై', 'U'), ('న', '|'), ('శే', 'U'), ('షు', '|'), ('డు', '|'), ('చా', 'U'), ('ల', '|'), ('బ', '|'), ('వ', '|'), ('న', '|'), ('ము', '|'), ('భ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('బ్ర', '|'), ('తు', '|'), ('కు', '|'), ('చుం', 'U'), ('డు', '|'), ('న', '|'), ('ను', '|'), ('వు', '|'), ('గా', 'U'), ('నీ', 'U'), ('కు', '|'), ('వా', 'U'), ('హ', '|'), ('న', '|'), ('మై', 'U'), ('న', '|'), ('ఖ', '|'), ('గ', '|'), ('రా', 'U'), ('జు', '|'), ('గొ', 'U'), ('ప్ప', '|'), ('పా', 'U'), ('ము', '|'), ('ను', '|'), ('నో', 'U'), ('ట', '|'), ('గొ', '|'), ('ఱు', '|'), ('కు', '|'), ('చుం', 'U'), ('డు', '|'), ('య', '|'), ('ది', '|'), ('గా', 'U'), ('క', '|'), ('నీ', 'U'), ('భా', 'U'), ('ర్య', '|'), ('యై', 'U'), ('న', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('దే', 'U'), ('వి', '|'), ('ది', '|'), ('న', '|'), ('ము', '|'), ('పే', 'U'), ('రం', 'U'), ('టం', 'U'), ('బు', '|'), ('ది', '|'), ('రు', '|'), ('గు', '|'), ('చుం', 'U'), ('డు', '|'), ('ని', 'U'), ('న్ను', '|'), ('భ', 'U'), ('క్తు', '|'), ('లు', '|'), ('పి', 'U'), ('ల్చి', '|'), ('ని', 'U'), ('త్య', '|'), ('పూ', 'U'), ('జ', '|'), ('లు', '|'), ('చే', 'U'), ('సి', '|'), ('ప్రే', 'U'), ('మ', '|'), ('బ', 'U'), ('క్వా', 'U'), ('న్న', '|'), ('ముల్', 'U'), ('పె', 'U'), ('ట్టు', '|'), ('చుం', 'U'), ('డ్రు', '|')]</t>
+          <t>[('హ', '|'), ('రి', '|'), ('నీ', 'U'), ('కు', '|'), ('బ', 'U'), ('ర్యం', 'U'), ('క', '|'), ('మై', 'U'), ('న', '|'), ('శే', 'U'), ('షు', '|'), ('డు', '|'), ('చా', 'U'), ('ల', '|'), ('బ', '|'), ('వ', '|'), ('న', '|'), ('ము', '|'), ('భ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('బ్ర', '|'), ('తు', '|'), ('కు', '|'), ('చుం', 'U'), ('డు', '|'), ('న', '|'), ('ను', '|'), ('వు', '|'), ('గా', 'U'), ('నీ', 'U'), ('కు', '|'), ('వా', 'U'), ('హ', '|'), ('న', '|'), ('మై', 'U'), ('న', '|'), ('ఖ', '|'), ('గ', '|'), ('రా', 'U'), ('జు', '|'), ('గొ', 'U'), ('ప్ప', '|'), ('పా', 'U'), ('ము', '|'), ('ను', '|'), ('నో', 'U'), ('ట', '|'), ('గొ', '|'), ('ఱు', '|'), ('కు', '|'), ('చుం', 'U'), ('డు', '|'), ('య', '|'), ('ది', '|'), ('గా', 'U'), ('క', '|'), ('నీ', 'U'), ('భా', 'U'), ('ర్య', '|'), ('యై', 'U'), ('న', '|'), ('ల', 'U'), ('క్ష్మీ', 'U'), ('దే', 'U'), ('వి', '|'), ('ది', '|'), ('న', '|'), ('ము', '|'), ('పే', 'U'), ('రం', 'U'), ('టం', 'U'), ('బు', '|'), ('ది', '|'), ('రు', '|'), ('గు', '|'), ('చుం', 'U'), ('డు', '|'), ('ని', 'U'), ('న్ను', '|'), ('భ', 'U'), ('క్తు', '|'), ('లు', '|'), ('పి', 'U'), ('ల్చి', '|'), ('ని', 'U'), ('త్య', '|'), ('పూ', 'U'), ('జ', '|'), ('లు', '|'), ('చే', 'U'), ('సి', '|'), ('ప్రే', 'U'), ('మ', '|'), ('బ', 'U'), ('క్వా', 'U'), ('న్న', '|'), ('ము', 'U'), ('ల్పె', 'U'), ('ట్టు', '|'), ('చుం', 'U'), ('డ్రు', '|')]</t>
         </is>
       </c>
     </row>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[('ప', 'U'), ('చ్చి', '|'), ('చ', 'U'), ('ర్మ', '|'), ('పు', '|'), ('ది', 'U'), ('త్తి', '|'), ('ప', '|'), ('స', '|'), ('లే', 'U'), ('దు', '|'), ('దే', 'U'), ('హం', 'U'), ('బు', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('నం', 'U'), ('త', '|'), ('ట', '|'), ('రో', 'U'), ('య', '|'), ('రో', 'U'), ('త', '|'), ('న', '|'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('శ', 'U'), ('ల్య', '|'), ('ముల్', 'U'), ('న', '|'), ('వ', '|'), ('రం', 'U'), ('ధ్ర', '|'), ('ము', '|'), ('లు', '|'), ('ర', 'U'), ('క్త', '|'), ('మాం', 'U'), ('సం', 'U'), ('బు', '|'), ('కం', 'U'), ('డ', '|'), ('లు', '|'), ('మై', 'U'), ('ల', '|'), ('తి', 'U'), ('త్తి', '|'), ('బ', '|'), ('లు', '|'), ('వై', 'U'), ('న', '|'), ('యెం', 'U'), ('డ', '|'), ('వా', 'U'), ('న', '|'), ('ల', '|'), ('కో', 'U'), ('ర్వ', '|'), ('దిం', 'U'), ('తై', 'U'), ('న', '|'), ('దా', 'U'), ('ళ', '|'), ('లే', 'U'), ('దా', 'U'), ('క', '|'), ('లి', '|'), ('దా', 'U'), ('హ', '|'), ('ము', '|'), ('ల', '|'), ('కు', '|'), ('స', '|'), ('క', '|'), ('ల', '|'), ('రో', 'U'), ('గ', '|'), ('ము', '|'), ('ల', '|'), ('కు', '|'), ('సం', 'U'), ('స్థా', 'U'), ('న', '|'), ('మై', 'U'), ('యుం', 'U'), ('డు', '|'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('ద', 'U'), ('స్థి', '|'), ('ర', '|'), ('మై', 'U'), ('న', '|'), ('నీ', 'U'), ('టి', '|'), ('బు', 'U'), ('గ్గ', '|')]</t>
+          <t>[('ప', 'U'), ('చ్చి', '|'), ('చ', 'U'), ('ర్మ', '|'), ('పు', '|'), ('ది', 'U'), ('త్తి', '|'), ('ప', '|'), ('స', '|'), ('లే', 'U'), ('దు', '|'), ('దే', 'U'), ('హం', 'U'), ('బు', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('నం', 'U'), ('త', '|'), ('ట', '|'), ('రో', 'U'), ('య', '|'), ('రో', 'U'), ('త', '|'), ('న', '|'), ('ర', '|'), ('ము', '|'), ('లు', '|'), ('శ', 'U'), ('ల్య', '|'), ('ము', 'U'), ('ల్న', '|'), ('వ', '|'), ('రం', 'U'), ('ధ్ర', '|'), ('ము', '|'), ('లు', '|'), ('ర', 'U'), ('క్త', '|'), ('మాం', 'U'), ('సం', 'U'), ('బు', '|'), ('కం', 'U'), ('డ', '|'), ('లు', '|'), ('మై', 'U'), ('ల', '|'), ('తి', 'U'), ('త్తి', '|'), ('బ', '|'), ('లు', '|'), ('వై', 'U'), ('న', '|'), ('యెం', 'U'), ('డ', '|'), ('వా', 'U'), ('న', '|'), ('ల', '|'), ('కో', 'U'), ('ర్వ', '|'), ('దిం', 'U'), ('తై', 'U'), ('న', '|'), ('దా', 'U'), ('ళ', '|'), ('లే', 'U'), ('దా', 'U'), ('క', '|'), ('లి', '|'), ('దా', 'U'), ('హ', '|'), ('ము', '|'), ('ల', '|'), ('కు', '|'), ('స', '|'), ('క', '|'), ('ల', '|'), ('రో', 'U'), ('గ', '|'), ('ము', '|'), ('ల', '|'), ('కు', '|'), ('సం', 'U'), ('స్థా', 'U'), ('న', '|'), ('మై', 'U'), ('యుం', 'U'), ('డు', '|'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('ద', 'U'), ('స్థి', '|'), ('ర', '|'), ('మై', 'U'), ('న', '|'), ('నీ', 'U'), ('టి', '|'), ('బు', 'U'), ('గ్గ', '|')]</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[('బొం', 'U'), ('ది', '|'), ('లో', 'U'), ('నుం', 'U'), ('డు', '|'), ('ప్రా', 'U'), ('ణ', '|'), ('ముల్', 'U'), ('పో', 'U'), ('యి', '|'), ('నం', 'U'), ('త', '|'), ('గా', 'U'), ('టి', '|'), ('కే', 'U'), ('గా', 'U'), ('ని', '|'), ('కొ', '|'), ('ఱ', '|'), ('గా', 'U'), ('దు', '|'), ('గ', 'U'), ('వ్వ', '|'), ('కై', 'U'), ('న', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', '|'), ('శ్రీ', 'U'), ('ధ', 'U'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
+          <t>[('బొం', 'U'), ('ది', '|'), ('లో', 'U'), ('నుం', 'U'), ('డు', '|'), ('ప్రా', 'U'), ('ణ', '|'), ('ము', 'U'), ('ల్పో', 'U'), ('యి', '|'), ('నం', 'U'), ('త', '|'), ('గా', 'U'), ('టి', '|'), ('కే', 'U'), ('గా', 'U'), ('ని', '|'), ('కొ', '|'), ('ఱ', '|'), ('గా', 'U'), ('దు', '|'), ('గ', 'U'), ('వ్వ', '|'), ('కై', 'U'), ('న', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', '|'), ('శ్రీ', 'U'), ('ధ', 'U'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[('నీ', 'U'), ('భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('ను', '|'), ('గ', '|'), ('నుల్', 'U'), ('నిం', 'U'), ('డ', '|'), ('జూ', 'U'), ('చి', '|'), ('యు', '|'), ('రెం', 'U'), ('డు', '|'), ('చే', 'U'), ('తు', '|'), ('ల', '|'), ('జో', 'U'), ('హా', 'U'), ('రు', '|'), ('సే', 'U'), ('యు', '|'), ('వా', 'U'), ('డు', '|'), ('నే', 'U'), ('ర్పు', '|'), ('తో', 'U'), ('నె', '|'), ('వ', '|'), ('రై', 'U'), ('న', '|'), ('నీ', 'U'), ('క', '|'), ('థల్', 'U'), ('చె', 'U'), ('ప్పం', 'U'), ('గ', '|'), ('వి', '|'), ('న', '|'), ('య', '|'), ('మం', 'U'), ('దు', '|'), ('చు', '|'), ('జా', 'U'), ('ల', '|'), ('వి', '|'), ('నె', '|'), ('డు', '|'), ('వా', 'U'), ('డు', '|'), ('త', '|'), ('న', '|'), ('గృ', '|'), ('హం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('నీ', 'U'), ('దా', 'U'), ('సు', '|'), ('లు', '|'), ('రా', 'U'), ('జూ', 'U'), ('చి', '|'), ('పీ', 'U'), ('ట', '|'), ('పై', 'U'), ('గూ', 'U'), ('ర్చుం', 'U'), ('డ', '|'), ('బె', 'U'), ('ట్టు', '|'), ('వా', 'U'), ('డు', '|'), ('నీ', 'U'), ('సే', 'U'), ('వ', '|'), ('కు', '|'), ('ల', '|'), ('జా', 'U'), ('తి', '|'), ('నీ', 'U'), ('తు', '|'), ('లె', 'U'), ('న్న', '|'), ('క', '|'), ('చా', 'U'), ('ల', '|'), ('దా', 'U'), ('సో', 'U'), ('హ', '|'), ('మ', '|'), ('ని', '|'), ('చే', 'U'), ('ర', '|'), ('ద', '|'), ('ల', '|'), ('చు', '|'), ('వా', 'U'), ('డు', '|')]</t>
+          <t>[('నీ', 'U'), ('భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('ను', '|'), ('గ', '|'), ('ను', 'U'), ('ల్నిం', 'U'), ('డ', '|'), ('జూ', 'U'), ('చి', '|'), ('యు', '|'), ('రెం', 'U'), ('డు', '|'), ('చే', 'U'), ('తు', '|'), ('ల', '|'), ('జో', 'U'), ('హా', 'U'), ('రు', '|'), ('సే', 'U'), ('యు', '|'), ('వా', 'U'), ('డు', '|'), ('నే', 'U'), ('ర్పు', '|'), ('తో', 'U'), ('నె', '|'), ('వ', '|'), ('రై', 'U'), ('న', '|'), ('నీ', 'U'), ('క', '|'), ('థ', 'U'), ('ల్చె', 'U'), ('ప్పం', 'U'), ('గ', '|'), ('వి', '|'), ('న', '|'), ('య', '|'), ('మం', 'U'), ('దు', '|'), ('చు', '|'), ('జా', 'U'), ('ల', '|'), ('వి', '|'), ('నె', '|'), ('డు', '|'), ('వా', 'U'), ('డు', '|'), ('త', '|'), ('న', '|'), ('గృ', '|'), ('హం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('నీ', 'U'), ('దా', 'U'), ('సు', '|'), ('లు', '|'), ('రా', 'U'), ('జూ', 'U'), ('చి', '|'), ('పీ', 'U'), ('ట', '|'), ('పై', 'U'), ('గూ', 'U'), ('ర్చుం', 'U'), ('డ', '|'), ('బె', 'U'), ('ట్టు', '|'), ('వా', 'U'), ('డు', '|'), ('నీ', 'U'), ('సే', 'U'), ('వ', '|'), ('కు', '|'), ('ల', '|'), ('జా', 'U'), ('తి', '|'), ('నీ', 'U'), ('తు', '|'), ('లె', 'U'), ('న్న', '|'), ('క', '|'), ('చా', 'U'), ('ల', '|'), ('దా', 'U'), ('సో', 'U'), ('హ', '|'), ('మ', '|'), ('ని', '|'), ('చే', 'U'), ('ర', '|'), ('ద', '|'), ('ల', '|'), ('చు', '|'), ('వా', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[('ని', '|'), ('గ', '|'), ('మా', 'U'), ('ది', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ముల్', 'U'), ('నే', 'U'), ('ర్చి', '|'), ('న', 'U'), ('ద్వి', '|'), ('జు', '|'), ('డై', 'U'), ('న', '|'), ('య', 'U'), ('జ్ఞ', '|'), ('క', 'U'), ('ర్త', '|'), ('గు', '|'), ('సో', 'U'), ('మ', '|'), ('యా', 'U'), ('జి', '|'), ('యై', 'U'), ('న', '|'), ('ధ', '|'), ('ర', '|'), ('ణి', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('బ్ర', '|'), ('భా', 'U'), ('త', 'U'), ('స్నా', 'U'), ('న', '|'), ('ప', '|'), ('రు', '|'), ('డై', 'U'), ('న', '|'), ('ని', 'U'), ('త్య', '|'), ('స', 'U'), ('త్క', 'U'), ('ర్మా', 'U'), ('ది', '|'), ('ని', '|'), ('ర', '|'), ('తు', '|'), ('డై', 'U'), ('న', '|'), ('ను', '|'), ('ప', '|'), ('వా', 'U'), ('స', '|'), ('ని', '|'), ('య', '|'), ('మం', 'U'), ('బు', '|'), ('లొం', 'U'), ('దు', '|'), ('స', 'U'), ('జ్జ', '|'), ('ను', '|'), ('డై', 'U'), ('న', '|'), ('గా', 'U'), ('వి', '|'), ('వ', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('గ', 'U'), ('ట్టు', '|'), ('ఘ', '|'), ('ను', '|'), ('డు', '|'), ('నై', 'U'), ('న', '|'), ('దం', 'U'), ('డి', '|'), ('షో', 'U'), ('డ', '|'), ('శ', '|'), ('మ', '|'), ('హా', 'U'), ('దా', 'U'), ('న', '|'), ('ప', '|'), ('రుం', 'U'), ('డై', 'U'), ('న', '|'), ('స', '|'), ('క', '|'), ('ల', '|'), ('యా', 'U'), ('త్ర', '|'), ('లు', '|'), ('స', 'U'), ('ల్పు', '|'), ('స', '|'), ('ర', '|'), ('సు', '|'), ('డై', 'U'), ('న', '|')]</t>
+          <t>[('ని', '|'), ('గ', '|'), ('మా', 'U'), ('ది', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('ము', 'U'), ('ల్నే', 'U'), ('ర్చి', '|'), ('న', 'U'), ('ద్వి', '|'), ('జు', '|'), ('డై', 'U'), ('న', '|'), ('య', 'U'), ('జ్ఞ', '|'), ('క', 'U'), ('ర్త', '|'), ('గు', '|'), ('సో', 'U'), ('మ', '|'), ('యా', 'U'), ('జి', '|'), ('యై', 'U'), ('న', '|'), ('ధ', '|'), ('ర', '|'), ('ణి', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('బ్ర', '|'), ('భా', 'U'), ('త', 'U'), ('స్నా', 'U'), ('న', '|'), ('ప', '|'), ('రు', '|'), ('డై', 'U'), ('న', '|'), ('ని', 'U'), ('త్య', '|'), ('స', 'U'), ('త్క', 'U'), ('ర్మా', 'U'), ('ది', '|'), ('ని', '|'), ('ర', '|'), ('తు', '|'), ('డై', 'U'), ('న', '|'), ('ను', '|'), ('ప', '|'), ('వా', 'U'), ('స', '|'), ('ని', '|'), ('య', '|'), ('మం', 'U'), ('బు', '|'), ('లొం', 'U'), ('దు', '|'), ('స', 'U'), ('జ్జ', '|'), ('ను', '|'), ('డై', 'U'), ('న', '|'), ('గా', 'U'), ('వి', '|'), ('వ', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('గ', 'U'), ('ట్టు', '|'), ('ఘ', '|'), ('ను', '|'), ('డు', '|'), ('నై', 'U'), ('న', '|'), ('దం', 'U'), ('డి', '|'), ('షో', 'U'), ('డ', '|'), ('శ', '|'), ('మ', '|'), ('హా', 'U'), ('దా', 'U'), ('న', '|'), ('ప', '|'), ('రుం', 'U'), ('డై', 'U'), ('న', '|'), ('స', '|'), ('క', '|'), ('ల', '|'), ('యా', 'U'), ('త్ర', '|'), ('లు', '|'), ('స', 'U'), ('ల్పు', '|'), ('స', '|'), ('ర', '|'), ('సు', '|'), ('డై', 'U'), ('న', '|')]</t>
         </is>
       </c>
     </row>
@@ -4198,7 +4198,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[('వే', 'U'), ('మా', 'U'), ('ఱు', '|'), ('నీ', 'U'), ('క', '|'), ('థల్', 'U'), ('వి', '|'), ('ను', '|'), ('చు', '|'), ('నుం', 'U'), ('డె', '|'), ('డి', '|'), ('వా', 'U'), ('డు', '|'), ('ప', '|'), ('రు', '|'), ('ల', '|'), ('ము', 'U'), ('చ్చ', '|'), ('ట', '|'), ('మీ', 'U'), ('ద', '|'), ('భ్రాం', 'U'), ('తి', '|'), ('ప', '|'), ('డ', '|'), ('డు', '|'), ('అ', '|'), ('గ', '|'), ('ణి', '|'), ('తం', 'U'), ('బు', '|'), ('గ', '|'), ('ని', 'U'), ('న్ను', '|'), ('బొ', '|'), ('గ', '|'), ('డ', '|'), ('నే', 'U'), ('ర్చి', '|'), ('న', '|'), ('వా', 'U'), ('డు', '|'), ('చె', 'U'), ('డ్డ', '|'), ('మా', 'U'), ('ట', '|'), ('లు', '|'), ('నో', 'U'), ('ట', '|'), ('జె', 'U'), ('ప్ప', '|'), ('బో', 'U'), ('డు', '|'), ('ఆ', 'U'), ('స', 'U'), ('క్తి', '|'), ('చే', 'U'), ('త', '|'), ('ని', 'U'), ('న్న', '|'), ('ను', '|'), ('స', '|'), ('రిం', 'U'), ('చె', '|'), ('డి', '|'), ('వా', 'U'), ('డు', '|'), ('ధ', '|'), ('న', '|'), ('మ', '|'), ('దాం', 'U'), ('ధు', '|'), ('ల', '|'), ('వెం', 'U'), ('ట', '|'), ('ద', '|'), ('గు', '|'), ('ల', '|'), ('బో', 'U'), ('డు', '|'), ('సం', 'U'), ('త', '|'), ('సం', 'U'), ('బు', '|'), ('న', '|'), ('ని', 'U'), ('న్ను', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణ', '|'), ('జే', 'U'), ('సె', '|'), ('డి', '|'), ('వా', 'U'), ('డు', '|'), ('చె', '|'), ('ల', '|'), ('గి', '|'), ('నీ', 'U'), ('చు', '|'), ('ల', '|'), ('పే', 'U'), ('రు', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('బో', 'U'), ('డు', '|')]</t>
+          <t>[('వే', 'U'), ('మా', 'U'), ('ఱు', '|'), ('నీ', 'U'), ('క', '|'), ('థ', 'U'), ('ల్వి', '|'), ('ను', '|'), ('చు', '|'), ('నుం', 'U'), ('డె', '|'), ('డి', '|'), ('వా', 'U'), ('డు', '|'), ('ప', '|'), ('రు', '|'), ('ల', '|'), ('ము', 'U'), ('చ్చ', '|'), ('ట', '|'), ('మీ', 'U'), ('ద', '|'), ('భ్రాం', 'U'), ('తి', '|'), ('ప', '|'), ('డ', '|'), ('డు', '|'), ('అ', '|'), ('గ', '|'), ('ణి', '|'), ('తం', 'U'), ('బు', '|'), ('గ', '|'), ('ని', 'U'), ('న్ను', '|'), ('బొ', '|'), ('గ', '|'), ('డ', '|'), ('నే', 'U'), ('ర్చి', '|'), ('న', '|'), ('వా', 'U'), ('డు', '|'), ('చె', 'U'), ('డ్డ', '|'), ('మా', 'U'), ('ట', '|'), ('లు', '|'), ('నో', 'U'), ('ట', '|'), ('జె', 'U'), ('ప్ప', '|'), ('బో', 'U'), ('డు', '|'), ('ఆ', 'U'), ('స', 'U'), ('క్తి', '|'), ('చే', 'U'), ('త', '|'), ('ని', 'U'), ('న్న', '|'), ('ను', '|'), ('స', '|'), ('రిం', 'U'), ('చె', '|'), ('డి', '|'), ('వా', 'U'), ('డు', '|'), ('ధ', '|'), ('న', '|'), ('మ', '|'), ('దాం', 'U'), ('ధు', '|'), ('ల', '|'), ('వెం', 'U'), ('ట', '|'), ('ద', '|'), ('గు', '|'), ('ల', '|'), ('బో', 'U'), ('డు', '|'), ('సం', 'U'), ('త', '|'), ('సం', 'U'), ('బు', '|'), ('న', '|'), ('ని', 'U'), ('న్ను', 'U'), ('స్మ', '|'), ('ర', '|'), ('ణ', '|'), ('జే', 'U'), ('సె', '|'), ('డి', '|'), ('వా', 'U'), ('డు', '|'), ('చె', '|'), ('ల', '|'), ('గి', '|'), ('నీ', 'U'), ('చు', '|'), ('ల', '|'), ('పే', 'U'), ('రు', '|'), ('ద', '|'), ('ల', '|'), ('ప', '|'), ('బో', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[('వే', 'U'), ('ద', '|'), ('ముల్', 'U'), ('చ', '|'), ('ది', '|'), ('వె', '|'), ('డు', '|'), ('వి', '|'), ('ప్ర', '|'), ('వ', 'U'), ('ర్యుం', 'U'), ('డై', 'U'), ('న', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('సా', 'U'), ('ధిం', 'U'), ('చె', '|'), ('డు', '|'), ('రా', 'U'), ('జు', '|'), ('లై', 'U'), ('న', '|'), ('వ', 'U'), ('ర్త', '|'), ('క', '|'), ('కృ', '|'), ('షి', '|'), ('కు', '|'), ('డౌ', 'U'), ('వై', 'U'), ('శ్య', '|'), ('ము', 'U'), ('ఖ్యుం', 'U'), ('డై', 'U'), ('న', '|'), ('బ', '|'), ('రి', '|'), ('చ', '|'), ('రిం', 'U'), ('చె', '|'), ('డు', '|'), ('శూ', 'U'), ('ద్ర', '|'), ('వ', 'U'), ('ర్యు', '|'), ('డై', 'U'), ('న', '|'), ('మె', 'U'), ('చ్చు', '|'), ('ఖ', 'U'), ('డ్గ', '|'), ('ము', '|'), ('బ', 'U'), ('ట్టి', '|'), ('మె', '|'), ('ఱ', '|'), ('యు', 'U'), ('మ్లే', 'U'), ('చ్ఛుం', 'U'), ('డై', 'U'), ('న', '|'), ('బ్ర', '|'), ('జ', '|'), ('ల', '|'), ('క', 'U'), ('క్క', '|'), ('ఱ', '|'), ('ప', '|'), ('డు', '|'), ('ర', '|'), ('జ', '|'), ('కు', '|'), ('డై', 'U'), ('న', '|'), ('చ', 'U'), ('ర్మ', '|'), ('మ', 'U'), ('మ్మె', '|'), ('డు', '|'), ('హీ', 'U'), ('న', '|'), ('చం', 'U'), ('డా', 'U'), ('ల', '|'), ('న', '|'), ('రు', '|'), ('డై', 'U'), ('న', '|'), ('నీ', 'U'), ('మ', '|'), ('హీ', 'U'), ('త', '|'), ('ల', '|'), ('మం', 'U'), ('దు', '|'), ('నె', 'U'), ('వ్వ', '|'), ('డై', 'U'), ('న', '|')]</t>
+          <t>[('వే', 'U'), ('ద', '|'), ('ము', 'U'), ('ల్చ', '|'), ('ది', '|'), ('వె', '|'), ('డు', '|'), ('వి', '|'), ('ప్ర', '|'), ('వ', 'U'), ('ర్యుం', 'U'), ('డై', 'U'), ('న', '|'), ('ర', '|'), ('ణ', '|'), ('ము', '|'), ('సా', 'U'), ('ధిం', 'U'), ('చె', '|'), ('డు', '|'), ('రా', 'U'), ('జు', '|'), ('లై', 'U'), ('న', '|'), ('వ', 'U'), ('ర్త', '|'), ('క', '|'), ('కృ', '|'), ('షి', '|'), ('కు', '|'), ('డౌ', 'U'), ('వై', 'U'), ('శ్య', '|'), ('ము', 'U'), ('ఖ్యుం', 'U'), ('డై', 'U'), ('న', '|'), ('బ', '|'), ('రి', '|'), ('చ', '|'), ('రిం', 'U'), ('చె', '|'), ('డు', '|'), ('శూ', 'U'), ('ద్ర', '|'), ('వ', 'U'), ('ర్యు', '|'), ('డై', 'U'), ('న', '|'), ('మె', 'U'), ('చ్చు', '|'), ('ఖ', 'U'), ('డ్గ', '|'), ('ము', '|'), ('బ', 'U'), ('ట్టి', '|'), ('మె', '|'), ('ఱ', '|'), ('యు', 'U'), ('మ్లే', 'U'), ('చ్ఛుం', 'U'), ('డై', 'U'), ('న', '|'), ('బ్ర', '|'), ('జ', '|'), ('ల', '|'), ('క', 'U'), ('క్క', '|'), ('ఱ', '|'), ('ప', '|'), ('డు', '|'), ('ర', '|'), ('జ', '|'), ('కు', '|'), ('డై', 'U'), ('న', '|'), ('చ', 'U'), ('ర్మ', '|'), ('మ', 'U'), ('మ్మె', '|'), ('డు', '|'), ('హీ', 'U'), ('న', '|'), ('చం', 'U'), ('డా', 'U'), ('ల', '|'), ('న', '|'), ('రు', '|'), ('డై', 'U'), ('న', '|'), ('నీ', 'U'), ('మ', '|'), ('హీ', 'U'), ('త', '|'), ('ల', '|'), ('మం', 'U'), ('దు', '|'), ('నె', 'U'), ('వ్వ', '|'), ('డై', 'U'), ('న', '|')]</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4836,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>[('ఇ', '|'), ('భ', '|'), ('కుం', 'U'), ('భ', '|'), ('ము', '|'), ('ల', '|'), ('మీ', 'U'), ('ది', '|'), ('కె', '|'), ('గి', '|'), ('రె', '|'), ('డి', '|'), ('సిం', 'U'), ('గం', 'U'), ('బు', '|'), ('ము', 'U'), ('ట్టు', '|'), ('నే', 'U'), ('కు', '|'), ('ఱ', '|'), ('చై', 'U'), ('న', '|'), ('మూ', 'U'), ('షి', '|'), ('క', '|'), ('ము', '|'), ('ను', '|'), ('న', '|'), ('వ', '|'), ('చూ', 'U'), ('త', '|'), ('ప', '|'), ('త్ర', '|'), ('ముల్', 'U'), ('న', '|'), ('మ', '|'), ('లు', '|'), ('చు', 'U'), ('న్న', '|'), ('పి', '|'), ('కం', 'U'), ('బు', '|'), ('గొ', '|'), ('ఱు', '|'), ('కు', '|'), ('నే', 'U'), ('జి', 'U'), ('ల్లే', 'U'), ('డు', '|'), ('కొ', '|'), ('న', '|'), ('లు', '|'), ('నో', 'U'), ('ట', '|'), ('అ', '|'), ('ర', '|'), ('విం', 'U'), ('ద', '|'), ('మ', '|'), ('క', '|'), ('రం', 'U'), ('ద', '|'), ('మ', '|'), ('ను', '|'), ('భ', '|'), ('విం', 'U'), ('చె', '|'), ('డి', '|'), ('తే', 'U'), ('టి', '|'), ('పో', 'U'), ('వు', '|'), ('నే', 'U'), ('ప', 'U'), ('ల్లే', 'U'), ('రు', '|'), ('పూ', 'U'), ('ల', '|'), ('క', '|'), ('డ', '|'), ('కు', '|'), ('ల', '|'), ('లి', '|'), ('త', '|'), ('మై', 'U'), ('న', '|'), ('ర', '|'), ('సా', 'U'), ('ల', '|'), ('ఫ', '|'), ('ల', '|'), ('ము', '|'), ('గో', 'U'), ('రె', '|'), ('డి', '|'), ('చి', 'U'), ('ల్క', '|'), ('మె', '|'), ('స', '|'), ('వు', '|'), ('నే', 'U'), ('భ్ర', '|'), ('మ', '|'), ('త', '|'), ('ను', 'U'), ('మ్మె', 'U'), ('త్త', '|'), ('కా', 'U'), ('య', '|')]</t>
+          <t>[('ఇ', '|'), ('భ', '|'), ('కుం', 'U'), ('భ', '|'), ('ము', '|'), ('ల', '|'), ('మీ', 'U'), ('ది', '|'), ('కె', '|'), ('గి', '|'), ('రె', '|'), ('డి', '|'), ('సిం', 'U'), ('గం', 'U'), ('బు', '|'), ('ము', 'U'), ('ట్టు', '|'), ('నే', 'U'), ('కు', '|'), ('ఱ', '|'), ('చై', 'U'), ('న', '|'), ('మూ', 'U'), ('షి', '|'), ('క', '|'), ('ము', '|'), ('ను', '|'), ('న', '|'), ('వ', '|'), ('చూ', 'U'), ('త', '|'), ('ప', '|'), ('త్ర', '|'), ('ము', 'U'), ('ల్న', '|'), ('మ', '|'), ('లు', '|'), ('చు', 'U'), ('న్న', '|'), ('పి', '|'), ('కం', 'U'), ('బు', '|'), ('గొ', '|'), ('ఱు', '|'), ('కు', '|'), ('నే', 'U'), ('జి', 'U'), ('ల్లే', 'U'), ('డు', '|'), ('కొ', '|'), ('న', '|'), ('లు', '|'), ('నో', 'U'), ('ట', '|'), ('అ', '|'), ('ర', '|'), ('విం', 'U'), ('ద', '|'), ('మ', '|'), ('క', '|'), ('రం', 'U'), ('ద', '|'), ('మ', '|'), ('ను', '|'), ('భ', '|'), ('విం', 'U'), ('చె', '|'), ('డి', '|'), ('తే', 'U'), ('టి', '|'), ('పో', 'U'), ('వు', '|'), ('నే', 'U'), ('ప', 'U'), ('ల్లే', 'U'), ('రు', '|'), ('పూ', 'U'), ('ల', '|'), ('క', '|'), ('డ', '|'), ('కు', '|'), ('ల', '|'), ('లి', '|'), ('త', '|'), ('మై', 'U'), ('న', '|'), ('ర', '|'), ('సా', 'U'), ('ల', '|'), ('ఫ', '|'), ('ల', '|'), ('ము', '|'), ('గో', 'U'), ('రె', '|'), ('డి', '|'), ('చి', 'U'), ('ల్క', '|'), ('మె', '|'), ('స', '|'), ('వు', '|'), ('నే', 'U'), ('భ్ర', '|'), ('మ', '|'), ('త', '|'), ('ను', 'U'), ('మ్మె', 'U'), ('త్త', '|'), ('కా', 'U'), ('య', '|')]</t>
         </is>
       </c>
     </row>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>[('హ', '|'), ('రి', '|'), ('దా', 'U'), ('సు', '|'), ('ల', '|'), ('ను', '|'), ('నిం', 'U'), ('ద', '|'), ('లా', 'U'), ('డ', '|'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('జా', 'U'), ('లు', '|'), ('స', '|'), ('క', '|'), ('ల', '|'), ('గ్రం', 'U'), ('థం', 'U'), ('బు', '|'), ('లు', '|'), ('చ', '|'), ('ది', '|'), ('వి', '|'), ('న', 'U'), ('ట్లు', '|'), ('భి', 'U'), ('క్ష', '|'), ('మి', 'U'), ('య్యం', 'U'), ('గ', '|'), ('ద', 'U'), ('ప్పిం', 'U'), ('ప', '|'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('జా', 'U'), ('లు', '|'), ('జే', 'U'), ('ము', 'U'), ('ట్టి', '|'), ('దా', 'U'), ('నం', 'U'), ('బు', '|'), ('చే', 'U'), ('సి', '|'), ('న', 'U'), ('ట్లు', '|'), ('మిం', 'U'), ('చి', '|'), ('స', 'U'), ('జ్జ', '|'), ('ను', '|'), ('ల', '|'), ('వం', 'U'), ('చిం', 'U'), ('చ', '|'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('జా', 'U'), ('లు', '|'), ('నిం', 'U'), ('పు', '|'), ('గా', 'U'), ('బ', '|'), ('హు', '|'), ('మా', 'U'), ('న', '|'), ('మి', 'U'), ('చ్చి', '|'), ('న', 'U'), ('ట్లు', '|'), ('దే', 'U'), ('వా', 'U'), ('గ్ర', '|'), ('హా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('దీ', 'U'), ('య', '|'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('జా', 'U'), ('లు', '|'), ('గ', '|'), ('న', '|'), ('క', '|'), ('కం', 'U'), ('బ', '|'), ('పు', '|'), ('గు', 'U'), ('ళ్లు', '|'), ('గ', 'U'), ('ట్టి', '|'), ('న', 'U'), ('ట్లు', '|')]</t>
+          <t>[('హ', '|'), ('రి', '|'), ('దా', 'U'), ('సు', '|'), ('ల', '|'), ('ను', '|'), ('నిం', 'U'), ('ద', '|'), ('లా', 'U'), ('డ', '|'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('జా', 'U'), ('లు', '|'), ('స', '|'), ('క', '|'), ('ల', '|'), ('గ్రం', 'U'), ('థం', 'U'), ('బు', '|'), ('లు', '|'), ('చ', '|'), ('ది', '|'), ('వి', '|'), ('న', 'U'), ('ట్లు', '|'), ('భి', 'U'), ('క్ష', '|'), ('మి', 'U'), ('య్యం', 'U'), ('గ', '|'), ('ద', 'U'), ('ప్పిం', 'U'), ('ప', '|'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('జా', 'U'), ('లు', '|'), ('జే', 'U'), ('ము', 'U'), ('ట్టి', '|'), ('దా', 'U'), ('నం', 'U'), ('బు', '|'), ('చే', 'U'), ('సి', '|'), ('న', 'U'), ('ట్లు', '|'), ('మిం', 'U'), ('చి', '|'), ('స', 'U'), ('జ్జ', '|'), ('ను', '|'), ('ల', '|'), ('వం', 'U'), ('చిం', 'U'), ('చ', '|'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('జా', 'U'), ('లు', '|'), ('నిం', 'U'), ('పు', '|'), ('గా', 'U'), ('బ', '|'), ('హు', '|'), ('మా', 'U'), ('న', '|'), ('మి', 'U'), ('చ్చి', '|'), ('న', 'U'), ('ట్లు', '|'), ('దే', 'U'), ('వా', 'U'), ('గ్ర', '|'), ('హా', 'U'), ('ర', '|'), ('ము', 'U'), ('ల్దీ', 'U'), ('య', '|'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('జా', 'U'), ('లు', '|'), ('గ', '|'), ('న', '|'), ('క', '|'), ('కం', 'U'), ('బ', '|'), ('పు', '|'), ('గు', 'U'), ('ళ్లు', '|'), ('గ', 'U'), ('ట్టి', '|'), ('న', 'U'), ('ట్లు', '|')]</t>
         </is>
       </c>
     </row>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>[('ఒ', '|'), ('క', '|'), ('రి', '|'), ('వ', 'U'), ('ర్షా', 'U'), ('శ', '|'), ('న', '|'), ('ము', '|'), ('ముం', 'U'), ('చ', '|'), ('కు', 'U'), ('న్న', '|'), ('జా', 'U'), ('లు', '|'), ('బే', 'U'), ('రు', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('గ', '|'), ('స', '|'), ('త్ర', '|'), ('ముల్', 'U'), ('పె', 'U'), ('ట్టి', '|'), ('న', 'U'), ('ట్లు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', '|'), ('శ్రీ', 'U'), ('ధ', 'U'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
+          <t>[('ఒ', '|'), ('క', '|'), ('రి', '|'), ('వ', 'U'), ('ర్షా', 'U'), ('శ', '|'), ('న', '|'), ('ము', '|'), ('ముం', 'U'), ('చ', '|'), ('కు', 'U'), ('న్న', '|'), ('జా', 'U'), ('లు', '|'), ('బే', 'U'), ('రు', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('గ', '|'), ('స', '|'), ('త్ర', '|'), ('ము', 'U'), ('ల్పె', 'U'), ('ట్టి', '|'), ('న', 'U'), ('ట్లు', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', '|'), ('శ్రీ', 'U'), ('ధ', 'U'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>[('వ', '|'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('భ', '|'), ('జ', '|'), ('న', '|'), ('గో', 'U'), ('రు', '|'), ('చు', '|'), ('నుం', 'U'), ('డు', '|'), ('జి', 'U'), ('హ్వ', '|'), ('నీ', 'U'), ('కీ', 'U'), ('ర్త', '|'), ('నల్', 'U'), ('సే', 'U'), ('య', '|'), ('గో', 'U'), ('రు', '|'), ('హ', 'U'), ('స్త', '|'), ('యు', 'U'), ('గ్మం', 'U'), ('బు', '|'), ('ని', 'U'), ('న్న', 'U'), ('ర్చిం', 'U'), ('ప', '|'), ('గో', 'U'), ('రు', '|'), ('ను', '|'), ('గ', 'U'), ('ర్ణ', '|'), ('ముల్', 'U'), ('నీ', 'U'), ('మీ', 'U'), ('ద', '|'), ('క', '|'), ('థ', '|'), ('లు', '|'), ('గో', 'U'), ('రు', '|'), ('ద', '|'), ('ను', '|'), ('వు', '|'), ('నీ', 'U'), ('సే', 'U'), ('వ', '|'), ('యే', 'U'), ('ఘ', '|'), ('న', '|'), ('ము', '|'), ('గా', 'U'), ('గో', 'U'), ('రు', '|'), ('ను', '|'), ('న', '|'), ('య', '|'), ('న', '|'), ('ముల్', 'U'), ('నీ', 'U'), ('ద', 'U'), ('ర్శ', '|'), ('నం', 'U'), ('బు', '|'), ('గో', 'U'), ('రు', '|'), ('మూ', 'U'), ('ర్ధ', 'U'), ('మ్ము', '|'), ('నీ', 'U'), ('ప', '|'), ('ద', 'U'), ('మ్ము', '|'), ('ల', '|'), ('మ్రొ', 'U'), ('క్క', '|'), ('గా', 'U'), ('గో', 'U'), ('రు', '|'), ('నా', 'U'), ('త్మ', '|'), ('నీ', 'U'), ('దై', 'U'), ('యుం', 'U'), ('డు', '|'), ('న', '|'), ('ర', '|'), ('సి', '|'), ('చూ', 'U'), ('డ', '|')]</t>
+          <t>[('వ', '|'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('నీ', 'U'), ('నా', 'U'), ('మ', '|'), ('భ', '|'), ('జ', '|'), ('న', '|'), ('గో', 'U'), ('రు', '|'), ('చు', '|'), ('నుం', 'U'), ('డు', '|'), ('జి', 'U'), ('హ్వ', '|'), ('నీ', 'U'), ('కీ', 'U'), ('ర్త', '|'), ('న', 'U'), ('ల్సే', 'U'), ('య', '|'), ('గో', 'U'), ('రు', '|'), ('హ', 'U'), ('స్త', '|'), ('యు', 'U'), ('గ్మం', 'U'), ('బు', '|'), ('ని', 'U'), ('న్న', 'U'), ('ర్చిం', 'U'), ('ప', '|'), ('గో', 'U'), ('రు', '|'), ('ను', '|'), ('గ', 'U'), ('ర్ణ', '|'), ('ము', 'U'), ('ల్నీ', 'U'), ('మీ', 'U'), ('ద', '|'), ('క', '|'), ('థ', '|'), ('లు', '|'), ('గో', 'U'), ('రు', '|'), ('ద', '|'), ('ను', '|'), ('వు', '|'), ('నీ', 'U'), ('సే', 'U'), ('వ', '|'), ('యే', 'U'), ('ఘ', '|'), ('న', '|'), ('ము', '|'), ('గా', 'U'), ('గో', 'U'), ('రు', '|'), ('ను', '|'), ('న', '|'), ('య', '|'), ('న', '|'), ('ము', 'U'), ('ల్నీ', 'U'), ('ద', 'U'), ('ర్శ', '|'), ('నం', 'U'), ('బు', '|'), ('గో', 'U'), ('రు', '|'), ('మూ', 'U'), ('ర్ధ', 'U'), ('మ్ము', '|'), ('నీ', 'U'), ('ప', '|'), ('ద', 'U'), ('మ్ము', '|'), ('ల', '|'), ('మ్రొ', 'U'), ('క్క', '|'), ('గా', 'U'), ('గో', 'U'), ('రు', '|'), ('నా', 'U'), ('త్మ', '|'), ('నీ', 'U'), ('దై', 'U'), ('యుం', 'U'), ('డు', '|'), ('న', '|'), ('ర', '|'), ('సి', '|'), ('చూ', 'U'), ('డ', '|')]</t>
         </is>
       </c>
     </row>
@@ -5416,7 +5416,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>[('తా', 'U'), ('ర్క్ష్య', '|'), ('వా', 'U'), ('హ', '|'), ('న', '|'), ('నీ', 'U'), ('వు', '|'), ('దం', 'U'), ('డి', '|'), ('దా', 'U'), ('త', '|'), ('వ', '|'), ('టం', 'U'), ('చు', '|'), ('గో', 'U'), ('రి', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('ని', 'U'), ('న్ను', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('వ', 'U'), ('చ్చి', '|'), ('య', 'U'), ('ర్థి', '|'), ('మా', 'U'), ('ర్గ', '|'), ('ము', '|'), ('ను', '|'), ('నే', 'U'), ('న', '|'), ('ను', '|'), ('స', '|'), ('రిం', 'U'), ('చి', '|'), ('తి', '|'), ('న', 'U'), ('య్య', '|'), ('లా', 'U'), ('వై', 'U'), ('న', '|'), ('బ', '|'), ('దు', '|'), ('నా', 'U'), ('ల్గు', '|'), ('ల', 'U'), ('క్ష', '|'), ('లై', 'U'), ('న', '|'), ('వే', 'U'), ('ష', '|'), ('ముల్', 'U'), ('వే', 'U'), ('సి', '|'), ('నా', 'U'), ('వి', 'U'), ('ద్యా', 'U'), ('ప్ర', '|'), ('గ', 'U'), ('ల్భ', '|'), ('త', '|'), ('జూ', 'U'), ('ప', '|'), ('సా', 'U'), ('గి', '|'), ('తి', '|'), ('నీ', 'U'), ('కు', '|'), ('సుం', 'U'), ('ద', '|'), ('రాం', 'U'), ('గ', '|'), ('యా', 'U'), ('నం', 'U'), ('ద', '|'), ('మై', 'U'), ('న', '|'), ('నే', 'U'), ('న', '|'), ('డు', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('దె', 'U'), ('చ్చి', '|'), ('వాం', 'U'), ('ఛ', '|'), ('దీ', 'U'), ('ర్పు', '|'), ('ము', '|'), ('నీ', 'U'), ('ల', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('వే', 'U'), ('గ', '|')]</t>
+          <t>[('తా', 'U'), ('ర్క్ష్య', '|'), ('వా', 'U'), ('హ', '|'), ('న', '|'), ('నీ', 'U'), ('వు', '|'), ('దం', 'U'), ('డి', '|'), ('దా', 'U'), ('త', '|'), ('వ', '|'), ('టం', 'U'), ('చు', '|'), ('గో', 'U'), ('రి', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('ని', 'U'), ('న్ను', '|'), ('గొ', 'U'), ('ల్వ', '|'), ('వ', 'U'), ('చ్చి', '|'), ('య', 'U'), ('ర్థి', '|'), ('మా', 'U'), ('ర్గ', '|'), ('ము', '|'), ('ను', '|'), ('నే', 'U'), ('న', '|'), ('ను', '|'), ('స', '|'), ('రిం', 'U'), ('చి', '|'), ('తి', '|'), ('న', 'U'), ('య్య', '|'), ('లా', 'U'), ('వై', 'U'), ('న', '|'), ('బ', '|'), ('దు', '|'), ('నా', 'U'), ('ల్గు', '|'), ('ల', 'U'), ('క్ష', '|'), ('లై', 'U'), ('న', '|'), ('వే', 'U'), ('ష', '|'), ('ము', 'U'), ('ల్వే', 'U'), ('సి', '|'), ('నా', 'U'), ('వి', 'U'), ('ద్యా', 'U'), ('ప్ర', '|'), ('గ', 'U'), ('ల్భ', '|'), ('త', '|'), ('జూ', 'U'), ('ప', '|'), ('సా', 'U'), ('గి', '|'), ('తి', '|'), ('నీ', 'U'), ('కు', '|'), ('సుం', 'U'), ('ద', '|'), ('రాం', 'U'), ('గ', '|'), ('యా', 'U'), ('నం', 'U'), ('ద', '|'), ('మై', 'U'), ('న', '|'), ('నే', 'U'), ('న', '|'), ('డు', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('దె', 'U'), ('చ్చి', '|'), ('వాం', 'U'), ('ఛ', '|'), ('దీ', 'U'), ('ర్పు', '|'), ('ము', '|'), ('నీ', 'U'), ('ల', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('వే', 'U'), ('గ', '|')]</t>
         </is>
       </c>
     </row>
@@ -5444,7 +5444,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>[('నీ', 'U'), ('కు', '|'), ('నా', 'U'), ('వి', 'U'), ('ద్య', '|'), ('హ', 'U'), ('ర్షం', 'U'), ('బు', '|'), ('గా', 'U'), ('క', '|'), ('యు', 'U'), ('న్న', '|'), ('తే', 'U'), ('ప', '|'), ('తే', 'U'), ('ప', '|'), ('కు', '|'), ('వే', 'U'), ('ష', '|'), ('ముల్', 'U'), ('దే', 'U'), ('ను', '|'), ('సు', 'U'), ('మ్మి', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', '|'), ('శ్రీ', 'U'), ('ధ', 'U'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
+          <t>[('నీ', 'U'), ('కు', '|'), ('నా', 'U'), ('వి', 'U'), ('ద్య', '|'), ('హ', 'U'), ('ర్షం', 'U'), ('బు', '|'), ('గా', 'U'), ('క', '|'), ('యు', 'U'), ('న్న', '|'), ('తే', 'U'), ('ప', '|'), ('తే', 'U'), ('ప', '|'), ('కు', '|'), ('వే', 'U'), ('ష', '|'), ('ము', 'U'), ('ల్దే', 'U'), ('ను', '|'), ('సు', 'U'), ('మ్మి', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', '|'), ('శ్రీ', 'U'), ('ధ', 'U'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
@@ -5474,7 +5474,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('మ', '|'), ('రేం', 'U'), ('ద్ర', '|'), ('వి', '|'), ('ను', '|'), ('త', '|'), ('నే', 'U'), ('న', '|'), ('తి', '|'), ('దు', '|'), ('రా', 'U'), ('త్ము', '|'), ('డ', '|'), ('నం', 'U'), ('చు', '|'), ('గ', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('నై', 'U'), ('న', '|'), ('ను', '|'), ('గ', '|'), ('ను', '|'), ('ల', '|'), ('బ', '|'), ('డ', '|'), ('వు', '|'), ('నీ', 'U'), ('వు', '|'), ('ప్ర', 'U'), ('త్య', 'U'), ('క్ష', '|'), ('మై', 'U'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('మా', 'U'), ('నె', '|'), ('దొ', 'U'), ('డ్డ', '|'), ('గా', 'U'), ('నొ', '|'), ('క', '|'), ('యు', 'U'), ('క్తి', '|'), ('దొ', '|'), ('ర', '|'), ('కె', '|'), ('న', 'U'), ('య్య', '|'), ('గ', 'U'), ('ట్టి', '|'), ('కొ', 'U'), ('య్య', '|'), ('ను', '|'), ('దె', 'U'), ('చ్చి', '|'), ('ఘ', '|'), ('న', '|'), ('ము', '|'), ('గా', 'U'), ('ఖం', 'U'), ('డిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('స్వ', '|'), ('రూ', 'U'), ('ప', '|'), ('ము', '|'), ('చే', 'U'), ('సి', '|'), ('ని', '|'), ('లు', '|'), ('పు', '|'), ('కొం', 'U'), ('దు', '|'), ('ధూ', 'U'), ('ప', '|'), ('దీ', 'U'), ('ప', '|'), ('ము', '|'), ('లి', 'U'), ('చ్చి', '|'), ('తు', '|'), ('ల', '|'), ('సి', '|'), ('తో', 'U'), ('బూ', 'U'), ('జిం', 'U'), ('చి', '|'), ('ని', 'U'), ('త్య', '|'), ('నై', 'U'), ('వే', 'U'), ('ద్య', '|'), ('ముల్', 'U'), ('నే', 'U'), ('మ', '|'), ('ము', '|'), ('గ', '|'), ('ను', '|')]</t>
+          <t>[('అ', '|'), ('మ', '|'), ('రేం', 'U'), ('ద్ర', '|'), ('వి', '|'), ('ను', '|'), ('త', '|'), ('నే', 'U'), ('న', '|'), ('తి', '|'), ('దు', '|'), ('రా', 'U'), ('త్ము', '|'), ('డ', '|'), ('నం', 'U'), ('చు', '|'), ('గ', '|'), ('ల', '|'), ('లో', 'U'), ('న', '|'), ('నై', 'U'), ('న', '|'), ('ను', '|'), ('గ', '|'), ('ను', '|'), ('ల', '|'), ('బ', '|'), ('డ', '|'), ('వు', '|'), ('నీ', 'U'), ('వు', '|'), ('ప్ర', 'U'), ('త్య', 'U'), ('క్ష', '|'), ('మై', 'U'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('కుం', 'U'), ('డి', '|'), ('న', '|'), ('మా', 'U'), ('నె', '|'), ('దొ', 'U'), ('డ్డ', '|'), ('గా', 'U'), ('నొ', '|'), ('క', '|'), ('యు', 'U'), ('క్తి', '|'), ('దొ', '|'), ('ర', '|'), ('కె', '|'), ('న', 'U'), ('య్య', '|'), ('గ', 'U'), ('ట్టి', '|'), ('కొ', 'U'), ('య్య', '|'), ('ను', '|'), ('దె', 'U'), ('చ్చి', '|'), ('ఘ', '|'), ('న', '|'), ('ము', '|'), ('గా', 'U'), ('ఖం', 'U'), ('డిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('స్వ', '|'), ('రూ', 'U'), ('ప', '|'), ('ము', '|'), ('చే', 'U'), ('సి', '|'), ('ని', '|'), ('లు', '|'), ('పు', '|'), ('కొం', 'U'), ('దు', '|'), ('ధూ', 'U'), ('ప', '|'), ('దీ', 'U'), ('ప', '|'), ('ము', '|'), ('లి', 'U'), ('చ్చి', '|'), ('తు', '|'), ('ల', '|'), ('సి', '|'), ('తో', 'U'), ('బూ', 'U'), ('జిం', 'U'), ('చి', '|'), ('ని', 'U'), ('త్య', '|'), ('నై', 'U'), ('వే', 'U'), ('ద్య', '|'), ('ము', 'U'), ('ల్నే', 'U'), ('మ', '|'), ('ము', '|'), ('గ', '|'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
@@ -5618,7 +5618,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>[('వీ', 'U'), ('రి', '|'), ('కె', '|'), ('ఱు', '|'), ('క', '|'), ('గు', '|'), ('నీ', 'U'), ('క', '|'), ('థల్', 'U'), ('విం', 'U'), ('త', '|'), ('లె', 'U'), ('ల్ల', '|'), ('న', '|'), ('రు', '|'), ('ల', '|'), ('కె', '|'), ('ఱు', '|'), ('క', 'U'), ('న్న', '|'), ('నె', '|'), ('వ', '|'), ('రై', 'U'), ('న', '|'), ('న', 'U'), ('వ్వి', '|'), ('పో', 'U'), ('రె', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', '|'), ('శ్రీ', 'U'), ('ధ', 'U'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
+          <t>[('వీ', 'U'), ('రి', '|'), ('కె', '|'), ('ఱు', '|'), ('క', '|'), ('గు', '|'), ('నీ', 'U'), ('క', '|'), ('థ', 'U'), ('ల్విం', 'U'), ('త', '|'), ('లె', 'U'), ('ల్ల', '|'), ('న', '|'), ('రు', '|'), ('ల', '|'), ('కె', '|'), ('ఱు', '|'), ('క', 'U'), ('న్న', '|'), ('నె', '|'), ('వ', '|'), ('రై', 'U'), ('న', '|'), ('న', 'U'), ('వ్వి', '|'), ('పో', 'U'), ('రె', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', '|'), ('శ్రీ', 'U'), ('ధ', 'U'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
@@ -5648,7 +5648,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>[('అ', 'U'), ('ర్థు', '|'), ('లే', 'U'), ('మై', 'U'), ('న', '|'), ('ని', 'U'), ('న్న', '|'), ('డు', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చె', '|'), ('ద', '|'), ('రం', 'U'), ('చు', 'U'), ('క్షీ', 'U'), ('ర', '|'), ('సా', 'U'), ('గ', '|'), ('ర', '|'), ('మం', 'U'), ('దు', '|'), ('జే', 'U'), ('రి', '|'), ('నా', 'U'), ('వు', '|'), ('నీ', 'U'), ('చు', 'U'), ('ట్టు', '|'), ('సే', 'U'), ('వ', '|'), ('కుల్', 'U'), ('ని', '|'), ('లు', '|'), ('వ', '|'), ('కుం', 'U'), ('డు', '|'), ('ట', '|'), ('కు', '|'), ('నై', 'U'), ('భ', '|'), ('య', '|'), ('ద', '|'), ('స', 'U'), ('ర్ప', '|'), ('ము', '|'), ('మీ', 'U'), ('ద', '|'), ('బం', 'U'), ('డి', '|'), ('నా', 'U'), ('వు', '|'), ('భ', 'U'), ('క్త', '|'), ('బృం', 'U'), ('ద', '|'), ('ము', '|'), ('వెం', 'U'), ('ట', '|'), ('బ', '|'), ('డి', '|'), ('చ', '|'), ('రిం', 'U'), ('చె', '|'), ('ద', '|'), ('రం', 'U'), ('చు', '|'), ('నె', '|'), ('గ', '|'), ('సి', '|'), ('పో', 'U'), ('యె', '|'), ('డి', '|'), ('ప', 'U'), ('క్షి', '|'), ('నె', 'U'), ('క్కి', '|'), ('నా', 'U'), ('వు', '|'), ('దా', 'U'), ('సు', '|'), ('లు', '|'), ('నీ', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('మా', 'U'), ('సిం', 'U'), ('ప', '|'), ('కుం', 'U'), ('ట', '|'), ('కు', '|'), ('మం', 'U'), ('చి', '|'), ('యో', 'U'), ('ధు', '|'), ('ల', '|'), ('కా', 'U'), ('వ', '|'), ('లుం', 'U'), ('చి', '|'), ('నా', 'U'), ('వు', '|')]</t>
+          <t>[('అ', 'U'), ('ర్థు', '|'), ('లే', 'U'), ('మై', 'U'), ('న', '|'), ('ని', 'U'), ('న్న', '|'), ('డు', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చె', '|'), ('ద', '|'), ('రం', 'U'), ('చు', 'U'), ('క్షీ', 'U'), ('ర', '|'), ('సా', 'U'), ('గ', '|'), ('ర', '|'), ('మం', 'U'), ('దు', '|'), ('జే', 'U'), ('రి', '|'), ('నా', 'U'), ('వు', '|'), ('నీ', 'U'), ('చు', 'U'), ('ట్టు', '|'), ('సే', 'U'), ('వ', '|'), ('కు', 'U'), ('ల్ని', '|'), ('లు', '|'), ('వ', '|'), ('కుం', 'U'), ('డు', '|'), ('ట', '|'), ('కు', '|'), ('నై', 'U'), ('భ', '|'), ('య', '|'), ('ద', '|'), ('స', 'U'), ('ర్ప', '|'), ('ము', '|'), ('మీ', 'U'), ('ద', '|'), ('బం', 'U'), ('డి', '|'), ('నా', 'U'), ('వు', '|'), ('భ', 'U'), ('క్త', '|'), ('బృం', 'U'), ('ద', '|'), ('ము', '|'), ('వెం', 'U'), ('ట', '|'), ('బ', '|'), ('డి', '|'), ('చ', '|'), ('రిం', 'U'), ('చె', '|'), ('ద', '|'), ('రం', 'U'), ('చు', '|'), ('నె', '|'), ('గ', '|'), ('సి', '|'), ('పో', 'U'), ('యె', '|'), ('డి', '|'), ('ప', 'U'), ('క్షి', '|'), ('నె', 'U'), ('క్కి', '|'), ('నా', 'U'), ('వు', '|'), ('దా', 'U'), ('సు', '|'), ('లు', '|'), ('నీ', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('మా', 'U'), ('సిం', 'U'), ('ప', '|'), ('కుం', 'U'), ('ట', '|'), ('కు', '|'), ('మం', 'U'), ('చి', '|'), ('యో', 'U'), ('ధు', '|'), ('ల', '|'), ('కా', 'U'), ('వ', '|'), ('లుం', 'U'), ('చి', '|'), ('నా', 'U'), ('వు', '|')]</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>[('నీ', 'U'), ('క', '|'), ('థల్', 'U'), ('చె', '|'), ('వు', '|'), ('ల', '|'), ('లో', 'U'), ('సో', 'U'), ('కు', '|'), ('ట', '|'), ('మొ', '|'), ('ద', '|'), ('లు', '|'), ('గా', 'U'), ('బు', '|'), ('ల', '|'), ('కాం', 'U'), ('కు', '|'), ('ర', '|'), ('ము', '|'), ('మే', 'U'), ('న', '|'), ('బు', 'U'), ('ట్టు', '|'), ('వా', 'U'), ('డు', '|'), ('న', '|'), ('య', '|'), ('మై', 'U'), ('న', '|'), ('నీ', 'U'), ('ది', 'U'), ('వ్య', '|'), ('నా', 'U'), ('మ', '|'), ('కీ', 'U'), ('ర్త', '|'), ('న', '|'), ('లో', 'U'), ('న', '|'), ('మ', 'U'), ('గ్ను', '|'), ('డై', 'U'), ('దే', 'U'), ('హం', 'U'), ('బు', '|'), ('మ', '|'), ('ఱ', '|'), ('చు', '|'), ('వా', 'U'), ('డు', '|'), ('ఫా', 'U'), ('లం', 'U'), ('బు', '|'), ('తో', 'U'), ('నీ', 'U'), ('దు', '|'), ('పా', 'U'), ('ద', '|'), ('యు', 'U'), ('గ్మ', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('బ్రే', 'U'), ('మ', '|'), ('తో', 'U'), ('దం', 'U'), ('డ', '|'), ('మ', 'U'), ('ర్పిం', 'U'), ('చు', '|'), ('వా', 'U'), ('డు', '|'), ('హా', 'U'), ('పుం', 'U'), ('డ', '|'), ('రీ', 'U'), ('కా', 'U'), ('క్ష', '|'), ('హా', 'U'), ('రా', 'U'), ('మ', '|'), ('హ', '|'), ('రి', '|'), ('యం', 'U'), ('చు', '|'), ('వే', 'U'), ('డ్క', '|'), ('తో', 'U'), ('గే', 'U'), ('క', '|'), ('లు', '|'), ('వే', 'U'), ('యు', '|'), ('వా', 'U'), ('డు', '|')]</t>
+          <t>[('నీ', 'U'), ('క', '|'), ('థ', 'U'), ('ల్చె', '|'), ('వు', '|'), ('ల', '|'), ('లో', 'U'), ('సో', 'U'), ('కు', '|'), ('ట', '|'), ('మొ', '|'), ('ద', '|'), ('లు', '|'), ('గా', 'U'), ('బు', '|'), ('ల', '|'), ('కాం', 'U'), ('కు', '|'), ('ర', '|'), ('ము', '|'), ('మే', 'U'), ('న', '|'), ('బు', 'U'), ('ట్టు', '|'), ('వా', 'U'), ('డు', '|'), ('న', '|'), ('య', '|'), ('మై', 'U'), ('న', '|'), ('నీ', 'U'), ('ది', 'U'), ('వ్య', '|'), ('నా', 'U'), ('మ', '|'), ('కీ', 'U'), ('ర్త', '|'), ('న', '|'), ('లో', 'U'), ('న', '|'), ('మ', 'U'), ('గ్ను', '|'), ('డై', 'U'), ('దే', 'U'), ('హం', 'U'), ('బు', '|'), ('మ', '|'), ('ఱ', '|'), ('చు', '|'), ('వా', 'U'), ('డు', '|'), ('ఫా', 'U'), ('లం', 'U'), ('బు', '|'), ('తో', 'U'), ('నీ', 'U'), ('దు', '|'), ('పా', 'U'), ('ద', '|'), ('యు', 'U'), ('గ్మ', '|'), ('ము', '|'), ('న', '|'), ('కు', '|'), ('బ్రే', 'U'), ('మ', '|'), ('తో', 'U'), ('దం', 'U'), ('డ', '|'), ('మ', 'U'), ('ర్పిం', 'U'), ('చు', '|'), ('వా', 'U'), ('డు', '|'), ('హా', 'U'), ('పుం', 'U'), ('డ', '|'), ('రీ', 'U'), ('కా', 'U'), ('క్ష', '|'), ('హా', 'U'), ('రా', 'U'), ('మ', '|'), ('హ', '|'), ('రి', '|'), ('యం', 'U'), ('చు', '|'), ('వే', 'U'), ('డ్క', '|'), ('తో', 'U'), ('గే', 'U'), ('క', '|'), ('లు', '|'), ('వే', 'U'), ('యు', '|'), ('వా', 'U'), ('డు', '|')]</t>
         </is>
       </c>
     </row>
@@ -5938,7 +5938,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>[('ద', '|'), ('ను', '|'), ('జ', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('చ', '|'), ('క్ర', '|'), ('ధ', '|'), ('ర', '|'), ('నీ', 'U'), ('కు', '|'), ('దం', 'U'), ('డం', 'U'), ('బు', '|'), ('లిం', 'U'), ('ది', '|'), ('రా', 'U'), ('ధి', '|'), ('ప', '|'), ('నీ', 'U'), ('కు', '|'), ('వం', 'U'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('ప', '|'), ('తి', '|'), ('త', '|'), ('పా', 'U'), ('వ', '|'), ('న', '|'), ('నీ', 'U'), ('కు', '|'), ('బ', '|'), ('హు', '|'), ('న', '|'), ('మ', 'U'), ('స్కా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('నీ', 'U'), ('ర', '|'), ('జా', 'U'), ('త', '|'), ('ద', '|'), ('ళా', 'U'), ('క్ష', '|'), ('నీ', 'U'), ('కు', '|'), ('శ', '|'), ('ర', '|'), ('ణు', '|'), ('వా', 'U'), ('స', '|'), ('వా', 'U'), ('ర్చి', '|'), ('త', '|'), ('మే', 'U'), ('ఘ', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('నీ', 'U'), ('కు', '|'), ('శు', '|'), ('భం', 'U'), ('బు', '|'), ('మం', 'U'), ('ద', '|'), ('ర', '|'), ('ధ', '|'), ('ర', '|'), ('నీ', 'U'), ('కు', '|'), ('మం', 'U'), ('గ', '|'), ('ళం', 'U'), ('బు', '|'), ('కం', 'U'), ('బు', '|'), ('కం', 'U'), ('ధ', '|'), ('ర', '|'), ('శా', 'U'), ('ర్ఙ్గ', '|'), ('క', '|'), ('ర', '|'), ('నీ', 'U'), ('కు', '|'), ('భ', '|'), ('ద్రం', 'U'), ('బు', '|'), ('దీ', 'U'), ('న', '|'), ('ర', 'U'), ('క్ష', '|'), ('క', '|'), ('నీ', 'U'), ('కు', '|'), ('ది', 'U'), ('గ్వి', '|'), ('జ', '|'), ('య', '|'), ('ము', '|')]</t>
+          <t>[('ద', '|'), ('ను', '|'), ('జ', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('చ', '|'), ('క్ర', '|'), ('ధ', '|'), ('ర', '|'), ('నీ', 'U'), ('కు', '|'), ('దం', 'U'), ('డం', 'U'), ('బు', '|'), ('లిం', 'U'), ('ది', '|'), ('రా', 'U'), ('ధి', '|'), ('ప', '|'), ('నీ', 'U'), ('కు', '|'), ('వం', 'U'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('ప', '|'), ('తి', '|'), ('త', '|'), ('పా', 'U'), ('వ', '|'), ('న', '|'), ('నీ', 'U'), ('కు', '|'), ('బ', '|'), ('హు', '|'), ('న', '|'), ('మ', 'U'), ('స్కా', 'U'), ('ర', '|'), ('ము', 'U'), ('ల్నీ', 'U'), ('ర', '|'), ('జా', 'U'), ('త', '|'), ('ద', '|'), ('ళా', 'U'), ('క్ష', '|'), ('నీ', 'U'), ('కు', '|'), ('శ', '|'), ('ర', '|'), ('ణు', '|'), ('వా', 'U'), ('స', '|'), ('వా', 'U'), ('ర్చి', '|'), ('త', '|'), ('మే', 'U'), ('ఘ', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('నీ', 'U'), ('కు', '|'), ('శు', '|'), ('భం', 'U'), ('బు', '|'), ('మం', 'U'), ('ద', '|'), ('ర', '|'), ('ధ', '|'), ('ర', '|'), ('నీ', 'U'), ('కు', '|'), ('మం', 'U'), ('గ', '|'), ('ళం', 'U'), ('బు', '|'), ('కం', 'U'), ('బు', '|'), ('కం', 'U'), ('ధ', '|'), ('ర', '|'), ('శా', 'U'), ('ర్ఙ్గ', '|'), ('క', '|'), ('ర', '|'), ('నీ', 'U'), ('కు', '|'), ('భ', '|'), ('ద్రం', 'U'), ('బు', '|'), ('దీ', 'U'), ('న', '|'), ('ర', 'U'), ('క్ష', '|'), ('క', '|'), ('నీ', 'U'), ('కు', '|'), ('ది', 'U'), ('గ్వి', '|'), ('జ', '|'), ('య', '|'), ('ము', '|')]</t>
         </is>
       </c>
     </row>
@@ -6112,7 +6112,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>[('ల', 'U'), ('క్ష్మీ', 'U'), ('శ', '|'), ('నీ', 'U'), ('ది', 'U'), ('వ్య', '|'), ('ల', 'U'), ('క్ష', '|'), ('ణ', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('ల', '|'), ('వి', '|'), ('న', '|'), ('జా', 'U'), ('ల', '|'), ('కె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('వె', 'U'), ('ఱ్ఱి', '|'), ('నై', 'U'), ('తి', '|'), ('నా', 'U'), ('వె', 'U'), ('ఱ్ఱి', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('గా', 'U'), ('ఖం', 'U'), ('డిం', 'U'), ('చి', '|'), ('న', 'U'), ('న్ను', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('పు', '|'), ('మో', 'U'), ('న', '|'), ('ళి', '|'), ('న', '|'), ('నే', 'U'), ('త్ర', '|'), ('ని', 'U'), ('న్ను', '|'), ('నే', 'U'), ('న', 'U'), ('మ్మి', '|'), ('తి', '|'), ('ని', '|'), ('త', '|'), ('ర', '|'), ('దై', 'U'), ('వ', '|'), ('ము', '|'), ('ల', '|'), ('నే', 'U'), ('న', 'U'), ('మ్మ', '|'), ('లే', 'U'), ('దె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('నా', 'U'), ('గ', '|'), ('శ', '|'), ('య', '|'), ('న', '|'), ('కా', 'U'), ('పా', 'U'), ('డి', '|'), ('న', '|'), ('ను', '|'), ('నీ', 'U'), ('వె', '|'), ('క', 'U'), ('ష్ట', '|'), ('పె', 'U'), ('ట్టి', '|'), ('న', '|'), ('నీ', 'U'), ('వె', '|'), ('నీ', 'U'), ('పా', 'U'), ('ద', '|'), ('క', '|'), ('మ', '|'), ('ల', '|'), ('ముల్', 'U'), ('ని', '|'), ('ర', '|'), ('త', '|'), ('మే', 'U'), ('ను', '|')]</t>
+          <t>[('ల', 'U'), ('క్ష్మీ', 'U'), ('శ', '|'), ('నీ', 'U'), ('ది', 'U'), ('వ్య', '|'), ('ల', 'U'), ('క్ష', '|'), ('ణ', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('ల', '|'), ('వి', '|'), ('న', '|'), ('జా', 'U'), ('ల', '|'), ('కె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('వె', 'U'), ('ఱ్ఱి', '|'), ('నై', 'U'), ('తి', '|'), ('నా', 'U'), ('వె', 'U'), ('ఱ్ఱి', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('గా', 'U'), ('ఖం', 'U'), ('డిం', 'U'), ('చి', '|'), ('న', 'U'), ('న్ను', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('పు', '|'), ('మో', 'U'), ('న', '|'), ('ళి', '|'), ('న', '|'), ('నే', 'U'), ('త్ర', '|'), ('ని', 'U'), ('న్ను', '|'), ('నే', 'U'), ('న', 'U'), ('మ్మి', '|'), ('తి', '|'), ('ని', '|'), ('త', '|'), ('ర', '|'), ('దై', 'U'), ('వ', '|'), ('ము', '|'), ('ల', '|'), ('నే', 'U'), ('న', 'U'), ('మ్మ', '|'), ('లే', 'U'), ('దె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('నా', 'U'), ('గ', '|'), ('శ', '|'), ('య', '|'), ('న', '|'), ('కా', 'U'), ('పా', 'U'), ('డి', '|'), ('న', '|'), ('ను', '|'), ('నీ', 'U'), ('వె', '|'), ('క', 'U'), ('ష్ట', '|'), ('పె', 'U'), ('ట్టి', '|'), ('న', '|'), ('నీ', 'U'), ('వె', '|'), ('నీ', 'U'), ('పా', 'U'), ('ద', '|'), ('క', '|'), ('మ', '|'), ('ల', '|'), ('ము', 'U'), ('ల్ని', '|'), ('ర', '|'), ('త', '|'), ('మే', 'U'), ('ను', '|')]</t>
         </is>
       </c>
     </row>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('మ', '|'), ('రేం', 'U'), ('ద్ర', '|'), ('వి', '|'), ('ను', '|'), ('త', '|'), ('ని', 'U'), ('న్న', '|'), ('ను', '|'), ('స', '|'), ('రిం', 'U'), ('చి', '|'), ('న', '|'), ('వా', 'U'), ('రు', '|'), ('ము', 'U'), ('క్తి', '|'), ('బొం', 'U'), ('ది', '|'), ('రి', '|'), ('వే', 'U'), ('గ', '|'), ('ము', '|'), ('ద', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('నీ', 'U'), ('పా', 'U'), ('ద', '|'), ('ప', 'U'), ('ద్మ', '|'), ('ముల్', 'U'), ('నె', '|'), ('ఱ', '|'), ('న', 'U'), ('మ్మి', '|'), ('యు', 'U'), ('న్నా', 'U'), ('ను', '|'), ('నా', 'U'), ('కు', '|'), ('మో', 'U'), ('క్షం', 'U'), ('బి', 'U'), ('మ్ము', '|'), ('న', '|'), ('ళి', '|'), ('న', '|'), ('నే', 'U'), ('త్ర', '|'), ('కా', 'U'), ('చి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చు', '|'), ('నన్', 'U'), ('గ', '|'), ('డ', '|'), ('తే', 'U'), ('ర్చు', '|'), ('వే', 'U'), ('గ', '|'), ('మే', 'U'), ('నీ', 'U'), ('సే', 'U'), ('వ', '|'), ('కు', '|'), ('ని', '|'), ('జే', 'U'), ('యు', '|'), ('ని', 'U'), ('శ్చ', '|'), ('య', '|'), ('ము', '|'), ('గ', '|'), ('గా', 'U'), ('పా', 'U'), ('డి', '|'), ('న', '|'), ('ను', '|'), ('నీ', 'U'), ('కు', '|'), ('గైం', 'U'), ('క', 'U'), ('ర్య', '|'), ('ప', '|'), ('రు', '|'), ('డ', '|'), ('నై', 'U'), ('చె', '|'), ('ల', '|'), ('గి', '|'), ('నీ', 'U'), ('ప', '|'), ('ను', '|'), ('ల', '|'), ('ను', '|'), ('జే', 'U'), ('యు', '|'), ('వా', 'U'), ('డ', '|')]</t>
+          <t>[('అ', '|'), ('మ', '|'), ('రేం', 'U'), ('ద్ర', '|'), ('వి', '|'), ('ను', '|'), ('త', '|'), ('ని', 'U'), ('న్న', '|'), ('ను', '|'), ('స', '|'), ('రిం', 'U'), ('చి', '|'), ('న', '|'), ('వా', 'U'), ('రు', '|'), ('ము', 'U'), ('క్తి', '|'), ('బొం', 'U'), ('ది', '|'), ('రి', '|'), ('వే', 'U'), ('గ', '|'), ('ము', '|'), ('ద', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('నీ', 'U'), ('పా', 'U'), ('ద', '|'), ('ప', 'U'), ('ద్మ', '|'), ('ము', 'U'), ('ల్నె', '|'), ('ఱ', '|'), ('న', 'U'), ('మ్మి', '|'), ('యు', 'U'), ('న్నా', 'U'), ('ను', '|'), ('నా', 'U'), ('కు', '|'), ('మో', 'U'), ('క్షం', 'U'), ('బి', 'U'), ('మ్ము', '|'), ('న', '|'), ('ళి', '|'), ('న', '|'), ('నే', 'U'), ('త్ర', '|'), ('కా', 'U'), ('చి', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('చు', '|'), ('న', 'U'), ('న్గ', '|'), ('డ', '|'), ('తే', 'U'), ('ర్చు', '|'), ('వే', 'U'), ('గ', '|'), ('మే', 'U'), ('నీ', 'U'), ('సే', 'U'), ('వ', '|'), ('కు', '|'), ('ని', '|'), ('జే', 'U'), ('యు', '|'), ('ని', 'U'), ('శ్చ', '|'), ('య', '|'), ('ము', '|'), ('గ', '|'), ('గా', 'U'), ('పా', 'U'), ('డి', '|'), ('న', '|'), ('ను', '|'), ('నీ', 'U'), ('కు', '|'), ('గైం', 'U'), ('క', 'U'), ('ర్య', '|'), ('ప', '|'), ('రు', '|'), ('డ', '|'), ('నై', 'U'), ('చె', '|'), ('ల', '|'), ('గి', '|'), ('నీ', 'U'), ('ప', '|'), ('ను', '|'), ('ల', '|'), ('ను', '|'), ('జే', 'U'), ('యు', '|'), ('వా', 'U'), ('డ', '|')]</t>
         </is>
       </c>
     </row>
@@ -6198,7 +6198,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>[('న', '|'), ('ను', '|'), ('చు', '|'), ('బ', '|'), ('లు', '|'), ('మా', 'U'), ('ఱు', '|'), ('వే', 'U'), ('డె', '|'), ('ద', '|'), ('న', 'U'), ('బ్జ', '|'), ('నా', 'U'), ('భ', '|'), ('నా', 'U'), ('కు', '|'), ('బ్ర', 'U'), ('త్య', 'U'), ('క్ష', '|'), ('మ', '|'), ('గు', '|'), ('ము', '|'), ('నిన్', 'U'), ('న', 'U'), ('మ్మి', '|'), ('నా', 'U'), ('ను', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', '|'), ('శ్రీ', 'U'), ('ధ', 'U'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
+          <t>[('న', '|'), ('ను', '|'), ('చు', '|'), ('బ', '|'), ('లు', '|'), ('మా', 'U'), ('ఱు', '|'), ('వే', 'U'), ('డె', '|'), ('ద', '|'), ('న', 'U'), ('బ్జ', '|'), ('నా', 'U'), ('భ', '|'), ('నా', 'U'), ('కు', '|'), ('బ్ర', 'U'), ('త్య', 'U'), ('క్ష', '|'), ('మ', '|'), ('గు', '|'), ('ము', '|'), ('ని', 'U'), ('న్న', 'U'), ('మ్మి', '|'), ('నా', 'U'), ('ను', '|'), ('భూ', 'U'), ('ష', '|'), ('ణ', '|'), ('వి', '|'), ('కా', 'U'), ('స', '|'), ('శ్రీ', 'U'), ('ధ', 'U'), ('ర్మ', '|'), ('పు', '|'), ('ర', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('దు', 'U'), ('ష్ట', '|'), ('సం', 'U'), ('హా', 'U'), ('ర', '|'), ('న', '|'), ('ర', '|'), ('సిం', 'U'), ('హ', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('దూ', 'U'), ('ర', '|')]</t>
         </is>
       </c>
     </row>
@@ -6228,7 +6228,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>[('శే', 'U'), ('ష', 'U'), ('ప్ప', '|'), ('య', '|'), ('ను', '|'), ('క', '|'), ('వి', '|'), ('చె', 'U'), ('ప్పి', '|'), ('న', '|'), ('ప', 'U'), ('ద్య', '|'), ('ముల్', 'U'), ('చె', '|'), ('వు', '|'), ('ల', '|'), ('కా', 'U'), ('నం', 'U'), ('ద', '|'), ('మై', 'U'), ('చె', '|'), ('ల', '|'), ('గు', '|'), ('చుం', 'U'), ('డు', '|'), ('నే', 'U'), ('మ', '|'), ('ను', '|'), ('జుం', 'U'), ('డై', 'U'), ('న', '|'), ('నె', '|'), ('ల', '|'), ('మి', '|'), ('నీ', 'U'), ('శ', '|'), ('త', '|'), ('కం', 'U'), ('బు', '|'), ('భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('వి', 'U'), ('న్న', '|'), ('స', 'U'), ('త్ఫ', '|'), ('ల', '|'), ('ము', '|'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('జె', '|'), ('ల', '|'), ('గి', '|'), ('యీ', 'U'), ('ప', 'U'), ('ద్య', '|'), ('ముల్', 'U'), ('చే', 'U'), ('ర్చి', '|'), ('వ్రా', 'U'), ('సి', '|'), ('న', '|'), ('వా', 'U'), ('రు', '|'), ('క', '|'), ('మ', '|'), ('లా', 'U'), ('క్షు', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('ను', '|'), ('గాం', 'U'), ('తు', '|'), ('రె', '|'), ('పు', '|'), ('డు', '|'), ('నిం', 'U'), ('పు', '|'), ('గా', 'U'), ('బు', 'U'), ('స్త', '|'), ('కం', 'U'), ('బె', '|'), ('పు', '|'), ('డు', '|'), ('బూ', 'U'), ('జిం', 'U'), ('చి', '|'), ('న', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('జా', 'U'), ('లం', 'U'), ('బు', '|'), ('లు', '|'), ('దొ', '|'), ('ల', '|'), ('గి', '|'), ('పో', 'U'), ('వు', '|')]</t>
+          <t>[('శే', 'U'), ('ష', 'U'), ('ప్ప', '|'), ('య', '|'), ('ను', '|'), ('క', '|'), ('వి', '|'), ('చె', 'U'), ('ప్పి', '|'), ('న', '|'), ('ప', 'U'), ('ద్య', '|'), ('ము', 'U'), ('ల్చె', '|'), ('వు', '|'), ('ల', '|'), ('కా', 'U'), ('నం', 'U'), ('ద', '|'), ('మై', 'U'), ('చె', '|'), ('ల', '|'), ('గు', '|'), ('చుం', 'U'), ('డు', '|'), ('నే', 'U'), ('మ', '|'), ('ను', '|'), ('జుం', 'U'), ('డై', 'U'), ('న', '|'), ('నె', '|'), ('ల', '|'), ('మి', '|'), ('నీ', 'U'), ('శ', '|'), ('త', '|'), ('కం', 'U'), ('బు', '|'), ('భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('వి', 'U'), ('న్న', '|'), ('స', 'U'), ('త్ఫ', '|'), ('ల', '|'), ('ము', '|'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('జె', '|'), ('ల', '|'), ('గి', '|'), ('యీ', 'U'), ('ప', 'U'), ('ద్య', '|'), ('ము', 'U'), ('ల్చే', 'U'), ('ర్చి', '|'), ('వ్రా', 'U'), ('సి', '|'), ('న', '|'), ('వా', 'U'), ('రు', '|'), ('క', '|'), ('మ', '|'), ('లా', 'U'), ('క్షు', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('ను', '|'), ('గాం', 'U'), ('తు', '|'), ('రె', '|'), ('పు', '|'), ('డు', '|'), ('నిం', 'U'), ('పు', '|'), ('గా', 'U'), ('బు', 'U'), ('స్త', '|'), ('కం', 'U'), ('బె', '|'), ('పు', '|'), ('డు', '|'), ('బూ', 'U'), ('జిం', 'U'), ('చి', '|'), ('న', '|'), ('దు', '|'), ('రి', '|'), ('త', '|'), ('జా', 'U'), ('లం', 'U'), ('బు', '|'), ('లు', '|'), ('దొ', '|'), ('ల', '|'), ('గి', '|'), ('పో', 'U'), ('వు', '|')]</t>
         </is>
       </c>
     </row>
